--- a/data/02_intermediate/cleaned_Alonzo_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alonzo_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Os iusti, meditabitur Os iusti, meditabitur KOBK We that generation Over grind or die nigga Free tune Yeah All of my youngin's some savages Run in your trap, hit you up for them packages Rob you for bricks, finesse you for pounds Fuck all that talkin', they layin' you down That'll teach niggas 'bout playin' around Cartel connected, you better respect it Fuck up the paper, send you to your maker They layin' you 6 feet under the ground Ridin' with choppas, masked up like Chewbacca Got dreads like a Rasta, free all of my patnas This one for Sosa and Gio, I got yah Bentley, what's happenin'? Lil ToeNail what's crackin'? Dub, TG, DuRu what it do? Don Don, I see you laid back and be cool I'm fuckin' this ho and she wet as a pool I'm feedin' her dick and you buyin' her food Shoppin' and robbin' and robbin' and shoppin' Break bread with my niggas, you know how we rockin' Hittin' these licks and countin' this cake I don't give a fuck, I'm bearin' my face Hopin' I live to see me a new day E got that choppa and ready to spray I'm runnin' through bitches, what more can I say? Kush came from Cali, shout out to the Bay You might also like Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds I be with the dope boys like that nigga Ricky Money got me hypnotized like that nigga Biggie It's get rich or die tryin' like that nigga 50 And I'm about to go dumb like Timmy You ain't talkin' money, we look at you funny Lil nigga you wastin' your breath I told my niggas, I'll see you at dinner We eatin' 'til nothin' is left My bro in the kitchen, he chef But he keep the TEC, you would think he a ref That 30 on me like I'm Steph But all my bitches as jazzy as Jeff, Fresh Prince in the city of Queens Chasin' that sack 'til they crown me a king Sacramento home team I'm better than clever, ball harder than Webber whenever Whoever however they want it No competition, ain't got no opponents My seat at the throne, they can't stand that Cause I Eminem, Kim and Stan rap A nigga might start shootin' if I don't know y'all My city made a nigga's heart so cold, dog Your bitch got nice lips and I'm like road dog Pour 4's 'til I'm throwed off The biggest menace since Dennis and O-Dawg Aye Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds To keep it one hunnit, I'd rather get blunted These bitches be all for the smash I'd bleed for my brothers, I love 'em, we thuggin' They run in your spot for the cash A bitch nigga run up, I post up with gunnas It go down they bustin' your ass I'm up 'til the sun up, I'm juugin' with Bird No Stunna, we overgrind hard for this cash We ain't kiddin' like JK, my homeboy got an AK Only aimin' where your hood hang It rock-a-fella like Just Blaze The AK MJ how it give fades Pussy niggas Shaq feet, boy you been gay These niggas MIA like where the Heat stay I'ma catch 'em with the work in the breezeway Better freeze or catch a bullet like a Brees play We need cake like a B-Day I hang with my niggas, my niggas my woes Don't fuck with too many cause niggas be hoes Bitches ain't shit, they gon' fuck with your foe All for the smash so I'm passin' a ho Sprint to the money, I dash and I go Cause niggas be bitches and actin' like hoes Be screamin' Fuck 12 when they call em' the most Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Nigga go crazy on yappas Run with them choppas, cookin' up beef with that China I'm a young nigga who's solid Max on that shotta, Dub TG that's on my mama Show me a check or show me respect Either way it go, I'm comin' for necks These bitches around me, they know I got next You takin' her out, I'm takin' her mouth She strip on the side, I'm dick on the side Broke down a whole brick and got rich on the side Come to my crib, you see killas inside Shout out to Beata, I'm from the north side Bless up to Ghetty, I love the west side Thuggin', thuggin', thuggin', thuggin' it out Boy you shouldnt doubt, come to my city, you might not get out Niggas be claimin' they know me, don't know what you talkin' about Nigga don't try to lil' bro me, you'll get a gun in your mouth My nigga that's not a real Rollie, why are you playin' around? See you let these bitches control you, you are not fit for the crown Kings Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds64</t>
+          <t>Os iusti, meditabitur Os iusti, meditabitur KOBK We that generation Over grind or die nigga Free tune Yeah All of my youngin's some savages Run in your trap, hit you up for them packages Rob you for bricks, finesse you for pounds Fuck all that talkin', they layin' you down That'll teach niggas 'bout playin' around Cartel connected, you better respect it Fuck up the paper, send you to your maker They layin' you 6 feet under the ground Ridin' with choppas, masked up like Chewbacca Got dreads like a Rasta, free all of my patnas This one for Sosa and Gio, I got yah Bentley, what's happenin'? Lil ToeNail what's crackin'? Dub, TG, DuRu what it do? Don Don, I see you laid back and be cool I'm fuckin' this ho and she wet as a pool I'm feedin' her dick and you buyin' her food Shoppin' and robbin' and robbin' and shoppin' Break bread with my niggas, you know how we rockin' Hittin' these licks and countin' this cake I don't give a fuck, I'm bearin' my face Hopin' I live to see me a new day E got that choppa and ready to spray I'm runnin' through bitches, what more can I say? Kush came from Cali, shout out to the Bay Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds I be with the dope boys like that nigga Ricky Money got me hypnotized like that nigga Biggie It's get rich or die tryin' like that nigga 50 And I'm about to go dumb like Timmy You ain't talkin' money, we look at you funny Lil nigga you wastin' your breath I told my niggas, I'll see you at dinner We eatin' 'til nothin' is left My bro in the kitchen, he chef But he keep the TEC, you would think he a ref That 30 on me like I'm Steph But all my bitches as jazzy as Jeff, Fresh Prince in the city of Queens Chasin' that sack 'til they crown me a king Sacramento home team I'm better than clever, ball harder than Webber whenever Whoever however they want it No competition, ain't got no opponents My seat at the throne, they can't stand that Cause I Eminem, Kim and Stan rap A nigga might start shootin' if I don't know y'all My city made a nigga's heart so cold, dog Your bitch got nice lips and I'm like road dog Pour 4's 'til I'm throwed off The biggest menace since Dennis and O-Dawg Aye Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds To keep it one hunnit, I'd rather get blunted These bitches be all for the smash I'd bleed for my brothers, I love 'em, we thuggin' They run in your spot for the cash A bitch nigga run up, I post up with gunnas It go down they bustin' your ass I'm up 'til the sun up, I'm juugin' with Bird No Stunna, we overgrind hard for this cash We ain't kiddin' like JK, my homeboy got an AK Only aimin' where your hood hang It rock-a-fella like Just Blaze The AK MJ how it give fades Pussy niggas Shaq feet, boy you been gay These niggas MIA like where the Heat stay I'ma catch 'em with the work in the breezeway Better freeze or catch a bullet like a Brees play We need cake like a B-Day I hang with my niggas, my niggas my woes Don't fuck with too many cause niggas be hoes Bitches ain't shit, they gon' fuck with your foe All for the smash so I'm passin' a ho Sprint to the money, I dash and I go Cause niggas be bitches and actin' like hoes Be screamin' Fuck 12 when they call em' the most Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Nigga go crazy on yappas Run with them choppas, cookin' up beef with that China I'm a young nigga who's solid Max on that shotta, Dub TG that's on my mama Show me a check or show me respect Either way it go, I'm comin' for necks These bitches around me, they know I got next You takin' her out, I'm takin' her mouth She strip on the side, I'm dick on the side Broke down a whole brick and got rich on the side Come to my crib, you see killas inside Shout out to Beata, I'm from the north side Bless up to Ghetty, I love the west side Thuggin', thuggin', thuggin', thuggin' it out Boy you shouldnt doubt, come to my city, you might not get out Niggas be claimin' they know me, don't know what you talkin' about Nigga don't try to lil' bro me, you'll get a gun in your mouth My nigga that's not a real Rollie, why are you playin' around? See you let these bitches control you, you are not fit for the crown Kings Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds64</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You're a demon and I'm an angel Yeah, yeah, yeah, yeah You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? The way you broke my heart feels like you're doing surgery Diamonds in my head, yeah can't keep sleeping Faded out my mind every single weekend With a new bitch in the black Benz tweaking Pop a bean, molly in my cup now Both know, I just wanna be alone now I don't wanna call home now, faded with my bros now Don't got time for love guys You broke my heart down, can you calm down? You left me on the ground. there's no coming back now It's like you took the one and you , our love's so jaded that's why i'm getting faded Halo 3 energy sword to my throat, you're an infection- a real cutthroat But you keep texting, texting my line Do whatever with my love, I guess it's time to say goodbye I guess it's time to say goodbye, say goodbye to your lies Would you care if I died? Would you care if I died? Would you care if I died? You might also like You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? Every time you lie to me and every time you hurt me I will still love you, no matter if I'm hurting And every time you cry to me, I will be there by your side To wipe those tears from your eyes, to make you feel alright inside Are you here for the ride, till you ride down Made me feel alright, are you here to die?</t>
+          <t>You're a demon and I'm an angel Yeah, yeah, yeah, yeah You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? The way you broke my heart feels like you're doing surgery Diamonds in my head, yeah can't keep sleeping Faded out my mind every single weekend With a new bitch in the black Benz tweaking Pop a bean, molly in my cup now Both know, I just wanna be alone now I don't wanna call home now, faded with my bros now Don't got time for love guys You broke my heart down, can you calm down? You left me on the ground. there's no coming back now It's like you took the one and you , our love's so jaded that's why i'm getting faded Halo 3 energy sword to my throat, you're an infection- a real cutthroat But you keep texting, texting my line Do whatever with my love, I guess it's time to say goodbye I guess it's time to say goodbye, say goodbye to your lies Would you care if I died? Would you care if I died? Would you care if I died? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? Every time you lie to me and every time you hurt me I will still love you, no matter if I'm hurting And every time you cry to me, I will be there by your side To wipe those tears from your eyes, to make you feel alright inside Are you here for the ride, till you ride down Made me feel alright, are you here to die?</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wish on a rainbow Is all I can do Dream of the good times That we never knew No late nights alone in your arms I'll dream on Living in wonder Thinking of you Still looking for ways to uncover the truth You're so young is all they can say They don't know If I could change the way of the world I'd be your girl Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within You might also like Watching the others Chances drift by They'll never discover these feelings I hide Deep inside I'm falling apart All alone with a broken heart Thinking in silence Is all they allow These words still unspoken may never be found All these dreams one day will be mine They cross my mind My time has yet to come Until then Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Ooh, yeah Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within</t>
+          <t>Wish on a rainbow Is all I can do Dream of the good times That we never knew No late nights alone in your arms I'll dream on Living in wonder Thinking of you Still looking for ways to uncover the truth You're so young is all they can say They don't know If I could change the way of the world I'd be your girl Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Watching the others Chances drift by They'll never discover these feelings I hide Deep inside I'm falling apart All alone with a broken heart Thinking in silence Is all they allow These words still unspoken may never be found All these dreams one day will be mine They cross my mind My time has yet to come Until then Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Ooh, yeah Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I'm pulling leaches out of my hair like dandruff I'm tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? Not my fault, yeah you wanted me to burn burn Salt in the wound so you'll never return Grabbing on to any fucking hope That you'll still have control I hope that you break your bones Feelin' good skipping stones I feel bad for your current lover I hope one day their lucky and find another The same is not true for you i hope you fucking rot alone alonex8 I dig dirt what will I uncover Oh, oh, oh, oh You are a fucking dick undercover I'm doing you a favor not making it public Bitch, If you writ that google doc yeah I'm gonna publish I'm pulling leachs out of my hair like dandruff I tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? You might also likeHypocrite can't insult in return turn Fuck a friendship looking at the urn urn, urn Get the fuck off my skin I will never let you win Who the fuck let you in Shut the fuck up stupid bitch I've been so much happier since I left -eft No longer in the corner all by myself My words are no longer stuck in a cell When i was around you it was like a living hell I look back on the past and I wish I left sooner Never even really enjoyed your fucking humor When I talk to you I feel like a boomer I'm glad we never grew you would've been a tumor Now I'm scared of the ocean Cuz I don't want anymore leeches thinking I'm their friend I can't keep myself open, can't keep on hoping Cuz that's how it all began</t>
+          <t>I'm pulling leaches out of my hair like dandruff I'm tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? Not my fault, yeah you wanted me to burn burn Salt in the wound so you'll never return Grabbing on to any fucking hope That you'll still have control I hope that you break your bones Feelin' good skipping stones I feel bad for your current lover I hope one day their lucky and find another The same is not true for you i hope you fucking rot alone alonex8 I dig dirt what will I uncover Oh, oh, oh, oh You are a fucking dick undercover I'm doing you a favor not making it public Bitch, If you writ that google doc yeah I'm gonna publish I'm pulling leachs out of my hair like dandruff I tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? Hypocrite can't insult in return turn Fuck a friendship looking at the urn urn, urn Get the fuck off my skin I will never let you win Who the fuck let you in Shut the fuck up stupid bitch I've been so much happier since I left -eft No longer in the corner all by myself My words are no longer stuck in a cell When i was around you it was like a living hell I look back on the past and I wish I left sooner Never even really enjoyed your fucking humor When I talk to you I feel like a boomer I'm glad we never grew you would've been a tumor Now I'm scared of the ocean Cuz I don't want anymore leeches thinking I'm their friend I can't keep myself open, can't keep on hoping Cuz that's how it all began</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ahh, shit! There it is, there it is, boy Ahh, yeah! There it is, there it is, buddy Ahhh, yeah! Yeah, yeah, they seem to know the time but, um.. let's see.. Ah-ha, swing it It's my thing! Yo, it's my thing! The way I swing, not even an orangutan can hang on my DING-DING Saved by the bell rang I talk, yell, whisper, mumble street slang With no doubt, you tumble if I flip Don't make me shout with my vulgar lip A hip-hugger, I'll mug ya, if fun to know Slow and steady wins a race, I keeps a steady pace In a chase, I'm bookin', cookin' feet don't fail me 5-0's can't see me, catch me to jail me Walk the plank, ya damn dime droppers Snitches get stitches, why, oh, why does my trigger finger itches? Corrupt! I follow my nose it always knows it Open the draw bridge close it! Close it! A doo doo lyric, I snuck in 'cause I chose it Long ding-a-ling dong there, big booties grows it Up! Up!, up and awaaaay, we go across the border To Mexico, suck my toe Doo doo brown's my color No watered down, no cut A jewel to a fool is like pearls to big butt Ahh, swine, I strut on the sidewalk and don't touch the line Escalate, never decline I'm gonna get mine, don't try to take mine No, my kneecaps ain't blacker than my black behind The bush, I touch tush So beware of the grin of my evil eyeball glare I's a wiseguy, yeah, a smart alec Like it, or kiss me where the sun don't shine like metallic KA-BLAOW! You might also like It sounded like a rock They thought I didn't know! One-double-nine-tre, dumbbells I lift it Just for the taste of it, coke I won't sniff it Ya party pooper, you'll never stop my frontings Like Jesse Owens, Ill dust ya, I run tings! Popcorn mama, you can sniff my sock I's a hard headed nigga, my head is Like a rock So, so, leave me, B-boy, I'll be boppin' When I chug-a-lug alone, it ain't no stoppin' Hop in skin to skin, now I must stall Jim hats ain't even made like rubbermaid, at all If I be over stressed, over tryin' under arms Cookin' like onions, you'll be cryin' Boo-hoo-hoo! But I get the hoorays From sunrise, to sunset for days All in the Kool-Aid, don't know the flavor Taste buds are shot, waistlines duds I left the slammer on bad-ass behavior Call me Sub, I roll underground like C.H.U.D.'s Cease with the wack, I'm never ever booty over that I got my cootie shots for the cootie for the body The hottie, I might use Karate Snap back! 15 minutes I'll be off duty KA-BLAMM It sounded like a rock It's a break, Zev Love X and Subroc for Ninety Tre Crew massive deep Constipated Monkeys deficatin' that old hard shit And ya don't quit! It sounded like a what?! It sounded like a boulder It sounded like a Land, yo, slide up over I need my room, to huff and puff These bastards be soft like marshmallow fluff Step up, wrong move you catch a back smack Or a blackout, so be out, black! Let's play catch, a bad one ya caught it I'll take your thumpin' heart and smote it Then I grab my wood my dick, I grab my rope Over there ya got that same ole shit, here ya don't Oh, no, you don't, gimme that, back Now you sing the blues while your eye's black Don't need to flaunt, no need to front I see right through, you very blunt Attitude nonchalant, I do what I want If I be ghost, expect me back to haunt KA -BLAWW It sounded like a rock Constipated Monkeys doo-doo! Droppin' shit like that3</t>
+          <t>Ahh, shit! There it is, there it is, boy Ahh, yeah! There it is, there it is, buddy Ahhh, yeah! Yeah, yeah, they seem to know the time but, um.. let's see.. Ah-ha, swing it It's my thing! Yo, it's my thing! The way I swing, not even an orangutan can hang on my DING-DING Saved by the bell rang I talk, yell, whisper, mumble street slang With no doubt, you tumble if I flip Don't make me shout with my vulgar lip A hip-hugger, I'll mug ya, if fun to know Slow and steady wins a race, I keeps a steady pace In a chase, I'm bookin', cookin' feet don't fail me 5-0's can't see me, catch me to jail me Walk the plank, ya damn dime droppers Snitches get stitches, why, oh, why does my trigger finger itches? Corrupt! I follow my nose it always knows it Open the draw bridge close it! Close it! A doo doo lyric, I snuck in 'cause I chose it Long ding-a-ling dong there, big booties grows it Up! Up!, up and awaaaay, we go across the border To Mexico, suck my toe Doo doo brown's my color No watered down, no cut A jewel to a fool is like pearls to big butt Ahh, swine, I strut on the sidewalk and don't touch the line Escalate, never decline I'm gonna get mine, don't try to take mine No, my kneecaps ain't blacker than my black behind The bush, I touch tush So beware of the grin of my evil eyeball glare I's a wiseguy, yeah, a smart alec Like it, or kiss me where the sun don't shine like metallic KA-BLAOW! It sounded like a rock They thought I didn't know! One-double-nine-tre, dumbbells I lift it Just for the taste of it, coke I won't sniff it Ya party pooper, you'll never stop my frontings Like Jesse Owens, Ill dust ya, I run tings! Popcorn mama, you can sniff my sock I's a hard headed nigga, my head is Like a rock So, so, leave me, B-boy, I'll be boppin' When I chug-a-lug alone, it ain't no stoppin' Hop in skin to skin, now I must stall Jim hats ain't even made like rubbermaid, at all If I be over stressed, over tryin' under arms Cookin' like onions, you'll be cryin' Boo-hoo-hoo! But I get the hoorays From sunrise, to sunset for days All in the Kool-Aid, don't know the flavor Taste buds are shot, waistlines duds I left the slammer on bad-ass behavior Call me Sub, I roll underground like C.H.U.D.'s Cease with the wack, I'm never ever booty over that I got my cootie shots for the cootie for the body The hottie, I might use Karate Snap back! 15 minutes I'll be off duty KA-BLAMM It sounded like a rock It's a break, Zev Love X and Subroc for Ninety Tre Crew massive deep Constipated Monkeys deficatin' that old hard shit And ya don't quit! It sounded like a what?! It sounded like a boulder It sounded like a Land, yo, slide up over I need my room, to huff and puff These bastards be soft like marshmallow fluff Step up, wrong move you catch a back smack Or a blackout, so be out, black! Let's play catch, a bad one ya caught it I'll take your thumpin' heart and smote it Then I grab my wood my dick, I grab my rope Over there ya got that same ole shit, here ya don't Oh, no, you don't, gimme that, back Now you sing the blues while your eye's black Don't need to flaunt, no need to front I see right through, you very blunt Attitude nonchalant, I do what I want If I be ghost, expect me back to haunt KA -BLAWW It sounded like a rock Constipated Monkeys doo-doo! Droppin' shit like that3</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh I get a set alone Dancing with myself Greedy go-getter gone The luxury of stealth Obsidian the ha-a-a-a-a-all Dancing with myself I get into my bed I do it to myself To the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh To the lo-o-o, I go out Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal, by myself Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh I get into my head There's nothing to be addressed now There's nothing to get up about 'Cause we do it all the time The shepherdess undone She done it all again I get ready to go The greed go-getter come You might also like He going to the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh He going to the local-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh Too many Western men Top button left undone Imperious their signs The pedlars of luxury A greedy go-getter in the sky bar She on her own She get ready to go She does it with herself She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh8</t>
+          <t>Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh I get a set alone Dancing with myself Greedy go-getter gone The luxury of stealth Obsidian the ha-a-a-a-a-all Dancing with myself I get into my bed I do it to myself To the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh To the lo-o-o, I go out Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal, by myself Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh I get into my head There's nothing to be addressed now There's nothing to get up about 'Cause we do it all the time The shepherdess undone She done it all again I get ready to go The greed go-getter come He going to the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh He going to the local-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh Too many Western men Top button left undone Imperious their signs The pedlars of luxury A greedy go-getter in the sky bar She on her own She get ready to go She does it with herself She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh8</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KIRA what's happenin? DuRu I see you Magic, tell em watch that lean I strive to do better baby I'll die before I let em change me I'll die before I let em change me I strive to do better baby Now I know how putting on feels Niggas don't do it like I do it, so excuse me Stepping on stars fuck a bitch from Mars Gotta keep that five drop six in the bong is really what you heard Is really who we are who would ever think I'd make it this far Look at their faces mama I made it standing ovation Yeah I remember y'all used to talk about me Now them same niggas and them same hoes wanna hang around me Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream Still I ride still I ride And stay high and stay high Don't know night don't know night But get life but get life We alright we alright Now watch me lean while I lean lean while I do my thang You might also like And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream And the bitch can't tell me nothing bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting So what fools be humble You can hear me come My ? be flow Flow like my car running Watch out for them jackers trying to run me off my burner And I'm fresh from out the mall, so it make no earning 30's on the whip, ain't no scrubbing when I'm turn it Watch me lean while I watch me lean while I now your bitch get nervous Cause I drive fast like I'm always in a hurry And my fur seat on recline blowing purple pine You know my bitch dime there's thirty in my nine My pistol got no holster all my niggas killers Please do not provoke them they will bum one of you niggas And I'm on my way to mine VIP eternal DONTREZZ that I throw up Purple Kush and I roll up Watch me lean watch me lean, watch me lean better stay in your place Cause that 40 ho ? bust that bitch up in your place Now watch me lean while I lean lean while I do my thang clean1</t>
+          <t>KIRA what's happenin? DuRu I see you Magic, tell em watch that lean I strive to do better baby I'll die before I let em change me I'll die before I let em change me I strive to do better baby Now I know how putting on feels Niggas don't do it like I do it, so excuse me Stepping on stars fuck a bitch from Mars Gotta keep that five drop six in the bong is really what you heard Is really who we are who would ever think I'd make it this far Look at their faces mama I made it standing ovation Yeah I remember y'all used to talk about me Now them same niggas and them same hoes wanna hang around me Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream Still I ride still I ride And stay high and stay high Don't know night don't know night But get life but get life We alright we alright Now watch me lean while I lean lean while I do my thang And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream And the bitch can't tell me nothing bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting So what fools be humble You can hear me come My ? be flow Flow like my car running Watch out for them jackers trying to run me off my burner And I'm fresh from out the mall, so it make no earning 30's on the whip, ain't no scrubbing when I'm turn it Watch me lean while I watch me lean while I now your bitch get nervous Cause I drive fast like I'm always in a hurry And my fur seat on recline blowing purple pine You know my bitch dime there's thirty in my nine My pistol got no holster all my niggas killers Please do not provoke them they will bum one of you niggas And I'm on my way to mine VIP eternal DONTREZZ that I throw up Purple Kush and I roll up Watch me lean watch me lean, watch me lean better stay in your place Cause that 40 ho ? bust that bitch up in your place Now watch me lean while I lean lean while I do my thang clean1</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Alonzo_songs.xlsx
+++ b/data/02_intermediate/cleaned_Alonzo_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>GeniusName</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Lyrics</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GeniusName.3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Artist</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Lyrics</t>
         </is>
       </c>
     </row>
@@ -458,12 +478,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>#NewCharlotte</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Os iusti, meditabitur Os iusti, meditabitur KOBK We that generation Over grind or die nigga Free tune Yeah All of my youngin's some savages Run in your trap, hit you up for them packages Rob you for bricks, finesse you for pounds Fuck all that talkin', they layin' you down That'll teach niggas 'bout playin' around Cartel connected, you better respect it Fuck up the paper, send you to your maker They layin' you 6 feet under the ground Ridin' with choppas, masked up like Chewbacca Got dreads like a Rasta, free all of my patnas This one for Sosa and Gio, I got yah Bentley, what's happenin'? Lil ToeNail what's crackin'? Dub, TG, DuRu what it do? Don Don, I see you laid back and be cool I'm fuckin' this ho and she wet as a pool I'm feedin' her dick and you buyin' her food Shoppin' and robbin' and robbin' and shoppin' Break bread with my niggas, you know how we rockin' Hittin' these licks and countin' this cake I don't give a fuck, I'm bearin' my face Hopin' I live to see me a new day E got that choppa and ready to spray I'm runnin' through bitches, what more can I say? Kush came from Cali, shout out to the Bay Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds I be with the dope boys like that nigga Ricky Money got me hypnotized like that nigga Biggie It's get rich or die tryin' like that nigga 50 And I'm about to go dumb like Timmy You ain't talkin' money, we look at you funny Lil nigga you wastin' your breath I told my niggas, I'll see you at dinner We eatin' 'til nothin' is left My bro in the kitchen, he chef But he keep the TEC, you would think he a ref That 30 on me like I'm Steph But all my bitches as jazzy as Jeff, Fresh Prince in the city of Queens Chasin' that sack 'til they crown me a king Sacramento home team I'm better than clever, ball harder than Webber whenever Whoever however they want it No competition, ain't got no opponents My seat at the throne, they can't stand that Cause I Eminem, Kim and Stan rap A nigga might start shootin' if I don't know y'all My city made a nigga's heart so cold, dog Your bitch got nice lips and I'm like road dog Pour 4's 'til I'm throwed off The biggest menace since Dennis and O-Dawg Aye Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds To keep it one hunnit, I'd rather get blunted These bitches be all for the smash I'd bleed for my brothers, I love 'em, we thuggin' They run in your spot for the cash A bitch nigga run up, I post up with gunnas It go down they bustin' your ass I'm up 'til the sun up, I'm juugin' with Bird No Stunna, we overgrind hard for this cash We ain't kiddin' like JK, my homeboy got an AK Only aimin' where your hood hang It rock-a-fella like Just Blaze The AK MJ how it give fades Pussy niggas Shaq feet, boy you been gay These niggas MIA like where the Heat stay I'ma catch 'em with the work in the breezeway Better freeze or catch a bullet like a Brees play We need cake like a B-Day I hang with my niggas, my niggas my woes Don't fuck with too many cause niggas be hoes Bitches ain't shit, they gon' fuck with your foe All for the smash so I'm passin' a ho Sprint to the money, I dash and I go Cause niggas be bitches and actin' like hoes Be screamin' Fuck 12 when they call em' the most Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds Nigga go crazy on yappas Run with them choppas, cookin' up beef with that China I'm a young nigga who's solid Max on that shotta, Dub TG that's on my mama Show me a check or show me respect Either way it go, I'm comin' for necks These bitches around me, they know I got next You takin' her out, I'm takin' her mouth She strip on the side, I'm dick on the side Broke down a whole brick and got rich on the side Come to my crib, you see killas inside Shout out to Beata, I'm from the north side Bless up to Ghetty, I love the west side Thuggin', thuggin', thuggin', thuggin' it out Boy you shouldnt doubt, come to my city, you might not get out Niggas be claimin' they know me, don't know what you talkin' about Nigga don't try to lil' bro me, you'll get a gun in your mouth My nigga that's not a real Rollie, why are you playin' around? See you let these bitches control you, you are not fit for the crown Kings Niggas I know, they come shop for the work Lay you on the floor and take all of your cash Fuckin' these bitches, no cuffin' these bitches No lovin' these bitches, they all for the smash Niggas I know, they come shop for the bricks Lay you on the floor and take all of your pounds Got love for my niggas, shed blood for my niggas Bust slugs for my niggas, I'd die for my rounds64</t>
+          <t>S'il en a fallu du temps Pour pouvoir exprimer librement tous mes sentiments Oh, je suis juste le miroir de mon âme sans voile J'me livre à toi, j'me livre à toi, innocent Doucement, doucement, j'ai su donner sens à mes rêves Oui, prends-moi comme je suis car je n'aime pas moi-même Toutes les lignes de mon histoire me ressemblent à 100 Toutes les lignes de mon histoire me ressemblent à 100 J'ai grandi dans les quartiers nord de Marseille, mamée J'en ai vécu des choses, à 17 ans j'ai eu mon premier gosse, papé Le rap game nous fait perdre la tête, restons lucide C'est vrai, derrière chaque grand homme se cache une femme</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -475,12 +515,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Faded Out My Mind</t>
+          <t>120 €</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>You're a demon and I'm an angel Yeah, yeah, yeah, yeah You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel helpful? The way you broke my heart feels like you're doing surgery Diamonds in my head, yeah can't keep sleeping Faded out my mind every single weekend With a new bitch in the black Benz tweaking Pop a bean, molly in my cup now Both know, I just wanna be alone now I don't wanna call home now, faded with my bros now Don't got time for love guys You broke my heart down, can you calm down? You left me on the ground. there's no coming back now It's like you took the one and you , our love's so jaded that's why i'm getting faded Halo 3 energy sword to my throat, you're an infection- a real cutthroat But you keep texting, texting my line Do whatever with my love, I guess it's time to say goodbye I guess it's time to say goodbye, say goodbye to your lies Would you care if I died? Would you care if I died? Would you care if I died? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? You're a demon and I'm an angel I'ma go to heaven and you gon go to hell I could see it in your eyes, every single lie You cast a love spell, do you feel healthy? Every time you lie to me and every time you hurt me I will still love you, no matter if I'm hurting And every time you cry to me, I will be there by your side To wipe those tears from your eyes, to make you feel alright inside Are you here for the ride, till you ride down Made me feel alright, are you here to die?</t>
+          <t>L'orgueil de Végéta avec le M Le M, j'ai sorti la gari en pack M Pack M Comme Ryu, j'envoie des Hadouken 'douken, elle a rêvé qu'un soir, je la ken Je la ken Elle a les mazos couleur kiwi Kiwi, j'envoie un p'tit m'acheter en Piwi En Piwi On a des réseaux, tu as la Wi-Fi Wi-Fi, je rappe depuis l'époque chaîne hifi Chaîne hifi Depuis Ill, Cassidy et Hifi, j'kicke, arrête-moi ta comédie Comédie Tu veux featr, faut que tu médites Tu médites, tu vux feater, faut qu'tu mérites Tu mérites Cent vingt euros, le plein tous les trois jours, à Monaco sur du Tupac Shakur Je suis monté juste pour faire les courses et j'en ai profité pour voir la course, le Grand Prix Cent vingt euros, le plein tous les trois jours, à Monaco sur du Tupac Shakur Je suis monté juste pour faire les courses et j'en ai profité pour voir la course Cent vingt euros, le plein tous les trois jours Cent vingt euros, le plein tous les trois jours À Monaco sur du Tupac Shakur À Monaco sur du Tupac Shakur, ouais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais Pour qui tu te prends ? Tu es trop fada Fada, attends que je rallume mon gros zdeh Gros zdeh J'ai la même montre que Federer, Sisi Impératrice, Romy Schneider Schneider C'était pour la rime, ça n'a pas d'sens Ah-ah, bats les couilles, j'ai des gros hits en fréquence Fréquence J'te cala pas, j'suis en kiffance comme N.A.P.S, vive l'indépendance Vive l'indépendance Comme Sergio Ramos, j'ai pas joué mais j'suis quand même payé Vous pouvez aboyer, j'vais quand même vous broyer Vous payez le loyer, ensuite, vous renvoyer, puta de la calle Ensuite, vous rayer d'mon cahier au marqueur Au marqueur J'vérifie toujours si j'ai un traqueur Un traqueur Je connais des gratteurs, des encodeurs depuis la prise péritel du décodeur Capo Cent vingt euros, le plein tous les trois jours, à Monaco sur du Tupac Shakur Je suis monté juste pour faire les courses et j'en ai profité pour voir la course Cent vingt euros, le plein tous les trois jours Cent vingt euros, le plein tous les trois jours À Monaco sur du Tupac Shakur À Monaco sur du Tupac Shakur, ouais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais On a zoné Na-na, na-na-na pour la monnaie Na-na, na-na-na J'ai charbonné Na-na, na-na-na, tu nous connais, connais, connais</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -492,12 +552,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Late Nights</t>
+          <t>280</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Wish on a rainbow Is all I can do Dream of the good times That we never knew No late nights alone in your arms I'll dream on Living in wonder Thinking of you Still looking for ways to uncover the truth You're so young is all they can say They don't know If I could change the way of the world I'd be your girl Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Watching the others Chances drift by They'll never discover these feelings I hide Deep inside I'm falling apart All alone with a broken heart Thinking in silence Is all they allow These words still unspoken may never be found All these dreams one day will be mine They cross my mind My time has yet to come Until then Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Ooh, yeah Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within Too many walls Have been built in between us Too many dreams Have been shattered around us If I seem to give up They'll still never win Deep in my heart I know the strength is within</t>
+          <t>SNK Music Productions Kassim, moi, j'aime la guitare comme un Marseillais Mais Zak', tu viens d'Roubaix, tu peux pas perdre le Nord Avant d'passer à l'acte, ils s'en mettent plein le nez Il s'comporte comme une escorte qui bicrave son corps Ces BDH savent que nous coller, du plomb dans les mollets, tu balances l'équipe et tu meurs On demande rien, on a dû voler, se sauver de Goret, du papier d toutes les couleurs Dans la sacoch Gucci à deux points, ça tourne aux Baumettes comme dans un rond-point, frère, c'est le destin Au quartier, ça embauche tout près du porche, nique le proc', on a trop faim Et je suis pas leur grand-frère, ça vend la drogua, salaire à Pogba, ça lève en Honda La remontada depuis l'Espana jusqu'à Marsiglia, S3 Et ça te sort la gui'-gui', des délits de fuite avec les vils-ci, ombri Chaud comme les Shelby, c'est Roubaix, c'est le treize, on est dans toutes les combines Toutes les combines À deux quatre-vingts, à deux doigts d'crever Maman a b'soin d'moi, donc j'reste à son chevet À deux quatre-vingts, à deux doigts d'crever, yeah Kassim, moi, j'aime la guitare comme un Marseillais Mais Zak', tu viens d'Roubaix, tu peux pas perdre le Nord Avant d'passer à l'acte, ils s'en mettent plein le nez Il s'comporte comme une escorte qui bicrave son corps J'te dirais pas qu'j'ai mal au cur On détaille, on esquive la flicaille toute l'année Une rafale, normal, tu détales, bah ouais On détaille, on esquive la flicaille toute l'année Une rafale, normal, tu détales, bah ouais Atmosphère bizarre, devant l'four, y a du blizzard, les porcs se sentent forts à plusieurs La tess', c'est une pharmacie qui ouvre tous les jours à dix heures Et pour qu'elle reste fière de moi, faut pas qu'yema soit au courante Argent, problème, tout rentre, j'suis déferré, la boule au ventre Me colle pas, t'as sucé untel ou untel, sucer pour des tales et détale Oh, ça m'démange de réinvestir l'avance et tout re-bicrave au détail Faut qu'on taille, frère, à Roubaix, il caille Ça vend d'l'écaille, du shit, d'la beuh, d'la came, viens pas t'plaindre à l'accueil si t'as pécho d'la caille À deux quatre-vingts, à deux doigts d'crever Maman a b'soin d'moi, donc j'reste à son chevet À deux quatre-vingts, à deux doigts d'crever, yeah Kassim, moi, j'aime la guitare comme un Marseillais Mais Zak', tu viens d'Roubaix, tu peux pas perdre le Nord Avant d'passer à l'acte, ils s'en mettent plein le nez Il s'comporte comme une escorte qui bicrave son corps J'te dirais pas qu'j'ai mal au cur On détaille, on esquive la flicaille toute l'année Une rafale, normal, tu détales, bah ouais On détaille, on esquive la flicaille toute l'année Une rafale, normal, tu détales, bah ouais Ouais Toute l'année Bah ouais Toute l'année</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -509,12 +589,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Salt Burn</t>
+          <t>Abstrait</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>I'm pulling leaches out of my hair like dandruff I'm tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? Not my fault, yeah you wanted me to burn burn Salt in the wound so you'll never return Grabbing on to any fucking hope That you'll still have control I hope that you break your bones Feelin' good skipping stones I feel bad for your current lover I hope one day their lucky and find another The same is not true for you i hope you fucking rot alone alonex8 I dig dirt what will I uncover Oh, oh, oh, oh You are a fucking dick undercover I'm doing you a favor not making it public Bitch, If you writ that google doc yeah I'm gonna publish I'm pulling leachs out of my hair like dandruff I tired of taking your shit, I'm gonna stand up I don't even wanna fucking talk to you Cuz what did I even do to you Fake shit is cue to cue Am I really just a view to you? Hypocrite can't insult in return turn Fuck a friendship looking at the urn urn, urn Get the fuck off my skin I will never let you win Who the fuck let you in Shut the fuck up stupid bitch I've been so much happier since I left -eft No longer in the corner all by myself My words are no longer stuck in a cell When i was around you it was like a living hell I look back on the past and I wish I left sooner Never even really enjoyed your fucking humor When I talk to you I feel like a boomer I'm glad we never grew you would've been a tumor Now I'm scared of the ocean Cuz I don't want anymore leeches thinking I'm their friend I can't keep myself open, can't keep on hoping Cuz that's how it all began</t>
+          <t>... Alonz', Kassim Vinc' m'a dit un jour Mon sac de soucis est trop lourd Je lui ai dit d'en jeter un peu le long du parcours Lève la tête mamé, on voit comme des aveugles Les actes sont muets et la raison est devenue sourde Montagne de problèmes, surmontés sans tire-fesse On donne des coups mais au final combien encaissent ? C'est la dramatik music qui nous apaise Ce texte prend comme la clope du condamné à mort Y'a plus de saisons, bientôt il neigera au Comores Qui nous sommes au fond ? Peut-être qu'une âme qui s'est faite prêtée d'un corps Jeune, entends, jeune Ne saute pas les épreuves d'la vie sans élan Notre cerveau, c'est le bus, y'a de tout Les frères deviennent des légumes sortis du coma Recoudre les trous C'est mieux que de verser un peu de bière pour ceux qui sont plus là Au bout du compte on s'retrouve à s'demander qui de l'uf ou la poule est venu le premier Heureusement qu'on croit en Dieu, on travaillera au soleil pour manger à l'ombre On travaillera au soleil pour manger à l'ombre On travaillera au soleil pour manger à l'ombre On travaillera au soleil pour manger à l'ombre On travaillera au soleil pour manger à l'ombre J'meurs cinq fois par jour car je fuis mes obligations Ne me parle pas de rap, j'arrive à saturation Mes conversations avec la guitare se retrouvent sur internet Dans les chambres des surs, dans les voitures le soir Qui je suis au fond ? Accroché à mes mots, je parcours le monde Traduis-moi en n'importe quelle langue, ressens les ondes Faut arrondir les angles, on va faire des minots Faut pas qu'ils s'prennent la pointe, la blessure sera immonde Accroché à mes mots, je parcours le monde Traduis-moi en n'importe quelle langue, ressens les ondes Faut arrondir les angles, on va faire des minots Faut pas qu'ils s'prennent la pointe, la blessure sera immonde On s'ennuie tellement, on s'ennuie tellement J'pense pas être un modèle, ni même un top model Dans les soirées mondaines, y'a que des porte-jarretelles L'argent le matériel, les pas belles deviennent belles C'est abstrait, c'est dur à comprendre, mais tout ça nous gène Dans l'équilibre familial qu'on désire avoir avec notre douce Celle qui nous comprend mieux que tous Même quand on fuit nos responsabilités Un homme c'est lâche ou sa reste un enfant à jamais J'sais pas, casse pas les couilles, hein Déjà qu'c'est, hein, déjà qu'c'est, c'est chaud dans le cerveau papé Les gens ils portent des jugements comme ça normal, sans te connaître T'es un fada ou quoi ? Oh, tu te cherches comme je me cherche papé N'oublies jamais x2 C'est chaud, c'est chaud, c'est chaud Mais tant pis, je tiens, mais tant pis, tu tiens C'est chaud, c'est chaud, c'est chaud Mais tant pis, je tiens, mais tant pis, tu tiens Mais tant pis, je tiens C'est chaud, brûlant, mais tant pis, je tiens Et oui, t'as vu la gamberge d'un jeune de 26 ans en France Du côté droit, du côté gauche Le cul assis entre ces chaises papé C'est le bordel organisé dans le cerveau Mais on avance comme on peut, pas comme on veut, enculé Eh ouais, mais tant pis je tiens Mais tant pis, je tiens, mais tant pis, tu tiens</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -526,12 +626,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Same Ole Shit</t>
+          <t>À la Dafpunck</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ahh, shit! There it is, there it is, boy Ahh, yeah! There it is, there it is, buddy Ahhh, yeah! Yeah, yeah, they seem to know the time but, um.. let's see.. Ah-ha, swing it It's my thing! Yo, it's my thing! The way I swing, not even an orangutan can hang on my DING-DING Saved by the bell rang I talk, yell, whisper, mumble street slang With no doubt, you tumble if I flip Don't make me shout with my vulgar lip A hip-hugger, I'll mug ya, if fun to know Slow and steady wins a race, I keeps a steady pace In a chase, I'm bookin', cookin' feet don't fail me 5-0's can't see me, catch me to jail me Walk the plank, ya damn dime droppers Snitches get stitches, why, oh, why does my trigger finger itches? Corrupt! I follow my nose it always knows it Open the draw bridge close it! Close it! A doo doo lyric, I snuck in 'cause I chose it Long ding-a-ling dong there, big booties grows it Up! Up!, up and awaaaay, we go across the border To Mexico, suck my toe Doo doo brown's my color No watered down, no cut A jewel to a fool is like pearls to big butt Ahh, swine, I strut on the sidewalk and don't touch the line Escalate, never decline I'm gonna get mine, don't try to take mine No, my kneecaps ain't blacker than my black behind The bush, I touch tush So beware of the grin of my evil eyeball glare I's a wiseguy, yeah, a smart alec Like it, or kiss me where the sun don't shine like metallic KA-BLAOW! It sounded like a rock They thought I didn't know! One-double-nine-tre, dumbbells I lift it Just for the taste of it, coke I won't sniff it Ya party pooper, you'll never stop my frontings Like Jesse Owens, Ill dust ya, I run tings! Popcorn mama, you can sniff my sock I's a hard headed nigga, my head is Like a rock So, so, leave me, B-boy, I'll be boppin' When I chug-a-lug alone, it ain't no stoppin' Hop in skin to skin, now I must stall Jim hats ain't even made like rubbermaid, at all If I be over stressed, over tryin' under arms Cookin' like onions, you'll be cryin' Boo-hoo-hoo! But I get the hoorays From sunrise, to sunset for days All in the Kool-Aid, don't know the flavor Taste buds are shot, waistlines duds I left the slammer on bad-ass behavior Call me Sub, I roll underground like C.H.U.D.'s Cease with the wack, I'm never ever booty over that I got my cootie shots for the cootie for the body The hottie, I might use Karate Snap back! 15 minutes I'll be off duty KA-BLAMM It sounded like a rock It's a break, Zev Love X and Subroc for Ninety Tre Crew massive deep Constipated Monkeys deficatin' that old hard shit And ya don't quit! It sounded like a what?! It sounded like a boulder It sounded like a Land, yo, slide up over I need my room, to huff and puff These bastards be soft like marshmallow fluff Step up, wrong move you catch a back smack Or a blackout, so be out, black! Let's play catch, a bad one ya caught it I'll take your thumpin' heart and smote it Then I grab my wood my dick, I grab my rope Over there ya got that same ole shit, here ya don't Oh, no, you don't, gimme that, back Now you sing the blues while your eye's black Don't need to flaunt, no need to front I see right through, you very blunt Attitude nonchalant, I do what I want If I be ghost, expect me back to haunt KA -BLAWW It sounded like a rock Constipated Monkeys doo-doo! Droppin' shit like that3</t>
+          <t>Quand on va voir sa pute, on met un casque à la Daft Punk, mamé François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, coup d'queue, coup d'cur Casque à la Daft Punk, minimum pour une avaleuse Casque à la Daft Punk, minimum pour un rafaleur Une demi-heure minimum sur ton postérieur T'es un voleur, un cambrioleur Pied-de-biche, gants, minimum si tu cherches de l'or Si le bélier frappe ta porte à six heures, surtout ferme-là Si pendant ta peine, ta halal est hnine, vas-y, marie-la Cramé comme la Louboutin de Chine, ta meuf a un faux sac à main La B.A.C. nous bouffe la vie, la chatte à la fille à De Villepin Devine 'sin, devine 'sin qui on a vu sur un deux-roues Avec sa sousou, bisous-bisous sur la che-bou François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter Avant d'la quen', t'as pris du Cialis, à la Daft Punk Tu donnes des infos à la police ? À la Daft Punk T'as l'hijab mais tous les soirs tu glisses, à la Daft Punk Quoi ? À la Daft Punk, à la-à la Daft Punk Tu vas t'arrêter, j'sais qu't'as cliqué, t'as pas liké devant ton pédé Mais t'es piqué, j'vais t'expliquer, j'vais tout clipper, tu vas l'quitter Quoi ? À la Daft Punk, tu kiffes sur ta belle-sur Tu dis qu't'es un braqueur mais seul ton phone a un chargeur C'est toi qui cuisine ? T'as appelé un traiteur J'reviens dans un quart d'heure, fais-moi des pâtes au beurre Pâtes au beurre, président, qui on a vu sur un deux-roues Avec sa sousou, bisous-bisous sur la che-bou ? François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter François Hollande roule en scooter, Hollande roule en scooter Hollande roule en scooter, Hollande roule en scooter Et ouais, j'vais faire comme monsieur le président J'vais niquer le rap français à visage découvert Hey, pour ceux qui m'attendent RDC, je le sortirai quand je voudrai Attendez rien mais attendez-vous à tout 2014 mamé ! Hey, comorien des sarcophages, comorien nouveau Spike Miller, on les baise !14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -543,12 +663,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SET</t>
+          <t>Alicante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh I get a set alone Dancing with myself Greedy go-getter gone The luxury of stealth Obsidian the ha-a-a-a-a-all Dancing with myself I get into my bed I do it to myself To the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh To the lo-o-o, I go out Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal, by myself Oh, oh-oh, oh-oh-oh, oh, oh To the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh I get into my head There's nothing to be addressed now There's nothing to get up about 'Cause we do it all the time The shepherdess undone She done it all again I get ready to go The greed go-getter come He going to the local Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh He going to the local-oh-oh Oh, oh-oh, oh-oh-oh, oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh He going to the lo-o-o-o-ocal Oh, oh-oh, oh-oh-oh, oh, oh Too many Western men Top button left undone Imperious their signs The pedlars of luxury A greedy go-getter in the sky bar She on her own She get ready to go She does it with herself She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh-oh-oh She does it with herself Oh, oh-oh, oh-oh-oh, oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh She does it on her o-o-o-o-o-own Oh, oh-oh, oh-oh-oh, oh, oh8</t>
+          <t>Spike Miller, Miller Spike Miller, Miller Et oui, c'est nous les princes de la ville, on a fait des TP, mon bébé On va faire un tour pas loin de la côte, histoire de dépenser du papier C'est chaud dans le four, en bas de nos tours, les petits sont revenus gantés C'est chaud dans le four, en bas de nos tours, les petits reviennent d'Alicante Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé On va faire un tour mmh mmh, histoire de dépenser du papier Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé C'est chaud dans le four mmh mmh, les petits reviennent d'Alicante Les petits reviennent d'Alicante, c'est chaud, je ne vais rien t'inventer Le quartier est mal fréquenté, tu fais un trou, tu te fais planter La daronne en mauvaise santé, le daron se ruine au quinté Tu sais plus sur qui tu peux compter, tu peux vite finir au Pontet La sacoche et la Asics, ça se réchauffe avec Quechua Et la vie défile aux assises pendant que le guetteur est sur l'toit Y a les empreintes dans l'Audi, toujours l'impression d'être maudit Le four est en bas du logis, pour faire des sous, y a plus de logique Commissions rogatoires, mis dans des sales histoires Bataille de territoires, faut le voir pour le croire Kalash' tire dans le noir, c'est p't-être ton dernier soir C'est p't-être ton dernier soir, chahid et lève le doigt Que des donneurs de go, ça poucave à gogo Fais la cavale, négro, y aura plus d'amigo La rue fait pas d'cadeau, tu dois deux-trois kilos Hendeck à la moto, hendeck à la moto Et oui, c'est nous les princes de la ville, on a fait des TP, mon bébé On va faire un tour pas loin de la côte, histoire de dépenser du papier C'est chaud dans le four, en bas de nos tours, les petits sont revenus gantés C'est chaud dans le four, en bas de nos tours, les petits reviennent d'Alicante Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé On va faire un tour mmh mmh, histoire de dépenser du papier Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé C'est chaud dans le four mmh mmh, les petits reviennent d'Alicante Y a pas d'danger dans ma khapta, ça s'tape pas pour des tains-p' d'Insta' Menotté à l'arrière dans leur Passat, comme d'hab', j'suis relou comme un cadavre J'avale pas leurs salades, j'tape pas dans leur plat d'pâtes Fils de pute, j'parle pas, j'sors de garde à v' J'remets mes lacets et mes sabats, eh j'remets mes lacets, mes sabats Malaga-Alicante, j'connais l'trajet, traficante, deux-trois tes-tê Cagoulé, ganté, ça parle en méth', ça parle en thé, ont pas un G' RS chargé, ouvreuse, fermeture, poudreuse, perte de thunes, fils de pute Si tu veux faire ton trou, creuse, pour toi, j'peux rien faire de plus J'ai fait les choses avant qu'tu m'croies, dans la de-mer comme au dépôt J'ai l'cur sur la main et quand tu l'vois, tu m'arraches le bras jusqu'à l'épaule Une mère qui pleure, ça fait plus peur, ils croient plus en Dieu, ils ont plus d'cur Pour rien, ça tire, peine à deux chiffres, histoire de shit, histoire de sur gros, c'est la zone Et oui, c'est nous les princes de la ville, on a fait des TP, mon bébé On va faire un tour pas loin de la côte, histoire de dépenser du papier C'est chaud dans le four, en bas de nos tours, les petits sont revenus gantés C'est chaud dans le four, en bas de nos tours, les petits reviennent d'Alicante Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé On va faire un tour mmh mmh, histoire de dépenser du papier Et oui, c'est nous mmh mmh, on a fait des TP, mon bébé C'est chaud dans le four mmh mmh, les petits reviennent d'Alicante Parlons haut, parlons billets, parlons kush Faire du sale, t'auras facilité la tâche Les tits-pe vont remonter d'Alicante Les tits-pe vont remonter d'Alicante Palette au volant, palette dans la boîte à chaussures, mamé Niro, Alonzo, breh1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
@@ -560,12 +700,7395 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Social Status</t>
+          <t>Alif</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>KIRA what's happenin? DuRu I see you Magic, tell em watch that lean I strive to do better baby I'll die before I let em change me I'll die before I let em change me I strive to do better baby Now I know how putting on feels Niggas don't do it like I do it, so excuse me Stepping on stars fuck a bitch from Mars Gotta keep that five drop six in the bong is really what you heard Is really who we are who would ever think I'd make it this far Look at their faces mama I made it standing ovation Yeah I remember y'all used to talk about me Now them same niggas and them same hoes wanna hang around me Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream Still I ride still I ride And stay high and stay high Don't know night don't know night But get life but get life We alright we alright Now watch me lean while I lean lean while I do my thang And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting And that bitch can't tell me nothing and that bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting Now watch me lean while I lean lean while I do my thang clean And I'm stacking cream this was all a dream And the bitch can't tell me nothing bitch can't tell me nothing Nigga I feel like stunting nigga I feel like stunting So what fools be humble You can hear me come My ? be flow Flow like my car running Watch out for them jackers trying to run me off my burner And I'm fresh from out the mall, so it make no earning 30's on the whip, ain't no scrubbing when I'm turn it Watch me lean while I watch me lean while I now your bitch get nervous Cause I drive fast like I'm always in a hurry And my fur seat on recline blowing purple pine You know my bitch dime there's thirty in my nine My pistol got no holster all my niggas killers Please do not provoke them they will bum one of you niggas And I'm on my way to mine VIP eternal DONTREZZ that I throw up Purple Kush and I roll up Watch me lean watch me lean, watch me lean better stay in your place Cause that 40 ho ? bust that bitch up in your place Now watch me lean while I lean lean while I do my thang clean1</t>
+          <t>Alif Le A, Alonzo Le cur froid, les yeux perdus vers l'horizon, j'trouve pas l'soleil j'trouve pas l'soleil Dans la zone, je me sens comme à la maison, la lune me surveille la lune me surveille Tu m'critiques, tu crois vraiment que tu as raison, faut qu'tu t'réveilles faut qu'tu t'réveilles Y a des frères qui purgent leurs peines sur mes chansons pour trouver l'sommeil trouver l'sommeil Depuis 2002, je fais le taf Fxnder, projets j'enchaîne, projets j'enchaîne, y en a pas 36 comme moi non J'ai mis le mode S et c'est comme ça Pas question de foiré, puto, calma, tu aimes quand je saigne, quand je vais mal Mais je suis béni, j'ai un bon cur comme Béné Parle à l'avocat, j'suis en studio Fxnder, vingt ans que c'est mon quotidien Tu veux que j'arrête mais non, mais non jamais Arrête de me mettre les yeux pour qu'ce soit terminé ah Reconnu que par les vrais, j'avoue que j'ai pris des sommes, je les hais, j'peux rien leur laisser Ils m'ont vu m'en sortir dans le ghetto, dans le ghetto Tu t'rappelles ? Tu t'rappelles ? Même masa veut m'écraser comme un mégot, comme un mégot ouh, ouh Le cur froid, les yeux perdus vers l'horizon, j'trouve pas l'soleil j'trouve pas l'soleil Dans la zone, je me sens comme à la maison, la lune me surveille la lune me surveille Tu m'critiques, tu crois vraiment que tu as raison, faut qu'tu t'réveilles faut qu'tu t'réveilles Y a des frères qui purgent leurs peines sur mes chansons pour trouver l'sommeil trouver l'sommeil J'ai dû plonger dans l'alcool pour noyer mes soucis starfoullah J'gambergeais comme un ancien, j'ai grandi trop vite trop vite, trop vite J'avais plus d'école, j'élevais ma fille ma fille, ma fille J'traînais quand même dans le hall tous les jours sous shit On faisait dans le vol, dans le rap, j'avais gros niveau Pas question d'faire du bénévolat, j'étais sur le terrain, d'mande à Vinc' et So' jamais, jamais J'suis pas Céline Dion, moi, je parle de rue, de prison oui On a toujours su faire le job, on croit au bon Dieu, nos curs nous guérissons Ils m'ont vu m'en sortir dans le ghetto, dans le ghetto Tu t'rappelles ? Tu t'rappelles ? Même masa veut m'écraser comme un mégot, comme un mégot ouh, ouh Le cur froid, les yeux perdus vers l'horizon, j'trouve pas l'soleil j'trouve pas l'soleil Dans la zone, je me sens comme à la maison, la lune me surveille la lune me surveille Tu m'critiques, tu crois vraiment que tu as raison, faut qu'tu t'réveilles faut qu'tu t'réveilles Y a des frères qui purgent leurs peines sur mes chansons pour trouver l'sommeil trouver l'sommeil</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alors on sort</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Une histoire de pute, une histoire de carotte La Grey Goose en main j'vois qu'ça s'bouscule Je vois mon pote au loin et je crois qu'il galoche une salope Son mec il rapplique va falloir qu'on l'fume Alors on sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Une histoire sans suite, une histoire sans capote Y'a mon phone qui sonne c'est mon pote Yacine Il me dit qu'un bâtard a mis sa petite sur en cloque Et il assume pas il veut quitter la ville Alors on sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Alors on sort, sort, sort Alors on sort, sort, sort Alors on sort, sort, sort Alors on sort, sort, sort Une histoire de thunes, une histoire comme tant d'autres Ça défonce la porte c'est l'huissier d'justice Il emporte la piwi, le plasma et la console Mon fils lâche une larme va falloir qu'j'le fume Alors on sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Une histoire de foot, une histoire de flip flop J'suis au City Stade c'est la Champion's League Je vois le goal volant qui se fait prendre un gros lob Nous on prend la gagne et il veut pas sortir Alors on sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Sort la kalash Tout l'monde recule j'suis pété au sky Attrapez-le au pire on va l'attacher Ça va partir en couille on va se tacher, yeah Alors on sort, sort, sort Alors on sort, sort, sort Alors on sort, sort, sort Alors on sort, sort, sort4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ALZ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ALZ, CZ, YZ Je t'encule de A à Z ZZR Hein, envoies la passe dé' Ils sont en bas de l'alim', ils attendent ça les fraté' Est-ce que tu m'as déjà vu devant la cage et rater ? En marche arrière, on prend la A7, allô le rrain-té Avec ma boule au ventre, j'ai appris à faire des strikes On s'habitue à côtoyer les démons de la night 4Matic est le Merco Benz, j'rentre dans le club en Nike Issu des quartiers difficiles, ça peut partir en fight J'pète mon joint d'herbe, calme mes nerfs, j'la joue réglo Du Pontet aux Baumettes, ça écoute du Alonzito Marseille, capitale du haschich, plaquettes dans le Vuitton Possession d'armes illégales, handek, ça fouille le Vito Épargne-moi tes dictons, nos mères sont honorables Elles y sont pour rien si on devient des diables adorables On m'a jamais dit quand j'étais p'tit tu veux faire quoi plus grand ? Sinon j'aurais répondu direct fabriquant d'argent On est le reflet de cette société capitaliste Quand y'a pas 1 pour faire 2, sur l'grand-père, ça nous crispe L'État fait semblant de combattre le crime En ouvrant les frontières, donc y'a arrivage de gros calibres On sait très bien d'où l'on vient, la roue tourne comme le globe Pour un salaire de misère ça te dit motherfuck Choisis ta doudoune pour le ara cet hiver Pour se réchauffer sur l'terter ça danse sur du MHD en boucle Attendu comme l'étoile filante, l'album s'écoute bien T'as fait le vu de m'entendre à l'ancienne A.L.O.N.Z.O dégun que je crains Coup de rein, j'fais glisser le game à la Boateng, tu te souviens ? Je reviens, j'suis Broly, appelle tout DBZ si tu veux ma chute Souhaite-moi le chikungunya petite poupée peinte en pute Quand je me mets à cracher la race dans la boca Y'a tout ton quartier de salopes qui se mettent à me chupa chupa bang bang Y'a du del-del, elles font les belles belles Mais sans rimmel-mel, c'est toutes des poubelles-belles Je suis en famille mais je refuse pas la photo Pris dans un bain de foule, j'ai pas fini mon verre d'Bordeaux What's up ? J'mets pas de codéine dans le 7up J'te joue cartes sur table, y'a les hold'em et les les hold-up J'meurs 5 fois par jour, quand je prie pas, j't'avoue j'ai reup Est-ce qu'elle va finir veuve ? Les balles de kalash pleuvent J'ai des frères grillés, meurtriers, je les aime, je ne peux trier 6 heures, y'a la casse-bélier, la hedja est en train de crier Encore une jeunesse consumée comme un sale mégot, on finira tous dans le même cendrier Parait que tu m'cherches, j'ai oublié ton nom Oublie pas que j'suis ton père tu devrais changer d'ton, non ? Certains rappeurs devraient être remboursés par la Sécu' Tu perces pas tu deviens fou, bois un coup, non ? Le vendredi y'a deux grandes vérités La Jumu'a et peu après les chiffres de ton album tout claqué Mes disque d'or, ma mère m'a demandé si c'est du vrai Je lui ai dit non, elle s'en sert en guise de service de thé J'ai fait le choix d'être moi, j'en ai rien à foutre d'être roi On peut pas vivre d'espoir, mes gosses vont me bouffer le doigt J'ressors d'chez Yamaha, j'ai donné 6000E sans le voir Mes fils sont fans de motorisation très tôt faut l'croire Hein, envoies la passe dé' Ils sont en bas de l'alim', ils attendent ça les fraté' Est-ce que tu m'as déjà vu devant la cage et rater ? En marche arrière, on prend la A7, allô le rrain-té3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amigo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Duane dans la zone Spike Miller Tu n'es qu'un amateur Reste tranquille, reste tranquille On sait comment te faire Reste en vie, reste en vie J'ai des problèmes dans la tête ouais ouais Tu n'es pas dans ma tête ouais ouais Tu voudrais la recette ouais ouais Mais tu pues la défaite ouais ouais Amigo allô T'as mon bigo allô Gros mytho tu te caches derrière tes potos allô Ça va vite, ça va vite bang bang J'suis pas l'autre je suis ni l'autre bang bang Que ça fumah' ça fumah' sur l'ter-ter Millionnaire on quitte la ville avant le charter Combien ont tué ouais ouais ouais ouais pour le salaire à Neymar ? Combien ont tiré ouais ouais ouais ouais pour le biff la cocaïna ? Et oui ça fait rompompom hehehe pour le salaire à Neymar Et oui ça fait rompompom hehehe pour le biff la cocaïna Paris Marseille, qui contrôle le game ? yah yah J'sais pas j'men bas les couilles je contrôles vos mères yah yah Ralalalalilalère t'es pas une grosse putain mais t'en a l'air ouais ouais Ne fais pas le grand le monde est petit petit On te rétrécit si on te met la tétine tétine Tu parles mais gros t'as fais tchi fais tchi Vas-y appelles les Képis Amigo allô T'as mon bigo allô Gros mytho tu te caches derrière tes potos allô Ça va vite, ça va vite bang bang J'suis pas l'autre je suis ni l'autre bang bang Que ça fumah' ça fumah' sur l'ter-ter Millionnaire on quitte la ville avant le charter Combien ont tué ouais ouais ouais ouais pour le salaire à Neymar ? Combien ont tiré ouais ouais ouais ouais pour le biff la cocaïna ? Et oui ça fait rompompom hehehe pour le salaire à Neymar Et oui ça fait rompompom hehehe pour le biff la cocaïna Toi j'te sens pas toi j'te sens pas Toi non plus j'te sens pas non j'te sens pas J'ai pas besoin toi, viens on s'aime pas viens on s'aime pas Aller viens on s'aime pas viens on s'aime pas Comme chien et chat comme chien et chat Viens on s'aime pas comme chien et chat Combien ont tué ouais ouais ouais ouais pour le salaire à Neymar ? Combien ont tiré ouais ouais ouais ouais pour le biff la cocaïna ? Et oui ça fait rompompom hehehe pour le salaire à Neymar Et oui ça fait rompompom hehehe pour le biff la cocaïna Combien ont tué ouais ouais ouais ouais pour le salaire à Neymar ? Combien ont tiré ouais ouais ouais ouais pour le biff la cocaïna ? Et oui ça fait rompompom hehehe pour le salaire à Neymar Et oui ça fait rompompom hehehe pour le biff la cocaïna</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ami ou ennemi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Exi Capo Ah, Ah, Ah Tiako' La Mélodie Eh-eh-eh Mamé Ami ou ennemi ? C'est à toi de faire ton choix C'est à toi de faire ton choix L'ennemi de mon ami, c'est pas mon ami, non, non C'est pas mon ami, non, non À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo J'entretiens le capital 'tal, très peu d'relations amicales Ouais J'entretiens le capital 'tal, très peu d'relations amicales Amicales Et j'me suis mouillé pour toi dans l'eau Et j'me suis mouillé pour toi comm de l'eau T'façon, tu fais parti d'ma vie d'avant Ah-ah, ah-ah, ah-ah Mon 'sin-'sin, rmpli la sacoche Ouais, on quitte le bloc, on va faire un tour en Grèce On a fait des pesos Ouais, les clients, le te'-te', tout ça, que ça nous engraisse On va finir fainéants Fainéants, sièges allongés dans une nouvelle caisse T'as pensé à elle ? Elle veut faire son hlel mais c'est une peste J'ai tout creusé de mes mains Mes mains, je chercher l'or sous l'orage Eux, ils n'ont rien, tant pis, pour eux Pour eux, jamais content quand on mange Sous l'coussin, y a l'silencieux Silencieux, pour régler les contentieux Contentieux WAllah, tu me prends la tête, j'arrache le bitume en séquentielle Mon ami, oh Woh, j'ai pas les mots J'ai pas les mots Mon ami, oh Rrah, j'ai pas les mots J'ai pas les mots Mon ami, oh Woh, j'ai pas les mots J'ai pas les mots Mon ami, oh, j'ai pas les mots Tiens, tiens, tiens, tiens Ami ou ennemi ? C'est à toi de faire ton choix C'est à toi de faire ton choix L'ennemi de mon ami, c'est pas mon ami, non, non C'est pas mon ami, non, non À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo J'entretiens le capital 'tal, très peu d'relations amicales Ouais J'entretiens le capital 'tal, très peu d'relations amicales Amicales Et j'me suis mouillé pour toi dans l'eau Et j'me suis mouillé pour toi comme de l'eau T'façon, tu fais parti d'ma vie d'avant Tiako' La Mélodie Passé nos journées à traîner, mec, on est bons qu'à ça Vrr, vrr, vrr, vrr Celui qui m'fait la guerre me connaît depuis l'bac à sable Ouais, ouais, ouais Essaye pas d'jouer Nan, non, n'essaye pas d'jouer Non Ne viens pas si tu n'es pas doué Niya ou ton pull, il finira troué Han-han Au fait, je rappe comme ci, je rappe comme ça, je rappe comme dégun Je rappe comme dégun Et Kassim ci et Kassim ça, bande de zgegs Woh Tu raconte ma vie mais tu ment mal, que tu bégayes Que tu bégayes T'as pas de vie, ça te fait mal Mal Mon ami, oh Woh, j'ai pas les mots J'ai pas les mots Mon ami, oh Rrah, j'ai pas les mots J'ai pas les mots Mon ami, oh Woh, j'ai pas les mots J'ai pas les mots Mon ami, oh, j'ai pas les mots Tiens, tiens, tiens, tiens Ami ou ennemi ? C'est à toi de faire ton choix C'est à toi de faire ton choix L'ennemi de mon ami, c'est pas mon ami, non, non C'est pas mon ami, non, non À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo À la base, on était plein, est-ce qu'on finira solo ? Solo, solo, solo J'entretiens le capital 'tal, très peu d'relations amicales Ouais J'entretiens le capital 'tal, très peu d'relations amicales Amicales Et j'me suis mouillé pour toi dans l'eau Et j'me suis mouillé pour toi comme de l'eau T'façon, tu fais parti d'ma vie d'avant Ah-ah, ah-ah, ah-ah Mon ami, oh Yoh, j'ai pas les mots J'ai pas les mots Mon ami, oh Yoh, j'ai pas les mots J'ai pas les mots Mon ami, oh Yoh, j'ai pas les mots J'ai pas les mots Mon ami, oh Yoh, j'ai pas les mots J'ai pas les mots</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Amour, Gloire &amp; Cité... 6.6.6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6.6.6 Quand mon coeur parle, ma bouche écoute et mes oreilles staisent Suis-je une hypothèse ou lenfant dAdam Eve ? Jai vu la nuit tomber à midi Tuez-moi comme John Lennon car je marche pieds nus dans la braise Yeah Kassim Yeah La gorge serrée, la gorge café, la gorge corsée La gorge imbibée de vérité Amour, Gloire Cité Ils ne savent pas où jai mal, comment veulent-ils me soigner ? Comment veulent-ils me soigner ? Yeah Kassim Kassim, Yeah Choisir de ne pas croire au diable me protégera pas de lui Lhomme est intelligent depuis longtemps, lui-aussi La seule journée facile cétait hier Jai peur qumes rêves sréalisent, je me suis vu sombrer en enfer À qui le dire ? À qui se confier ? Je ne suis quun père, pour qui je vis ? Pour qui jpleurais ? Si je viens à lperdre, un cheveux blanc qui pousse chaque matin Comment veut-tu qujte dise que jai rien à perdre, sale fou Oh Tes un fada ou quoi Attends À un moment donné Jmen fous tfaçons Yeah, ok Tu seras spectatrice de mon bonheur Comme tu as été actrice de mon malheur Tout se cache, tout se masque sauf les cicatrices Je noie pas mes espoirs dans une flaque de pisse Tu seras spectatrice de mon bonheur Comme tu as été actrice de mon malheur Tout se cache, tout se masque sauf les cicatrices Je noie pas mes espoirs dans une flaque de pisse Car le diable na pas dcouleur, pas de race, pas dorigine Regarde les moi, glorifier Obama tous ces meskines Noublie pas laccent grave sur le e de papèe Chacun ses péchés, jpense déjà être bien chargé Il ny plus de respect, le passé la volé Le cerveau des petits a été violé Traduis-moi dans le langage des signes Jai des choses à dire lépoque est endiablée Sur ma mère, le monde est stone, hein Ne tinquiète pas, jsuis un vaillant On a tous droit à une seconde chance Alors comme ça, parait-il que jfais du son de bandit ? Vas-y ressent les ondes mamée Traduit en nimporte quelle langue même si jtavoue J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! Dis-leur! J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! J'ai mal! Dis-leur! Yeah Amour, Gloire Cité On sest regardés un peu plus loin que nos barreaux On sest regardés un peu plus loin que le béton, mamée Tinquiète pas, lhomme est intelligent depuis longtemps 6.6.6 que dieu nous écarte Dis-leur3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Am stram gram</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Tommy en siedre, papi Tche, tche Vingt heures, j'crapule dans le secteur Vodka-Tropico un classico, gros son dans le lecteur J'fais sursauter l'guetteur, allemand est le moteur Tu me dois des loves, je sais où t'es, j't'ai mis un traceur Posé, j'suis au four, four, four, je fais l'appel-ppel-ppel Ne fais pas l'sourd, sourd, sourd, je m'en rappelle-ppelle Ils ont cassé nos tours, tours, tours, j'ai d'la peine, peine, peine Elle veut d'l'amour-mour, j'préfère la clientèle-tèle-tèle J'ai le six-coups sous l'siège qui protège mes arrières Pah, pah, pah, pah, pah Paraît qu'tu parles de moi, qu'tu m'aimes ou pas, c'est la même Rreeh, ah J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais À vingt heures, j'prends mon flash, c'est bientôt la fermeture La fermeture Fonce-dé avec Suge, on s'endort dans l'SQ5 Dans l'SQ5 Enculé, regarde les épreuves qu'on a surmontées Quand c'était chaud, toi, t'étais où ? Maintenant, tu m'boostes mais pas b'soin d'toi Ma chérie veut qu'j'me range mais c'est pas aussi simple qu'elle croit Et quand on s'prend la tête, j'me réconforte avec une passe Faire augmenter ma liasse fait diminuer mon taux de stress Mais faut que j'sois discret, je crois que mon p'tit frère suit mes traces Douze-coups chargé, tout va bien Ah-ah-ah-ah Deus', Dope, Dixon, Suge derrière moi Ah-ah-ah-ah J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Eh Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Je mets de la beuh dans mon grinder Eh, des violets, des violets comme Freezer Eh Ici, tous les guetteurs sont mineurs Eh, maman, il est temps qu'on se taille Taille J'suis numéro un sur Deezer Eh, j'ai ta te-tê dans mon viseur Eh Plaquettes cachées dans le cuiseur Eh, j'attends les sous de Spotify 'fy Et je mets d'la beuh dans mon grinder, des violets, des violets comme Freezer Ici, tous les guetteurs sont mineurs, maman, il est temps qu'on se taille J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram, qui d'entre elle me trouve mignon ? Ah, eh J'compte marron, vert, jaune, violet, jusqu'au million Am stram gram Eh, eh, eh, qui d'entre elle je vais ah ? Fais pas le con, ah Envoie les loves, ah Fais pas le con, ah Envoie les loves dans les délais Papé Yeah, Koba LaD Game Over, volume 2 50k, mamé Tche</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Arrivederci</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Doubtless Production in the track! In the track! P2wider On veut la richesse, kichta épaisses 63S, fuck les hesses, fuck la noblesse On vient d'la tess, on l'a mauvaise, on nique ton buzz Et à coup d'machette, on t'ouvre le crane et oui, tout s'achète, même les organes On arrive en survêt', on sort du van et ça sent les Baumettes derrière les Ray-Ban Un pack d'Heineken, j'pilote comme Raikkonen, j'ai deux grammes d'alcool dans les veines J'viens de me faire sucer dans le vaisseau, pétard à la bouche, j'écoute le chant des sirènes Les logos proviennent de Milano, Ferragamos, sur Marseille, en bateau J'ai levé l'ancre et Arrivederci, du dollar à l'euro, on convertit Zin mais j'entends trop de rumeurs J'entends trop de rumeurs C'est rien, c'est que Twitter C'est rien, c'est que Twitter Je suis pas un acteur Je suis pas un acteur, j'vais t'allumer ta sur J'vais t'allumer ta sur Dubaï dans un buggy Dubaï dans un buggy, fidèles sont mes amis fidèles sont mes amis Crois pas qu'c'est le COVID Crois pas qu'c'est le COVID Crois pas qu'c'est le COVID Crois pas qu'c'est le COVID On veut la richesse, kichta épaisses 63S, fuck les hesses, fuck la noblesse On vient d'la tess, on l'a mauvaise, on nique ton buzz Et à coup d'machette, on t'ouvre le crane et oui, tout s'achète, même les organes On arrive en survêt', on sort du van et ça sent les Baumettes derrière les Ray-Ban On veut la richesse, kichta épaisses 63S, fuck les hesses, fuck la noblesse On vient d'la tess, on l'a mauvaise, on nique ton buzz Et à coup d'machette, on t'ouvre le crane et oui, tout s'achète, même les organes On arrive en survêt', on sort du van et ça sent les Baumettes derrière les Ray-Ban Déter' comme Malik, déter' comme Nawad, bientôt, je tchawa, jamais je m'allie J'te raconte ma vie, je t'impose mes lois, j'm'en bats les klawis, mes fils en Piwi Ça soulève à six heures, cramé est l'secteur, y a que des jobbeurs, nique sa mère les suiveurs J'suis à Saint-Antoine, j'ai garé le Macan, c'est noir comme la CAN, j'suis chez moi, t'es fou, toi Détailler le rouleau, j'ai plus l'âge mon poto, je m'adresse qu'au gérant Et même si t'es géant, tu vas fermer ton cul Capo sur l'instru, c'est Capo dans ta rue, fais pas c'lui qui a pas vu Comores est l'drapeau, Foumbouni village, j'peux pas me mettre torse nu, j'ai fait des tatouages Haram le hazi, haram la musique Inch'Allah qu'je m'arrête avant l'dernier voyage, Capo On veut la richesse, kichtas épaisses 63S, fuck les hesses, fuck la noblesse On vient d'la tess, on l'a mauvaise, on nique ton buzz Et à coup d'machette, on t'ouvre le crane et oui, tout s'achète, même les organes On arrive en survêt', on sort du van et ça sent les Baumettes derrière les Ray-Ban On veut la richesse, kichtas épaisses 63S, fuck les hesses, fuck la noblesse On vient d'la tess, on l'a mauvaise, on nique ton buzz Et à coup d'machette, on t'ouvre le crane et oui, tout s'achète, même les organes On arrive en survêt', on sort du van et ça sent les Baumettes derrière les Ray-Ban Eh-oh On lâchera pas le ghetto On n'est pas des appâts du système, de leurs lois On vient du ghetto Eh-oh On lâchera pas le ghetto On n'est pas des appâts du système, de leurs lois On vient du ghetto</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Assurance vie</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Jsuis ton assurance vie, je donnerais mon âme si jai dlamour pour toi Jsuis ton assurance vie, je sais prendre les armes, ne tinquiète pas pour ça Cque jai fait depuis mino, cest prendre soin des miens Demande à ma mama, jsuis ton assurance vie, ton assurance vie Il y aura toujours mon ombre quelque part, où qutu sois, je serais toujours à quelques pas Toi, tu doutes, retiens que je nte quitte pas, je sécurise nos vies, tinquiète pas Ya toujours des choses quon capte pas, lamour que jai pour toi n'sexplique pas Je leur ferai la guerre, panique pas, le nécessaire pour que tu te fatigues pas Et ton cur donnera le tempo, tempo, tempo de notre avenir Je serai là dans les blèmes-pro, dans le meilleur comme dans le pire, yeah Jsuis ton assurance vie ouais, vie ouais, vie ouais, jusquà la muerte Ton assurance vie ouais, vie ouais, vie ouais, jusquà la muerte Jsuis ton assurance vie ton assurance vie, je donnerais mon âme si jai dlamour pour toi Jsuis ton assurance vie ton assurance vie, je sais prendre les armes, ne tinquiète pas pour ça Cque jai fait depuis mino cque jai fait depuis mino, cest prendre soin des miens Demande à ma mama, jsuis ton assurance vie ton assurance vie, ton assurance vie Jaimerais tellement te dire cque jmontre pas, tu fais en sorte que tout l'reste ne compte pas Laisse-moi ouvrir les portes, dis-moi où tu veux aller, jf'rai en sorte de devenir ton point ddépart Un jour ou lautre, ya tout qui part, la vie veut quce soit la mort qui nous sépare Si ma voix est trop faible, que mes mots tfont hésiter, rapproche-toi car cest mon cur qui te parle Et ton cur donnera le tempo, tempo, tempo de notre avenir Je serai là dans les blèmes-pro, dans le meilleur comme dans le pire, yeah Jsuis ton assurance vie ouais, vie ouais, vie ouais, jusquà la muerte Ton assurance vie ouais, vie ouais, vie ouais, jusquà la muerte Jsuis ton assurance vie ton assurance vie, je donnerais mon âme si jai dlamour pour toi Jsuis ton assurance vie ton assurance vie, je sais prendre les armes, ne tinquiète pas pour ça Cque jai fait depuis mino cque jai fait depuis mino, cest prendre soin des miens Demande à ma mama, jsuis ton assurance vie ton assurance vie, ton assurance vie Les femmes maimaient pour mon assurance vie mais cest toi qujai choisie Les femmes maimaient pour mon assurance vie mais cest toi qujai choisie Jsuis ton assurance vie, vie, vie, jusquà la muerte Ton assurance vie, vie, vie, jusquà la muerte Ton assurance, ton assurance, jsuis ton assurance, ton assurance Ton assurance, ton assurance, jsuis ton assurance vie, hmm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Avoir une fille</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Et quand dans tes larmes se reflète ma colère J'appréhende tes blessures comme tes échecs scolaires Et quand t'iras plus loin que ce que mon âme tolère Je reste un homme, et toi tu restes ma fille Je dois saigner à vie 2 kilos 880, elle pleure à la première seconde Devant ce miracle de Dieu je rigole alors qu'les hommes s'effondrent Inconscient de ce qu'il m'arrivait Je coupe ce qui la rattache à sa mère, je n'ai que 17 ans, tu sais Trois ans plus tôt j'étais encore collégien Un enfant a mis au monde un enfant c'est c'que m'disaient les miens Tant pis je me sentais grand, je l'ai dans mes bras Et elle répondra au prénom de Kenza Et quand dans tes larmes se reflète ma colère J'appréhende tes blessures comme tes échecs scolaires Et quand t'iras plus loin que ce que mon âme tolère Je reste un homme, et toi tu restes ma fille Je dois saigner à vie 22 novembre 99 est née la chair ma chair Ma descendance, ma trace sur la planète Terre Permets-moi de souffler une seconde Y'a quelque chose qui bloque, j'ai la bouche pleine de glaires Elle m'a donné un rôle, elle m'a donné un nom Elle a élargi ma vision, elle a, elle a fait d'moi un homme Qui est venu me ramener une brique de lait ? Elle chassait les démons qui m'criaient Va voler !, non Son visage me ressemble étrangement Je me revois en elle, j'pense à mon enfance L'amour qu'elle me transmet est différent Elle s'endormait sur mon torse bercée par mes battements C'est ma fille, ses premiers pas j'les ai applaudi Ses sourires m'ont rendu patient au point d'en mourir Elle vivra le meilleur, elle vivra le pire Est-ce qu'elle entendra son Papa lui dire Kenza Et quand dans tes larmes se reflète ma colère J'appréhende tes blessures comme tes échecs scolaires Et quand t'iras plus loin que ce que mon âme tolère Je reste un homme, et toi tu restes ma fille Je dois saigner à vie Je dois saigner à vie, tu as grandi mon bébé T'imagines t'as douze piges, j'vois pas le temps passer Tu m'appelais Kassim comme les mecs du quartier J'appréhende ce jour où tu vas me le présenter Je sais qu'j'suis maladroit, j'parle mal des fois Tu dois me haïr dès le matin quand tu te coiffes C'est juste la peur qui prend le dessus sur moi Si t'échoues j'échoue avec toi, t'es une partie de moi Ne laisse personne couper nos liens naturels Les histoires de grand ne vous concernent pas, dis-le à tes frères J'vous aime au même degré que ma mère Je ne remplacerai jamais la vôtre, j'suis qu'un père Tu es ma fille ma fierté, regarde-moi mes yeux veulent te parler Si je meurs il ne faut pas pleurer Tu vivras le pire, mais tu donneras le meilleur à mes petits-enfants Est-ce que t'entendras ma voix te dire doucement... x2 Et quand dans tes larmes se reflète ma colère J'appréhende tes blessures comme tes échecs scolaires Et quand t'iras plus loin que ce que mon âme tolère Je reste un homme, et toi tu restes ma fille Je dois saigner à vie C'est pas facile C'est pas facile de faire un enfant Ma fille, écoute c'que ton père te dit Respecte ton père, respecte Sache que quand un père fait une fille C'est une fierté, c'est sa propre fierté Sache que ton père vient de Foumbouni Sache-le, hein, sache-le Parce que demain tu seras mère, et tu auras des enfants Sache que le paradis d'tes enfants est sous tes pieds Sache-le, sache-le Respectez vos pères, respectez vos mères</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Bagarre</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Viens on sort, viens on arrête de parler, ça sert à rien, y'a du monde gros Viens on sort, tu fais chauffer, tu parles avec des grands gestes mais t'es qui gros ? Bat les couilles, nous, y'a dégun qui nous fouille J'suis avec des trentenaires, sacoche, survet' du Dortmund Bats les couilles, bats les couilles, on te nananace sans cagoule On va t'laisser par terre et te dire Salam Alaykum Fais le fou, fais le fou et dire que t'y es bon au foot On va t'en mettre deux, trois dans les jambes, j'te conseille, prends la route Prends la route, prends la route, tout le monde va se mêler dans l'embrouille Tout le monde est lewé dans la foule Halafu, halafu, qu'est-ce que j'en ai rien à foutre J'rappe en comorien, tu comprends pas mais tu te tords le cou J'suis là mais je t'esquive, t'y as la boco, bois un coup T'y as un succès d'estime et tu te crois dans le coup C'est la guerre, Belvédère, les tchoins ont le cul en l'air Je jette mes Loubou' depuis que ton rappeur les met, ça pue sa mère T'y as des likes sur Insta', ici t'es pas aimé mon frère C'est ALZ, CZ, en un morceau j'suis millionnaire, groooos Viens on sort, viens on arrête de parler, ça sert à rien, y'a du monde gros Viens on sort, tu fais chauffer, tu parles avec des grands gestes mais t'es qui gros ? Bon j'commence à faire la ploum haha, je tire la courte paille, mamé. Qui veut teste ? Ça tombe bien. Aujourd'hui j'ai pas encore graille. J'peux bouffer le game sur place mamé, mais vu que j'ai pas le temps, je passe par le drive, hein. Ferme là, ferme là eh... Ferme ta gueule, ferme ta gueule, ferme ta gueule-gueule-gueule Gueule de bois, gueule de bois, gueule de bois-bois-bois Bois dargent, bois dargent, bois d'argent gent-gent-gent Jentends tout, jentends tout, j'entends tout-tout-tout Tout est mort, tout est mort, tout est mort-mort-mort Mort aux vaches, mort aux vaches, mort au vaches-vaches-vaches Va charger, va charger, va charger ger-ger-ger1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BALI</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Avy on the track Oh, je sais Je sais Je sais Encore fatigué de la veille, j'me tue la santé pour l'oseille Sept mille eu', c'est qu'un sac Chanel Dangereux quand un négro s'en mêle Je charbonne, j'vois pas l'temps passer, ça m'fait des reproches toute l'année Je charbonne, j'vois pas l'temps passer J'trouve plus l'sommeil, sommeil Tu me murmures à l'oreille qu't'as plus sommeil Oh, je sais, je sais qu'tu sais Qu'on devrait quitter la zone, oui, la zone Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi J'ai dit Oui dans une vie, je sais plus où donner de la cabeza Cabeza J'essaye d'pas oublier que la famille passe avant les mapessas J'ai des soucis ces temps-ci, épuisé, ça fait qu'parler d'moi En c'moment, j'suis tendu, je peux que m'relâcher quand j'suis dans tes bras J'trouve plus l'sommeil, sommeil Tu me murmures à l'oreille qu't'as plus sommeil Oh, je sais, je sais qu'tu sais Qu'on devrait quitter la zone, oui, la zone Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi Je t'emmène à Bali, escale en Italie Aujourd'hui, je cède à tous tes caprices, c'est toi que j'ai choisi</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Balle dans la jambe</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>C'est mon papa à la prod Je sens l'il Je sens l'il Bébé quand tes à bord T'es à bord, je sens l'il, je sens l'il On parle après, amour d'abord Amour d'abord, ferme ta gueule, oui, ferme ta gueule J'sais pas c'quils veulent, ils veulent ma mort, ils sont pas forts Ils ont rien dhardcore, on est d'accords Oui, jsuis fatigué, ils n'ont qu'à tirer, j'les vois paniqués pourtant, rien dcompliqué J'veux des piles de billets, en dollars Yah, yah, yah J'ai des quilles de billets, Hamdoulah Hamdoulah J'marche où toi t'as pas pied, sal connard J'fait le tour du quartier, j'prends d l'âge J'ai pris balle dans la jambe, hier, hier, hier, eh Tu m'attendais dans la chambre, bébé, bébé, bébé, eh Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus C'est jamais terminé Non, toujours un ient-cli d'vant la porte du cabinet Gros, te-ma la file, y a d'l'attente comme au kiné' eh Qu'est-c't'as tu portes l'3in ? C'est trop, wAllah Al adhim Reste à distance, le respect c'est vital Beaucoup ont pris des balles, beaucoup ont pris des J'veux juste la récompense, laisse-moi, j'suis dans mes bails Viens voir, dehors, il caille D'vant l'Beretta, ils taillent T'inquiète, j'tiens le coup, au quartier, j'tiens le four D'vant l'Beretta, ils courent, ils courent, ils courent, ils courent Cela sert à rien, j'suis déterminé Comme une césarienne, j'vais les terminer Malgré ça, ils courent, ils courent, ils courent, ils courent J'ai pris balle dans la jambe, hier, hier, hier, eh Tu m'attendais dans la chambre, bébé, bébé, bébé, eh Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus Hier, hier, hier, eh Bébé, bébé, bébé, eh J'ai pris balle dans la jambe, hier, hier, hier, eh Tu m'attendais dans la chambre, bébé, bébé, bébé, eh Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus Pourquoi je n'y étais pas ? L'amour des sous a pris l'dessus L'argent guide mes pas Lève pas la main, j'te tire dessus J'ai pris balle dans la jambe, hier, hier, hier, eh Tu m'attendais dans la chambre, bébé, bébé, bébé, eh</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bande originale</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>- Oh Kassim - Bien sin, ça va tranquille ? - Ça va et toi ? Tranquille ? - Ouais, tas du feu ste plaît ? - Ouais tiens Tas vu cqui sest passé sur les minots et tout ? Tas vu cest chaud - Ouais jai entendu Jai entendu ouais</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bâtard</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Jvous pisse à la raie, j'suis un bâtard Fais ma loi, cest comme ça Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Yeah, je ressors de chez Yamaha un T-MAX 14 P wheels Direction le grand littoral, survêt' club, paire de Asics Ma daronne me dit que je m'habille mal et que j'reste trop près de l'alim' Les condés sont jaloux, ils touchent pas deux mille balles, on s'marie en Lamborghini Et ça m'appelle de trop, j'crois qu'ils veulent tous des feat Les gens ils tentent, les gens ils tentent Arrête de faire le gros car tu ne vends pas un disque Moi j'alimente, je fais la loi Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Yeah, pas besoin de faire un débat, ton rappeur, je l'ai fini Tu fais pas un euro, arrête vite le rap, petit meskine Pétard à la bouche, je frappe un coma et ta gadji me dit bonne nuit Zerma t'y es recherché mais tu as fait quoi ? La con de ta mère la soumise Arrête de faire le gros, tu n'étais qu'une nourrice Les gens ils mentent, les gens ils mentent Arrête de faire le gros car tu ne vends pas un disque Moi j'alimente, je fais la loi Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça Jvous pisse à la raie, jsuis un bâtard Je fais ma loi et cest comme ça4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Bellucci</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Je m'en fous du rêve America, j'fume la Jamaïca Punchlines en sadaka, wallah, j'ai la baraka Crève dans lanonymat, j'bronze à Madinina Six-cent chevaux italia Bellucci Monica Va charbonner, va charbonner Va charbonner, va charbonner Le 'sin, oui, va charbonner, va charbonner L'Afrique a besoin de fric, des kilos de shit à écouler Roi Soleil décapité, peau noire beurre d'karité Vécu dans la précarité, Sankara faut le ressusciter Carabine dans le cul de Marine, le poulet on le roule dans la farine À quoi me sert un V12 si ce n'est pour le transport de cocaïne ? Alonzo, Psy 4, la SACEM neuf cent plaques La baraque quatre cent plaques, le 4x4 cent dix plaques Audemars soixante plaques, un week-end dix-huit plaques Les impôts, j'les paye pas, quitte à mourir en Thaïlande avec 10 baht Je suis pas né pour être fouetté, je porte le coton Versace Quand j'l'ai niqué j'étais pété, quand je suis pété j'dis la vérité Toto Riina faut lacquitter et Guerlain faudrait l'insulter Ta grosse chatte faudrait la raser et tes couilles faut les porter J'me lève à midi, j't'emmerde, j'travaille la nuit, j'fais tapiner Marianne Chaque immigré ramène sa culture, les Roms c'est le trafic d'organes Y'a de quoi rembourser la dette Africaine dans le cellophane Fais le 18, y'a du sans plomb 98 dans le jerrican Les lamelles dans le hall, Heisenberg c'est le model Bonne nouvelle, mauvaise nouvelle, on s'en bat les couilles faut le pactole Six cent K.G., faut des projets, châssis, touche dos d'âne, AMG E.U.R.O., E.U.R.O., on est déter' comme à Roubaix On s'voit 11 mois dans l'année sur la route, les croyants font du sale Que Dieu pardonne, on va pas mourir d'un cancer mais de 14 balles Maman pleure, papa partit, nique ses grands mort le code pénal Ils croient qu'on oubliera les colons grâce aux alloc' familiale, t'es mort ! Yeah, va charbonner le 'sin, fais les euros On vit la discrimination monétaire mamé A.L.O.N.Z.O. le capo dei capi Vous sous-estimez Marseille ? J'vais tous vous rafaler Provoquez pas des fous, on est nombreux papé ComorienNouveau, Ra-ta-ta-tah dans l'abdomène C'morceau, si j'ai pas envie, j'le met pas dans l'album, j'm'en bat les couilles Dites-leur Malik, Nawad, Zaka, Samy, Souleymane Baumettes, Luynes, Leybou, Castellane, Plan D'Aou T.R.E.I.Z.E14</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bête et méchant</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ya que des têtes brûlées, tu ferais mieux de reculer Le style est S.U.D., Q.N. matriculé Deux-trois rafales, fourre le mic, négro je vais postuler Dans la salle ou dans la cabine jprovoque trop de buée Jattire la racaille, la flicaille, quils aillent se faire enculer Le style est sale comme mon hall où jai débuté On vient faire terre brûlée à l'instinct gros tout peut basculer Jredonne dla force aux miens, jsuis à lancienne pas comme ces fumiers Ya pas de star, je plaisante pas comme toi, je sors dun trou à rats Pas daffolement si tu vois que tes mou, tas quà transpirer F.A.H.A.R. PAM ! Maintenant tas de quoi tinspirer Un rap hors-la-loi adressé à toutes ces familles opprimées x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Yeah, yeah Chez nous cest pollen, Paul Shark Paul Shark ! À larme de guerre les frères se charclent Dis-leur ! Autour du coup, ni croix ni câble Wouuu À la recherche dune gadji niquable Les ptits shmetas à jamais en règle du cycle Ouais ! Toujours en retard pour pointer à la Spip 50 lamour, 40 euros la pipe Parle pas doccase nous on veut que du jdid Fait à la speed, braquage à la Heat, aliens On senvole, vol à litalienne Ra-ta-ta-tah ! Monte au premier, ya la Bac à létage Wouuuf ! Alonz mappelle, cest pour un braquage Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant Jdébarque avec ma ptite équipe, wAllah, penses-tu que jsuis riche ? Mon pote a le calibre sous le bras, veux-tu être ma biche ? Quartier nord ya du haschich, on sort tout droit de Greenwich Khamsa fi ainik tu chouf mal chouf mal Bitch On les switch, on les, on les switch Alonzitovich De la bouche, jenvoie des cartouches, tous tes morts se couchent Stylé en Jordan ou en Hogan, à la Damon Dash Toi tas une dégaine de tuple dance, en mode mort aux vaches Quil se cache, dis-moi qui nous cherche, nous on danse sur Lil Bow Wow sur Lil Bow Wow ! Dans la-dans la piste, trop de libido, Zé Pequeno Fais briller le cash, ça sagite, vite, coupe pleine Jsuis la tête daffiche, et jmen fiche ! x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ya comme une odeur droussis, latmosphère pue la défaite Parlons peu, parlons bien, khey, venons-en au fait Largent cest lnerf de la guerre, jveux mettre à labri père, mère Jsuis presque refait, jquitterais la France pour la terre-mère Jsuis à Bab El Oued ouled lhoumatar sah Tahia lDjazaïr, écartez-vous, ledle khar Habidi décapotable, ya omri tah bidtili drahni Rani menich 9oued, demande à Fouhed de la hitadi Muaah On est là, les ptites shmetas pendez-les Chaoui tah sah trop déterminé, khoya, on est là, on est là Whop Whop ! Offshore à Pattaya Jsuis avec des guirris, des harbis, gamina ndzaya x2 Boy, on arrive fort et on contrôle les manettes Cest les quartiers nord et on répond à lappel Boy, la musique vient du ghetto Original ghetto Ok, yeah Arrache le cordon ombilical, prend la cavalière MC lyrical Marseille senflamme, mets lessence dans le jerricane Ya plus dchéri calme, maintnant cest le rap, cest le véritable Batox branche la came, on les dég-dégommes, on se déguise pas M.O.H, poids lourd, surcharge pondérale Jcrois pas aux médias, jcrois pas à Mohamed Merah Le regard rouge, dissimulé sous la New Era On sait qui nous fait naître, on sait pas qui nous enterra On combat lautorité, David contre Goliath Alonz, on sait plus qui est qui, on devient paranoïaque M.O.Hache de guerre, comme Chantal Goya Aya, jmets le faya pour mes khouyas débrouillards Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant Toi, fais cque tu veux, parle tant qutu peux Mets-toi le feu, on est bête et méchant On est bête et méchant, on est bête et méchant x3 On est, on est, on est, on est, on est bête et méchant2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B.G</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sur la route, cheveux au vent, elle conduit avec des gants Au feu rouge, j'arrive doucement, j'ai le regard insistant Elle me nargue, elle accélère, j'suis sur mon cheval de fer J'vois son sourire, du rétro, j'passe les rapports en roue arrière Elle se gare, j'lève le casque, wesh ma belle, j'te roule une pelle ? Elle rigole, j'marque un point, tu m'étonnes, mais what's your name? Dis-moi, où vas-tu comme ça ? Comment ? Je te plais ou pas ? J'suis pas plus chou que ton p'tit ami, Franco, on y va ou pas ? P'tit resto, zerma tu surveilles ta ligne J'vois qu't'es un avion de chasse, j'serai ton pilote de ligne Restons simple, franchement poupée je te plais ou pas ? Ça n'engage à rien, évitons les nanani, les nanana Y'a une place, allez gare-toi bien, je crois pas aux signes du destin Je sais pas, mais toi t'as l'air bien, j'peux te tenir par la main Un p'tit tour sur la côte, on se marre comme deux potes J'vois qu'tu glisse, c'est le top, là, je te plais ou pas ? En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le De haut en bas, de gauche à droite, on forme le couplet parfait Tes copines doutent de moi parce que tous les jours j'suis en Dolce Voiture d'loc', du Ciroc, j'ai des Zanotti aux pieds Je demanderai au DJ de passer ton son préféré J'ai le style qui les attirent, tu fais genre t'es pas jalouse SMS sur mon tél, on dirait qu't'as les yeux qui louchent Je vois qu'tu me kiffes de fou, je sais qu'tu me kiffes de fou Ca te dit un week-end à Milan ou Istanbul ? Draps rouges pour une nuit d'enfer, tu sais l'faire ? Je sais l'faire, ça va l'faire Cinq étoiles, tu te dévoiles, tu m'as fait oublier mon ex Coup de hanches, j'ai le manche qui vient de trouer le latex Tu penses déjà à te marier, faire des tissmés Jamais une meuf a vu la madre, chez nous tu connais Un ciné, des pop corn avec toi j'ai plus de cornes Allège-moi, t'es ma pote, t'es ma femme, ma chicha pomme En roue libre, si tu veux fuir Moi je te suis C'est ma caisse qui t'barre la route, belle gosse J'ai ton 06 Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Tu seras mon plat pendant mon dîner Ma Marilyn Monroe pendant mon ciné La balle de mon canon scié Ma belle, j'suis la Bête qui t'fera glisser dans le Oh oh oh, j'vais te mettre bien Hé, j'vais te mettre bien tonight Héé, j'vais te mettre bien tonight J'vais te mettre bien</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Binta</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Binta, dans sa vie, elle consomme les hommes des autres sans aucun remord Elle a pris du galon, traine de chicha en chicha mais plus dans les blocs Sa physionomie elle est plutôt jolie donc elle surjoue de son corps Elle te fera pigeonner, pigeonner, pigeonner, pigeonner jusqu'à ta mort Et tellement t'es con, t'en veux encore Oui, parce qu'elle est bonne, t'en voudrais encore Et quand elle déboule sur la piste de danse, tout le monde voudrait la follow Analyse le matos, mon poto, pour la soulever faut plus qu'un permis moto Elle t'a donné soif, tu veux la consommer, consommer, son boule c'est de l'eau Elle t'a fait trop mal, trop mal, trop mal, trop mal, Subuhana Codo Elle vit la nuit, c'est une bombasse, c'est une kamikaze Soleil de minuit, elle fait tomber les hommes sous son blabla Elle provoque des bagarres, elle est dans le cur de tous mes scars-la De Marseille à Paname, on lui veut la pendaison comme Saddam Soleil de minuit Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta De partout elle fait des avances, elle n'a pas que sa langue dans sa bouche J'ai bien capté ses manigances, elle ne m'emmènera pas dans sa douche Elle voit que le côté finance, un euro tu n'as pas, elle trace sa route Le SMIC, RSA, c'est minable, elle cherche des footeux qui posent du lourd Et quand tu consultes son portable, ne sois pas étonné de voir le monde Des tas de conquêtes s'entassent, toi tu veux ta place, tu rêves, t'es fou Et quand tu consultes son portable, ne sois pas étonné de voir le monde Des tas de conquêtes s'entassent, toi tu veux ta place, oh, mon poto, tu rêves debout T'as gaffé, t'es allé où ? Là t'as pris un aller sans retour T'as gaffé, t'es allé où ? Là t'as pris un aller sans retour T'as gaffé, t'es allé où ? Là t'as pris un aller sans retour T'as gaffé, t'es allé où ? Là t'as pris un aller sans retour Elle vit la nuit, c'est une bombasse, c'est une kamikaze Soleil de minuit, elle fait tomber les hommes sous son blabla Elle provoque des bagarres, elle est dans le cur de tous mes scars-la De Marseille à Paname, on lui veut la pendaison comme Saddam Soleil de minuit Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Ses formes animales te donnent la dalle, toi, comme un chasseur, tu voudrais l'abattre Mais t'auras du mal, la petite est maline, elle va te dépouiller, ça y est, elle est là Ses formes animales te donnent la dalle, toi, comme un chasseur, tu voudrais l'abattre Mmm-mah, mmm-mah, elle va te dépouiller, ça y est, elle est là Elle vit la nuit, c'est une bombasse, c'est une kamikaze Soleil de minuit, elle fait tomber les hommes sous son blabla Elle provoque des bagarres, elle est dans le cur de tous mes scars-la De Marseille à Paname, on lui veut la pendaison comme Saddam Soleil de minuit Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta Binta, Binta, Binta, Binta1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BISON</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Breh, breh Baby, baby, fais-moi boussa, les histoires d'rue mfont mal à la tête Breh, breh, breh J'vais écarter les traîtres comme Moussa, la fée à la mer, on va s'en remettre Breh, breh, breh Baby, baby, faut quj'les oublie, ils n'ont pas d'vie, ils envient la tienne Check, check, check Restons dans une tour d'Abu Dhabi, j'suis parti d'p'tit, trinquez à la mienne Yeah, yeah, yeah On est dans Ventta Bottega tega, ma beauté, mcompar pas à tes gars Tes gars J'suis Bison, affronte déjà Saga Saga, comme MHD, dla cité, j'suis la saga Saga En semi, le bracelet sur cheville Cheville, on danse, on s'tient comme à la chenille Chenille Ça part en bobo comme Coachella ou comme à Johannesburg, chez Mandela dela J'suis pas arrivant, ça fait bien longtemps qula musique ma condamné Breh, breh, breh, breh Je prends mon argent, j'bouge en Thaïlande, j'oublie pas mon cran d'arrêt Breh, breh, breh, breh J'ai les démons, j'ai les nerfs y montent, bébé me dit Andale Breh, breh, breh, breh Elle m'dit T'arrêtes quand les gens sont méchants, tu arrêtes pas de t'emballer Breh, breh, breh, breh Les vrais, les putas, tout se mélange, se mélange, se mélange, se mélange Sais plus qui est qui, ça me dérange, me dérange, me dérange, me dérange De tous les fumar, ça me démange, me démange, me démange, me démange Mais j'aime quand la chica se déhanche, se déhanche, se déhanche, se déhanche Les vrais, les putas, tout se mélange, se mélange, se mélange, se mélange Sais plus qui est qui, ça me dérange, me dérange, me dérange, me dérange De tous les fumar, ça me démange, me démange, me démange, me démange Mais j'aime quand la chica se déhanche, se déhanche, se déhanche, se déhanche Comme Aznavour, je me rappelle d'un temps Pah, pah, pah, pah, ahou Ça chouravait des boosters deux temps Brah, rah J'hésite jamais entre les sous et l'sang Ra-ta-ta-ta, ah Pour les caner, vous le savez, j'ai l'son Ouais, ouais, ouais J'mets une distance, trop d'médisance, je suis constant comme ta quittance Depuis l'temps, j'vais dans l'même sens, j'suis résistant Je sais c'qui s'passe J'mets une distance Ahou, trop d'médisance Ahou, je suis constant comme ta quittance Ahou, ouais Depuis l'temps, j'vais dans l'même sens, j'suis résistant Les vrais, les putas, tout se mélange, se mélange, se mélange, se mélange Sais plus qui est qui, ça me dérange, me dérange, me dérange, me dérange De tous les fumar, ça me démange, me démange, me démange, me démange Mais j'aime quand la chica se déhanche, se déhanche, se déhanche, se déhanche Les vrais, les putas, tout se mélange, se mélange, se mélange, se mélange Sais plus qui est qui, ça me dérange, me dérange, me dérange, me dérange De tous les fumar, ça me démange, me démange, me démange, me démange Mais j'aime quand la chica se déhanche, se déhanche, se déhanche, se déhanche Comme Aznavour, je me rappelle d'un temps Ça chouravait des boosters deux temps J'hésite jamais entre les sous et l'sang Pour les caner, vous le savez, j'ai l'son</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Black machine</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Oh ! Les bras en lair, ça peut tuer I am the best rapper alive Je suis le meilleur rappeur français en vie Brah ! Forever Young, allez viens on temmène, Forever Young On les emmerde, un million dproblèmes, on les enterre On veut être millionnaire, Forever Young, levez les mains en lair Jmène ma guérilla, cest du Alonz Je viens des cités dor, je ne veux pas dbronze Cest la Black Machine, chicha qua le goût résine Je vaux 1 milliard en kidnapping Et cest le retour de K.A.S.S.I.M PIMP ! 2 milliard de clip sur Google Chine, wallah reste tranquille La baraka même sous bière fine Jcabre Saint Antoine, Bougainville À deux doigts davoir les cheveux longs défrisés comme les ptits dma ville Click-Click PAH ! PAH ! Cest moi qui tire, mettez-vous dans la file Tapage nocturne dans ta cité Lalbum est sorti, les 3.2 écoutent papé Bourricot ouais jsuis au top, je suis prêt à mettre les gaz Quel corps sur le sol sera dessiné Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Faut les fumer ! Brah ! Jvais les fumer Motherfuck jai la santé, les couilles à Béné Belafomouk, je suis sur la route, jarrive au taquet Poussez, poussez Ajax, Tottenham Fenerbahce, Hooligan No Limit, Menace de société Et sucez-nous la bite, on arrive, ça va péter Ça va péter ! Campeón Campeón !, popular On a affrété un jet, avec deuxtrois chars Deuxtrois chattes mais je suis le Capo dei Capi Jachète larbitre et le match, appelle-moi Aulas ou Tapie Wallah recule sinon jappuie, jsuis Marseille mais en pleine forme Plusieurs Luciano, Alonz', imagine lalbum Monstre, jai la frappe, jai le seum, le bon, celui qui t'explose Jvais mourir en studio par overdose Cest la nuit dnoce, le rap français jvais lui fourrer Direction Las Vegas, jvais lexporter, hors de portée Dans les cordes, loreille je vais lui mordre Jai 2054 raisons denculer la concurrence, vous verrez, vous-verrez, vous verrez Game-Game Over ! 1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Boîte à chaussures</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Yeah, c'est le Capo dei capi T.R.E.I.Z.E., Marseille Tu veux d'la pure, j'te file deux-trois contacts Tu veux des kalash, j'ai deux-trois contacts Tu veux des putes, j'te file deux-trois contacts Tu cherches des gamos, j'ai deux-trois contacts J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets Tu veux des c-tru j'ai deux-trois contacts Tous tes négros sont fragiles Tout comme ma patience est fragile Sale temps pour sortir un clebs On fait tomber la neige dans la ville On avance toi tu replies Pour un rien on sort la panoplie Dans les mains Alcatel Chouf mes pieds Zannoti Bar, rami, machine corse Prénom d'mon sang sur le torse Ferme-là on parle affaires Tu baises mal elle divorce Tu veux d'la pure, j'te file deux-trois contacts Tu veux des kalash, j'ai deux-trois contacts Tu veux des putes, j'te file deux-trois contacts Tu cherches des gamos, j'ai deux-trois contacts J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets Tu veux des c-tru j'ai deux-trois contacts Tu m'dois une brique, j'te dois une balle Beuh, billets, tout est végétal J'suis à la salle j'me fais les bras Je prends vite, elle me dit Je t'aime miskina J'ai faim, chauffe le mayelé Comme les nourrissons, j'aime les mabelés Je cherche des moyens, tu cherches des excuses Tu poses trop d'questions, t'es suspect Tu fais la hnine, pas nécessaire J'les aime avec du caractère On va séquestrer Luis Castro Pourquoi Ghilas n'est pas titulaire ? Tu veux d'la pure, j'te file deux-trois contacts Tu veux des kalash, j'ai deux-trois contacts Tu veux des putes, j'te file deux-trois contacts Tu cherches des gamos, j'ai deux-trois contacts J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets J'ai des boites à chaussures remplis de billets Tu veux des c-tru j'ai deux-trois contacts Jamais deux sans trois, mamé Si t'aimes pas, j'en ai rien à foutre Vu c'que tu aimes comme rap, j'peux rien faire pour toi mon pote Cette année, j'sens qu'on va bien s'marrer Allez, allez, même celle-là j'la mets pas dans l'album j'm'en bas les couilles J'suis un gamin, quartier nord Les voyous sont de plus en plus jeunes Oui je sais, mais j'peux rien y faire mon frère ComorienNouveau7</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Boîte séquentielle</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>C'est mon papa à la prod' Mamé, papé A.L.O.N.Z.O 2054, papé Dis-leur J'ai deux Rolex présidentiels, j'vais voir l'OM en présidentielle J'prie, j'oublie jamais l'essentiel, même avec liasse couleur arc-en-ciel Boite à vitesse séq-séquentiel, au pire j'me mets debout sur la selle 20 ans que j'défends ma parcelle, nique-nique ta mère toi et ton cartel La belle vie c'était le déclic, j'ai fait danser des surs et des flics Comment elle va, poto, ta vielle clique ? Tu veux le million tu joues sur Betclic Bat les couilles on vient du terter, on a des monstres comme au Bol d'Or On apprécie quand même le confort, pour ça qu'on veut quand même le RR Ta folle te prend pour un gros mongol, mets du Jack au moins qu'on rigole Marseille, Marignane, Vitrolles, t'es qui ? Wallah qu'on a pas d'idole Millionnaire qui prend le métro, je serais aux States, je serais à Detroit Tu dis souvent que t'as les métaux, tu partages pas ton shit tu mets tout On nique les BDH, forceurs, mon frère Souleymane a un grand cur Molo molo molo chargeur, cr-cr pah pah secteur Grosse cojones dans le jean, on fait ce qu'on peut pour être dans le dîn On fait ce qu'on peut pour éviter les djinn, tchin tchin j'suis dans les magazines J'dépense tout, j'devrais mettre de té-cô, elle m'énerve j'défonce la déco Je bouge en Suisse je bouge à Monaco, montre suisse, un verre de Monaco J'dépense tout, j'devrais mettre de té-cô, elle m'énerve j'défonce la déco Je bouge en Suisse je bouge à Monaco, montre suisse, un verre de Monaco Mmh, j'vais être regretté comme Dalida, mi corazon est dans un sale état Tu parles de moi pourtant on se connait pas, tu juges ma vie sur ce que je mets dans les bacs Dans la meute que des loups c'est horreur, j'ai fait confiance c'était ma seule erreur Ces fils de pute méritent aucun effort, ils veulent ma chute me revoir dans les cordes Avec ces clebs j'vais couper court, le 63S ne fait pas demi-tour T'allumes la mèche après que tu cours, tu cries comme une meuf tu montes dans les tours Ces paresseux ne savent que tweeter, j'suis ambitieux don j'ai tout mérité Aucun de vos pères ne m'a validé, j'vais tout arracher puis j'vais m'arracher Tes morts</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bonne</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Playboi Raki Ouvre la porte, c'est Fakri Jenkins à la prod La cité en héritage, appelle-moi le Capo, le véritable wow Aux Baumettes, mon son dans tous les étages, j'suis en dérapage, c'est du pilotage pa-pa-pa-paw Les salopes retournent leurs vestes, j'leur sors le semi-auto', plus un geste paw Niquer Sofia Ricie, c'est le must paw, on est des crapules de la pire espèce pa-pa-pa-paw C'est des gros fatigués, laisse-les, ils s'inventent tous des cojones, hun 4x4 noir, quatre packs, j'bois, va t'faire voir, ouais, ouais, ouais C'est pas une série, c'est la vraie vida ouais, on a la frappe, on a la panenka ouais Mash'Allah, tu as sorti le Clio 4 ouais, à dire, c'est le prix de mon écotaxe eh eh Tu as vu la dégaine 'gaine, j'peux niquer une Américaine niquer une Américaine La sacoche est pleine pleine, c'est même pas encore le week-end c'est même pas encore le week-end Belvédère à crédit à crédit, harchem, ils sont une vingtaine harchem, ils sont une vingtaine Tu as dit ce qu'on t'a dit ce qu'on t'a dit, les pookies dépassent pas la trentaine les pookies dépassent pas la trentaine Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne, la drogue va payer sa dot Elle sait qu'elle est bonne, la came va payer son sac Chanel Tant que ça rapporte, bah, tu m'en ramènes, j'ai trop de dégaine quand j'me promène Moi, je la cuisine, toi, tu la renifles, c'est pour le re-fou qu'on va les rafale Cette grosse folle peut donner l'go, y a du détail et du gros J'suis au charbon toute la journée, y a trop de vestes qui se sont retournées Toujours efficace à la Pirlo, pour la ppe-fra du Rif, c'est par là Pas besoin de parler pas besoin de parler, pas besoin de parler La Kalashnikov est sur la moto, c'est la cité jusqu'à la muerte bang Elle sait qu'elle est bonne bonne, tous mes charbonneurs tombent love Elle sait qu'elle est bonne, tous mes charbonneurs tombent love Reste assis, t'es pas prêt, pour le plavon, j'arrive ganté Chacun sa part sur le gâteau chacun sa part sur le gâteau Yeah, yeah, yeah Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne bonne, la drogue va payer sa dot va payer sa dot Elle sait qu'elle est bonne, la drogue va payer sa dot1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bonnet A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>T'as battu le record ouais je prends la gagne L'école de la rue connait pas Charlemagne J'ai nagé dans la crasse et j'ai bu la tasse On fait tourner ta tasse le joint on le tasse Au before je suis venu en short Un goute de trop je veux qu'elle avorte Mon train de vie vient pas de la gare Incendie j'ai dans mon regard Me fais pas la bise wallah t'as la gale J'paye avc la black et la gold au pays de la Gaule T's tellement khéné toute ta vie on t'a mis au goal SI t'accélère je te colle J'suis daltonien à part le jour de paye Elle fait un bonnet A mehlish elle a de beaux orteils J'ai 100 millions frère je prends le bus J'veux pas mourir bêtement au volant du Urus Tu connais du monde je connais tout le monde Tu veux te cacher où ? La Terre elle est ronde La pression on la boit avec de la pêche T'as beau être un requin wallah tout se pèche</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Booska Terrain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hey A.L.O.N.Z.O papé Pour booska P Booska terrain Breeeeeeh Alonzavo Hey Imbécile j'envoie des missiles Je rate jamais mes cibles Rien n'est impossible Je reviens de loin j'ai le banger facile Tu veux m'atteindre c'est mission suicide Demande a mon pote sid même quand je dors je cogite A la prochaine rafale sur le beat J'arrive je suis Omar cours vite Ou bien ramène ton équipe J'suis hnine faut pas q't'en profites zebi J'ai mes jnouns qui s'agitent Je soigne le mal par la mala J'impose le game, un faux rythme Comme ça m'excite quand ils pense que j'suis dead J'vais leur mettre la trique Hypocrite on sera jamais quitte J'vous attends en feat J'm'appelle pas Kassim si vous repartez pas chez vous en slip J'ai pas toujours eu ce que je mérite me3lich Tant que tu cliques, que tu ressens la pression Salope tu sais plus ou t'habites c'est le capo Ohhh il veulent a tout pris récupérer mon terrain qui qui dit moi On s'en bat les couilles on bougent pas cet été on bouge pas nooon Si tu veux la guerre jespère que t'as des lovés t'as des sous Nous on fait pas dans le cinéma Ohhh il veulent a tout pris récupérer mon terrain qui qui dit On s'en bat les couilles on bougent pas cet été on bouge pas nooon Si tu veux la guerre jespère que t'as des lovés t'as des sous Nous on fait pas dans le cinéma J'entends ton coeur qui fait boum boum ça me fait danser c'est Magique Que sa m'critique mais en soum soum ils veulent faire partit d'ma clique J'recherche l'anonymat depuis q'je sais c'est quoi dêtre riche J'ai galéré mais ils s'en battent les couilles ils voient que les chiffres J'décharge ma rage sans pitié J'rap comme un ptit de 17 ans dans la street La sacoche plein de shit qu'attend de faire son hit T'cherches mon naturel il revient en Tmax Akrapovic Car dans ma ville y'a les armes de Slobodan Miloevi RS6, R6, Asics, les assises, le biz Les balances qui viennent normal te faire la bise Lève toi d'la route j'en ai plus rien a foutre laisse parler la foudre Dehors sa vend la poudre j'ai rien a voir je sais ce que sa coûte C'est le capo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Bout de shit</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>En fin de journée je fly shit Dis-moi où c'est le Plan d'Aou Seul ton passé t'appartient, la mort t'fait le baise-main Blanc comme le jasmin ou noir comme un cul d'joint Riche ou bien mesquin, fuir le quotidien Rire de nos desseins ou jouir sur un bout d'sein J'tourne comme une roue et j'accélère comme mon pouls Les forces de l'ordre les ripoux, la Roumanie au feu rouge J'ai l'cur qui m'gratte, mes idées qui s'battent Y'a Iblis qui m'jacte que j'suis pas maître de mes actes C'est la raison pourquoi j'appuie pause quand je roule mon cône Métro, boulot, dodo, moi je veux la Bugatti Veyron Peut-être que cette chienne de vie, je la trouverai moins conne Peut-être que si j'me marie, je la trouverai moins bonne J'fais le tri de mes cauchemars et de tous mes rêves Je préfère largement faire la fête, me taper des barres, quel que soit le prix Comme je ne sais pas comment va finir mon ami, comme mon ami sait pas comment va finir ma vie Mais ce qui est sûr, c'est qu'on va pas tarder à monter aux Quartiers Nords En fin de journée je fly, c'est l'moment de prendre la route Dis-moi où c'est le Plan d'Aou que je touche mon bout de shit En fin de journée je fly, c'est l'moment de prendre la route Dis-moi où c'est le Plan d'Aou que je touche mon bout de shit Mon bout de shit, mon bout de shit, que je touche mon bout de shit Mon bout de shit, mon bout de shit, ressers-moi mon bout de shit Mon bout de shit, mon bout de shit, ressers-moi mon bout de shit Mon bout de shit, mon bout de shit, mon bout de shit, yeah À défaut de pouvoir toucher les étoiles, Hollywood A fait en sorte qu'on puisse les piétiner le long de la route Quitter la terre ferme à bord de la fusée Amnésia HLM et villas savent où se trouve la NASA La mama est solide, nous on se tue pour du liquide Sur le bon chemin ça klaxonne alors qu'le trafic est fluide S.O.S, jeune en danger On veut être des B.O.S.S endiablés Dans les nuits blanches, hommes noirs, armes blanches, armes noires Vaisseau, Esso, El-Khalaïfi, or noir Volontairement on perd la mémoire quand on consomme la barette noire Si je m'envole et que je me crashe, dis-moi à quoi servira de retrouver la boîte noire ? Carte VISA et le Plan d'Aou, Ibiza et le Plan d'Aou Elisa et le Plan d'Aou, Balenciaga et le Plan d'Aou Comme je ne sais pas comment va finir mon ami, comme mon ami sait pas comment va finir ma vie Mais ce qui est sûr, c'est qu'on va pas tarder à monter aux Quartiers Nords En fin de journée je fly, c'est l'moment de prendre la route Dis-moi où c'est le Plan d'Aou que je touche mon bout de shit En fin de journée je fly, c'est l'moment de prendre la route Dis-moi où c'est le Plan d'Aou que je touche mon bout de shit Mon bout de shit, mon bout de shit, que je touche mon bout de shit Mon bout de shit, mon bout de shit, ressers-moi mon bout de shit Mon bout de shit, mon bout de shit, ressers-moi mon bout de shit Mon bout de shit, mon bout de shit, mon bout de shit, yeah4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Braquage vocal</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Jai voulu momentanément lâcher c'que javais dans la tête, collègue Y'a plus tueurs, que des corrects Que des coup dencul' audiophonique sur la sellette, jleur fais la roulette Ils font que servir d'la merde en barquette, collègue Y'a des pies, y'a des aigles, y'a du sperme, y'a des règles Y'a plus dacteurs que de vraies scènes dans vos textes À qui vous vendez ça ? À force ils reconnaîtront plus le bon Jai fait des kilomètres de vérité pour mon charbon Jai les singles rabatteurs, à chaque morceau joffre le rajout Ton rap me monte au parf', faut que tu me rembourse Cest Dramatik Music, tombe un pack, collègue Jvais leur cabrer sur la tête en compet', collègue La couronne ? Que dégun me la lègue Je suis le peuple, je suis de ceux qui subissent les règles, hiro de la puta Tu critiques avant davoir écouté le long format, après tout cest normal Khoya ! En déficit de la banque du talent, certains viennent braquer les gros Mais ces beijos, ils le font sans les gants, donc au final ça sentend d'trop Ils sen rendent même pas compte quils rappent comme leur idoles, en décalage de moins de 2 ans Le rap cest devenu le Dallas, oh pépé Ils mettent trois heures pour signer puis t'font un album dégueulasse Amplifié par lappui des magazines et les radios Rien à foutre jsuis Alonzo pas Christopher Wallace Pas là pour vendre des histoires fantastiques aux bourgeois, nah Ça serait la hachma, nah, je traine au Plan dAou, moi Jai toutes les races de mon quartier dans la mâchoire Élevé au bruit du tractopelle, arrache-toi, jm'invente pas de vie moi On sait ce que tas fait, ce que t'as pas fait Ce que tas carotté, c'que tas camouflé Mon environnement cest mon reflet 8 heures vingt sur le Pradel à moitié réveillé, je suis un padre J'ressemble à mes disques et je prends le risque de finir aux oubliettes comme pas mal dartistes Les goûts vont avec les saisons, les années, les humeurs, les générations Pendant que tu combats le FISC Oh my god, la miss, jme suis amputé Jai arrêté lécole car largent m'a envoûté On vit la discrimination monétaire, quand tas rien, t'es personne Y'a embouteillage dans lembauche annonce le bison futé À 17 ans j'tenais l'biberon J'faisais des cash pendant qu'les gens écoutaient mon son sur Skyrock Qui a osé prendre ma rage à la légère ? Que je le fasse tomber du haut dses talons Salope, si ty à mal au ventre prend un Spasfon Les hommes se font belles, ils s'promènent avec des tampons Avant que je parte comme Cantona, jprends la Ligue des Champions Jvous laisse lUEFA et vos médailles de consolation Traction avant-arrière, jsors pas le 4x4 du concessionnaire Jroule en smart noire dans les rues de Marseille Demande à mon quartier, ils me connaissent Ils veulent que je pose mes cojones Que les MCs se jettent dune falaise, papé Empégué, jvais tout leur dire La vodka pomme va parler, jte jure, jvais tout leur dire C'que jai semé, qui la récolté avant de s'enfuir ? Jle reconnais, jsuis pas businessman, j'sais pas mentir, nah Je sais que chanter lincompréhension de mes frères Représenter les gros déréglés du ter-ter Représenter toutes les larmes que versent les mères Représenter tous ces drames au goût amer, hein Qui nous vend ce rap en carte postale ? Qui est le vendeur de rêves ? Qui a le nez plongé dans son capital ? Qui à cette fausse modestie ? Qui soigne ces écrits ? Alors quen vrai, jsuis sûr quil parle mal On en a marre, on sreconnaît plus dans vos textes C'est soit faut sortir les pare-balles ou soit faut sortir les Kleenex Public, cest un gros chantier le mouvement Jsuis pas parfait, jessaie juste déviter la peinture fraîche quand jsuis en blanc Histoire dêtre présentable devant mes semblables Jvends pas mon père pour être diffusé sur le câble Public, ils veulent sauver le rap mais cest des assassins Comme Lino je les fume et Dieu reconnaîtra les siens ! Braquage vocal à visage découvert2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Brinks</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi il pleut des douilles Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi je chouf ton boule J'ai bourré ces cochonnes et me suis barré, elles puaient d'la shneck comme le Port-Salut Le futur de ton rap français il est devant toi, il a fière allure J'ai que vingt-trois piges j'roule en gros gamos sur la route du 13 avec poto Alonz' Négro j'suis trop auch, clito côté gauche, frappe dedans comme Roberto Carlos Bah ouais qu'tu sais pourquoi on veut des sous, alors fils de pute augmente mon cachet Ne me force pas à arrêter le rap à vendre à ton fils la mort en sachet Des putains d'douilles dans le putain d'chargeur, j't'allume ta mère, j't'allume ta sur J'lui ai avancé du shit il a pas payé, j'ai vu sa mère pleurer devant l'pasteur Ah ouais t'es dead sale fils de pute t'as voulu rotte-ca Si tu m'dois des sous j'irai t'chercher comme la frappe du roc-Ma Papé, Sheguey pour faire kiffer la street, 5-9 capitale de la beuh meilleur tarot On repart aussi vite que les Garohs, demande pas pourquoi mes reubeus sont paros Mets des tempêtes aux douaniers, aux inspecteurs, accélère le moteur de ton putain d'Beemer Nord, Sud, Est, Ouest, il pleut des douilles pire qu'à Bucarest Le nerf de la guerre sheguey c'est les sous, la fierté ça coûte cher demande même à Zizou Fusil mitrailleur pour venger ton honneur, comme à Marseille on t'allume si t'es d'ailleurs Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi il pleut des douilles Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi je chouf ton boule Vas-y négro fais péter le camion d'Brinks, ouais rebeu pète le camion d'Brinks Prends c'qu'il y'a à prendre dans ce pays d'merde on va pas s'contenter du SMIC Ouais rebeu, faut ramasser, le rap français faut l'terrasser Un million, deux millions, plus que Musulin y'en a pas assez WAllaye je tire cash dans la foule, sa mère la pute lui qui vient s'mêler Je fais la sieste avec la cagoule pour m'endormir je compte les violets Quartier Nord c'est plus chaud que l'Amérique, autant d'shit que le pays à Gullit J'compose plus de numéros d'écrou, que de numéros de foufs Marche ou crève, 2.80, Autoroute du Soleil sans ouvreuse J'ai dit à Mama que j'revenais donc je nique le barrage à la sulfateuse On est ensemble, ça dépend pourquoi, transaction, prise de pouvoir Ma passeuse revient de Kinshasa, Charles De Gaulle, boubou, Terminal A Tu sais pourquoi on fait des sous, tu sais pourquoi elles aiment les youvs Malik L'argent distribue des pêches en showcase y'a bagarre dans la foule Sur le terrain avant que le soleil se lève, tes rappeurs cheminots font la grève On fait du sale quand tout est nickel, Taille S, on allume les triple XL oh J'te demande si ça va en vrai je m'en bats les couilles J'suis là pour hagar tes sous, mais avant ça, viens on boit un coup G.R.A.Dur, Alonz' c'est d'la friture 2g, 0.9 pure, deux G sur la ceinture Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi il pleut des douilles Tu sais pourquoi on veut des sous, tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous comme tu sais pourquoi je chouf ton boule Vas-y négro fais péter le camion d'Brinks, ouais rebeu pète le camion d'Brinks Prends c'qu'il y'a à prendre dans ce pays d'merde on va pas s'contenter du SMIC Ouais rebeu, faut ramasser, le rap français faut l'terrasser Un million, deux millions, plus que Musulin y'en a pas assez Tu sais pourquoi on veut des sous Tu sais pourquoi on veut des sous Comme tu sais pourquoi il pleut des douilles Sheguey !2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Broly</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Nan nan nan, n'envoie pas le mouton tuer le loup, en France y'a pas de bloods Que des p'tits chaperons rouges qu'on fait une fois deux-trois sous Donc va bourrer tes morts, on va te traîner Dans le rap j'suis Broly, venez Sens-tu la crise, nigga ? J'ai placé l'as, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large nigga Les temps modernes Mais reste peace, nigga C'est que du rap, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large, nigga Atterrissage rocambolesque sur le tarmac J'arrache les plots, deuxtrois bonhommes jaunes, le rap est car-jack' Mitraillé dans les airs comme à lépoque des Deutsche Marks C'est top gun, ferme-la, c'est top gun, j'tarnaque Où est le king ? J'suis sur le ring J'ai entendu le dring, c'est bang-bang ou bim Moi j't'abîme coquine, meskine, laisse-les couiner Ils auront rien à dire, dans mon passé ils iront fouiner Le rap c'est Halloween, il s'déguise pour des bonbons, t'imagines Alonz' n'est pas vendeur pour les magasines Dans la bouche y'a la carabine, Black Machine, j'sors de l'usine Car Marseille n'est pas content de sa vitrine Ça trime la quantité comme en Chine 2.0.5.4 et garde ta paraffine J'te cabre sur la calvitie sans la codéine Toper par les cris des hyènes, l'instru' je lassassine, clean Sens-tu la crise, nigga ? J'ai placé l'as, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large nigga Les temps modernes Mais reste peace, nigga C'est que du rap, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large, nigga Nan m'invite pas à boire dans ton puits pour me pousser dans le trou J't'étrangle avec la corde du seau, mec J'ai trois enfants, j'ai pas le temps de blaguer dans la musique Ils sont des miss sous la couche la jouer fine c'est pas ma touche J'vends pas de rêve à ceux qui mécoute mec Lève le roof mec, quand tu m'chouffes mec Dis-moi qui veut voir passer à la guillotine Alonzo, j'ramène les blocks dans les charts, coño Pas d'promo, j'prends l'traîneau Tiré par des loups qui parlent chero', prend le chrono top Je repars en snow, flash photo Nom de Dieu je les traîne dans le caniveau, Broly est chaud Ramenez-moi Vegeta, Goku et Piccolo J'ai les yeux blancs à force de vous voir vous battre comme des chards-clo 2.0.1.0 y'aura la Coupe du Monde et mon solo Préparez la morphine, j'vous pine Sens-tu la crise, nigga ? J'ai placé l'as, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large nigga Les temps modernes Mais reste peace, nigga C'est que du rap, nigga J'suis loin de là, dans l'espace, sur Mars Donc laisse place, j'suis large, nigga1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Bronzé à vie</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie T'as pas autant de rageux que nous t'es personne ici Majeur en l'air, majeur en l'air, le premier qui parle on déterre sa grand-mère Le rap on l'asperge de liquide urinaire, tu marches pas droit, c'est qu'on te l'a mise par derrière M.A.R.S.E.I.L.L.E, j'joue au billard, j'ai des boules, j'ai une queue Parions Sport c'est quoi la côte ? C'est quoi la côte ? Sur un match je vais miser mille eus J'te baise quarante-cinq minutes, j'fais mon cardio, j'envoie la vidéo à Closer ou RapMag La 0.9 arrive du pays de Pablo, j'ai des putes à Rio, toi tu baises au Cap d'Agde Tu faisais l'insolent, là tu demandes pardon, bien-sûr je te rejette comme un plat aux lardons Capo Dei Capi je suis les patrons des patrons, tu veux clasher papa, c'est quoi cette éducation ? Kilo Alpha Sierra Sierra India Mike sollicité Disque d'or les pédés vont mourir les vrais vont m'féliciter, l'impression d'écraser la concurrence avec facilité kodo ! J'suis avec deux-trois tireurs dans un B4, Foumbouni, le village le plus hardcore Pour mes détenus j'mets tout l'monde d'accord À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie T'as pas autant de rageux que nous t'es personne ici Moina n'gazidja-harbi, moi basané à vie J'ai tellement fait avaler ta bitch, qu'elle en a balafré ma bite J'étais déjà marteau en pédiatrie, demande au Capo Dei Capi J'peux quer-cra, shooter l'arbitre si j'ai envie d'partouzer ta team Putain d'esclave, indésirable, monnaie crade, qui m'interdira ? Soit tu payes, soit c'est ta mère qui raque, le revolver ne réfléchit ap' Pardon pour le bruit et l'odeur, les singes bonobos font griller l'moteur Mes Mandingos vont plier vos surs, donnent trop de boulot pour un gynéco seul Tu m'attendais pas, quand j'réponds présent ça fait raf' Mon talent déboîte, j'te fais du Beethoven en claquant des doigts J'perds les pédales mon compte en banque est mal, j'ai des stupéfiants dans mes Flights J'ai tenté d'le chasser mais mon naturel revient cash en T-Max À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis À la guerre, comme au lit, tous les coups sont permis Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie Moi pas besoin du soleil, moi bronzé à vie Comorien nouveau Moi bronzé à vie, moi bronzé à vie T'as pas autant de rageux que nous t'es personne ici T'as pas autant de rageux que nous t'es personne ici Des fois j'aimerais les apercevoir mais ils sont trop petits Ton public croit que t'es chaud mais tu joues de la mandoline Tu cours après moi, t'es essoufflé, prends de la Ventoline T'as pas autant de rageux que nous t'es personne ici Des fois j'aimerais les apercevoir mais ils sont trop petits Ton public croit que t'es chaud mais tu joues de la mandoline Tu cours après moi, t'es essoufflé, prends de la Ventoline3</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BUMPY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Mourir du P38, mourir du COVID COVID, quand la barrette s'effrite, wAllah on cogite WAllah on cagite 2-0-22, papy, c'est torride, mes prières j'les prends comme le SP, j'te jure, ça corrige Ça corrige Plusieurs au départ, la moitié perdue au premier virage et j'ai pu lire la peine de mama sur son visage Sur son visage Soudé dans l'ghetto, c'est qu'une image, aujourd'hui, ça cherche à t'faire la peau pour du grammage Quand j'veux savoir c'qui s'passe dhors, j'dois appeler dedans Ddans Que c'est physique, m'ma, ça change pas les plans On sait très bien qu'ça vient du Nord, on sait très bien qu'c'est violent Et qu'y a pas de Terminator sur la planète des vivants Un bingo, une partie d'cartes, une table de billard Les cerveaux gazés au haschich, rêve de faire des milliards Dans ce monde, presque tout est faux, rien ne sert de prier La tristesse ne fait pas écho, rien ne sert de crier Abat la hess, faut venir voir Faut venir voir, faut venir voir Faut venir voir Quand vient l'soir Quand vient l'soir, on s'met à boire Ils nous ont menti toute notre vie, il nous reste qu'à prier La tristesse ne fait pas écho, rien ne sert de crier Avoir la vie de Bumpy coûte cher, cette vida coûte chère Tu perds des bouts d'chair Quand monte l'adrénaline juste pour un bout d'terre Ça s'prend à coup d'guerre, on s'croirait vivre à Medellín Avoir la vie de Bumpy coûte cher, cette vida coûte chère Tu perds des bouts d'chair Quand monte l'adrénaline juste pour un bout d'terre Ça s'prend à coup d'guerre, on s'croirait vivre à Medellín Ils ont pas eu d'vélo, ils veulent le Velar, ftus devenu fêtard Fêtard Ils ont levé l'ancre, pourtant levé l'arme Pourquoi j'parle de la même chose ? La gamberge est pessimiste On côtoie plus de chimiste qu'on connaît de pessimistes Une liasse violette dans le jean Amiri, on t'considère pour ce que tu as, tes émotions faut gérer Faut gérer Y a plus d'exemples, les derniers d'la classe se prennent pour des génies Des génies Y a que d'la trahison, les comptes de la confiance sont gelés Gelés Sous vovo, dans l'GLA, à regarder les étoiles À regarde c'que fait l'autre, avoir envie d'mettre les voiles Ne plus regarder sa montre parce que le temps nous aide pas On n'est pas né avant la honte pour ça qu'le froc on baisse pas Un bingo, une partie d'cartes, une table de billard Les cerveaux gazés au haschich, rêve de faire des milliards Dans ce monde, presque tout est faux, rien ne sert de prier La tristesse ne fait pas écho, rien ne sert de crier Abat la hess, faut venir voir Faut venir voir, faut venir voir Faut venir voir Quand vient l'soir Quand vient l'soir, on s'met à boire Ils nous ont menti toute notre vie, il nous reste qu'à prier La tristesse ne fait pas écho, rien ne sert de crier Avoir la vie de Bumpy coûte cher, cette vida coûte chère Tu perds des bouts d'chair Quand monte l'adrénaline juste pour un bout d'terre Ça s'prend à coup d'guerre, on s'croirait vivre à Medellín Avoir la vie de Bumpy coûte cher, cette vida coûte chère Tu perds des bouts d'chair Quand monte l'adrénaline juste pour un bout d'terre Ça s'prend à coup d'guerre, on s'croirait vivre à Medellín - Merci à tous d'être là. Certains d'entre vous se connaissent personnellement. Certains sont amis de longue date ou bien ennemis. Je vous propose de nous unir et de décider nous-mêmes de notre avenir. - Tant qu'ça sera toi le roi ? C'est pas vrai ? Bumpy ? - Oui. Et toi, le fou du roi.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ça a changé</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Et j'me rappelle quand Et jme rappelle quand on voulait pas d'moi On voulait pas d'moi Et javais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Et jme rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on mla poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder lheure Nourrit pas la salade, la farine, le pain, j'devais évacuer ma peur et me dire qu'il y a toujours pire Au fur et à mesure du temps, j'ai appris à me lever tôt et j'savais pour qui baisser les prix J'détaillais à part égale et la plus grosse barrette, nique sa grand-mère, j'la prenais comme cons' Nous aussi, on a connu les perte, les deux Skoda grise, le Berlingo, le Mandeo black Un paquet d'clope, un paquet d'feuilles et un she-fla en fin d'journée La boule au ventre, car l'uniforme bleu fait caval' l'alligator Oui, c'est rare quand j'suis pâta-retard, si j'suis en retard un mois sur la paye Et toi, tu me parle d'argent facile mais si je me gaffe, c'est d'la prison ferme Faut qu'j l'a récupère et ensuite, j'me repose Demain, j'dois tout détaille, la livrer au tit-pe Et une fois qu'l'petit aura tout fait partir Il faut qu'j'aille voir Deuspi pour qu'il distribue les paye, yeah yeah Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Capo, Koba, v'la la paire, fait renter le caba, les pochons d'herbes J'suis dans les finance, j'ai plus confiance, AK-47 dans l'Golf 7R Marseille, c'est violent, y a rien d'étonnant, découpe, découpe les kilos, oh X-ADV sur le rrain-te, le négro est casqué, esquive les gyro', oh Ta go fait la fraiche, miskina, elle viens chez moi tout les jours faire le ménage Merde J'me lève à quinze heure, je suis khapta, j'prend le jetski Yamaha à Samena Merde Six heure du mat', ça fait Pah-pah-pah, tout est chez la nourrice, ah-ah-ah Patek Philippe à 100K-K-K, j'mange du caviars en-cas cas-cas-cas I'm sorry, y a mon son dans ta story L'été sera torride, fait pas d'grimace a un Gorille Y a d'la p'tite, j'fais croquer mon fils Kylli' Dit leurs que c'est pas fini, de la piwi au deux et demi Et j'me rappelle quand Et j'me rappelle quand on voulait pas d'moi On voulait pas d'moi Et j'avais rien Et j'vais rien, même une plaquette, on m'la poussait pas On m'la poussait pas Mais j'crois qu'ça a changé J'crois ça a changé, Audemars Piguet Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Et j'me rappelle quand on voulait pas de moi Et j'avais rien, même une plaquette, on m'la poussait pas J'crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure Eh, eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Eh ,eh, eh Hey Eh, eh, eh Hey Eh, eh, eh, eh, eh, eh Et j'me rappelle quand, on voulait pas de moi Et j'avais rien, même une plaquette, on me la poussait pas Mais je crois qu'ça a changé, Audemars Piguet Et j'sors même plus mon iPhone pour regarder l'heure</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cagoulé</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Parle bien ou parle peu, un conseil, frère On t'laisse rien, en deux-deux, on est quitte, frère C'est nerveux, les gang viennent de la Terre Mère De Marseille à Lyon, en passant par Montfermeil La kush dans le sac, go-fast par à la porte, frère 100K le jour de l'An, ça débite le matos, frère À ce rythme, on vis pas, on survis, c'est Narcos, frère Srs-moi un Ricard, j'ai remis le Lacoste, frèr J'suis plein d'caféine, d'bon sbah, c'est ma gasoline, pas d'cocaïne, grosse merde, touche pas l'héroïne Ouais, ça porte la guigne, tu fais trash comme à Halloween D'mande à Alaoui, j'broie du noir comme au Malawi Gaffe à ta réput', tu traîne avec qui ? Hendek, y a des fuites ils veulent que tu chute, que tu meurs dans la nuit J'suis à la pompe de Agip, j'te piste dans le Audi gris J'veux m'arracher en Égypte, éviter le Mistigri On a tous les yeux rouges Rouges, des chiens, dégaine de malfrats Et quand faut faire des sous, on a tous la vision en infra' AK, personne bouge, ça impressionne comme le haka Obligé d'remettre une couche et ra-ta-ta-ta-ta, c'est papa, L.I.N À 2.30, on la pousse, la loc' Pousse la loc', un cul-sec et ça freestyle dans l'bloc Dans l'bloc Et on vas faire des disque d'or, Europe Europe, on s'en bats les c', ils peuvent venir, y a l'bloc Y a l'bloc On fume la beuh de Bob Marley, bientôt, on vas rodé en Harley On fume la beuh de Bob Marley, ils vont faire tchi, ils savent que parler À 2.30, on l'a pousse, la loc', un cul-sec et ça freestyle dans l'bloc Et on vas faire des disque d'or, Europe, on s'en bats les c', ils peuvent venir, y a l'bloc On fume la beuh de Bob Marley, bientôt, on vas rodé en Harley On fume la beuh de Bob Marley, ils vont faire tchi, ils savent que parler</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Caliente</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>L'argent facile nous met dans des situations difficiles A.L.O.N.Z Efficace à l'extérieur comme à domicile Papé, ah ah Miller Oh la la, Shaz À bord du fer, viens, on parle affaire Eux, c'est pas des frères, ils veulent te faire bouh Le bilan est lourd, combien on en perd ? Investir dans la pierre ou dans la guerre Baby, on travaille dans l'bâtiment bouh, bouh, bouh Baby, ça ravitaille, c'est comment ? bouh, bouh, bouh Mayday, j'sais qu'ils m'attendent au tournant Rien d'étonnant, c'est léger, ewh, ewh, ewh, ewh, ewh Caliente caliente, oh ouoh, ouoh C'est caliente, oh ouoh, ouoh Caliente, oh ouoh, ouoh C'est caliente, oh ouoh Quartier Nord, ma zone, j'viens pas du Massachusetts Massachusetts Une balle peut traverser ta joue, te faire une troisième fossette troisième fossette Pour remonter le berger, c'est les moutons qu'il faut suivre ouais Donc ta grosse folle a un traqueur qui mettra fin à ta fuite Ça cogite ça cogite, ça fume sûrement trop d'shit ouais Que ça fait les gros titres que ça fait les gros titres N3ar sheitan, ça d'vient gothique ça d'vient gothique Tu fais confiance trop vite ouais, quand tu es gentil, ça profite ça profite Vodka dans l'Tropico ouais, sous l'soleil des tropiques tropiques Faut penser à s'barrer penser à s'barrer, penser à s'barrer À bord du fer, viens on parle affaire Eux, c'est pas des frères, ils veulent te faire À bord du fer, viens on parle affaire bouh, bouh, ewh, ewh, ewh, ewh, ewh Caliente caliente, oh ouoh, ouoh C'est caliente, oh ouoh, ouoh Caliente, oh ouoh, ouoh C'est caliente, oh ouoh Caliente caliente, oh ouoh, ouoh C'est caliente caliente, oh ouoh, ouoh Caliente caliente, oh ouoh, ouoh C'est caliente caliente, oh ouoh À bord du fer, viens on parle affaire Eux, c'est pas des frères, ils veulent te faire À bord du fer, viens on parle affaire, ewh, ewh, ewh, ewh, ewh</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CAPO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>J'suis visionnaire, j'suis trentenaire, jamais sans mes partenaires Vise la tête ou baisse ton arme, ou c'est moi qui vais l'faire J'ai fait beaucoup d'papiers mais j'ai le mal du métier Désolé, j'suis entier, j'fais confiance qu'à ma moitié Des fois, j'me dis qu'c'est l'heure, j'ai trop fait le rappeur Mais j'aime trop ça, te dire le contraire, je serais menteur J'ai la tête à Bali, j'ai le corps à Bercy Mets-nous dans ta valise, exprim les yeux d'mes ptits Je ne suis pas à plaindre, dirons ces malades Je me sens bizarre, ça passera, ouais Je ne suis pas à plaindre, dirons ces malades Je me sens bizarre, ça passera Je n'ai pas d'inspi' ce soir, mon cur me gratte et j'en garde des séquelles Ma tête est ailleurs, il faut croire, sûrement j'ai besoin d'être auprès d'elle Y a du monde autour de moi mais je me sens seul, c'est personnel J'ai besoin de rentrer chez moi, j'en ai marre de dormir dans ces hôtels Je n'ai pas d'inspi' ce soir, je n'ai pas d'inspi' ce soir Je n'ai pas d'inspi' ce soir, je n'ai pas d'inspi' ce soir Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle Tu me vois rigoler sur Snap', tu me vois gravir les étapes Tu vois tous mes disques d'or, tu le vois que je suis souvent dehors À croire que je suis mieux là-bas, je prends des photos avec des nanas Je suis le Capo de seille-Mar, je viens du royaume du Wakanda J'ai dû arrêter de voler, véritable est ma carrière Et j'aurais toujours à prouver tant qu'y a des nouveaux sur le ter-ter J'aimerais te donner plus de temps, j'aimerais donner plus de sons Je sens plus circuler mon sang, ça m'a l'air d'être plus profond Je ne sais même pas pourquoi je te parle de ça, j'ai envie de vider mon cerveau et nique sa mère Je n'ai jamais été aussi coté que maintenant, mais pourtant, le game, j'lui dis Nique sa mère Je n'ai pas d'inspi' ce soir, mon cur me gratte et j'en garde des séquelles Ma tête est ailleurs, il faut croire, sûrement j'ai besoin d'être auprès d'elle Y a du monde autour de moi mais je me sens seul, c'est personnel J'ai besoin de rentrer chez moi, j'en ai marre de dormir dans ces hôtels Je n'ai pas d'inspi' ce soir, je n'ai pas d'inspi' ce soir Je n'ai pas d'inspi' ce soir, je n'ai pas d'inspi' ce soir Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle Encore une fois, je vais monter sur scène, chanter mes sentiments Comment veux-tu que je cache pas ma peine ? Regarde, ils crient mon nom J'ai tout fait pour réussir à quitter la rue et ses bâtiments Aujourd'hui, tu peux pas savoir comment je suis fier qu'tu portes mon nom Encore une fois, je vais monter sur scène, chanter mes sentiments Comment veux-tu que je cache pas ma peine ? Regarde, ils crient mon nom J'ai tout fait pour réussir à quitter la rue et ses bâtiments Aujourd'hui, tu peux pas savoir comment je suis fier qu'tu portes mon nom yeah Je n'ai pas d'inspi' ce soir, mon cur me gratte et j'en garde des séquelles mamé Ma tête est ailleurs, il faut croire, sûrement j'ai besoin d'être auprès d'elle mamé Y a du monde autour de moi mais je me sens seul, c'est personnel oh J'ai besoin de rentrer chez moi, j'en ai marre de dormir dans ces hôtels Je n'ai pas d'inspi' ce soir yeah, je n'ai pas d'inspi' ce soir yeah Je n'ai pas d'inspi' ce soir yeah, je n'ai pas d'inspi' ce soir Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle Sûrement besoin d'être auprès d'elle, sûrement besoin d'être auprès d'elle1</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CAPO RESTE CAPO</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ils pensent m'éteindre, c'est mort, j'ai la mentale du 13 Ramène-les moi et j'les mets tous fani Ils pensaient m'éteindre, j'suis assis sur ma chaise Mes ennemis me tiennent compagnie J'assumerai mes torts dans la rue ou la prison Prison, prison Et chez moi, tout l'monde le sait J'ai ramené disques d'or, j'compte même plus les saisons Saisons, saisons J'arrête pas de charbonner Dans ma ville, cette guerr me hante Ra-ta-ta-ta On me dit qu'c'st pas prêt d's'arrêter Ouais Sur mon fisc, ça trafique les ventes Dis-leur Ils sont éclatés au sol, tous marbrés C'est dans le pire que j'crois plus en moi Ouais Et là, j'entends Kassim finis-les Finis-les Fierté de mon tieks, m'arrêter ? Non, non Non On va régler les comptes mais sans citer d'nom Brr, brr Plus les années passent, j'me questionne est-ce la monnaie Ouh-oh-oh-oh, qui m'garde dans la musique ? J'écris des choses, tu étais même pas né Même pas né Et j'vous encule encore Ouais Okay, faites pas d'grands gestes, nan Sur mon père, on est pas sur Netflix, y a pas d'chicanos Brr Sois fière de ton fils, mama, même le cur malade comme Julian Loïs Je sais que j'les ai tant inspiré Ouais Des notes de piano en témoignent, j'ai pas drancur Dis-leur, dis-leur Serre un verre que je tise, bats les couilles de c'qu'ils disent Ouais J'vais pas faire semblant, j'suis pas acteur Dans ma ville, cette guerre me hante Ra-ta-ta-ta On me dit qu'c'est pas prêt d's'arrêter Ouais Sur mon fisc, ça trafique les ventes Dis-leur Ça trafique les ventes, ça trafique Ouais Capo reste capo, fort, trinquez à ma santé Vaillant validé, vaillant, ouais, chante C'est à votre santé, vaillant validé, vaillant M'arrêter, non, non, wAllah Ouais Ouh-oh-oh-oh-oh, ouh-oh-oh-oh-oh, ouh-oh-oh-oh-oh Qui je suis ? J'le rappelle un vaillant Un vaillant Un vaillant Vaillant, un vaillant, oh-oh-oh-oh Qui je suis ? J'le rappelle un vaillant Un vaillant, un vaillant, oh-oh-oh-oh</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Carré VIP</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>On est 10, 20, 30, 100, 1000, que des hors-la-loi Cartes volées, billets violets, on demande à boire Que des Arabes et des Noirs Que des Arabes et des Noirs Laisse-nous danser, laisse-nous danser Laisse-nous danser, jrépète laisse-nous danser Nique le rap français, nique le rap français Nique le rap français, jai dit nique le rap français Survêtement Ligue des Champions, Asics, tous dans le carré VIP Bijoux dfamille, bracelets électroniques, tous dans le carré VIP Tu fais shab tu mappelles Kassim, pour rentrer dans le carré VIP On n'a pas mangé à la main dans la même marmite, sors du carré VIP Carré VIP, carré VIP On brasse comme ceux du carré vert dans le carré VIP Carré VIP, carré VIP On pèse comme ceux du carré vert dans le carré VIP Diawara, Makélélé, Bonobo, Ronaldinho Tes capoté, tu fais un bébé, jveux le fêter, comme Bebeto Wesh le 'zin, jus de raisin, sors la machin, ya tout le gratin Carré rond dans le carré VIP, semelles rouges et les pieds qui piquent Un pied dans ltrou, un pied dans le trafic, cest que le mektoub, je fais que des classiques Fais pas le mec lourd tu vas caner comme Big, jcontrôle mes jnouns, semi-automatique T'as des punchlines, jai des punch S-Line, tête-à-queue dans ton quartier dans ta campagne pas de zig-zags Défoncé au champagne pas de zig-zags, de Marseille en Espagne À part notre bite, rien nest coupé, même pas notre shit Coup de fil, coup de reins frère on les nique, même notre amour a un goût dillicite Wesh le zin, tout sous le coussin, cent mille euros, en billets dvingt Jrentre en moto chez Pierre Cardin, donne le go, jsuis au casin Survêtement Ligue des Champions, Asics, tous dans le carré VIP Bijoux dfamille, bracelets électroniques, tous dans le carré VIP Tu fais shab tu mappelles Kassim, pour rentrer dans le carré VIP On n'a pas mangé à la main dans la même marmite, sors du carré VIP Carré VIP, carré VIP On brasse comme ceux du carré vert dans le carré VIP Carré VIP, carré VIP On pèse comme ceux du carré vert dans le carré VIP On bouge en équipe, on a du liquide, on a les bolides mais bordel de merde Depuis 2008, tu demandes un feat, sucez-moi la bite je dis non quand même Je rentre dans ses cuisses, elle crie de panique, bah ouais c'est l'Afrique tout est naturel Si tu timinik, y'a le P38, on se voit de suite, on règle le problème Les condés prennent en photo, nique sa mère, on boit au goulot poto, nique sa mère Le salaire à Cristiano, nique sa mère, ça vend le bédo poto, nique sa mère On a les chicots qui dépassent des lèvres, en moto-cross beau-gosse, on passe à la caisse On t'agresse t'arrache comme une dent de sagesse, on vous baise, on vous baise, on vous baise Capi Dei Capo Explosion capillaire, on met des Nike Air, le tour du monde en camion cellulaire Plus de place dans le carré VIP, on a trop de Belvedère Gourmette en or, Bois d'argent Dior, chez la nourrice, qu'des lingots d'or Et on a fait aucun effort on est venus en tenue d'sport Survêtement Ligue des Champions, Asics, tous dans le carré VIP Bijoux dfamille, bracelets électroniques, tous dans le carré VIP Tu fais shab tu mappelles Kassim, pour rentrer dans le carré VIP On n'a pas mangé à la main dans la même marmite, sors du carré VIP Carré VIP, carré VIP On brasse comme ceux du carré vert dans le carré VIP Carré VIP, carré VIP On pèse comme ceux du carré vert dans le carré VIP Survêtement Ligue des Champions, Asics, tous dans le carré VIP Bijoux dfamille, bracelets électroniques, tous dans le carré VIP Tu fais shab tu mappelles Kassim, pour rentrer dans le carré VIP On n'a pas mangé à la main dans la même marmite, sors du carré VIP Carré VIP, carré VIP On brasse comme ceux du carré vert dans le carré VIP Carré VIP, carré VIP On pèse comme ceux du carré vert dans le carré VIP</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Cauchemar</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux Je brille dans le noir, j'allume mon joint d'beuh Les poucaves sortent pas de chez eux Je vis dans un manoir, t'es dans un T2 Je sors en peignoir avec une arme à feu On dit que les chiens font pas de chatte Bizarrement ta chienne a une grosse chatte Sur un coup de tête j'rejoins Ayew au Ghana Pendant que tu fais la queue pour du bis-canna T-shirt sans logo, c'est un D-Squared Tu m'dois des sous, j'rentre chez toi comme le RAID KFC, remplacez vos frites pourries par du riz De reconduire une Clio, j'préfère mourir J'pars en showcase avec 15 VHR Faubourg Saint-Honoré, ma bagagerie est très très chère T'insultes ta mère, tu fais l'canard devant ta copine J'ai fait un cauchemar j'travaillais à l'usine Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux J'leur laisse des traces indélébiles J'suis en presta' chez Colette, eux à leur domicile Clé d'bras, cassage de bras, j'suis habile Koba, César, Koba, César, j'suis agile Si t'es jaloux, y'a rien à faire Pour du succès j'en connais qui vendraient père et mère Si j'te parle c'est pour ta chatte, kalashé dans le 4x4 J'compte sur personne, fuck les maths, fight fight J'suis un boss en Hugo Appart-hôtel, appart-hôtel Adagio J'fais des cauchemars, j'suis en classe éco' Jack Jack Jack... au goulot J'suis un redoutable chef de guerre La cocaïne vient de Martinique, on la revend et y'a R Gyrophare, les mains en l'air El Diablo, sur les tibias j'n'ai plus de nerfs Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Ils ont peur du noir mais ils ferment les yeux Je suis blanc comme neige mais j'ai un baveux5</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C’est elle</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Papé, N.I AWA the Mafia Les clins, le bâtiment, le sac c'est la zone, cest la zone J'ai promis d'rien dire à la BAC pour la zone, pour la zone Faut quj'm'éloigne du car cellulaire, j'ai charbonné mais j'ai pas fait assez On la vend en-bas d'chez nos mères, le commissaire veut garder nos lacets Traîner dans la zone, mourir dans la zone Mon premier joint, c'était dans la zone Mon premier tête, c'était dans la zone Maman sinquiète car jaime trop la zone Oui, j'aime trop la zone, peu damour à donner Et pour s'refaire, on leur a tout volé Y a pas qu'des frères mais j'aime trop la zone Oui, jaime trop la zone, oui, j'aime trop la zone Toujours chargé sur la A7 au cas où si un T-Max me suit de près Le siège bébé est occupé, joue pas au con, j'vais finir inculpé J'te donne la moitié d'une demi-heure pour mange tes morts et quitter la ville Où tu rentres pas, j'rentre en tenue de sport, je mets plus trop les pieds au hazi C'lui qui tient la sacoche ne tient pas le rrain-té, en masqué, je raccroche, le gamos est teinté Ça parle de gros transferts, d'investir dans la machin, de rafler le quinté Elle voulait que je lui ouvre mon cur mais les portes sont centralisées Pétard de jaune et j'écoute Chris de Burgh, cache la plaque, y a les banalisés yeah C'est la zone, c'est la zone, ouais, c'est elle C'est la zone, c'est la zone Les clins, le bâtiment, le sac c'est la zone, c'est la zone J'ai promis d'rien dire à la BAC pour la zone, pour la zone Faut qu'j'm'éloigne du car cellulaire, j'ai charbonné mais j'ai pas fait assez On la vend en-bas d'chez nos mères, le commissaire veut garder nos lacets Traîner dans la zone, mourir dans la zone Mon premier joint, c'était dans la zone Mon premier tête, c'était dans la zone Maman s'inquiète car j'aime trop la zone Oui, j'aime trop la zone, peu d'amour à donner Et pour s'refaire, on leur a tout volé Y a pas qu'des frères mais j'aime trop la zone Oui, j'aime trop la zone, oui, j'aime trop la zone Ma première bitch, ma première plaquette, mon premier bif J'voulais tout contrôler comme Avon Barksdale, pour ça, fallait être vif Maman m'a averti Pas d'vendeur de drogue ici Mais l'bédo est à vingt-huit, donc j'suis debout à midi à midi pile Eh, la zone m'apprendra à faire des trucs atroces, à monter les crocs si les ennemis veulent venir Devant l'OPJ, il faudra rien vomir, la langue, faut la tenir, la langue, faut la tenir Le monde comme Montana, le monde comme Montana pour mettre bien la famille La vie est courte comme la liste de mes amis, pardon mama, c'est la zone qui m'a détruit, yo C'est la zone, c'est la zone, ouais, c'est elle C'est la zone, c'est la zone Les clins, le bâtiment, le sac c'est la zone, c'est la zone J'ai promis d'rien dire à la BAC pour la zone, pour la zone Faut qu'j'm'éloigne du car cellulaire, j'ai charbonné mais j'ai pas fait assez On la vend en-bas d'chez nos mères, le commissaire veut garder nos lacets Traîner dans la zone, mourir dans la zone Mon premier joint, c'était dans la zone Mon premier tête, c'était dans la zone Maman s'inquiète car j'aime trop la zone Oui, j'aime trop la zone, peu d'amour à donner Et pour s'refaire, on leur a tout volé Y a pas qu'des frères mais j'aime trop la zone Oui, j'aime trop la zone, oui, j'aime trop la zone</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>C’est vrai</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Les morts réclament des morts Vengeons nos morts Rien n'est éternel. Donne-moi une bonne raison de vivre. J'suis cette balise qui attend dêtre repéré Aimé par la vie, j'ai jamais eu l'envie de désespérer Je vis avec des objectifs sans but, donc c'est pas gagné J'ai rien à perdre, tout à donner, ici, pas d'immunité J'irais au front sans les armes sans savoir si j'serais encore debout Prouver à mes frères qu'la foi en soit est plus forte que tout La vie se calcule pas, elle se résulte le jour de deuil Si j'cherche mon double dans la vie c'est que l'homme a peur de partir seul On vit des vies de niqués pour la monnaie Les femmes soutiennent leurs maris emprisonnés, seul Dieu peut nous gracié Les yeux ouverts, le cur fermé, on trébuche à chaque palier Rhabille ta fierté car toutes les vérités sont gelées Car y'a un fusil pour chaque colombe, un pays pour chaque colon Un treillis pour chaque canon, un whisky pour chaque démon Sers-moi un verre de courage que j'affronte le borgne L'aveugle voit plus loin qu'l'horizon On court tous derrière le temps en espèrent le rattraper Y'a ceux qui s'injecte du Botox et ceux qui n'sarrêtent pas d'rapper Depuis la nuit des temps, ça rêve d'immortalité Donc ceux qui font la guerre pour le trône sacrifient ceux qui la font pour la paix Tout l'monde a son épée dExcalibur à soulever Mais derrière un roi, y'a toujours une reine pour gouverner Celle qui t'aide à tenir le gouvernail Pour mieux traverser les vagues moments de ta vie avant tes funérailles Une femme pour chaque homme Une guerre pour chaque trône Un corps pour chaque tombe C'est vrai x5 Petit frère, demande à ton grand-père si c'est bon de pousser la fonte La force est dans la tête, regarde ta mère comme elle s'en sort sans son homme Sauve les meubles, p'tit, fait pas couler sa conscience Laisse-la croire qu'elle a mis quelqu'un d'bien au monde La vie c'est le va-et-vient on n'est que des courants d'air Accroche-toi aux vraies choses, les prophètes sont pas imaginaires Souvent on plane et on s'oublie, c'est les temps modernes On cherche même plus à savoir ce qu'on fait ici On a bâillonné nos larmes avec nos plus beaux sourires Pour pas que ta pitié nous rappelle ce qu'on a du souffrir Ouais celle qu'on a du reconstruire avec les briques d'un nouveau départ Car le bonheur est un mariage où pas tout l'monde a son faire-part Salam à ces femmes qui nous réapprennent le sens de courage Salam à ces frères qui nous rappelle l'importance du témoignage À mon âge, c'est la sagesse que l'on recherche Pour mieux la transmettre à ces bijoux qu'on mène à la crèche J'ai appris qu'il fallait des pertes pour s'retrouver Qu'il fallait être au moins deux pour se faire enterrer Qu'il fallait apprendre et répandre la voix dictée des prophètes En fait, qu'il fallait croire en Dieu mais pas après chaque obsèques Putain, mais ça mobsède, sérieux, honnêtement On court aveuglement vers l'inconnu, trop bêtement On naît, on vit, on meurt, chaque choses a son importance On parle, on rit, on pleure, positif est la différence x2 C'est vrai x5 Une femme pour chaque homme C'est vrai x5 Une guerre pour chaque trône C'est vrai x5 Un corps pour chaque tombe C'est vrai x5 Un dieu pour tout l'monde1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Cette vie là</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Spike Miller J'suis dans la zone j'suis dans la zone, t'as qu'Google Earth t'as qu'Google Earth Peur de personne peur de personne, ça sent le meurtre ça sent le meurtre Faut des papels des papels pour la casa pour la casa Faut des papels des papels, j'vais pas t'chawa j'vais pas t'chawa On fait que déconner, la rue, tu connais, on est comme on est, assume ce qu'on commet On veut le sommet, que des gros bonnets, nous contre les condés, c'est nous contre les condés Elle m'a questionné, j'ai dit que je l'aimais mais sans la monnaie, elle va s'ennuyer J'suis souvent léwé, j'adore dépenser, j'mets rien de côté, j'ai million à peu près J'prends la vie en sens inverse, le bruit du RMZ me berce J'arrête pas mes enfantillages, mes 'zins ont beaucoup d'outillage Elle m'prend mon cur, elle prend mes problèmes, pour mon cur, elle a mes problèmes C'est la loi, elle a pas le choix Lalala, aveuglé par l'orgueil, non, tu n'es pas le seul à vouloir que je tombe J'suis bon qu'à faire l'oseille, des guerres de parcelles, tous les soirs, elle m'appelle mais moi, je fais les comptes Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là, ma mère préfère le village J'ai juré de faire sa villa, je suis là pour faire un braquage Mature depuis que j'ai eu Kenza, je charbonne depuis mes quinze ans Ouais, c'est des zig-zag et Rizla, j'écris en bas des bâtiments J'me prends pas pour Tony, j'suis pas un camé Moi, j'aime trop ma vie, les quartiers Nord, oh, le secteur est maudit C'est chaud quand passe le T-Max ou l'Audi On côtoie des grosses têtes cramées, on en fait pas un buzz, mec, jamais Business avant meuf, ouais ma vie, elle aura beau chier neuf mois, j'suis prêt Lalala, aveuglé par l'orgueil, non, tu n'es pas le seul à vouloir que je tombe J'suis bon qu'à faire l'oseille, des guerres de parcelles, tous les soirs, elle m'appelle mais moi, je fais les comptes Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Moi, j'ai choisi cette vie-là hey, moi, j'ai choisi cette vie-là hey Lalala, aveuglé par l'orgueil, non, tu n'es pas le seul à vouloir que je tombe J'suis bon qu'à faire l'oseille, des guerres de parcelles, tous les soirs, elle m'appelle mais moi, je fais les comptes1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Chacun son vice</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Arrête tout de suite, ta soirée sent la cuite En plus t'es une salope, quand y'a les flics tu prend la fuite Tes bons amis te quittent, ils aiment trop leur minch Ils veulent pas rater le train de la vie que pour du trip Marseille c'est hood story, que ça vend des jokes Que ça traîne au bloc, allume ta clope avec un Glock Allume l'époque avec mes potes en voiture Glock, hou Consommer c'est bien beau mais au budget ça fait des trous Que ça soit dans le rock, le reggae, la techno ou le hip-hop Chacun son vice, chacun dans sa matrice ils glissent, ils gobent On pense pouvoir tous s'évader, alors que ça fait que nous scotcher, nous coller Les autres qui consomment pas, on trop d'stress et se compensent Mais bon laisse faut du temps pour comprendre Salut la France, salut le world Comme Weezy et Birdman, j'fais voler les birds Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Le visage décomposé le jour, la nuit, qui ? Sami, Mélissa, Rachida, Chloé, David, Kader, Marc ou Fatoumata Des grosses doses de bâtard, p'tit fêtard, alors on en reparlera plus tard Qui ? d'entre nous aura la plus longue espérance de vie La croissance est perturbée par les grammes de shit Essoufflé par les escaliers quand je vais voir la mama Cuite, friand, rien d'effrayant Même quand on prend le volant Comme mon frère Karim j'ai la hache entre les cuisses Pas galant, mais mashallah on n'est pas dans la dure, on sniff pas la pure Affolant, de jour en jour y'a de nouveaux vices Y'a le double pomme, y'a le raisin blanc La chicha vous la mise Tabac fruité pour les plus légers Wallah ils croient qui sont épargnés, tu vas crever p'tit pain d'épice Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Des rêves plein les yeux tu vois, et pour y arriver parfois T'utilises ton vice, ta tête n'est pas libre quoi qu'on dise On est plein de vices, plein d'envie Hé yo Flash, avis à la masse, qui se réfugie dans les paquets de Malboro light Le système nous endort, on suit, la flemme quand on taffe Pour ça que petit frère n'a plus le mord Wallah ça devient grave quel que soit le gabarit Tous un vice malgré les slogans et les gros clips La reality qui y'a dehors on veut la fuir Si c'est ta dernière ce soir, j'te dit bsartek, bsartek, bsartek Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Les différentes modes sont devenues des drogues On a tous un truc auquel on est accroc Même si on a pas de biff tu sais On a chacun nos vices tu sais Shouf, chacun son vice, alcool ou chicha, chichon ou exta, faut arrêter ça, c'est ça Fais pas le con, ça, fais pas le con, ça, fais pas le con, ça, fais pas le con Shouf, chacun son vice, alcool ou chicha, chichon ou exta, faut arrêter ça, c'est ça Fais pas le con, ça, fais pas le con, ça, fais pas le con, ça, fais pas le con Chacun son vice et chacun dans sa matrice y glisse, dis leur, Kassim</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CIAO LA FRANCE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HuFel on the beat J'aime pas la police, j'ai plein d'amendes majorées J'suis avec ma jolie, j'ai passé l'âge de geôler Que ça piste ma vie, même à travers ces volets Mon cur, il est pris, personne va l'cambrioler Tu l'aime, la Castellane, pa-pa-pa-pa-ra-ra-ra-ra RS4, quatre anneaux, pa-pa-pa-pa-ra-ra-ra-ra Rue de Rotterdam, pa-pa-pa-pa-ra-ra-ra-ra Elle me rend parano, pa-pa-pa-pa-ra-ra-ra-ra Nah, de Sicilia a Marseilla es un fly, na-na-na-na-na-na, wah Skinny nigga cuida el detall, wa-wa-wa-wa-wa-wa, ra Tous les jours, buscando cash, no hay tiempo pa' flash, la ventana s calla Entro en el clube pa' buscar mi cash, a ciento ochenta la popo detrás Cet été, j'vais m'tailler, pas zoner dans la Calle J'suis avec ma p'tite poupée, le survêt' est bien taillé J'suis dans la business class J'suis à deux doigts d't'éteindre Et on prends toute la place J'suis à deux doigts d't'éteindre Investigan, pero nah, nah, nah, de donde vengo, no había na', na', na' Quédate apagao por si hay cámaras, si ve' las luces, tú no tires na' De España a Francia no hay marcha atrás, si sigo partido, se vence más Las paredes hablan, no suelten na', tengo a su pussy cambiando el plan Entro en tu block como Poutine, no talking, we pull up, we shooting Tus negretas son unos groupies, BMF, como Lucious y Cookie Big Meech, solo quiero hacerme rich, rich, check this, estoy buscando mis chichis Big tits, big booty, like Ri-Ri, tu connais, money over these bitches Coche de alta gama, pa-pa-pa-pa-ra-ra-ra-ra Rubias italianas, pa-pa-pa-pa-ra-ra-ra-ra Torreta elevada, pa-pa-pa-pa-ra-ra-ra-ra Contigo la cambiada, dime quién me parará Ce soir, on met les voiles vers Marbella Marbella J't'emmène sur un coup d'tête, ouais, ma bella Ouais, ma bella Et ciao la France France, ciao la France Cet été, j'vais m'tailler, pas zoner dans la calle J'suis avec ma p'tite poupée, le survêt' est bien taillé J'suis dans la business class J'suis à deux doigts d't'éteindre Et on prend toute la place J'suis à deux doigts d't'éteindre Investigan, pero nah, nah, nah, de donde vengo no había na', na', na' Quédate apagao por si hay cámaras, si ve' las luces, tú no tires na' De España a Francia no hay marcha atrás, si sigo partido, se vence más Las paredes hablan, no suelten na', tengo a su pussy cambiando el plan Tu l'aime, la Castellane, pa-pa-pa-pa-ra-ra-ra-ra RS4, quatre anneaux, pa-pa-pa-pa-ra-ra-ra-ra Rue de Rotterdam, pa-pa-pa-pa-ra-ra-ra-ra Elle me rend parano, pa-pa-pa-pa-ra-ra-ra-ra Et ciao la France Ciao la France Et ciao la France2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Comme avant</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>La gorge nouée j'en perd mon flow J'te jure ils m'ont vu grandir dans le bloc Ils parlent de moi comme si jétais un autre Rien ne sera plus comme avant, rien ne sera plus comme avant Mama déteste mon boulot Elle dit que ça attire lil de mes potes On se dit plus bonjour à qui la faute Rien ne sera plus comme avant, rien ne sera plus comme avant Hey, j'ai grandi des années en cité Écarté, éloigné à la frontière du respect Ceux qu'on oublie, les taudis Au grand coeur en or, malgré perquise' et maîtrise Du te-shi, de la coke Les ptites hninas à nia étaient là chez l'autre A la casa, la mama, la sunna à l'aube Allez taffer pour manger cétait encore à la mode Si je pouvais résonner les petits que je vois dehors Car rien ne sera jamais plus comme avant On se tire dans les jambes avant même de prendre nos élans On s'appelait mon frère pourtant on sortait pas du même ventre Je ne regrette rien la roue tourne dans le sens du vent La gorge noué j'en perd mon flow J'te jure ils m'ont vu grandir dans le bloc Ils parlent de moi comme si jétais un autre Rien ne sera plus comme avant, rien ne sera plus comme avant Mama déteste mon boulot Elle dit que ça attire lil de mes potes On se dit plus bonjour à qui la faute Rien ne sera plus comme avant, rien ne sera plus comme avant Mama à peur que fils meurt par Kalashnikov Tu choisis ni l'ennemi, ni une amitié fausse De nos jours c'est fou ce que cache un sourire On te souhaite le pire, on veut pas t'applaudir On veut pas te voir réussir On veut te voir mal w'Allah, au point d'en mourir On est prêt à mentir, ta famille la détruire Et te voir tout seul reconstruire On conspire des tas de choses derrière toi pour t'affaiblir Et pourtant je vis pas la vie de Kanye et de Kim à Miami Non j'arriverais pas à fermer lil ce soir Quel triste sort, les frères disent que je donne pas le ce-for Que je me la pète, que j'ai changer depuis que j'ai péter le score, c'est l'envers du décor Doit-je être le seul a faire des efforts Les regards se glacent mon pote J'ai perdu un Psy 4 et il me manque à chaque note, mon pote J'ai les yeux qui picotent, je suis en vol La gorge noué j'en perd mon flow J'te jure ils m'ont vu grandir dans le bloc Ils parlent de moi comme si jétais un autre Rien ne sera plus comme avant, rien ne sera plus comme avant Mama déteste mon boulot Elle dit que ça attire lil de mes potes On se dit plus bonjour à qui la faute Rien ne sera plus comme avant, rien ne sera plus comme avant Ma vie, j'ai pas choisi Mes ennemis, m'envient J'ai galéré, si tu savais J'ai rien volé on m'a rien donné Ma vie, j'ai pas choisi Mes ennemis, m'envient J'ai galéré, si tu savais J'ai rien volé Tu m'a trahis zinc, tu m'a blessé Je peux pardonner, je peux pas oublier Mehlich demain le soleil va se lever Derrière les nuages, s'cachent les regrets Aujourd'hui qui va me freiner J'ai envie de tous vous insulter Ce sera plus comme avant mamé Je vous laisse tous croire que j'ai serré Oui j'ai serré1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Comme un loup</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Stef Becker beatmaker Comme un loup, je traîne seul, j'ai besoin de personne Mais au fond, je suis comme vous, yeah, han Je vais les marquer bien avant la mi-temps woh, woh On te connaît, arrête de faire le mytho ah, ah Regarde bien comment on manie le guidon J'ai fait l'audo, mon poto, tu peux m'tirer dans le dos Tu portes l'il alors que moi, j'ai walou ah, ah J'ai tellement galéré, demande à Laland À la longue, c'était relou à l'aller J'fais ds crédits à long mile, plus jamais j'y aller C'était la merde, on partait à la mer On arrachait des sacs et on trinquait à la mienne Qui veut nous la mettre ? Dis-moi, qui veut nous la mettre ? Sur ma mère qu'il va morfler, j'peux te l'jurer sur la Mecque Santé Bonheur, frérot, tu connais les bails Quand j'étais petit, on m'a fait la hagra à Baille J'suis revenu avec deux-trois amis et des battes Ils ont fait marche arrière quand ils ont vu qu'on était barges Comme un loup, solitaire, j'ai besoin de personne Mais au fond, je suis comme vous, la famille, les amis, avant tout Moi, je gamberge Comme un loup, je traîne seul, j'ai besoin de personne Mais au fond, je suis comme vous, la famille, les amis, avant tout Moi je gamberge Comme un loup, comme un loup Comme un loup, comme un loup Yeah, ils veulent ma vie, bien sûr, sans mes problèmes ma foi Ma vraie richesse, j'l'ai cachée dans mon cur j'te jure Je pourrais tous les aimer mais j'ai la flemme vous êtes trop Pardonnez-moi, j'contrôle pas ma rancur ah Je meurs demain, la balance penche à gauche oh Donc j'fais des hassanates, je mets tout à gauche moi ouais, ouais Quand j'avais rien, j'rêvais d'rouler en Porsche ouais Aujourd'hui, j'aimerai retrouver notre innocence dans le porche Wesh Foued hein, Air Bel ouais, au Plan d'Aou paw, il suffit d'une balle On te dit ciao paw, tu montes au ciel Guerre sans fin, fin d'mes rivals, et nos parents n'ont plus 20 ans, ils vieillissent mal J'me retrouve seul face à la lune, j'crie comme un loup ah Ils m'rappelleront c'qu'ils m'ont donné donc j'demande walou ouais On s'enterre pas tout seul mais on est seul dans le trou ah Donc j'en ai rien à foutre que tu me prennes pour un fou, capo Comme un loup, solitaire, j'ai besoin de personne Mais au fond, je suis comme vous, la famille, les amis, avant tout Moi, je gamberge Comme un loup, je traîne seul, j'ai besoin de personne Mais au fond, je suis comme vous, la famille, les amis, avant tout Moi je gamberge Comme un loup, comme un loup Comme un loup, comme un loup</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Compliqué</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Pas facile, pas facile T'as pas d'cash en main, gros, c'est pas facile Tu cherches tranquillité, gros, c'est pas easy On a trop squatté les bancs de la té-ci Faire tourner le hazi ou se casser d'ici Pourquoi tu m'évites ? T'as fait l'erreur donc ne recommence pas J'suis Federer dans le cul d'une lance-ba J'suis téméraire, j'arrive en roue arrière Je veux quitter la rue, j'veux la zapper J'ai trouvé ma Tokyo, j'veux rien gâcher Tu ravives pas la flamme avec un baiser Pour calmer madame, suffit pas d'un bébé Si t'as des choses à dire, dis-les sinon laisse tomber J'veux faire les choses à temps, le temps n'va pas sestomper Compliqué, yeah J'aimerais m'en séparer mais la rue m'a trop piqué, mh ouais, prépare la bataille Tu sais que j'suis déter' Été comme hiver Laisse-moi j'ai les nerfs Mon pote de galère a pris dix ans ferme Je cherche pas l'pardon sur le coucou Mais j'te demande pardon après tout-tout Me prend pas pour un con si jarrête tout-tout J'ai jamais fait d'prison hamdou-dou Mais on ferait tout pour la mama, sans trahir la honda Ça peut tirer dans l'tas, X-ADV Honda Y a plus rien à faire, au quartier, c'est l'enfer Pour éteindre le feu, faut six cents canadairs Je veux quitter la rue, j'veux la zapper J'ai trouvé ma Tokyo, j'veux rien gâcher Tu ravives pas la flamme avec un baiser Pour calmer madame, suffit pas d'un bébé Si t'as des choses à dire, dis-les sinon laisse tomber J'veux faire les choses à temps, le temps n'va pas sestomper Compliqué, yeah J'aimerais m'en séparer mais la rue m'a trop piqué, mh ouais, prépare la bataille Tu sais que j'suis déter' Été comme hiver Laisse-moi j'ai les nerfs Mon pote de galère a pris dix ans ferme Compliqué, yeah J'aimerais m'en séparer mais la rue m'a trop piqué, mh ouais, prépare la bataille Tu sais que j'suis déter' Été comme hiver Laisse-moi j'ai les nerfs Mon pote de galère a pris dix ans ferme</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Criminel</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The Danger The Danger Jamais sans mon fils, mamé Eh, Capo Yeah Money, money, money, money ouais, on noie les soucis dans Jack Honey ouais Condés, condés, condés, condés grr, poursuite de képis, faut détaler pou-pou-pou-pouh Plus rien ne sera comme avant, tu n'as pas khalass, y aura plus d'avance bouh Ils ont voulu m'faire guet-apens quand bien, j'avais déjà un coup d'avance tiens, tiens, tiens J'traîne avec mon nine, j'ai plus confiance ouais, tant pis, je fonce ouais, je mène la danse ouais Ça recommence ouais, ça recommence ouais, ça recommence ouais, jamais je renonce brr Midi-minuit dans la calle, pochons d'amnésia fallait détailler grave Quand on a su qui balançait, enfouraillés, fallait tout rafaler bleh, hey ah, ah J'ai l'arme à gauche, mon fils à droite, j'traverse les flammes j'traverse les flammes J'suis dans le bloc, j'ai la sacoche, l'hiver, il caille ouais, ouais On fait des sommes, devant la daronne, essuie ses larmes Khey, j'ai plus le time non, khey, j'ai plus le time Ne reviens pas si tu es parti bleh, bleh, bleh, bleh, bleh Non, ne reviens pas si tu es parti oui, pah, pah, pah, pah Posé dans le binks, j'ai des allures de criminel ouais Posé dans le binks, j'ai des allures de criminel ouais, rrah Ne reviens pas si tu es parti bleh, bleh, bleh, bleh, bleh Non, ne reviens pas si tu es parti pah, pah, pah Posé dans le binks, j'ai des allures de criminel ouais Posé dans le binks, j'ai des allures de criminel ouais, ouais Posé dans le binks binks, c'est jamais sans mon fils ouais T'es là, que tu lynx lynx, wAllah, tu portes la guine aïe Destin d'criminel ouais, je m'en fous d'ton avis J'veux sortir du tieks, j'entends Akha, c'est ma vie rrah, rrah, rrah Posé dans le binks , c'est jamais sans mon fils ouais T'es là, que tu lynx, wAllah, tu portes la guine aïe Destin d'criminel ouais, ouais, ouais, je m'en fous d'ton avis J'veux sortir du tieks, j'entends Akha, c'est ma vie ah Ne reviens pas si tu es parti bleh, bleh, bleh, bleh, bleh Non, ne reviens pas si tu es parti oui, pah, pah, pah, pah Posé dans le binks, j'ai des allures de criminel ouais Posé dans le binks, j'ai des allures de criminel ouais, rrah Ne reviens pas si tu es parti bleh, bleh, bleh, bleh, bleh Non, ne reviens pas si tu es parti pah, pah, pah Posé dans le binks, j'ai des allures de criminel ouais Posé dans le binks, j'ai des allures de criminel Eh, eh, eh Eh, eh, eh Eh, eh, eh Ouais</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Dalé</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Alonzo , Lartiste babe Millionnaire, Millionnaire, millionnaire Je sors de mon tieks Zen je te check check J'te donne une fausse piste Miss tu persistes Marseille mon adresse Shit réseau d'cesse Je marche avec des gavé des cramé Et qui aiment pas les bavards Besoin de matos Chbik mon assos Je roule comme un malfrat ,Giulia Alfa Pour avoir poches pleines Ça risque de longues peines Léve toi de ton cul Gros vie ta vie Je chie du caviar Envoie la marijane J'décolle comme à Marignane Appelle tout le barrio Cortege sans le mariage Accélére sur l'asphalte La voie est libre De Marseille à Paname On fait plus que survivre Mes amis font le charbon Et les shmettas les livrent Double bang dans leurs mères Pour maintenir léquilibre Je bricole j'ai des outils CZ,AK J'sais que tu aime les bandis Je peux comprendre ca T'etais bonne ta grossi Donc je te baise pas Je passe dans les gossip Je suis une superstar Donnez moi mon cachet avant le show ou je chante pas Tu me serres du même et du mo Ouais c'est pas du champagne Qu'est ce qu'on s'en bat les J'trace a Cancùn Ton boul est fane je t'abonne a keep cool Restons cool je suis trop crazy Calé dans piscine Parceque y'a du shour dans le café Sert moi un whisky Rolex en or ta eu festina J'insulte pas les morts Ta grand-mère meskina Envoie la marijane J'décolle comme à Marignane Appelle tout le barrio Cortege sans le mariage Accélére sur l'asphalte La voie est libre De Marseille à Paname On fait plus que survivre Mes amis font le charbon Et les shmettas les livrent Double bang dans leurs mères Pour maintenir léquilibre Celle la c'est pour les braves qui se sont donnes On ne peut pas me pardonner Pour tout nos prisonniers Je suis oblige de maintenir léquilibre Combien de tarot on a zoné Oblige de charbonner Pour finir millionnaire Envoie la marijane J'décolle comme à Marignane Appelle tout le barrio Cortege sans le mariage Accélére sur l'asphalte La voie est libre De Marseille à Paname On fait plus que survivre Mes amis font le charbon Et les shmettas les livrent Double bang dans leurs mères Pour maintenir léquilibre Millionnaire ,millionnaire ,millionnaire Millionnaire ,millionnaire ,millionnaire Alonzo , Lartiste babe1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Dangereuse</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fxnder Dangereuse dangereuse, amoureuse amoureuse Malheureuse malheureuse, douloureuse douloureuse Douloureuse, suis-je dans l'erreur ? Je rentre à la zone, j'ai mal à la tête, en mode repeat, que tu papotes Tu veux qu'on sorte, y a le COVID donc je te dis non, c'st cash les embrouilles Y a ta copin qui est cocue, j'ai rien à voir, j'm'en prends plein la poire Laisse tomber, c'est toi qui a raison, j'insiste pas, j'suis pas de taille Toujours le dernier mot, calme ton égo, tu es jamais contente Tu sais qu't'es à moi, je t'ai passé l'anneau, je fais pas semblant On n'a pas les mêmes goûts mais on s'plaint d'la même chose Donc j'me demande si j'suis parano ou si c'est un défaut chez toutes les femmes Dangereuse dangereuse, dangereuse, elle est trop dangereuse quand elle est amoureuse quand elle est amoureuse Glorieuse, elle est trop capricieuse, elle en devient malheureuse malheureuse Furieuse, je la rends furieuse, la plaie est douloureuse la plaie est douloureuse Douloureuse, suis-je dans l'erreur ? Dangereuse dangereuse, dangereuse, elle est trop dangereuse quand elle est amoureuse quand elle est amoureuse Glorieuse, elle est trop capricieuse, elle en devient malheureuse malheureuse Furieuse, je la rends furieuse, la plaie est douloureuse la plaie est douloureuse Douloureuse, suis-je dans l'erreur ? Tu en fais toute une affaire d'état pour des histoires à deux balles Tu veux connaître toutes mes exs, savoir si l'sex est mieux avec toi Si je t'ai trouvé belle ou j'voulais qu'ton cul la toute première fois Ou si ma mère a connu d'autres filles, tu cries Toujours le dernier mot, calme ton égo, tu es jamais contente Tu sais qu't'es à moi, je t'ai passé l'anneau, je fais pas semblant On n'a pas les mêmes goûts mais on s'plaint d'la même chose Donc j'me demande si j'suis parano ou si c'est un défaut chez toutes les femmes Dangereuse dangereuse, elle est trop dangereuse quand elle est amoureuse quand elle est amoureuse Glorieuse, elle est trop capricieuse, elle en devient malheureuse malheureuse Furieuse, je la rends furieuse, la plaie est douloureuse la plaie est douloureuse Douloureuse, suis-je dans l'erreur ? Dangereuse dangereuse, dangereuse, elle est trop dangereuse quand elle est amoureuse quand elle est amoureuse Glorieuse, elle est trop capricieuse, elle en devient malheureuse malheureuse Furieuse, je la rends furieuse, la plaie est douloureuse la plaie est douloureuse Douloureuse, suis-je dans l'erreur ?</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Dans la course</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Eh, m'fais pas la bise, non on se connaît pas Jvous laisse dans vos grands débats Mon quartier dans un sale état La muerte dans le Beretta Ça va vite, y a pas de miteurs J'coffre rien, j'suis un débiteur Coupe lherbe avec l'sécateur Pas d'père, pas d'éducateur On a tous vu Zepeke et Bene Quand le diable ruse, on connaît la mosquée Dans la rue, je déguste mes penne Je vois qu'on m'accuse de les traumatiser Casse ta puce, y a les bâtards Y a les mitards, y a les guitares Y a les hagar, y a les habat' J'suis dans dhautes sphères , dans la vente de CD Que ça suce pour un petit follow Ils font semblant, ils connaissent Alonzo En quelle année tu mas vu rater le péno ? Et la Zumba, c'était pour les impôts Jai dû équiper mon gamos de xénons J'ai dû acheter AK pour la maison J'ai dû payer les dettes de la patronne Elle sent fout d'où ça vient, quand largent a raison J'vous vois plus, c'est pas de ma faute Toute l'année, j'suis dans la course Je prendrai le temps de te faire Quand je serai en mode off T-Max Arai, c'est le règlement Benga, c'est le règlement Tu trahis le règlement Ça finit en règlement J'suis platine depuis un moment Ma carrière dans le firmement Respecte-moi seulement Respecte-moi seulement T'es qu'un pion, j'suis le roi de la ville Revois l'offre qu'on négocie le deal Tout niquer, ouais c'est le règlement Ma carrière dans le firmement Respecte-moi seulement Respecte-moi seulement J'vous vois plus, c'est pas de ma faute Toute l'année, j'suis dans la course Je prendrai le temps de te faire Quand je serai en mode off Il m'reste peu d'temps avant qu'je meure salement Respecte-moi seulement J'ai fait les choses frères vaillamment Je baisse la tête frère, y'a maman On vient reprendre ce qu'on nous a pris Ils vont payer, quel que soit le prix De Marseille jusqu'à Medellín De Marseille jusqu'à Medellín On vit tous à la henneni On connaît tous Tony et Many Le sang qui coule est de mon ami Mon qamis vient d'Abu Dhabi Je gamberge, je dors pas le soir J'ai trop la dalle, me sers pas à boire Les fragiles balancent à la barre T'es parti sans dire au revoir Qui sait si j'vais finir l'année On s'en bat les couilles du R.A.P Tu parles trop, mais tu n'as rien fait Tu parles trop, mais tu n'as rien fait Les larmes coulent, mais on est des hommes On s'travestit pas pour des sommes T'es qu'un môme, et moi j'ai des mômes Fais pas l'grand, j'ai 300 albums J'vous vois plus, c'est pas de ma faute Toute l'année, j'suis dans la course Je prendrai le temps de te faire Quand je serai en mode off T-Max Arai, c'est le règlement Benga, c'est le règlement Tu trahis le règlement Ça finit en règlement J'suis platine depuis un moment Ma carrière dans le firmement Respecte-moi seulement Respecte-moi seulement T'es qu'un pion, j'suis le roi de la ville Revois l'offre qu'on négocie le deal Tout niquer, ouais c'est le règlement Ma carrière dans le firmement Respecte-moi seulement Respecte-moi seulement Ma carrière dans le firmement Personne pourra t'faire fuir, maman J'suis grand... maintenant</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Dans le jeu</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>On a les pieds sur terre Les yeux pleins d'étoiles, comme le toit de la Rolls Royce Doù l'on part on peut pas tomber plus bas La vie est une lutte, on fuit pas le combat Yeah On a l'habitude, on a la vie rude On vient de la rue, c'est pas une excuse Au moins pour nous proches, ceux qui ont cru Ceux qui savent qu'on baissera pas le fut' On prend de l'ampleur, on prend de l'élan On a des épreuves, mais Dieu est grand Sur le ter-ter, en roue arrière On refait le monde, pour combler le manque On ne veut pas la guerre, mais on vas pas s'taire On fait les choses, on les emmerde À qui la faute, ils sont sur nos côtes On est sur la côte, on zone et y a R Dans le futur, toi tu longes les murs Entre vaillants, on se reconnait Vie de ma mère, on sort du vestiaire On est déter', comme KB Nueve Ils veulent ma mort, parce que j'suis dangereux Couilles à l'envers, majeur en l'air, tu m'aimes pas tant mieux Je bats mon propre record, financiers sont les enjeux J'ai peut-être des torts, une aventador, et sûrement des rageux Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Dangereux Mais qu'est-ce que j'suis dans le jeu On le fait pour l'honneur, fuck les rumeurs Ils ne comprennent pas, le langage du cur On grandit ensemble, on sest vu en sang On revient de loin, à 3000 à l'heure Je tombe les rapports, je tombe les rappeurs Je fais pas de boxe, je fais pas d'erreur Et on rapplique, automatique Moi et ma clique, on est pas dans les piques On a charbonné on a charbonné, on a rien volé on a rien volé On est pas désolé on est pas désolé, on les reprend de volée on les reprend de volée Parfois tu gagnes, parfois tu perds Parfois c'est calme, parfois c'est agité Vie de ma mère, on sort du vestiaire On est déter', comme KB Nueve Ils veulent ma mort, parce que j'suis dangereux Couilles à l'envers, majeur en l'air, tu m'aimes pas tant mieux Je bats mon propre record, financiers sont les enjeux J'ai peut-être des torts, une aventador, et sûrement des rageux Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Dangereux Mais qu'est-ce que j'suis dans le jeu Mais qu'est quils vont faire, qu'est quils vont faire ? J'suis né pour tout péter, j'en ai rien à foutre En bas de nos tours, on attend notre tour Tu t'inventes des vies, si tu crois me stopper Mais qu'est quils vont faire, qu'est quils vont faire ? J'suis né pour tout péter, j'en ai rien à foutre En bas de notre tour, on attend notre tour Tu t'inventes des vies Ils veulent ma mort, parce que j'suis dangereux Couilles à l'envers, majeur en l'air, tu m'aimes pas tant mieux Je bats mon propre record, financiers sont les enjeux J'ai peut-être des torts, une aventador, et sûrement des rageux Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Mais qu'est-ce que j'suis dans le jeu Dangereux Mais qu'est-ce que j'suis dans le jeu</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Dans son sac</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Tu voulais des lovés, à profusion Tu voulais les femmes, dAfrique et dOccident Mais lalalala, cest la confusion Lalalala, tas fini dans son sac Hé son Channel boy son petit, son Channel boy son bébé Son Channel boy son petit, son Channel boy son bébé Son Channel boy son précieux, son Channel boy son bébé Son Channel boy son précieux, tas fini dans son sac Pour moi tétais un chapitre, et pour toi moi jétais un livre Je tai vu dans les bras de ce mec au RSA, tu priais pour que je te délivre On me soupçonne dêtre un ssiste-gro, je ne regarde pas les prix mais les logos, trop chaud Je vois qutu fais la belle que tu calcules pas mais à la fin tu veux mon bigo Elle me dit je taime je lui réponds je taime bien Si lamour est aveugle on va tout droit dans un ravin À la tombée de la nuit je tiens plus en place À la tombée de tes seins je vois qule temps passe Tu voulais des lovés, à profusion Tu voulais les femmes, dAfrique et dOccident Mais lalalala, cest la confusion Lalalala, tas fini dans son sac Hé son Channel boy son petit, son Channel boy son bébé Son Channel boy son petit, son Channel boy son bébé Son Channel boy son précieux, son Channel boy son bébé Son Channel boy son précieux, tas fini dans son sac Cest pas parce que je porte une montre que jai le temps Jai liké ta photo tu as fait une capture décran Faut qutu redescendes en vitesse En maillot deux pièces, jai limpression dvoir un éléphant V c'que ça dit au Plan d'Aou Paraît que la gadji dAlonzo cest une vraie Bagdad Wow, et toi tes piqué par une fake Tu las jamais vue tu lui fais des chèques Tu vois quje réponds pas pourquoi tu insistes ? Forceuse, qui traîne dans les loges des artistes Tas une dent contre moi oh que cest triste Tiens prends le numéro de mon dentiste Tu voulais des lovés, à profusion Tu voulais les femmes, dAfrique et dOccident Mais lalalala, cest la confusion Lalalala, tas fini dans son sac Hé son Channel boy son petit, son Channel boy son bébé Son Channel boy son petit, son Channel boy son bébé Son Channel boy son précieux, son Channel boy son bébé Son Channel boy son précieux, tas fini dans son sac Son Channel boy son précieux Son Channel boy son bébé Son Channel boy son précieux Son Channel boy son bébé A.L.O.N.Z.O Meuguiwarano On est sur Jupiter mamé, trop loin Spike Miller, dis-leur Son Channel boy son précieux Son Channel boy son bébé Son Channel boy son précieux Son précieux, son précieux Son pré-cieux, pré-cieux Comores, RDC9</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Dernière fois</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Yenn Beats Regarde-moi, Imen, regarde-moi regarde-moi Lis dans mon regard pour la dernière fois lis dans mes yeux J'te l'avais dit, je laverai ton honneur j'te l'avais dit Les flics me cherchent, j'vais m'arracher dans l'heure j'prends la cavale Prends soin d'la famille, dis au revoir à mère j'reviendrai pas J'assume c'que j'ai fait, plus de marche arrière pas d'demi-tour Quand il te frappait, il faisait le fir ce fatigué J'espère qu j'l'ai laissé six pieds sous terre brah, brah, brah, brah Le temps va me donner raison C'était pas lui le bon, il t'aimait pas au final C'était plus pareil à la maison Tu le sais, tu le sais, j'pouvais pas vivre avec ça Le temps va me donner raison C'était pas lui le bon, il t'aimait pas au final Et si j'ai cassé quelque chose Désolé, désolé, désolé Tant pis, tant pis, tant pis J'vais devoir vous quitter Kassim, je t'en prie J'hallucine, tu viens de me tuer Toi, t'es fou, toi, t'es fou Pour commencer, déjà, dis-moi il est où ? Il est où ? Ose pas m'dire qu'tu l'as foutu dans un trou J'pleure des larmes de sang pendant qu'toi, t'as son sang sur tes mains Il allait ger-chan, il allait v'nir m'demander ma main C'est mon homme, t'es là, j'sais pas quoi, tu me parles de la zone Il m'battait, t'as réagi à chaud, ça ta fait froid dans l'dos J'te comprends, ta petite sur était dans l'mal, han Kassim, c'était toi l'homme de la maison Depuis que notre père a dû rejoindre les étoiles Et tu peux finir en prison, tu le sais, tu le sais Y a souvent des représailles C'était toi l'homme de la maison Depuis que notre père a dû rejoindre les étoiles Oui, t'as cassé quelque chose, j'te l'avoue Désolé, désolé Tant pis tant pis, tant pis tant pis, tant pis tant pis J'vais devoir vous quitter Kassim, je t'en prie J'hallucine, tu viens de me tuer Il te frappait, ma sur, tu m'disais qu'c'est la dernière Tu as vraiment cru qu'j'allais le laisser faire Tu resteras mon frère, loin des yeux, près du cur à vie Il te frappait, ma sur, tu m'disais qu'c'est la dernière Tu as vraiment cru qu'j'allais le laisser faire Tu resteras mon frère, loin des yeux, près du cur à vie Ciao Imen</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Desertland</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>La misère n'est pas au bout du monde, j'la vois de longue en bas d'chez moi J'la vois faire sa ronde, visiter les illettrés qui ne comptent qu'avec les doigts J'lis le temps sur les pommettes de ma mère Ses rides me confirment être propriétaire que du cimetière J'ramasse mon cerveau, c'est ma doucette, mon charme Mes neurones sont des munitions que j'grille à l'herbe, à l'alcool Imagine-toi la vérité dans les chartes uno La France en désaccord, tremblement des pensées mais plus encore J'espère que j'serai plus là Que j'ai piqué assez de graines au coq pour faire pousser ma vie là-bas A Desertland haw, j'ai besoin d'espace La civilisation m'étouffe faut me comprendre x2 Si j'avais les clefs d'un désert J'quitterai le régime des hommes fous Je n'vois pas l'exil de mon trou A.L.O.N. à bord des nerfs J'ai l'arrière goût de l'assassinat Ciblé depuis les bledinats si loin de Médina Les dégâts naturels en medley sur TVScore Pendant que j'enchante le climat, je chante c'qui fait mal J'envoi ce courrier aux boites cassées, Ministre ou Sénat C'est dans la défaite qu'on forge la victoire et des hommes y'en a Y'en a marre d'être au point A sur l'schéma, chooo J'arrive au pas, et de chez moi, ça bouillonne chaud J'ai envie de m'éloigner de tant de choses entre autres le cana Hypocrite banal, c'qui crypte au canal, Loanna J'ai envie d'me partir en long et en larme Vos lois c'est mes larmes pendant que je pense a c'tcho au Ghana Depuis que j'suis né ils me voient comme du fric, ils veulent me blanchir Car la liasse est l'oxygène de la masse, Hijo de la Luna Les jeunes se kiffent mais battent la femme comme Toner dit ma...cho Besoin d'espace, Desertland ils pensent à chaque sursaut x2 Si j'avais les clefs d'un désert J'quitterai le régime des hommes fous Je n'vois pas l'exile de mon trou A.L.O.N. à bord des nerfs Levé par le GIGN, met de côté les J.M Prends ton Cayenne, et pars loin du domaine loin des sirènes Ça parle, ça parle tellement que ça a mauvaise haleine A force ça renseigne, même les jaloux veulent leur part, même les jaloux ont leurs stars Pourtant on représente la civilisation Africaine En France on gêne, En France on s'traîne, on fonce Son autre, pour le fric, cochonne ou coke tigo On se bat plus pour sa mère mais pour sa merde Et le bien et le mal, faut que j'm'en sépare d'un avant le gong Avant la triste reality finale Africa mon pote, j'suis tatoué de vos tortures encore Et t'en penses quoi d'ton sort? La France fait mal L'ambiance fait mal, la danse fait mal La drogue fait mal pourtant je marche encore Et j'attend pas l'Etat en auto-stop j'suis pas sa pute, mec J'avance droit et si j'm'enfonce, rien ne change depuis l'enfance Vos épées contre nos bâtons A pousser le jeune de l'intérieur dans ses folies à l'extérieur Pour la simple raison, dans le barrio y'a plus rien à casser On nous a appris à se sentir inférieur chico x4 Si j'avais les clefs d'un désert J'quitterai le régime des hommes fous Je n'vois pas l'exile de mon trou A.L.O.N. à bord des nerfs Les clefs frères J'deviens fou De mon trou J'ai les nerfs, j'ai les nerfs Les clefs frères J'deviens fou De mon trou A.L.O.N. à bord des nerfs La misère n'est pas au bout du monde, j'la voit de longue en bas de chez moi J'la voit faire sa ronde, visiter les illettrés qui ne comptent qu'avec les doigts J'lis le temps sur les pommettes de ma mère Ses rides me confirment être propriétaire que du cimetière J'ramasse mon cerveau, c'est ma doucette, mon charme Mes neurones sont des munitions que j'grille à l'herbe, à l'alcool Imagine-toi la vérité dans les chartes uno La France en désaccord, tremblement des pensées...</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Determiné</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sur a tête de mon quartier qu'j'vais leur cabrer sur la tête Sya Styles Dis leur ! Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés En tête à queue j'me garre sur l'instru En plaque 13 entre deux Lexus Ne paniquez pas pour votre rap game Je joue pas avec vous, laisse les clash pour Eminem What's my motherfucking name? A.L.O.N L'enfant du bloc, poulette, j'fais rapper la guitare de Kurt Cobain Faut convertir la haine en amour HLM On y gagnera au change, on récolte ce qu'on sème Mentalité Western en plein aprèm, ca tire en plein carème Faut que ça cesse, écoutons l'ADN Même si le Diable met des survets Croco Qui traine dans nos bar, faut pas le confondre sinon ça fait beng beng beng Benga benga - faut se calmer Comment la vie d'un frère peut se lever pour des billets ? Prisonnier de court ou de long terme Rappelez-moi c'est quoi la Liberté, on a oublié Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés C'est pas les travailleurs mais ceux qui ont peur, qui ont voté pour Sarko Il a diabolisé les quartiers avec ses propos Il a pas pris le problème à la racine, il parle trop On est des caricaturistes, on dit que monsieur Sarko C'est le classico, l'Etat contre le peuple, coño! Ne crois pas que c'est que ton drapeau Déterminés à se faire entendre, c'est pas des kilos shit que nos mères enfantent On est pas illégaux dans le berceau, comprende? Molo, molo, oh petit rigolo, tu crois savoir Oh malade y a des familles à terre, sans le moral, sans le courage, sans le mental Qui squatte les assises ? ça la fout mal On a l'habitude de la guigne, la rayave Les coups de matraque et les gardav, le placard C'est pas pour nous, laisse ça aux violeurs, déterminés à sauver l'honneur On grandit avec différentes ambiances sonores, on se mélange et alors ? Nos différences valent de l'or, mi amor Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés On attend plus, on est déter Roue arrière, doigts en l'air Prend l'euro, coupe à l'eau Si le taux de problèmes t'empègue On attend plus, on est déter Roue arrière, doigts en l'air Prend l'euro, coupe à l'eau Si le taux de problèmes t'empègue, déter ! Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés Sud Nord Est Ouest, on est là On a la baraka même sortis des favelas Qui peut nous arrêter ? fada Les HLM sont trop déterminés, trop déterminés8</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Dinero</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal Olalalah, barra chica me trouve guapo J'ai 510 chevaux bien dressés sous le capot On en a marre du tieks, wAllah, on zone en bateau J'suis détr', cette année, j'vais mangr tout le gâteau J'lui sers une vodka pomme, elle m'demande une granita Vu qu'elle est bonne, elle est capricieuse la pépita Léwé sous jaune, j'ai les yeux rouges sous mes Ditta AK-4.7, rrah, c'est la guitare Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller T'es pas fiable et t'aimes trop les bandiyas J'sais qu'tu t'prends pour Mendosa quand t'es toute seule dans la villa Moi, j'suis pas le meilleur, me fais pas tes manières Tu as vu le bolide et les billets, là tu fais la biatch J'le chante et je le vis, wAllah, wAllah J'voulais changer ta vie, t'as fait la follasse J'allais tout te donner, habi, wAllah J'ai tout abandonner, j'me barre de là, ah, ah Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller Hola chica, deux milliards de vues dans mon capital Prends ma carte black, c'est ta carte vitale Le compte au Costa Rica, j'sirote un déca' à l'arabica 600 chevaux, j'fais coucou à la flicaille Sous conseil d'mes avocats, j'ai assuré ton boule, mamacita J'ai assuré ton boule, mamacita J'suis habillé pour 10K, j'compte pas la montre, c'est qu'un détail J'tuerai comme La Kika pour toi, chica, chica chica Et là, j'vais pas t'raconter ma vie Tu es dangereuse, tu es douce, tu es suave Dis-moi c'que tu ferais pour des dinares ? Dis-moi c'que t'as fait quand j'ai démarré ? Soirée après soirée, elle boit, elle fait que d'planer Soirée après soirée, elle danse, elle se laisse aller Mi corazonSoirée après soiréeMi corazon, elle boit, elle fait que d'planerMi corazon Soirée après soiréeMi corazon, elle danse, elle se laisse aller On sait qu'elle kiffe les dineros La gadji me fait son petit numéro Elle sait qu'elle va finir dans le Viano Ouais, et elle trouve ça normal</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DLG</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Pour cinquante euros, on les a corrompus Ils me font tous les vrais mais c'est que des faux culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Au fusil à lunette, je regarde la concu' Tellement ils m'ennuient, je regarde des gros culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go La conduite est nerveuse, j'ai changé le pot Je traverse le temps comme ton Avenue J'vous mets tous à l'amende et j'y ai pris goût Je sortais pas en boîte, peur de me faire pointer Maintenant, ils allongent pour que je vienne chanter Même quand je volais des habits, j'avais du goût Pour lui mettre un coup, pas besoin d'boire un coup On bouge en Espagne, va faire le plein de gasolina Tendu est le climat, comportement Totò Riina Hasta la vista, hasta siempre Je chante la misère du tieks sur un synthé' Pourquoi tu t'es marié si t'as pas le bonheur ? Après l'heure, c'est plus l'heure Avant j'avais rien, je fraudais le métro J'ai plus de soucis depuis qu'je roule en Merco Pour cinquante euros, on les a corrompus Ils me font tous les vrais mais c'est que des faux culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Au fusil à lunette, je regarde la concu' Tellement ils m'ennuient, je regarde des gros culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Je suis en classe affaires, toi t'es en Ouigo En loge présidentielle avec mes amigos On aime trop le foot mais la vie c'est la mêlée Des placages au sol, des schmitts, chez nous sont mals lunés On revient de loin, casse pas les couilles, on veut des loves Elle t'as sucé le premier soir, t'es tombé love Meskina, prie pour ton fils La vie n'a plus de sens ici, yemma On a grandi ensemble, soit content pour moi Je ne traine plus au bar, ne m'en voulez pas J'ai fais confiance, on m'a trahi, j'ai pardonné Fous-moi la paix, y'a d'la frappe dans mon calumet Elle a changé ma vie, j'm'y attendais pas Si demain elle me quitte, je m'en remettrai pas Je risque de mourir en club, au carré VIP Trahi par un gars de mon équipe Pour cinquante euros, on les a corrompus Ils me font tous les vrais mais c'est que des faux culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Au fusil à lunette, je regarde la concu' Tellement ils m'ennuient, je regarde des gros culs Quartiers nord de Marseille, donnez-moi le Go Je vais tous me les faire, donnez-moi le Go Les histoires, j'écoute pas Señorita, j'ai connu la lère-ga Ça bouge pas, ça bouge pas Mira, mira C'est la vida loca3</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DODI AL-FAYED</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Nehzia on the track Allez l'OM, frappe de Payet C'est quartiers Nord, calle loin des strass et paillettes Mourir aux côtés d'une princesse, Dodi Al-Fayed J'prends 10K, j'vais m'amuser aux galeries Lafayette On a des armes, des trucs qui coûtent cher On t'monte en l'air puis, t'envoie six pieds sous terre Le cul de Georgina en after, chez Smogo à six heurs J'fais pas la queue, j'ai vu grandir le vidur Carlos Santana, ra-ta-ta-ta Carlos Santana, ra-ta-ta-ta Mansori, Urus, pas besoin d'ça pour piner J'vais lui casser l'dos puis j'l'envoie chez l'kiné MDC, N'golo Kanté, ça récupère tout d'Alicante MDC, N'golo Kanté, ça récupère tout d'Alicante Y a des Cayenne en bas d'chez moi, le 911 en bas d'chez moi Deux KTM en bas d'chez moi, Smith Wesson, c'est Baltimore Carlos Santana 'tana, ra-ta-ta-ta Ra-ta-ta-ta Carlos Santana 'tana, ra-ta-ta-ta Ra-ta-ta-ta Mansori, Urus, pas besoin d'ça pour piner Piner J'vais lui casser l'dos puis j'l'envoie chez l'kiné Kiné, j'arrive en, j'arrive en J'arrive en teum-teum et ça fait bep-bep, j'arrive J't'allume en, j't'allume en J't'allume en deux-deux et ça fait piou-piouh, j't'allume Cinquante M.A.P, cinquante M.A.P, tard le soir Soir Elle est toute éclatée, j'ai dû la baiser dans le noir Chien, noir Pilon sous l'cocotier, j'guette ces rappeurs surcotés Pilon sous l'coco' Pilon sous l'cocotier, j'guette ces rappeurs surcotés Le cul de Georgina en after, chez Smogo à six heures J'fais pas la queue, j'ai vu grandir le videur MDC, N'golo Kanté, ça récupère tout d'Alicante MDC, N'golo Kanté, ça récupère tout d'Alicante Y a des Cayenne en bas d'chez moi, le 911 en bas d'chez moi Deux KTM en bas d'chez moi, Smith Wesson, c'est Baltimore MDC, N'golo Kanté, ça récupère tout d'Alicante MDC, N'golo Kanté, ça récupère tout d'Alicante Y a des Cayenne en bas d'chez moi, le 911 en bas d'chez moi Deux KTM en bas d'chez moi, Smith Wesson, c'est Baltimore Allez l'OM, frappe de Payet C'est quartiers Nord, calle loin des strass et paillettes Mourir aux côtés d'une princesse, Dodi Al-Fayed J'prends 10K, j'vais m'amuser aux galeries Lafayette</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Dramatik music</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Pas trop égotrip ni mélancolique Avec le sourire voilà en 2009 v'la dramatik music Accroche toi génération 82 J'ai grandi avec ce qui se fait de plus chaud en son nerveux le couz Voilà l'héritage énorme arrivage Dis-leur que je débarque seul sans mon équipage Célébrons notre fête nationale C'est l'hymne des blocs, mon très chère pays hexagonal Droit y aura pas de diagonale Tir en l'air, sortez le champagne je fais défilé l'arsenal J'suis Achille, j'suis le premier sur la plage En 2009 qui visera le talon, qui m'écrira sur les pages Achek, je suis possédé par le démon Ce que pense mon secteur je te le crache en originale version Au nom de la patrie des jeunes cramés Qui se déplace en Honda, en Yamaha ou en Kawazaki Donbuté Le jour de gloire béssif je le fais arriver Marchons, on a besoin de se sentir valoriser Quartier nord, j'ai pas de galons sur mon Septième Veine Mais je te ramènerai la tête du rappeur que tu aimes Permettez-moi de vous dire, que vous attendez les mauvais albums Public, j'arrive en cheval au pollen ramène Pas trop égotrip ni mélancolique Avec le sourire voilà en 2009 v'la dramatik music Accroche toi génération 82 J'ai grandi avec ce qui se fait de plus chaud en son nerveux le couz Voilà l'héritage énorme arrivage Dis-leur que je débarque seul sans mon équipage On fait couler du Rimmel Cette société de consommation fais qu'à vingt ans tu t'emmêles Des tentations chauds, les bonnes ou mauvaises nouvelles Refroidissent pas assez la détermination du rebelle On est pas pour le bordel c'est le bordel qui est en nous Mais Dieu nous aime on s'entraide y'a pleins d'exemple parmi nous Je pense pas que le rap soit ma voie professionnelle Y'a trop d'émotion pure, le quartier c'est sensationnel, c'est actuel pas virtuel Qui nous fait honneur le couz qui ? Nos petites surs sont amoureuse de ses grosses tarlouzes non Involontairement décalé faut pas que tu aies la frousse non On veut se sentir concerné c'est pour ça qu'on pousse oui Tous coincé dans le même tunnel faut lutter Dans chaque départements on a nos faits réels faut lutter Le couz mal jugé on tient à faire appel Personne emprisonnera la musique apaise nos peines Pas trop égotrip ni mélancolique Avec le sourire en 2009 v'la la dramatik music Accroche toi génération 81 J'ai grandi avec le respect des anciens Entends bien le couz voilà l'héritage énorme arrivage Dis-leur qu'il débarque seul, sans mon équipage Les jeunes sont motivés par le mal et prennent des peines de shtar Portent des paires de stable, le crime est sponsorisé par Nike Elle a écarter les jambes, mes potes ont niqué la life Autoroute et pare-balles, motorisé la night Je suis le black skin, impossible que je rappe sans ma batte J'ai serré la main de ton rappeur préféré, donc mes doigts sentent la chatte Véridique à la Canto A-Alonzo le rap porte un string, ras le poncho Les quartiers voila ma patrie, du vrai pas de frime Dramatik music celle qui te défouraille la poitrine Live and direct des quartiers nord Chut chut tu parles des morts écoute le rap fait par des hommes Les seuls questions que tes rappeurs se posent putain suis-je le best ? non Versatile et réversible est leurs styles de veste Il peut être grand et baraqué ton MC je le baise oui Tapine sur la rue de la gloire comme les filles de l'Est On reconstruit comme le Plan d'Aou Ou il mettent des bâtons dans la roue moi je suis sur la roue arrière de mon rap GSXR Qui fait vroum-vroum C'est pour les darons et les vroum-vroum, ils sont de la com, nous du seum seum Nous on rappe pas pour le fun, on fait brah Une cible ça se rate pas, comme un jour de jeûne On fait le rap qui te fait hamem Nous on reste les mêmes, même Salif Alonzo et game ça fait bang bang Pas trop égotrip ni mélancolique Avec le sourire voilà en 2009 v'la dramatik music Hey yo Alonzo, wesh Salif Fait place aux patrons, les armes sont à vendre Tu paries ? Qu'on veut mourir avec des hassenets pas mourir avec le rap Chez nous, les gens continue de souffrir et de se battre Notre dramatik public, les seuls à entendre, à comprendre notre dramatik music1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Elle t’a tué</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Elle t'a tué Tu ne portes plus tes couilles, wAllah Elle t'a tué Tu deviens si fragile Tu en as marre, tu cauchemardes, tu veux consulter, ta mère dit C'est pas normal, elle reste là, elle a pourri ta vie, l'ami Elle t'a tué Tu deviens si fragile Elle t'a tout pris avant de partir Tu sais plus sourire, tu vois plus l'avenir Tu dors même plus l'soir, tu arrêtes plus d'boire Tu d'viens un zombie et dehors ça va vite Même pas tu en parles, zerma tu es normal Tu mens à ton coeur alors qu't'as perdu l'âme soeur Tu niques des crasseuses, elles te prennent ton fric Plus rien de magique, tu repenses à ses mimiques Dire qu'un autre la pécho d'après ton poto Tu dis que c'est faux, qu'elle reviendra bientôt Franchement lâche l'affaire, quand c'est mort c'est mort Peu importe qui a tort, je sais qu't'es un gars un or mais, frère... Elle t'a tué Tu ne portes plus tes couilles, wAllah Elle t'a tué Tu deviens si fragile Tu en as marre, tu cauchemardes, tu veux consulter, ta mère dit C'est pas normal, elle reste là, elle a pourri ta vie, l'ami Elle t'a tué Tu deviens si fragile On t'reconnait plus, qu'est-ce tu as ? T'es paro T'as pris un coup ? Brûle pas sa Twingo Pourquoi tu l'appelles, elle prépare son hlel Tu veux faire bordel, que ça parte en mauvais dél' Et ton état fait qu'empirer, elle disait qu'elle t'aimait Qu'elle porterait ton bébé, les gens vous jalousaient Combien de fois t'en rêves ? Personne quand tu t'lèves Tu la traites de cochonne c'est parce que tu maronnes Ta daronne te connait, elle sait que t'as le-ma Bouge au Baléares, prends un nouveau départ Oublie son terma, tous ses p'tits plats Tu cherches à te caser, bizarrement t'arrives pas, frère... Elle t'a tué Tu ne portes plus tes couilles, wAllah Elle t'a tué Tu deviens si fragile Tu en as marre, tu cauchemardes, tu veux consulter, ta mère dit C'est pas normal, elle reste là, elle a pourri ta vie, l'ami Elle t'a tué Tu deviens si fragile Tu la soûles, elle est sourde Tu t'étouffes, elle te bouffe Mais elle a tout, elle a tout Ta vie sans elle est un enfer Tu l'as prise, elle t'a pris Tu la suis, elle te fuit Nique sa mère, nique sa mère Tu es mon frère, j'ai trop les nerfs</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Elvira</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Je sors acheter ma presse J'croise une belle portugaise Elle m'dit fonce dans le mur J'lui dis j'suis pas maçon Plus loin une belle anglaise Avec un corps de rêve J'lui demande what's your name? Fuck you c'est sa réponse Pas grave j'suis à mon aise J'vois une belle antillaise J'lui sors un beau pas de zouk Elle m'recale fortement Cette fois je l'ai mauvaise On me fuit comme la peste Pourtant je les aime toutes Mais elle m'ont toutes dit non Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non 15 heures j'promène mon cleps J'tombe sur une japonaise Elle crie tu es mignon Elle parle d'mon Labrador Bref une chouette hollandaise Grande comme les filles de l'est Maccoste gentiment Elle croit que j'vends du chichon Y'a une israélienne J'ai l'impression d'lui plaire J'lui dis qu'je mange kacher Mais que j'suis musulman Oh cette journée me pèse On me fuit comme la peste Pourtant je les aime toutes Mais elle m'ont toutes dit non Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non Oh mon Dieu suis-je maudis ? Elles me fuient toutes Je commence à perdre espoir J'attends ce jour où elle viendra dormir près de moi tous les soirs Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non Ah ça oui la liste est longue Ah ça oui la liste est longue Ah ça oui j'les aime toutes Mais elle m'ont toutes dit non Marion, Marie-Louise, Fatou et Samira Lou, Victoria, Pauline, la liste est longue1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Empêche-moi</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mamé c'est plus chaud que papé, 'zin J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi Traite-moi de singe, j'attends pas le 5 Pour m'acheter des fringues ou pour faire la bringue Je fais ça au feeling, ta hlel devient dingue Demande à 2Being, money ain't nothing On mène la belle vie, boit d'la Belvé' Zano', LV, fuck la BRB La chatte à Young Thug, je préfère les félines Un gros cul, je bug, je suis jnouné J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi Tu me fais du shour pour que j'rentre en taule On s'en bat les couilles, ta mère la grosse folle Je suis dans mon délire, tous mes 'zins décollent J'fais 1 heure de crawl, tu fais 1 heure de colle Paille dans le pif, elle cherche des invits' Pour m'tailler une pipe, faire des selfies Apelle la serveuse, la vodka à Poutine Que les billets pleuvent, je suis jnouné J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi J'claque tous mes lovés dans l'club, empêche-moi, empêche-moi J'claque tous mes lovés dans des shoes, empêche-moi, empêche-moi J'claque tous mes lovés à kech-Marra, empêche-moi, empêche-moi J'claque tous mes lovés pour Rihanna, empêche-moi, empêche-moi</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>En bombe</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jrappe comme si jallais mourir, la rue ma validé Tes rappeurs préférés, wAllah, je vais les aligner Ya pas dthème que dla hagra gratuite Tout le monde sen bat les couilles de ton album, normal quil y ait pas dfuite Alonzo ci, Alonzo ça rien quça tweete Tu cherches ta tchoin après le showcase, elle est dans ma suite Jsuis en bombe qui va mstopper cette année ? Jsuis en bombe, continue dpédaler oh Amenez-moi le plat de concurrence que jle graille Ça manque de goût rajoute dla sauce rougail Ton mec fait du MMA, on sen bat les reins Car je sais où je vais, mais surtout tu sais doù jviens Quartiers Nord, no limit Wesh gros dis-moi pourquoi tu nous imites ? Tu rentres chez nous avec un casque intégral Tes suspect, lève-moi vite ça Ils y croyaient pas aujourdhui jles rafale Toujours sûr de moi, comme Soulayman au tribunal Du lundi au samedi soir, jsuis en bombe Me pousse pas à faire une dinguerie, jsuis en bombe Wesh ça dit quoi ? Jsuis en bombe Boîte ou chicha, jsuis en bombe Elle a sorti les Jimmy Choo. Wow ! Jsuis en bombe Trop speed, trop speed wow, jsuis en bombe, dis-moi quest-ctas ? Jsuis en Espagne, Lloret Del Mar On aime les culos du pays à Neymar Jai du buzz oui je pèse les jaloux smanifestent Entre zins on prend tout on vous laisse même pas les restes Jai un bolide, des gars solides Jsuis en roue libre, cest la folie Ma détermination fait peur de Mars à Paris Combien va vendre Alonzo la première semaine ? Jprends les paris Jai lâge à ta mère, jsuis encore en bombe À lâge de ton père jserai toujours en bombe On mdit quen featuring jleur fais du sale, presque jen ai honte Jsuis interdit de les approcher à des kilomètres à la ronde Mes négros sont dans lespace Grosse liasses, grosse tasse, Versace cest la base Louboutin sur la banquette cest la base Ils y croyaient pas aujourdhui jles rafale Toujours sûr de moi, comme Soulayman au tribunal Du lundi au samedi soir, jsuis en bombe Me pousse pas à faire une dinguerie, jsuis en bombe Wesh ça dit quoi ? Jsuis en bombe Boîte ou chicha, jsuis en bombe Elle a sorti les Jimmy Choo. Wow ! Jsuis en bombe Trop speed, trop speed wow, jsuis en bombe, dis-moi quest-ctas ? Ils me disent Alonz calme-toi les blesse pas Ty vas un peu trop fort ils nencaissent pas Tes en bombe En bombe Ils me disent Alonz calme-toi les blesse pas Ty vas un peu trop fort ils nencaissent pas Tes en bombe En bombe Ils me disent Alonz calme-toi les blesse pas Ty vas un peu trop fort ils nencaissent pas Tes en bombe En bombe Ouais, ouais, jsuis en bombe Tes en bombe papé, jsuis en bombe Jsuis en bombe Jsuis en bombe4</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>En boucle</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Soulayman Beats Remets-moi une instru' avant La Belle Vie, mamé Eh-eh Baille Broliker Production J'pense qu'ils sont pas rassasiés, la famille, écoute, yeah Armes à feu, quartier dangereux, gros terrain d'beuh, y a les guetteux Quand la daronne passe, on est honteux, quand les civils chopent rien, on est chanceux Le soleil tape fort, on est nerveux, quand un poto se marie, on est heureux Tous ces rageux, cest des fils de, si j'meurs, Kilian s'occupera d'eux Des millions de vues, jai mis le rap en feu, ils y croyaient pas, ils me voyaient en Ligue 2 Pourtant, tous ils m'écoutent depuis tit-pe, regarde-moi dans les yeux, y a la Cité de Dieu Course-poursuite, pilote à la Mimette, côté passager, tê-te coller à l'appuie-tête Au volant, les palettes, j'suis en buvette, dédicace aux Minguettes, big up à Vénissieux À Saint-Antoine, à Saint-Antoine c'est la rue à mon père, j'me gare où j'veux Un café, deux cafés, trois Vittel fraise, la serveuse est à tout l'monde, fais pas l'mielleux Alaoui me dit Alonzo, fais quelque chose, jai des appels des Baumettes, ils veulent que j'explose Selon la dose, j'te laisse pas le vingt-deux, quand il s'agit de fumer le micro, j'suis finteux Alonz' vénère, Plan d'Aou vénère, nique ta mère, je suis pas un footeux Tu pigeonnes qui ? Toi, tu pigeonnes quoi ? Tu n'auras pas ton hlel, t'as un passé douteux RR 1000 sur béquille latérale, on attire l'il, on attire le Dajjal M.A.R.S.E.I.2L.E, Tu me suis ? Je pars en tête-à-queue Ah, c'est l'ghetto, ouais, c'est le ghetto, j'parle que d'kilos, j'suis pas un intello' BEP mécano avant le disque de ro'-ro', grosses couilles de taureau, claque vite les euros Y a plus de tête-à-tête, une casquette, ton doigt sur la gâchette et tu rejoins les cieux Règlement De Comptes, c'est le nom de lalbum, tu m'as donné le go, j'ai fumé le rap jeu Lewo ndja voura, ngamdjo hou fouma, Cha wa tsatsaya, madjini ya djouha Haraka, haraka, haraka, haraka, je rappe de-spee, je fais des sous haraka Sors de perm', sors ton sperme, des putes, si tu veux, j't'en ramène deux Préviens ton équipe, l'album est déjà sorti, je finis la mixtape j'vous la sors en deux-deux, Capo12</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Énorme</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ahí la tiene Maradona, lo marcan dos, pisa la pelota Maradona, arranca por la derecha el genio de fútbol mundial, y deja el tercero y va a tocar para Burruchaga! Siempre Maradona... Genio! Genio! Genio! Ta-ta-ta-ta-ta-ta-ta... Goooooolll! Goooooolll! Quiero llorar! Dios santo! Viva el fútbol! Golaazo! Diegooooo! Maradooona! Es para llorar, perdóneme! Maradona, en una corrida memorable, en la jugada de todos los tiempos... Bonjour au monde, bonjour à l'homme J'me présente j'suis le quartier au potentiel énorme J'avais douze ans quand la musique a défoncé ma porte Elle m'a kidnappé devant ma mère qui s'tenait la gorge Nhar Sheitan, non-stop Du rap dans le poste, l'école catastrophe, poète en Lacoste Dans le foot et l'vol à l'étalage avant que maccoste Akhenaton et Aïcha pour être dans la Cosca A.L.O.N. Vingt-six bougies soufflées en pleine favela On me croise tellement qu'on s'demande vraiment si je suis une star Juste le baromètre vocal de mon climat J'ai du bon comme du mauvais, des fois c'est la bombe, des fois c'est le coma Merci à ceux qui m'suivent C'est grave à vous qu'l'humeur du jour n'est pas encore définitive Mesdames et messieurs, c'est bien l'heure, j'vais leur cabrer sur la tête J'arrache le sac du rap à deux milles à l'heure La musique, c'est énorme, le public, c'est énorme Faut le vivre, moi je vibre quand tu cries, c'est énorme Plan d'Aou, c'est énorme, Psykatra, c'est énorme Toutes ces villes, toutes ces îles qui nous suivent, c'est énorme Quand j'y pense, c'est énorme, j'viens des blocs, c'est énorme Pourquoi moi ? Je sais pas, mash'Allah, c'est énorme Internaciónal, papé, j'représente, c'est énorme, énorme, énorme, énorme, énorme Si tu vois l'étoile sur le maillot T.S.E On est tellement énorme qu'ils veulent tous nous descendre en Ligue 2 Écoute, les Winners ils crient Alonzo Le 10 dans le dos, j'vais marquer de la main, c'est miraculeux Diego est en moi, j'aime trop le public pour faire un match nul En concert, j'mets mon cur à nu Je rappe jusqu'à plus de voix, tu m'crois pas, viens me voir C'est le charme de la Psykatra, c'est énorme, c'est ce soir J'suis dans ta zone, j'mouille le maillot J'te représente, j'suis pas perso, j'freine pas au créneau Pour les frères et surs, j'monte au créneau A.L.O.N. el fenómeno, jcarbure aux foules oh Tous c'que vous m'donnez, le soutien qu'vous m'apportez S'est transformé en pare-brise blindé Mesdames et messieurs, c'est bien l'heure, on va leur cabrer sur la tête J'arrache le sac du rap à deux milles à l'heure La musique, c'est énorme, le public, c'est énorme Faut le vivre, moi je vibre quand tu cries, c'est énorme Plan d'Aou, c'est énorme, Psykatra, c'est énorme Toutes ces villes, toutes ces îles qui nous suivent, c'est énorme Quand j'y pense, c'est énorme, j'viens des blocs, c'est énorme Pourquoi moi ? Je sais pas, mash'Allah, c'est énorme Internaciónal, papé, j'représente, c'est énorme, énorme, énorme, énorme, énorme J'fais tout à l'instinct, 'sin, l'intestin en prend un coup avec la bringue Le destin schlingue, les médecins pensent que les jeunes, surtout les moins d'vingt Sont contrôlés positif comme Diego, l'argentin Le coup d'rein pour effacer la défaite, on tient Comorien dans le teint ou dans le grain, voisin Haut les mains, tous les jeunes lycéens C'est de la F1, Alonzo sans fin, pas d'virage que j'crains Même à jeun, on me traite de vaurien La merde, c'est L'Oréal, on le vaut bien Jaloux, vas-y, joue le maintien, je domine la Ligue 1 Entends les gradins, ils veulent qu'j'en mette un, même de la main Cousin, Plan d'Aou, Castellane, anti-tapin Nous on veut pas le trône parce qu'on est tarpins La musique, c'est énorme, le public, c'est énorme Faut le vivre, moi je vibre quand tu cries, c'est énorme Plan d'Aou, c'est énorme, Psykatra, c'est énorme Toutes ces villes, toutes ces îles qui nous suivent, c'est énorme Quand j'y pense, c'est énorme, j'viens des blocs, c'est énorme Pourquoi moi ? Je sais pas, mash'Allah, c'est énorme Internaciónal, papé, j'représente, c'est énorme, énorme, énorme, énorme, énorme ...barrilete cósmico, de qué planeta viniste? Para dejar en el camino tanto inglés, para que el país sea un puño apretado, gritando por Argentina... Argentina dos, Inglaterra cero. Diegol, Diegol, Diego Arrrrmando Maradona! Gracias Dios, por el fútbol, por Maradona, por estas lágrimas, por éste... Argentina dos...1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Faim d’Europe</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>On a la dalle, ouais, on a faim d'Europe On a la dalle, ouais, on a faim d'Europe Les vaillants font trembler le Vélodrome Appelle un Uber Eats, baba, on va les mettre en i, fada On va les mettre en i, malade, on va retourner la ville, 1.3 Comme dans Heat pa-pah, on veut voir que des machines pava Comme dans Heat pa-pah, on veut voir que des machines pava Bleu et blanc est le sang, t'inquiète, on est nsembles Tu regards les étoiles, on l'a sur le maillot Ça pète les écrans, va le dire à Momo Le club est légendaire, va le dire aux minots Qu'est-ce tu as ? Écoute bien Rends pas fou, t'façon tu as rien compris Commande à boire, laisse un pourboire, y a la petite, n'oublie pas les sushis bleh On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe On a la dalle, ouais, on a faim d'Europe faim d'Europe Les vaillants font trembler le Vélodrome le Vélodrome C'est Marseille, bébé c'est Marseille, bébé C'est Marseille, bébé c'est Marseille, bébé On a la dalle, ouais, on a faim d'Europe faim d'Europe</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Fais le job</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Dites à Mama, jai mes raisons, je bouge de là, jveux faire de grosses sommes sans perdre la Foi, jcrois en Rabi À bout de nerfs, à fleurs de peau, je noie mes peines dans le mensonge, jen suis conscient, jsuis récidiviste Rien dans mes pattes, jai rien dun homme, jai la crinière, je suis un lion, cest imminent, Reine et je te veux pour la vie Fier dêtre Noir, et ouais mon pote, cest un honneur, jviens des Comores, où sont mes zins ? Que jles embrasse avant dmourir Jme dis des fois que notre cur est un organe, parmi les autres, un jour il pourrit Immortelle est l'âme, aïe, aïe, aïe, aïe Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov Jai de la haine, de la rancur, faut que tu payes, je peux tabattre, jen suis capable, il faut me croire, jdors plus la nuit Jai perdu mon père, je fais du rap, milieu de merde, je les encule, ces incapables savent plus quoi faire, ils envoient des pics Je l'ai dans mes bras, cest ma richesse, cest mon trésor, c'est le seul mec qui a le droit de me pisser dessus et jen ris Je fais la fête avec mes potes, on prend du cash, on prend de lâge, on accélère, au retour à bord du bolide Jme dis des fois que la lumière au bout du tunnel, cest pt-être les pleins phares de lennemi Oh nan nan nan, oh nan nan, oh nan nan nan, oh nan nan Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov Tôt ou tard je vais caner, vais caner, tôt ou tard je vais caner, vais caner Tôt ou tard je vais caner, vais caner, tôt ou tard je vais caner, vais caner Regarde-moi jsuis égaré, égaré, regarde-moi jsuis égaré, égaré Tôt ou tard je vais caner, vais caner, regarde-moi jsuis égaré, égaré Tôt ou tard je vais caner, vais caner, tôt ou tard je vais caner, vais caner Tôt ou tard je vais caner, vais caner, tôt ou tard je vais caner, vais caner Regarde-moi jsuis égaré, égaré, regarde-moi jsuis égaré, égaré Tôt ou tard je vais caner, vais caner, tôt ou tard je vais caner, vais caner Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov Relève-toi et fais le job, relève-toi et fais le job Relève-toi et fais le job, relève-toi et fais le job On va caner, fais le job, pas ltemps de pleurer, fais le job Relève-toi et fais le job, augmente le son dans ta gov4</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Feu d’artifice</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>J'parie qu'ce soir, tu vas finir seul dans un Uber alors qu't'auras claqué toute ta paye Dança de perna aberta Oh, ne fais pas l'fou, tu t'es pris une gifle, tu tends l'autre joue J'suis avec mes bros, deux-trois sous-sous Dis-moi, c'est quoi ton prix ? Qu'on fasse l'amour Ok, ok, ok, j'crois pas qu'on s'connait Tu as fait disque d'or mais tu n'as pas d'sous, t'y es pas michtonnable, tu n'as pas d'sous Personne ne va rien faire car nous, on casse tout Ok, ok, ok, elle pousse à consommer Mais vont-ils assumer ? Mais vont-ils assumer ? Tu veux une ristourne ? Va te faire enculer Ton mec te paye tout parce qu'il est laid C'est quand qu'on casse tout ? Dança de perna aberta Maintenant Billets purple, tout s'entasse dans le portefeuille Négro, j'suis pas tout seul, tout l'tiekson est au fond du club Refait le physio', on va te casser, ramène tes copines, ça va consommer Feu d'artifice, j'vais les allumer Dança de perna aberta Ce soir, c'est zbeul Pah, pah, pah, pah, brr ah tah, tah, pah, pah Dança de perna aberta Oh, oh, oh, laisse, laisse-les parler Ça dit que j'vends la coke à c', à c'qu'il paraît J'te demande pas ton avis, donc viens pas m'les casser Tu fais la belle sur Snap' mais sans filtres, tye khener Ok, ok, ok, t'y es hlelisé Nous, on casse tout même ton cur blindé Tu parles japonais, je cause franco Et on Rolex pas nous, on t'laisse la Casio Ok, ok, ok, elle pousse à consommer Mais vont-ils assumer ? Mais vont-ils assumer ? Tu veux une ristourne ? Va te faire enculer Ton mec te paye tout parce qu'il est laid C'est quand qu'on casse tout ? Dança de perna aberta Maintenant Billets purple, tout s'entasse dans le portefeuille Négro, j'suis pas tout seul, tout l'tiekson est au fond du club Refait le physio', on va te casser, ramène tes copines, ça va consommer Feu d'artifice, j'vais les allumer Dança de perna aberta Ce soir, c'est zbeul Pah, pah, pah, pah, brr ah, tah, tah, pah, pah Dança de perna aberta2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Filature</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Hey, Alfonso Ouvre la porte, c'est Fakri Jenkins à la prod OK, OK, OK, OK, OK, OK, OK, OK J'vais les choquer, choquer, choquer, choquer, choquer, choquer, choquer OG, te-shi, Gucci, logique, civil nous prend en filature Gadjis, amis, prison, Uzi, oh oui je suis trop immature Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Rivière, je touche la quinte, ramène ta sur qu'on la mainte Faut que j'invente une feinte, ils ont trouvé mes empreintes Double file, j'gare le Porsche, j'me restaure à Rive Gauche Kichta dans la sacoche, pour ça qu'elle m'trouve jamais moche J'accélère, elle s'accroche, elle veut qu'j'l'amène dans la loge J'ai showcase à Liège, P38 sous le siège Au quartier, ça vend la mort, au quartier, ça vend la neige PGP, BlackBerry, porche, est-ce que ta beuh, elle est sèche ? OK, OK, OK, OK, OK, OK, OK, OK J'vais les choquer, choquer, choquer, choquer, choquer, choquer, choquer OG, te-shi, Gucci, logique, civil nous prend en filature Gadjis, amis, prison, Uzi, oh oui je suis trop immature Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Véri-véritable, véri-véri-véritable Ça découpe à l'étage, midi minuit au guettage Les bandeurs, j'les aime pas, ouais, les bandeurs, j'les aime pas Et ça fait trop les Pablo, ils ont le compte à plat, pas de plata Peuvent te planter en pleine cité sur le rrain-té J'vais t'raconter la vérité sans inventer, sans rien monter Donne-moi du feu, j'suis inspiré, j'vais les choquer, tu me connais C'est du papé, c'est du papier que j'viens chercher, fais l'étonné, ouais OK, OK, OK, OK, OK, OK, OK, OK J'vais les choquer, choquer, choquer, choquer, choquer, choquer, choquer OG, te-shi, Gucci, logique, civil nous prend en filature Gadjis, amis, prison, Uzi, oh oui je suis trop immature Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Ces fils de, j'connais pas, tout ce milieu m'connaît pas C'est physique, j'les aime pas, j'les suis même pas sur Insta' Ceux qui m'critiquent, j'connais pas, tous vos tweets, je lis pas Hypocrite, je t'aime pas, si tu me vois, t'arrête pas Ceux qui m'critiquent, j'connais pas, tous vos tweets, je lis pas Hypocrite, je t'aime pas, si tu me vois, t'arrête pas</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Finis-les</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ils croient qu'ils sont forts, petits miskines J'suis là depuis Luciano, m'gettah au shit Parlons français, tu n'as pas percé J'te jure sur mon fils, ils ont pas un euro Je n'ai jamais fait semblant, dégaine de délinquant J'ai tout niqué avec la Psykatra, tu le sais Mes amis d'enfance me croisent, ils m'offensent, ils me disent Kassim, finis-les J'reçois des appels des Baumettes, des quartiers chauds, Marseille me dit Finis-les ! Même avant de dormir le soir, ma femme me dit Ma vie, finis-les ! Même mes enfants innocents me disent Papa, finis-les ! Chaque jour je fais le tour, j'reviens sur mes pas Vais-je arrêter un jour? WAllah je sais pas J'ai fait des sous dans l'rap starfAllah Je reste que par amour ou pour les abattre C'est la bagarre faut que ça soit rentable, mais qui rivalise? J'sais pas t'es bizarre, je vais te baiser ta race, ramenez-moi un calibre Si ça part en couilles dans le rap game enterre-moi à Foumbouni Protégez ma mère si elle souffre, j'ai pas fini On dit que j'rappe pour les minots, qu'à 32 ans j'ai pas mûri Toujours crapuleux sur le piano, tu le sais Mes amis d'enfance me croisent, ils m'offensent, ils me disent Kassim, finis-les J'reçois des appels des Baumettes, des quartiers chauds, Marseille me dit Finis-les ! Même avant de dormir le soir, ma femme me dit Ma vie, finis-les ! Même mes enfants innocents me disent Papa, finis-les ! Chaque jour je fais le tour, j'reviens sur mes pas Vais-je arrêter un jour? WAllah je sais pas J'ai fait des sous dans l'rap starfAllah Je reste que par amour ou pour les abattre Les rappeurs bavent, j'ramène à boire J'vous pisse à la raie, j'suis un bâtard Dis-moi qui sont ces pelos, dis-leur que j'suis Alonzo J'vous fais hagar, j'suis le Capi Dei Capo J'suis le Capi Dei Capo J'suis le Capi Dei Capo J'suis le Capi Dei Capo15</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Foumbouni</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mamé, mamé Attention... Ok MC, on t'encule Grosse crapule, grosses testicules Jeune meurtrier, Kalash' chargée Tu veux m'clasher ? Tu vas t'faire fumer Grosse folle, grosse folle J'te nique tous tes morts, et j'rentre en taule On assume, on est nombreux Foumbouni, barbarie, le gang est sérieux On est, on est, on est, on est On est, on est, on est nombreux Tu me donnes pas mon biff, on séquestre ton producteur Tu recales mon équipe, on fait sauter l'disjoncteur, parce que... On est, on est, on est, on est On est, on est, on est nombreux Tu me donnes pas mon biff, on séquestre ton producteur Tu recales mon équipe, on fait sauter l'disjoncteur, parce que Veste Armani, pour les charmer AK Uzi, AK Uzi, pour les caner Tony, Manny, t'étais pas né Nez dans la farine, hasta siempre Y'a les condés, y'a les condés T'es qu'une grosse balance, tu sais pas nier Trois cent potos, croissant sur le drapeau En showcase, mets-nous vodka jus de couilles de taureau Nawak Mali, dans le building Samio-saka, mkara-kara On assume, on est nombreux Djazaïri, Comori, le dièse est sérieux On est, on est, on est, on est On est, on est, on est nombreux Tu me donnes pas mon biff, on séquestre ton producteur Tu recales mon équipe, on fait sauter l'disjoncteur, parce que... On est, on est, on est, on est On est, on est, on est nombreux Tu me donnes pas mon biff, on séquestre ton producteur Tu recales mon équipe, on fait sauter l'disjoncteur, parce que3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fournisseur</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Y a que des bandeurs d'homme, wAllah Que des moutons blessés et bouffe Mamé, vrrrra Okay Miller J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Joint de marijuana, ça te sort le FAMAS, ne fais pas le hamar, les microbes font hella Ça vend médicament en bas du bâtiment, wAllah, c'est Baltimore, va niquer tous tes morts La conso' est calée, rafaler, il fallait, la sacoche en damier, on est dans le papier RS7, ABT, RS7, ABT Woh, woh, woh, woh, oh Kass' Joint de marijuana, ça te sort le FAMAS, ne fais pas le hamar, les microbes font hella Ça vend médicament en bas du bâtiment, wAllah, c'est Baltimore, va niquer tous tes morts La conso' est calée, rafaler, il fallait, la sacoche en Damier, on est dans le papier RS7, ABT, RS7, ABT, y a les frères au Pontet, ça fait que recompter Logo sur la veste vient d'Italie, 'talie, 'talie et mon Thieb' vient du Mali, Mali, Mali Pas de cess', j'suis pas Tony, j'suis ni Many, je répète J'suis pas Tony, j'suis ni Many Donne les tarifs, sort à des heures tardifs et ce qui nous arrive, c'est la rue, c'est la vie Entre une partie d'rami, la barboute et le bingo C'est capo mamie, Marseille dans les canines J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' J'ai les fournisseurs, les mapé', les kala' Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Que des gros moteurs parés pour l'décollage Ça fait braquage en équipe, ça partage en équipe T'as ta part, on est quitte, vu qu'tu parles, on t'évite Ça fait braquage en équipe, ça partage en équipe T'as ta part, on est quitte, vu qu'tu parles, on t'évite C'est la folie, folie, folie, folie C'est la folie, folie, folie, folie C'est la folie, folie, folie, folie Folie, folie, folie, folie Folie, folie, folie, folie Folie, folie, folie, folie</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Freestyle Araï 2015</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2015, 2016, 2017, 2018, 2020, 52, 53, 2054 Alonz, P.L.A.N D A.O.U, 13.0.15 A.L.O.N.Z.O 2054 mamé Je rappe depuis Jupiter, depuis là-haut Écoute, écoute Ils vont vouloir mcouper la langue et la vendre aux enchères Quand je parle de cqui dérange et de cqui nous est cher Je côtoie des gens étranges, des gars qui tiennent le manche Alors quils tiendraient même pas une seconde dans un bras dfer Alonzo cest le pseudo, Kassim pour les Foumbouniens Les pieds sur Terre pour mes vrais sinon je suis aérien Je fume de la Marie-Jeanne, jtouche pas Caroline Elle fout des familles en ruine et nous rend assassins Environnement instable, gros ça vient des blocks On est cquon est, lui quest pas content yanaal din mok Les doigts pleins de cloques, les petits vendent des tchocs Marseille cest le bled frère, on rêve de signer à lInter Et dis-moi bsahtek, tu me vois, jai de grosses joues Cest qujai cambriolé le rap game et tous ses bijoux Qui veut passer au marbre ? Ya que des bras cassés Ça mcritique et quand ils me voient ils viennent faire bisou Ils savent plus comment mentir, japprends à les haïr Ces hypocrites me regardent le visage ébahi Ils sdemandent comment vais-je grimper le Mont Sainaï Moi javance avec le vent, contrôlé par lAnge Mikhaïl Je peux pas tomber plus bas, après cest lEnfer Le Paradis est sous le pied dma mère qui vit dans lter-ter Elle a ses habitudes, malgré la violence et lincertitude Elle veut pas de villa près dla mer Et ya dlamour dans la misère, ya dla misère dans lamour Comment contrôler une jeunesse de mammifères à Carrefour ? Jai pas dsoluce, à part passer lsalam à Drolux À Keke, jpeux te dire qunous nsommes pas né sur Vénus Tu étais au collège, jétais disque dor Tes fan de voyous, les voyous sont fans de moi Chacun sa place dehors Soit tu rappes, soit tu deales, soit tu pries, soit tu killes Soit tu restes, soit tu files, soit tu niques tes morts 13.0.15 zin, Quartiers Nord merzin Je représente hein, Marseille dans les enceintes Je rappe du fond du cur, tu rappes du fond du cul Jtai vu dans lcoin taleur, personne ne ta reconnu Passons aux choses sérieuses, appelle les pimpom Jsuis en 2054, ils sont au péage de Lançon Mon public mappelle le sang, jtransmets dlémotion dans lson Tu vas mal en cmoment, jprends ta tension Je chante comme je parle, tu parles comme je chante Jsuis pas le king, jsuis ton père, donc ferme ta gueule et rentre Les portes du succès, j'les ai prises minimum à 2.30 Jvois qutu bandes, jrappe ça fait presque deux minutes trente Jaffole les compteurs, gros moteur, chanteur, fraudeur Jencule lÉtat heneni avec froideur Jporte Versace tu porte Hummel, tu me cherches querelle En finesse quenelle... zamel Regarde mes prunelles, cherche pas à me faire aimer En temps de guerre jallume pas lcalumet Les réseaux sociaux cest la Gazzetta Dello Sporte, jfais le boulot Jembrasse ceux qui me soutiennent, pour les autres vafenculo Je suis pas né du dernier coucher de soleil ni dla dernière pluie Conscient quon va mourir, ça peut être ma dernière nuit La concurrence espère que ce soient mes dernières rimes Le Sheitan espère pas que ce soit ma dernière cuite B.R.O.L.Y, cest moi, roue avant sur leur calvitie, jpatine ma foi Font semblant de rien voir comme pour la Palestine wAllah On mappelle de prison, on mdit Kassim, découpe-les moi Aya, jvais les mettre dans lnoir, sans interrupteur Jai le flow AK-47 et ça maffront au cutteur Attends qujdigère, jrisque de vomir un rappeur Je meurs en te faisant le doigt dhonneur, la con dta sur Wesh tu veux jouer ? Ils croient qucest ldel-bor Dici aux Comores tinquiète on a les jouets On a les bécanes et la drogue et les femmes Et le compte à Beckham, et tout le macadam, on te cane, on ricane Week-end en Espagne, au Madams, à la Jonque Jsuis installé, jsuis pas un effet dmode Jai lâge du Christ, et jai fait des tubes bien avant Rick Ross Menacez ceux avec qui vous avez grandit Ici ya plus dmafia, cest pire quen Sicile Tu reconnais ça ? Tu reconnais lgrave Le son est basseux, nerveux, tu reconnais lbrave ? Jai charbonné dans lrap comme mon grand père lesclave Cest la rébellion des millions, jai jamais fait ltrav Tu reconnais ça ? Tu reconnais lgrave Le son est basseux, nerveux, tu reconnais lbrave ? Jai charbonné dans lrap comme mon grand père lesclave Cest la rébellion des millions, jai jamais fait ltrav Jai jamais fait ltrav, jai jamais fait ltrav, jai jamais fait lcav Cest la rébellion des millions, sers-moi du Saint-Émilion Mignonne, démon, attends Kaku mets-moi dlautotune steuplait On va leur faire lamour Attends jcrois qujai une mélodie, écoute Bye, je vois que tu mpiques, je te calcule pas Cest chaud dans ma ville on taccueille avec un Araï Laisse-moi faire ma life, jsuis pas ton ami Jcontinue mes bails, je pense quà faire rentrer la maille Jentends que tu mparles, je te calcule pas Cest chaud dans ma ville on taccueille avec un Araï Laisse-moi faire ma life, jsuis pas ton ami Jcontinue mes bails, je pense quà faire rentrer la maille</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Freestyle Booskapo #1</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>C'est jamais fini, mamé ALONZO, 2054, papé Capo reste capo Yeah, ok Petit, yeah Ramasse tes couilles, j'ramasse les douilles J'passe à la fouille, j'crois qu'y a embrouille Ramène les folles, ça sent la taule Les schmitts me collent, je sens l'alcool Une voiture volée, j'ai les yeux collés J'traverse le Jarret, attends-moi, j'arrive C'est que des thos-my, y a aucun Tony J'suis trop busy, busy, j'suis dans un Boeing T'es trop surcoté, gros, tu vas sauter Respecté sur le rain-té, NgoloKanté Ils veulent qu'je tombe, c'est pas l'automne Je sens qu'tu paniques, je recherche ton Scénic Marseille, le port, ça rentre la tonne J'crame une chtoune, dans la ville du Jnoun Ne fais pas le sourd, ouais, c'est nous les tauliers Piscine, gros palace, fais zarma tu nous connais Jamais balancer, première leçon Ça tire au pompe, écoute le son Cramé l'été, j'touche pas la C J'vais pas l'avoir, j'suis trop léyé ouais, ouais On prend ton khasi, de minuit à minuit Ce n'est jamais fini, on va leur mettre Fani Tu me dois dix balles, je te dois une balle J'esquive les trafics, ouais, gé-char est le Trafic Ta go dans son Classe A, elle écoute mon son Me dis pas qué pasa?, je vais te mettre en sang Me dis pas qué pasa?, je vais te mettre en sang Nous, on a du papier, t'as du papier Canson Ne fais pas le sourd, ouais, c'est nous les tauliers Piscine, gros palace, fais zarma tu nous connais Ramasse tes couilles Et ramasse tout tout tout tout tout tout tout tout, fils de...</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Freestyle Boska Degun</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>C'est un rap bio, mamé C'est un rap naturel, enfoiré Ecoute ça Je rappe depuis Jupiter, N.A.S.A, j'suis en orbite Calma, j'suis que de passage, pourquoi tu cogites ? 'Bats les bats les couilles, j'suis votre père, bande de comiques Hew hew, c'est Guinomo, j'ai la classe à Tony Défouraille le game au tracteur, encore j'suis XXX Va te faire violer par un pasteur a'oudoubillah Mes vatos locos me disent Finis-les, qu'on s'casse à Cuba J'ai le Cohiba dans la boca, hijo de puta Je m'ennuie, où sont tes rappeurs ? J'suis en folie Carré, croix, c'est du Boateng face à Messi Les fils de pute diront que c'est du piston, qu'j'ai d'la pussy Tu ramènes ta fraise, j't'écrase, tu finis en smoothie Le langage du Uzi, j'baise avec un fusil J'vous écoute, rien n'est aussi chaud que mon jacuzzi Surtout, salis pas mon Balmain, j'ai RDV D'la GAV aux boutiques LV à vitesse grand V On like les photos de ta meuf, on craint dégun Le commissaire m'interroge, j'connais dégun Il pose quelques bouteilles mais c'est un dégun Tu dis que tu n'es pas seul mais j'vois dégun On craint dégun, on craint dégun Les muscles n'arrêtent pas les balles, on craint dégun On craint dégun, on craint dégun La boxe n'arrête pas les balles, on craint dégun Espèce de XXX, essuie ta hanouna Ici c'est Marseille, les gangs n'ont pas de bandana J'suis dans les airs, jamais à terre, ciseau au Maracanã A Vasco de Gama, à Copa Cabana Qui veut chupa chupa ? J'suis tout nu en Balenciaga J'réhausse le prix du taga et le prix d'la hagra Ils sont tous ttus-ba comme la terre de Roland-rros-Ga Tu fais pas la révolution avec un pull Che Guevara Mon fils, à 6 ans, conduit un Stunt normal Pendant que je bois mon Capri-Sun, normal En deux-trois temps j'encule la concu' d'vant celui qu'j'ai conçu Il m'appelle plus Papa mais Papé, normal On contrôle iTunes avec ou sans autotune On va reprendre l'OM, on va faire sauter Labrune Ta go a 10 000 followers, j'crois qu'bientôt elle te quitte Elle connait mon équipe On like les photos de ta meuf, on craint dégun Le commissaire m'interroge, j'connais dégun Il pose quelques bouteilles mais c'est un dégun Tu dis que tu n'es pas seul mais j'vois dégun On craint dégun, on craint dégun Les muscles n'arrêtent pas les balles, on craint dégun On craint dégun, on craint dégun La boxe n'arrête pas les balles, on craint dégun J'en ai étonné, j'en ai détourné J'en ai retourné, j'en ai fait tourner J'le fais à la moi, j'le fais à la chien 1-3 jusqu'à la moelle, j'le fais à la mien, à la bien Plus l'âge, plus le temps, plus rien à péter Encore plus pété, pourtant, plus rien à fêter Non, pas mauvais type, juste en mauvais trip Couché tard, levé tôt, faire que pour money triple1</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FREESTYLE BRB</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>On s'en bat les couilles de ta putain d'équipe, toi, tu fais la guerre que quand t'envoie des titres J'ai des amis qui sont pas les clips car ils puent la mort comme on pue le shit Ah, ah, A.L.O.N.Z.O, mamé, quattro, mamé, yeah, ok, yeah On s'en bat les couilles de ta putain d'équipe, tu fais la guerre que quand t'envoie des titres J'ai des amis qui sont pas les clips car ils puent la mort comme on pue le shit rah, rah, rah, rah C'est les quartiers Nord dans ton rétroviseur, la BRB connaît bin mon secteur Casque noir, ganté sur l Fazer, le feu passe au rouge, tia un arrêt du cur À la douane s'est passé à la fouille, sur le dos d'âne, tia retrouvé des douilles Tia la boco, tu t'es mis en embrouille, ton bigo marche plus, le Mirador le brouille rah, rah, rah, rah Tu t'plains de locos, de vos constats, on fait des billets verts, wAllah qu'on est constants Weston, Smalto, blanc est le costard, Smith Wesson pour te mettre dans le coltard Paye tes dettes, y a plus d'tête-à-tête, si on rentre en boîte, on va gâcher la fête Midi-minuit, on a fait la recette, on nourrit la nourrice, faut pas qu'elle nous la mette rah, rah, rah, rah Costa Blanca, on bouge à Benidorm, on vit la nuit, quand tous vos darons dorment J'effrite le jaune, il m'a mis dans les cordes mais j'suis dans le coup, wAllah, je pète la forme rah, rah, rah, rah Tout est à nous, tout est à nous, on t'laisse walou walou, on t'laisse walou, tout est à nous Tout est à nous, tout est à nous, on t'laisse walou walou, on t'laisse walou, tout est à nous mamé 20-21, mamé Même celle-là elle est pas dans la mixtape, allez, allez, allez, allez, allez Raah</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Freestyle Divo</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Bonne année Ouvre la porte, c'est Fakri Jenkins à la prod'! A.L.O.N.Z.O, 2050 quatro, mamé C'est le massacre de la Saint-Sylvestre Ok Non, il n'est pas question que je fasse mes valises, en ciseau, j'égalise, le coach, j'le paralyse 20-21, même pas j'me canalise, je défonce les balises, les putas m'analysent Bugatti Divo mais où sont mes rivaux ? WAllah, que des divas, y a que des vocalises Je suis sur le frry, j'ai fait la traversée du rap game, y a qu des baleines échouées J'charbonne au talkie, Marseille, la gui-gui, tu danses le boogie si tu es une pookie Tu as du cul si tu t'en sors avec des béquilles, ra-ta-ta-ta-tah du Kawasaki Tu es pas sur Twitter, tu vas porter tes couilles ou va bourrer tes morts, toi et toutes tes rumeurs Tu as vu, j'suis de mauvaise humeur, à qui tu crois faire des poussettes ? On va te coller un traqueur Je cherche à faire des hassanates, les larmes sur les paumettes Et je repense à ma daronne qui faisait des allers-retours pour mon frère Souleymane aux Baumettes La vie, je connais son tarif, pour ça qu'j'fais des lovés, peu de lova pour tous ces humains Nique tout comme Zizou à Turin, je m'attends à plus rien, j'ai construit mes rêves de mes deux mains J'ai le sommeil léger, confiance à dégun, dégun peut m'diriger, le sourire figé Je me sens obligé de leur infliger la correction du daron car ils n'ont pas pigé Y a rien de facile, en angle fermé, j'fais le coup du foulard, ça crie Astarfoullah Ils m'ont tous écouté à l'âge du bavoir, ils ont fait rentrer mes CD au parloir Mehlich, il faut refaire, je reprends les Comores, je mets 6 à 3 même au Brésil Je vais partir avec honneur parce que j'ai toujours représenté les gens de ma ville Même dans un 4x4 sur la L2, j'fais le A, frère, direction l'Nord Chez la mater', ouais, c'est précieux, c'est la base, frère Et j'ai dû éviter les bleus, les terrains d'beuh, passer aux assises, contrôler ma crise Faut jamais qu'on d'complice à faire le grossiste, éviter les vices pour pas finir dans l'feu Bâtiment des arrivants, délinquant, trafiquant, stupéfiant, j'ai évité tous les gigneux Qu'ils restent entre eux, l'il c'est dangereux, c'est pas un jeu, ça provoque les adieux J'ai vécu la zone, 13.0.15, mon cur est en panne, fais-moi les pinces Allah y rahmou, j'ai perdu mon daron, on va tous y passer du berceau à la tombe Mes vaillants me disent Alonzo, fais quelque chose, mes vaillants me disent Alonzo, fais quelque chose Selon la prod', j'vais les couper en deux, cette année c'est Capo dei Capi volume 2, reh Ah J'ai oubliais Capo, ah, ah</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Freestyle “En attendant la belle vie”</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Course poursuite, jai pris une cuite, nerveuse conduite, je me tue la santé Jsuis avec Hmed, Karim et Spike, jenvoie des rafales jvais les faire ramper Quartiers Nord, gourmettes en or, la chaine en or, la sacoche est L.V Torse nu, je marche dans la rue, c'est pas qudans les clips quil fait 40 degrés Ensorcelé, jrap affolé, possessions darmes je côtois des gangsters Casque intégral sur un cheval de fer, chez nous fumer le shit cest presque alimentaire Placement dproduit, jparle pas dlunettes, jtamponne Alonzo sur la plaquette T.R.E.I.Z.E, jai un plan beuh viens on va parler affaire On est au bar, on est au bar, transactions ça chuchote à loreille Dans la Juke-Box, y a du Kurt Cobain, cest des cow-boys qui me donnent des conseils Pour les grosses folles, sucez mes balls, jvous ferai une dédicace sur vos grosses fesses Après vous irez aux Baumettes faire le parloir, y a mon ptit frère qui a besoin de peps Pas ltemps dsranger, ça gratte à létranger, Accord, BlackCard, encodeuse A Marbella, pêche melba, jai quun billet d500 madame la serveuse AMG Class A jai le plan B, pour ne pas finir au bâtiment C M.A.R.S.E.I.2.L.E tu me suis ou jdois rétrograder ? La cest lrallye, là jsuis impoli, comme Balotelli, sape de lItalie Personne me salit, jplaide pas la folie, Tic-Tac dans lcolis, rleh rleh Paoli Ça fait les gros titres, dangereuse est la street, si tu me dois 1 litre jvais te faire danser Règlement de Comptes cest le nom de lalbum, dis-moi que tu texcites jai même pas commencé Jnique ton bénef, ton gérant chenef, T-Max tout neuf, noir mat couleur Vodka-Redbull a ma table ty as vu ta meuf, on a pt'être trop bu on la niqué ta lheure Jsuis en concert, sur Jupiter, les places en ventes à la Nasa Préviens ton équipe jvais bientôt sortir, attendez vous au pire ça va crier Akha , CAPO !3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Freestyle Encaisse</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ouais Hey Washy Yeah Je reviens aussitôt gagner le scudetto Marquer l'époque à la Samuel Eto'o On a tout c'qu'il faut dans le Merco Vito Range-moi ton p'tit couteau, repars dans ton ghetto Marseille c'est le bangué, mapé, les garos Les bingos, patrons de bar mégalos Hijo de puta, je finis mon braquo J'encule ces rappeurs qui s'prennent pour des chicanos J'réveille ton père quand je passe en gros gamos Capitaine à la, à la Sergio Ramos J'donne les taros, les taros, les taros Y a rien de gratos, wallah, y a rien de gratos Sadaqa de flow, les gars faut profiter J'ai la baraka, faut pas venir feater La guerre, tu sais pas combien ça peut coûter Si je vous monte en l'air, la rue va m'acquitter T'es un gros dégun, on n'a rien en commun Et tu leur suces la bite à chacun On reconnaît la poucave qu'à son parfum J'te jure sur la tête de mon daron le défunt Ta gadji veut niquer, je la refoule Mais je t'avoue, j'ai reluqué son boule Elle aime les mecs qui portent la cagoule 600 chevaux, on a fait voler son foulard On encaisse On encaisse On encaisse On encaisse C'est la tess, j'ai un filon pour d'la cess J'fume mon pilon chez Hermès J'fume mon pilon T'es en hess C'est la dèche J'suis en Grèce, quinze culos dans le tel-hô, ça en dit long On encaisse On encaisse On encaisse On encaisse C'est la tess, j'ai un filon pour d'la cess J'fume mon pilon chez Hermès J'fume mon pilon T'es en hess C'est la dèche J'suis en Grèce, quinze culos dans le tel-hô, ça en dit long On encaisse De Fendi à Fendi, de midi à midi, de bandit à bandit Ça met dix bouteilles de madji de Poutine Ça pue la nicotine, en prison, ça cantine Mandat, parlu, mes 'sins sont connus Les tiens sont cocus et toi, t'es un faux-cul Au quartier, ça jette des pierres sur la Focus Le salaire d'un condé, c'est le plein d'un Brabus Dans le club, le son du Capo, ça pull up, pull up, pull up, pull up, pull up P38 chargé, j'annonce la couleur, ouh là, ouh là, ouh là, ouh là J'veux pas la mâcher, je vais tout gâcher Un contrôle à Clichy, le poto est fiché Ligaments croisés, ta carrière est fichue Tu t'es mis à bibi, à gratter au guichet Bijoux de famille, bracelet électronique Ça ravitaille le hazi, l'économie Ça brûle du papier, plus qu'en Amazonie On est en indé, fini les colonies Qu'est-ce tu vas faire si on reprend ton terrain ? On va te sortir les armes du Kremlin Suspect mais jamais tombé comme un Gaudin Suspect mais jamais tombé comme un Gaudin On encaisse On encaisse On encaisse On encaisse C'est la tess, j'ai un filon pour d'la cess J'fume mon pilon chez Hermès J'fume mon pilon T'es en hess C'est la dèche J'suis en Grèce, quinze culos dans le tel-hô, ça en dit long On encaisse On encaisse On encaisse On encaisse C'est la tess, j'ai un filon pour d'la cess J'fume mon pilon chez Hermès J'fume mon pilon T'es en hess C'est la dèche J'suis en Grèce, quinze culos dans le tel-hô, ça en dit long</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FREESTYLE GALACTIQUE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mamé Mamé, écoute, yeah Savent que critiquer cette bande d'incapables, ils attendent juste que je pète un câble J'ai une vie, une situation stable, j'vais poser les couilles et la bite sur la table Par satellite, je recherche l'inspi', j'suis autre part dans une galaxie Niveau Real, niveau galactique, mon rap est froid, 'zin, c'est l'Antarctique Quand j'articul, prends des notes, au crépuscul, l'ambiance est glauque Dans la capsule, y aura que les nôtres, ton équipe de merde sera déjà morte On sourit plus, on est robotisés, on arrive plus à sympathiser Un joint de frappe, un synthétiseur, la rue j'enregistre sans l'harmoniser Mes bureaux sont à la lime, j'écris sur des feuilles slimes, potion Cristalline, gros son dans la Berline Le ciel est noir mais on bouge, vision infrarouge, on boit le Jack à la louche, on t'casse les couilles comme une mouche Rien ne t'atteint quand tu n'es pas visible, j'ai l'élocution de la zone sensible La plupart de mes frères sont tous circoncis, nos vies sont courtes, on prend des raccourcis La mort de Sia, je l'ai mal vécu, mais le message, khey, j'l'ai bien reçu Donne du bien mais n'attends pas l'reçu, Dieu te l'rendra, tu seras pas déçu Canicule, matricule, 13, tu connais les doses doses, torse nu sur le cross cross, les quartiers Nord, c'est atroce 'torse L'Akrapo' fait du grabuge, tem-tem, béquille, on le couche couche Les crapules vendent de la neige neige, zebi, on est au mois d'août, Capo La confiance n'exclue pas contrôle, y a un trou, on te nique tes morts, tya compris ? Capo dei Capi, kodo, Capo dei Capi, kodo, Capo dei Capi, kodo, Capo dei Capi, kodo Capo dei Capi, kodo, Capo dei Capi, kodo, Capo dei Capi, kodo, Capo dei Capi, kodo, yeah</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Freestyle GG</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ouvre la porte, c'est Fakri Jenkins à la prod Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Pepsi, Pepsi, Batman, Rolex, Pepsi, Pepsi, Batman, Rolex Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Los-ki, los-ki, Fleury, Baumettes, los-ki, los-ki, Fleury, Baumettes Je sors du bâtiment, la gari est rapide, merci du compliment J'suis là depuis continent, en Capo dei Capo, fais-moi remerciements Le parcours est fascinant, y a rien de facile mais tu connais Kassim, nan ? J'aurais pu être trafiquant et contrôler la ville, go fast à Perpignan Je monte sur la capitale, j'ai RDV avec Stach à Stalingrad Vodka dans le tropical, j'te vois du casque intégral Je rétrograde, tu aimes pas quand j'rappe gentiment Tu veux qu'j'les assassine, que j'arrête les sentiments Le game n'a rien d'palpitant, TP, charbon pour du putain de Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Pepsi, Pepsi, Batman, Rolex, Pepsi, Pepsi, Batman, Rolex Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Los-ki, los-ki, Fleury, Baumettes, los-ki, los-ki, Fleury, Baumettes Sapes d'Italie, vendredi en kamis, le week-end, j'suis sur Nice pour claquer mes khaliss Tu vas toucher ton dix, le bloc est plein de pisse, akha y a la police, sa selha n'est pas prise Je suis validé jusqu'en Mauritanie, j'peux plus m'arrêter, je sais pas c'qu'il m'arrive J'ai des sales idées, j'gamberge sur le périph', faut tout mériter, des Awards, des Grammys Quand je perds des amis, j'entends Ra-ta-ta-ta-ta, j'perds des amis, j'entends Ra-ta-ta-ta-ta J'vais m'en sortir sur la tête de ma mama, ouais, le quartier ressemble à Guadalajara J'arrive au bled, en fumette, paré, j'retire même pas mes lunettes Mamé, j'check tout l'monde, y a pas d'vedettes, papé, TP, charbon pour du putain de Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Pepsi, Pepsi, Batman, Rolex, Pepsi, Pepsi, Batman, Rolex Gucci, Gucci, palette violette, Gucci, Gucci, palette violette Los-ki, los-ki, Fleury, Baumettes, los-ki, los-ki, Fleury, Baumettes Faut ze-n la cons', tu sors le monstre dans les temps, j'suis dans les montres pour passer l'temps Tu pousses la fonte, y a la France, Ze veut le monde Wesh, salut, je lève qu'un doigt, que le majeur, je lève qu'un doigt Y a des jaloux mais c'est normal, on fait des sous, donc c'est normal</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Freestyle la frappe à Pato</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Capo, mamé La frappe à Pato Les lâches meurent plusieurs fois avant leur mort Les vaillants, eux, meurent qu'une seule fois, yeah J'ai choisi un pseudo d'Italie mais j'ai le sang qui provient de Foumbouni On va m'enterrer dans un kamis, pour l'instant, je fais la récolte des khalis Je fais tout pour fuir la Kala', je ne traîne pas où ça fume la Kaloud On m'a dit La réussite, c'est par là, j'ai préféré inventer ma propre route J'ai arrêté l'école pour faire du rap, dix fois le salaire du proviseur J'volais des habits, maman allait aux Restos du cur, y avait jamais de Kinder J'fumais des pétards dans la Punto, demande à Gari, y avait pas de putos Maintenant, ça te sort le couteau pour nada tu peux monter au ciel, pronto Et j'évacue le mal, tu te dis que je te raconte souvent les mêmes choses C'est que je vois les petits frères au quartier tenir les même murs, tomber pour les mêmes causes Y a la banale, y a la cavale, le tribunal, le milieu carcéral Du mal à garder le moral donc ça va se vider dans les maisons clauses Du pétrole, j'en ai plein le réservoir, j'veux pas en manquer sur mon trajet Marié à la rue sans les dragées, j'ai le cur et le cerveau saccagés J'ai le cur et le cerveau saccagés, j'rends hommage à Sya Styles, faut m'éponger J'ai la pression, les larmes et tout ce qui fait que j'suis un homme qui doit vite se ranger Et j'encule les commères, à découvert, j'étais déjà père, j'rappais à perte Dans les concerts, barrez vos mères, wallah, je dois vraiment tout à mes compères Heureusement, j'ai pas flanché quand sheitan m'invitait à manger Quand la lame découpait le cent G, quand le virage fallait le prendre penché Mais je fume trop et je fais que cracher, je fais des cauchemars étranges À dire qu'avant, on passait tous nos étés à faire des sauts de l'ange J'ai jamais cru à mon horoscope, j'ai jamais cru à la chance Ne crois pas que je vais m'arrêter parce que j'arrive à contre-sens, le clou j'enfonce Non, je descends pas du grizzli, je descendais au quartier de Zizou Ni l'argent ni les femmes nous divisaient, pourtant, la poisse nous avait tous en visu Je rentrais souvent à l'aurore pendant qu'elle faisait sa prière Y avait plus dégun dehors à part les canettes de bière Les actes définissent les hommes, je connais les anges J'peux pas effacer des lignes de mon curriculum, je connais les enjeux Je ne peux plus reculer, qu'ils aillent se faire tous enculer, j'suis miraculé Je ne peux plus reculer, qu'ils aillent se faire tous enculer, j'suis miraculé j'ai l'cur abîmé Les actes définissent les hommes, je connais les anges J'peux pas effacer des lignes de mon curriculum, je connais les enjeux Je ne peux plus reculer, qu'ils aillent se faire tous enculer, j'suis miraculé Je ne peux plus reculer, qu'ils aillent se faire tous enculer, j'suis miraculé j'ai l'cur abîmé</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Freestyle (Le Massacre de la St-Sylvestre 2023)</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Il semble que mon retour ne soit pas opportun Manifestement, vous avez tous pris une décision à mon sujet Je ne peux vous en blâmer Nous y voilà Alors, les garçons Qui va me faire ? Qui va me tuer ? Trois fois filtré, on est jnounés, faut appeler un talep C'est les cités de France, ça rappe comme jamais On s'en bat les couilles des States de DJ Khaled Tu montes, tu descends, j'suis le capo, enculé J'ai mangé la route à 200 sans les rétros J'les ai tous laissés vers les Arnavaux Les têtes cramées me remercient pour les travaux Et je sers la frappe toujours dans les bons délais Tout l'monde le sait, patate de Fury Esquive les menottes, éclairé par gyro' J't'avoue que j'préfère qu'elle m'appelle Papi Chulo De-spee, j'm'arrête à l'alim', j'ai vu Souley' Ils m'parlent des jaloux, j'lui dis qu'ils font que sucer Ils savent rien faire de leurs mains, c'est des sans-vie La pitié, la gentillesse, tout ça c'est fini Tout c'qu'on veut c'est compter des centaines et des centaines été, hiver Pour ça qu'on est devenus sans peine et même sans gêne, plein de problèmes Beaucoup de règlements de comptes, tu peux te cacher dans ton domaine Chanceux si tu atteins la trentaine, c'est les QN, c'est pas Harlem Et Dieu merci j'ai trouvé ma Bonnie Quand j'avais la cabeza sous l'eau La calle tout ça ouais c'est maudit Fallait bien que j'leur dise tous Va fanculo Tout c'qu'on est prêts à faire pour de la money J'ai v'là les couteaux le long du dos J'ai compté quelques véritables qui peuvent festoyer à ma table Rien d'regrettable Néglige pas les petits, on n'est pas mieux qu'eux Ils peuvent te mougou, partir en tête à queue Y a plus d'garantie, c'est pas du pipo Traqueur sous carrosserie, ça s'fout de qui et qui Des calibres de té-côté, mets-toi sur l'côté Arrête de chauffer, Ça va te choquer, tu pourras pas feinter Ouais puta madre, ça grandit sans padre, go C'est pas Harlem Néglige pas les petits C'est pas Harlem Trois fois filtré, on est jnounés, faut appeler un talep C'est les cités de France, ça rappe comme jamais On s'en bat les couilles des States de DJ Khaled Tu montes, tu descends, j'suis le capo, enculé J'ai mangé la route à 200 sans les rétros J'les ai tous laissés vers les Arnavaux Les têtes cramées me remercient pour les travaux Et je sers la frappe toujours dans les bons délais Tout l'monde le sait, patate de Fury Esquive les menottes, éclairé par gyro' J't'avoue que j'préfère qu'elle m'appelle Papi Chulo Despi, j'm'arrête à la lim', j'ai vu Souley Ils m'parlent des jaloux, j'lui dis qu'ils font que sucer</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FREESTYLE MANDAT</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>La frappe à Pato Ne mords pas, la main qui t'a nourri les éléphants ont peur des souris Tu achètes personne avec un sourire, quand tu ne marches pas, tu voulais courir Ne mords pas, la main qui t'a nourri et les éléphants ont peur des souris Tu achètes personne avec un sourire, rah, rah Tu vas prendre une frappe, tu es trop ingrat tu es trop ingrat Tu vas prendre une frappe, tu es trop ingrat tu es trop ingrat Tu nous as poucave, tu as pas d'mandat Tu nous as poucave, tu as pas d'mandat Tu vas prendre une frappe, tu es trop ingrat tu es trop ingrat Tu vas prendre une frappe, tu es trop ingrat pah, pah, pah, pah, pah, pah, pah, pah Tu vas prendre une frappe, tu es trop ingrat Quoi ? Quoi ? Quoi ? Quoi ? Tu nous as poucave, tu as pas d'mandat reeh Tu nous as poucave, tu as pas d'mandat rreh Tu vas prendre une frappe, tu es trop ingrat pah, pah, pah, pah, pah, pah, pah, pah J'démarre en Capo, je lâche le guidon, j'ai des milliers de flow tombés du camion Khouya, labess à tous mes pélos de Lyon, j'suis dans les environs, tous les jours, le charbon On va leur faire le zga, la tête de mama, on rigole, ces cons ne nous connaissent pas Tu mythonnes de partout, tu rentres pas, ta gadji t'a laissé dans un sale état J'rappais dans les caves pendant que ça découpait Le hachis dans les pochons, y avait l'Beretta, les condés nous écoutaient 13.0.13, on est sortis d'un trou à rat, mais combien ça m'a coûté ? J'aurai pu finir en cavale à Malaga, mais masha'Allah, j'ai percé Les cous', les cous', les cous', c'est reparti, c'est jamais fini, sortez les paw-paw-paw On t'a choppé en flagrant délit, détourné le hazi, après t'as fait ciao, ciao, ciao Un m'ment donné, ça devient Call Of, ça devient Call Of Donne-moi la Smirnoff, donne-moi la Smirnoff, la Kalashnikov, la Kalashnikov pa-pa-pa-paw Tu vas prendre une frappe, tu es trop ingrat pah, pah Tu vas prendre une frappe, tu es trop ingrat Tu nous as poucave, tu as pas d'mandat Tu nous as poucave, tu as pas d'mandat Tu vas prendre une frappe, tu es trop ingrat woah, woah Tu vas prendre une frappe, tu es trop ingrat pah, pah, pah, pah, pah, pah, pah, pah Tu vas prendre une frappe, tu es trop ingrat Quoi ? Quoi ? Quoi ? Quoi ? Tu nous as poucave, tu as pas d'mandat reeh Tu nous as poucave, tu as pas d'mandat rreh Tu vas prendre une frappe, tu es trop ingrat pah, pah, pah, pah, pah, pah, pah, pah</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FREESTYLE PELOTA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Hood Star Beats Les tchoins peuvent te sortir deux-trois pigeons de leurs chapeaux Après, ça veut se prendre pour des El Chapo Avoir une fille, va demander à El Chato Ils font les kings mais ils n'ont pas de château Qu'au timbre de voix, je sais qu'tu as les chocottes On desserre ta rue, ils nous desserrent les menottes Comoriano, comme Adriano, on est puissants quand on a la perota Du plata, du plata, du plata, du plata, tout c'qu'on a récolé, on l'a même pas planté On va pas attendr l'arrivée du Qatar ou bien que l Saint-Émilion ait décan'té J'te bois au goulot, rapper c'est mon boulot, tu as 10 secondes pour dégager ton gros culo La mula dans l'rouleau, millionnaire en kilo, on passe du Clio à la Audi Quattro Le jour où tu t'fais trahir, ça viendra pas de tes ennemis car avec eux, tu sais à quoi t'en tenir J'ai vu des gens partir et ne plus revenir, j'ai la haine, je n'sais plus comment me contenir Le bled a besoin qu'on charge des gros conteneurs pendant qu'Iblis fait tout pour être notre partenaire Monsieur l'agent, je n'ferais pas de test urinaire, j'viens d'éclater la 'teille, j'ai les mêmes caractères rah, rah, rah, rah Même camouflé, capuché, dans la foule, ils reconnaissent, ils reconnaissent J'nage avec les requins, crois pas que je coule, ils m'reconnaissent, ils m'reconnaissent Avalanche de plomb et les s'écroulent, pour de la neige, pour de la neige Tu chuchotes, poto, mais t'inquiète, on sait tout, j'ai dans l'GPS, dans l'GPS rah, rah, rah, rah Même camouflé, capuché, dans la foule, ils reconnaissent, ils reconnaissent J'nage avec les requins, crois pas que je coule, ils m'reconnaissent, ils m'reconnaissent Avalanche de plomb et les s'écroulent, pour de la neige, pour de la neige Tu chuchotes, poto, mais t'inquiète, on sait tout, j'ai dans l'GPS, dans l'GPS - Allô frérot ? Bien ou quoi ? - Ça va tranquille, khey, wAllah, qu'est-ce tu fais là ? - J'suis dans le studio, ouais, ça charbonne, hein, y a la mixtape bientôt - Le 26 mars, , on va tous les prendre à coup de pif - Ah, ah, ah, ah, ah Les tchoins peuvent te sortir deux-trois pigeons de leurs chapeaux Après, ça veut se prendre pour des El Chapo Avoir une fille, va demander à El Chato Ils font les kings mais ils n'ont pas de château Qu'au timbre de voix, je sais qu'tu as les chocottes On desserre ta rue, ils nous desserrent les menottes Comoriano, comme Adriano, on est puissants quand on a la perota - À la vie, à la mort, frérot</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Freestyle Phuket</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>C'est le Capo dei Capi, mamé C'est la roulette russe du rap français, écoute Akrapovic dans la gorge, fuck le 6.6.6, 1-2 test Que serait 2016 sans le massacre d'la saint Sylvestre ? J'suis le best, ta sur le sait, wallah elle s'mord les lèvres Joint d'beuh, joint d'beuh, quand je rappe j'exhausse tes rêves J'arrive plus à dormir, je compte khalis J'prends du poids, le game est jaloux, j'surveille plus ma ligne Bois d'la Cristalline, je bois du Crystal in Je taquine la bibine et quand j'rime, tu rembobines J'vais visiter, maman, ces putes me fouillent Personne n'est en règle, les CRS nous cassent les couilles La journée on dort, la nuit qui nous tient tête Frappe de Ghilas, crampons à barrettes, on a gagné 7 Sec, mon swag est net, j'suis en full HD Je suis chez Yves Saint-Lolo, je crois que j'vais tout acheter Rohlolo, tu me portes l'il, tu veux me shouré Tu n'as pas percé, continues, coule en petit foulées Mange tes mort à un moment donné, hey Tu dis partout qu't'es déter', mais tu vas t'arrêter, hey Aïe, Hornet, sur la A7 Mes 'zins seront de la fête, il n'en restera qu'une enquête J'me repose à Phuket, quand j'veux j'explose le net Je distribue les doses, toi quand t'hésite, moi j'ose Conseil reste à la casa, tu veux feat t'es qui toi ? Je te bois comme chorba, je suis Liga, t'es PHA J'te zappe vite, téléachat, ton quartier ne te porte pas Écoute papa, passe ton BAFA Si t'as mal à la gorge, ce n'est pas les amygdales, c'est mes boules Je suis propre mais quand j'arrive en showcase, plein de full cash Mister Cash, Guinomo, A.L.O.N.Z.O., Aloncito, papé C'est le Capo dei Capi, mamé Phuket, dédicace à toutes les chaussettes Dis-leur1</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FREESTYLE TOUT EST GRIS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Hella Hella Hella J'voulais sortir la moto, le ciel est nuageux, est nuageux, est nuageux La rue, c'est pour de vrai, non, c'est pas un jeu, c'est pas un jeu, non, c'est pas un jeu J'ai donné de l'amour à tous ces rageux, tous ces rageux, tous ces rageux À croire que la jalousie, c'est contagieux, c'est contagieux, c'est contagieux Ils peuvent avoir la cote, mec, j'm'en bats les couilles, j'aime que ceux qui me soutiennent Et vu que c'est Dieu qui donne, j'ai jamais osé dire que la vie qu'on mène est une grosse chienne Après les milliers, y a quoi ? Demande à Béné, en déficit de hassanate, on veut l'bénéf' On vit la rue, on vit le mariage, fume la Maria, sur l'daron, j'ai la tête pleine Versace, baskets cloutées, personne va nous envouter, nhar sheitan marabouté, j'l'ai vu parler à sa bouteille Des règlements de compte ont fait pleurer mama, j'vais tout niquer dans l'game, j'ai vu partir fafa' L'argent sale paye le baveux, le soleil rend nerveux, klaxonne pas, j'te rentre dedans en Merco C'est Marsiglia, c'est pas Rio, nan, c'est pas Rio, faut que je m'arrache uno momento J'voulais sortir la moto, le ciel est nuageux, est nuageux, est nuageux La rue, c'est pour de vrai, non, c'est pas un jeu, c'est pas un jeu, non, c'est pas un jeu J'ai donné de l'amour à tous ces rageux, tous ces rageux, tous ces rageux À croire que la jalousie, c'est contagieux, c'est contagieux, c'est contagieux Tu veux savoir c'qu'il nous affecte ? La trahison, les putains d'relations suspectes J'aimerai bien voir où habite l'architecte qui a dessiné mon tieks, maquetté mon secteur C'est BZ sur BZ, l'ami, faut ralentir le te'-te' pour mieux réfléchir la nuit Nouvelle année, nouvelle décennie, y a rien d'fameux, y aura toujours des hassas, des groupies tout près d'la ligne Casque Araï, veste en cuir, camo, Asics jaune, T-MAX noir mate, jdid, c'est ton heure qui sonne Sur la tête d'ma p'tite, des fois, je frisonne, soit on pond des hits, soit on vend d'la bonne J'laisse la gomme sur le bitume mais peut , ramène qui tu veux C'est Marsiglia, c'est pas Rio, nan, c'est pas Rio, faut que je m'arrache uno momento J'voulais sortir la moto, le ciel est nuageux, est nuageux, est nuageux La rue, c'est pour de vrai, non, c'est pas un jeu, c'est pas un jeu, non, c'est pas un jeu J'ai donné de l'amour à tous ces rageux, tous ces rageux, tous ces rageux À croire que la jalousie, c'est contagieux, c'est contagieux, c'est contagieux</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Freestyle Vourra</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Vous pouvez entrer Ça va vite, ça va vite Ça débite , ça débite Sale équipe, sale équipe Pa-pa-paw Sale équipe, sale équipe Dans le VIP, dans le VIP Ca me bipe, ça me bipe Pa-pa-paw Tout parasite, tout parasite Moi jévite, moi jévite Ca mérite, ça mérite Pa-pa-paw Money shit, money shit Y'a les flics, y'a les flics Automatique, automatique Pa-pa-paw On vourre, savoure ouh Vourre, savoure ouh, ouh On vourre, savoure ouh Vourre, savoure ouh, ouh On vourre, savoure ouh Vourre, savoure ouh, ouh On vourra, savoure ouh Vourre, savoure ouh, ouh Il a vu capo dans la merde, capo, capo fait la guerre Il a dit capo fin de carrière, capo, capo va le faire taire A la mode de chez nous, ça te brûle ou ça t'enterre Le buzz ça rend les mecs chelous, me fais pas la bise j'suis pas ton frère non Mélange yeah roule, roule, allume, tire Tu m'déranges ouais, cours, salut, j'tire J'te pousse, respecte le délais respecte Ici c'est la rue c'est pas la télé pas la télé Ça veut la vie de stars à la DD à la DD Et ça finit comme d'hab à la biggie Ça va vite, ça va vite Ça débite , ça débite Sale équipe, sale équipe Pa-pa-paw Sale équipe, sale équipe Dans le VIP, dans le VIP Ca me bipe, ça me bipe Pa-pa-paw Tout parasite, tout parasite Moi jévite, moi jévite Ca mérite, ça mérite Pa-pa-paw Money shit, money shit Y'a les flics, y'a les flics Automatique, automatique Pa-pa-paw On vourre, savoure ouh Vourre, savoure ouhouh On vourre, savoure ouh Vourre, savoure ouhouh On vourre, savoure ouh Vourre, savoure ouhouh On vourre, savoure ouh Vourre, savoure ouh, ouh Yeah, je veux de l'or sur mes disques Je charbonne et je prends tous les risques tous les risques Y'a le monstre, y'a la mine Y'a le temps, y'a la montre, y'a la Suisse Je vais te balayer, ouais tu vas parier ouais T'es jaloux de ma caisse, faut pas la rayer ouais On vient de la même tess, on n'est pas lié ouais Je ne veux pas d'un traitre dans mes guerriers no, non Après l'or après l'or, du platine du platine Je charbonne et je prends tous les risques tous les risques Y'a le monde, y'a la ville Y'a les gants, y'a les gangs, y'a des kills On n'est pas lié ouais, tu veux pas nier ouais T'as balancé tout l'tieks, on t'a renié ouais T'as balancé tout l'tieks, on t'a renié ouais Je ne veux pas d'un traitre dans mes guerriers Ça va vite, ça va vite Ça débite , ça débite Sale équipe, sale équipe Pa-pa-paw Sale équipe, sale équipe Dans le VIP, dans le VIP Ca me bipe, ça me bipe Pa-pa-paw Tout parasite, tout parasite Moi jévite, moi jévite Ca mérite, ça mérite Pa-pa-paw Money shit, money shit Y'a les flics, y'a les flics Automatique, automatique Pa-pa-paw On vourra, savoure ouh Vourra, ça vourra ouhouh On vourra, savoure ouh Vourra, ça vourra ouhouh On vourra, savoure ouh Vourra, ça vourra ouhouh On vourra, savoure ouh Vourra, ça vourra ouhou Haha</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FRÉRO</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Je pleure ma mère Je suis le gardien d'mon frère On vit sur les nerfs On devrait s'serrer les coudes Je pleure ma mère alors qu'elle n'est pas morte Je suis le gardien d'mon frère, si j'm'en sors, il s'en sort On vit sur les nerfs, on emploie la manière forte On devrait s'serrer les coudes pour n'pas avoir d'remords Faudrait mettre un océan dans son vin, on devrait s'comprendre sans les mains Rendre fière maman dès demain, j'te jure, on n'a pas l'temps, j'suis pas bien On a grandi sans père, ça s'voit pas, elle a porté tant d'guerres dans ses bras J'ai voulu mentir et lui cacher mes soucis, j'm'en voudrais pas, non On parle, on s'écoute pas, on s'aime mais ça n'dure pas Nos curs nous guident pas, on s'éloigne, mon frérot On s'observe mais on n's'voit pas, on s'aime mais ça n'dure pas Nos sacs se vident pas et pourtant, mon frérot J'pleure, j'ai beau être millionnaire, ça fera pas mon bonheur si on laisse la plaie ouverte On va s'infecter le cur et ta mère, c'est ma mère Crois pas qu'j'te fais de l'ombre car si tu tombes, je tombe Frérot, triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Depuis minot, j't'aime plus que tout au monde Tu sais qu'on a les mêmes gènes, dans le fond, on s'ressemble Y a notre reine qui faiblit sur son trône Quand on s'dispute, son cur s'abîme, tu noies ta peine, tu t'isoles On a tous droit à une seconde chance, la vie frappe fort, faut être fort Faut être fort Elle nous a élevé toute notre enfance, on peut lui rendre, faut être fort Faut être fort Que Dieu l'apaise mais nous aussi, on doit le faire, c'est notre sort Jusqu'au jour où elle nous quittera, ce jour là, faudra être fort Ce jour là, faudra être fort On parle, on s'écoute pas, on s'aime mais ça n'dure pas Nos curs nous guident pas, on s'éloigne, mon frérot On s'observe mais on n's'voit pas, on s'aime mais ça n'dure pas Nos sacs se vident pas et pourtant, mon frérot J'pleure, j'ai beau être millionnaire, ça fera pas mon bonheur si on laisse la plaie ouverte On va s'infecter le cur et ta mère, c'est ma mère Crois pas qu'j'te fais de l'ombre car si tu tombes, je tombe Frérot, triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie Frérot Triste est la mélodie</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Génération X-Or</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ils ont prédit mon décès Cest sûr, je vais les blesser Cest chaud depuis RDC Jpue de lhaleine vingt-cinq pèt, j'suis lancé Trop d'hit sur le dancefloor Jsuis génération X-Or Miskine, ils croient quils sont forts Jai la trentaine dans le game tout j'les baise fort t'es morts Cours, jai un uzi Demande à mon cousin, busy On tire même sur les grizzly Carte grise, perquise, vide ton Audi si si Galsen ou malien Algérien ou comorien Le quartier est africain Ça purge des longues peines Oh men cest malsain Normal, j'mets tous tes rappeurs au chômage Je marrête plus ça maccuse de dopage Ouais meskina, je sens quils ont trop la rage Ouais, cest normal mama Normal, j'mets tous tes rappeurs au chômage Je marrête plus ça maccuse de dopage Ouais meskina, je sens quils ont trop la rage Ouais, cest normal mama Ta carrière, cest une banane T'y arrives plus t'y es à bout, man Je date comme Victor Newman Gardes tes clés pas besoin, j'casse le neiman Coucou vous me jalousez Je soulève la coupe avec Benze' Coup de coude si vous me chargez J'pars dans laxe, grosse frappe j'vais te lucarner Han qui fait le mac ? Qu'il rentre au tieks, on va le caillasser comme la Bac han Han qui fait le mac ? Qu'il rentre au tieks, on va le caillasser comme la Bac han Trop de temps qu'ça timinik On va venir vous rendre visite Le Rap cest devenu politique Chacun son parti, sa folie, sa clinique Normal, j'mets tous tes rappeurs au chômage Je marrête plus ça maccuse de dopage Ouais meskina, je sens quils ont trop la rage Ouais, cest normal mama Normal, j'mets tous tes rappeurs au chômage Je marrête plus ça maccuse de dopage Ouais meskina, je sens quils ont trop la rage Ouais, cest normal mama Mais j'avoue que jen ai marre mama Ce milieu m'abime ma vie mama Je vois peu ma famille mama Rentrons au pays avant qu'ça finisse mal Oui je tavoue que jen ai marre Mama Ce milieu mabime ma vie mama Je vois plus ma famille mama Rentrons au pays Foumbouni1</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Gilera</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Un, deux Et on part en freestyle en plein album On sen bat les couilles on respecte plus personne mamé Écoute, yeah, yeah Tas du mprendre pour un chanteur dopéra Écoute-bien cque jenvoie, cest un extrait rare Ma carrière est grande et rentre pas dans un téra Appelle ton patron la pute, je veux son terrain On va faire court, on va faire bien là, qui rappe mieux qumoi ? Jvous prends en long, en large, en travers, et cætera Jsuis encore en activité faut quje prouve Tu me cherches, tu me trouves, ta tête dans la selle du Gilera Tu vas faire quoi ? Tas la poisse, jai la baraka Tas pas assez pour changer la courroie de ta Mazda Je te vois faire le nerveux, dans tes clips à 500 E Pour de bon sur le front, tas un sidjida Le mal par le mal et dans la malle tu finiras Ceux qui sont derrière moi font trembler tous les magistrats Ya trop dbandeurs, jte ldis de bon cur Qui est le menteur qui dit que tu es un bon rappeur ? Gros khourda, finir bourraga à N'Gazidja Entre nous, quest-cque je men bats les couilles que tu comprends pas Nécoute pas mon son, tu vas rater le arah Cest les Quartiers Nord, ouais cest pire que Gomorra Ba la la la la la lamba On va sortir les guitares tu vas danser la samba On fait des sous, ne fais pas de trous dans la compta La cuenta, cest moi qui pagar d'après Binta Ne bouge pas, rlah, le son du pushka Et daprès toi, combien jai bu dbouteilles de vodka ? Elles disent toutes quelles baisent pas le premier soir, dehka Tu suces, ne membrasse pas, baghra Je crache tu avales pas je crache tu avales pas Tappelles je réponds pas tappelles je réponds pas Tu pleures non mais quest-ctu as ? Tu pleures non mais quest-ctu as ? La folle on respecte pas la folle on respecte pas Ce soir jsuis en concert, ce soir jsuis en concert Mon frère est en transfert mon frère est en transfert On sait toujours quand staire on sait toujours quand staire Mais pour linstant je marrête pas, jsuis instable Qui est le best ? Je vais quiller le reste Qui me rabaisse ? Jsuis dans la tess, jsuis dans les têtes On na jamais voulu la guerre mais bon on va la faire Quand tu marches droit ils veulent tous te la faire à lenvers Mais wAllah qui me déteste ? Qui veut me teste ? Pris de vitesse, en état divresse, jsuis de la fête On na jamais voulu la guerre mais bon on va la faire Quand tu marches droit ils veulent tous te la faire à lenvers Cest bon, cest bon wAllah Tu veux faire quoi dplus ? Allez on continue à écouter lalbum Demande à Binta, A.L.O.N.Z.O, 2054 mamé Cest le code wifi, on a la fibre optique, tes morts2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Goodbye</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tous les jours, frère, des vies partent Les clicks bah, c'est la vitesse Tout le monde cherche sa part Le fric parle, c'est le business On se bat pour des meufs sales Regarde ça, pour des p'tites fesses Bois l'alcool à grande vitesse En ivresse, c'est la fitna J'vais bientôt te dire Goodbye, écoute-moi Ne me laisse pas tout seul sombrer dans le noir Écoute-moi, j'ai l'impression qu'la raison s'éloigne de moi J'vais bientôt te dire Goodbye, j'vais bientôt te dire Goodbye J'vais bientôt te dire Goodbye God bless, trop d'stress 2-0-1-7 hard dans l'13 Les hommes de foi s'font rare, prient pour l'espèce Cafi court pour de longues nuits à vivre de justesse Bestiale, cur sale Chaque jour on pêche Advisory parental Y'a plus d'petits, plus d'grands, plus d'mental On souffre de ? sur cette série rital Haschisch, guetteur Le monde part en couilles, y'a des clients docteurs Tiens ton fils ma sur, fuis le secteur Ça sent la centrale, ça sent la pierre tombale Le diable chante, et nous on danse Le sage pense, la Bugatti Veyron t'fonce Tu nous pousses à faire le mal, j'prends mes distances 34 piges, j'vois bientôt l'autre monde Tous les jours, frère, des vies partent Les cliques baah, c'est la vitesse Tout le monde cherche sa part Le fric parle, c'est le buisiness On se bat pour des meufs sales Regarde ça, pour des p'tites fesses Bois l'alcool à grande vitesse En ivresse, c'est la fitna J'vais bientôt te dire Goodbye, écoute-moi Ne me laisse pas tout seul sombrer dans le noir Écoute-moi, j'ai l'impression qu'la raison s'éloigne de moi J'vais bientôt te dire Goodbye, j'vais bientôt te dire Goodbye J'vais bientôt te dire Goodbye Mon ami, quand j'ai peur moi, j'demande qu'à Dieu de me protéger Ouais, j'veux être vrai donc j'ai appris à regretter, mamée Ça m'arrive pas souvent, mais je n'ai pas honte de pleurer, tu sais C'est la première chose que j'ai fait quand je suis né, Kassim</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Goyard</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>The Danger The Danger J'mets dix-mille dans la Goyard, nique un flic et la morale Si y a d'l'oseille, y a des khoya, des flingues et plus d'paranoïa Tou-tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Tout est drip, baby, tout est drip Han, j'vais compter la kich', alléluia Han Calibré à La Joia, des flingues et plus d'paranoïa Nique un flic et la morale, j'mets dix-mille dans la Goyard Tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Que des 'tilles au grande format, j'prends la kich', alléluia Tu vux une pute, je la loue Ouh, tu parles de kich', tya walou Ouh Tya pas d'répu', t'y en rajoutes Eh, eh, pourquoi te mettre sur écoute ? Han Vivant, j'ai le buzz d'un mort Han, Monte-Cristo à la bouche On a éteint le club, on a payé la facture avec l'argent des Partouche Mathafack Du feu, il tombe des cartouches Ouh, la capuche noire et la fourche Goyard, cocaïne de Rép' Dom', atterrissage à la couche Ouh Marignane voie locos, départ Marrakech, crapule en Lacoste Han Cristalline remplie d'Grey Goose, ça pollue le désert en V12 V12 qui troue la couche d'Ozone Han, métaux, langage Parabellum Han La goûte de trop qui empoisonne, shit, .44 Magnum Han Masque troué comme Jason, les misérables ont cloué Jesus Tye pas assez bon pour l'versus, Saint-Honoré, ça laisse des vrais salaires J'mets dix-mille dans la Goyard Han, nique un flic et la morale Si y a d'l'oseille, y a des khoya, des flingues et plus d'paranoïa Tou-tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Tout est drip, baby, tout est drip, j'vais compter la kich', alléluia Han Calibré à La Joia, des flingues et plus d'paranoïa Nique un flic et la morale, j'mets dix-mille dans la Goyard Tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Que des 'teilles au grande format, j'prends la kich', alléluia Crack, Hermes, Sky', Balmain et t'sais qu'on remet rien à d'main Le drapeau noir est sur l'Everest et tya pas pied dans le grand bain Une crosse qui dépasse de l'imper', avant le casse, on est imberbe Mille occas', un chiffre impaire, téflonnés comme si c'est la guerre On fait la guerre à l'âge pubère, sous l'Soleil mais la gamberge est lunaire Lunettes noires sous le lampadaire, on a fumé la frappe à Mozer Shoot comme Keyser Söze Han, shoot comme Franck Sauzée Jéroboam de Vodka, la 'teille est vide, on se ressert Han P.38 dans le logistique, l'argent nous parle on rougit Ouh La coke décolle du Bourget 'get, dans la street, ça fait que bouger Autoroute une voiture ouvreuse, y a le cur qui joue d'la batterie Oh Vers le péage de Lançon, la nuit, tous les Audi sont gris Oh J'mets dix-mille dans la Goyard Han, nique un flic et la morale Si y a d'l'oseille, y a des khoya, des flingues et plus d'paranoïa Tou-tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Tout est drip, baby, tout est drip, j'vais compter la kich', alléluia Han Calibré à La Joia, des flingues et plus d'paranoïa Nique un flic et la morale, j'mets dix-mille dans la Goyard Tout est drip, baby, tout est drip et j'ai que des 'teilles au grand format Que des 'teilles au grande format, j'prends la kich', alléluia1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GP 800</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Jpilote ma life comme un GP En première classe, prenez vos places Jmenvole sur ma lancée Jpilote ma life comme un GP En première classe, prenez vos places Ya personne pour me stopper Cest le flow 2054, secoue ta tête Papè Jarrive en soucoupe volante, un extra-terrestre sest posé Poussez-vous, ça va vite, je meurs demain, mes jours sont comptés Ici cest Bat life, tous les jours on veut la monnaie Ya trop de hyènes, peu dhygiène, jolie sont les ladies On aime la nuit, on aime la nuit mais les ennuis cest mauvais Comment ça tu chuchote sur mon pote, je vais te gifler Ici cest fast life comme Leslie et B2OB Moi jaccélère, jaccélère, compteur 28 années Pour-pour pouvoir aider faut pas slever le dernier Ah-tcha-tcha-tcha-tcha-tcha, je pète le champagne pour le quartier Levez le bras en lair, cest Guinomo, Dieu soit loué Jsuis voué, jsuis voué à tout niquer, à marracher en GP Je touche même plus le sol, jatterris dans la foule en boulé Jsuis un peu dans la-dans la Comoria à rapatrier Embrassez ma mère, si cest moi qui part le premier Jsuis doué Jsuis doué Jpilote ma life comme un GP En première classe, prenez vos places Jmenvole sur ma lancée Jpilote ma life comme un GP En première classe, prenez vos places Ya personne pour me stopper Sopra dis-leur quen ce moment je suis en forme olympique En compétition, trop de frissons quand je bois du Ciroc Puff Daddy fada, quartiers nord, sortez les pecs La Lamborghini, les bikinis et les coups de quequettes Qui est le mec qui a le chrono qui lui pète sur les pattes Je reviens tellement fort que ton crâne senfonce dans lappui-tête Vas-y toi va là-bas, jai pas à tplaire, jsuis pas prophète Ya le public qui fait des doigts en lair, cest du Psy 4 Cest nous les boss, on est les boss, traverse les années en 800 GP Arrachez-vous vous cacher à Phuket, ya trop dennemis Trop damis, trop de millions ma baby Jsuis pas un footballeur, tu crois me pigeonner ma baby Tu crois jsuis Brandão ?! Allez défoules-toi, lâche des commentaires, 100 millions de pixels en poster Qui nétaient pas prêt ? Follow me, follow me, jvais te tweeter Ne mets pas la photo de Kardashian, jvais débouler en ptites foulées, je rigole hey ! Jpilote ma life comme un GP En première classe, prenez vos places Jmenvole sur ma lancée Jpilote ma life comme un GP En première classe, prenez vos places Ya personne pour me stopper Jpilote ma life, je fly Jdécolle avec mon GP Jpilote ma life, je fly Au ciel, je regarde dans ma lancée Jpilote ma life, sur mon GP ya plus dplace On sourit avant lflash Papè Jpilote ma life, je fly Seul mon avenir pourra me stopper x4 Permettez-moi de vous dire que jprends dla vitesse-tesse Limite jdécolle Alonzo, Alonzo Jpilote ma life comme un GP En première classe, prenez vos places Jmenvole sur ma lancée Jpilote ma life comme un GP En première classe, prenez vos places Ya personne pour me stopper Ce son cest du Barbara Berlusconi Et moi jai la frappe à Pato Hey, soldat de Totò Riina, je suis le Capo dei Capi Jsuis campeón et jai pris goût Alonz', Makiavel, vrais reconnaissent vrais Mon cerveau il est en deux milles cinquante-cuatro</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Grand sud</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>J'ai voulu momentanément lâcher c'que j'avais dans la tête C'qu'il y'a dans mon cur appartient à celui qu'a fait mon squelette Dans les money time j'fais parler mes jnouns, tu vas pas t'en remettre Réponds pas à ta femme j'ai de l'inspi' en kilomètres 2.0.1.5, 1.3.0.1.5 À la frontière du respect, j'ai laissé mes aînés avec une seringue On s'habitue pas au climat actuel, on fait avec Comme en promenade il t'faut un Opinel, fait avec, zincou Que Dieu nous protège et nous écarte d'un coup On ressemble à ces fils de pute de colons avec nos Kalash' nos six coups Guerres de périmètre, mitraillettes, fusils à lunette Un salam aleykoum d'un frère nous rappelle qu'on finira dans l'trou J'rigole quand un rappeur m'envie alors qu'j'rappe mieux que lui Un par un venez, j'vais vous apprendre do ré mi Hagar pas ta sur si elle écoute le capo dei capi Tes piques je les mets sur mes Louboutin ton quartier sait bien qui je suis daba Mon groupe Sya, Vinz', Sopra M'baba Mdzadzé me dit Attention aux jaloux j'lui réponds te casse J'les traiterai comme le gouvernement de François Hollande ces incapables Gauche droite j'suis politiquement insoutenable Pas grandi avec lui mais qu'est-c'que j'ressemble à mon père J'ai plein d'enfants j'ai le sperme facile j'les aime comme ma mère En France, j'me comporte comme au bled, 'bats les couilles Supporte pas les négros sur leurs écrans LED, 'bats les couilles hein L'humain c'est comme le fer ça rouille hein Ça veut s'racheter une vie quand ça passe moins bien dans la foule, hein Ta femme c'est une cagette, et toi t'es une balance Donc vous faîtes beau marché, tu finiras légume sur ton lit après l'audience, my god Démarre le RR 1000, Huarache, Araï, 'que je rode Comme CR7 j't'allume de 35 mètres, tu viens vite j'te lobe Mon équipe joue pour moi et je marque pour eux, le son est crapuleux Ils attendent qu'j'm'énerve depuis 2002 euh J'mets le shit avant d'mettre la beuh-euh Un joint royal j'vois des étoiles filantes j'fais des vux-ux Et j'entends chanter les criquets, sous un soleil de plomb mieux vaut être friqué La chaleur n'atténue pas la violence de mes zinc' endettés Tractions dips, on affronte les blèmes-pro Douche de Grey Goose, soirée mousse, la favelas sur le dancefloor J'ai rappé aux Baumettes à Luynes, à la Valentine, Alonzo J'traverse les générations, tue-moi ou tu mangeras les miettes Ou tu mangeras des miettes, cafard, yeah Énormément de mal à exprimer mon désarroi jeune terterien Malheureusement des fois on marche avec des jnouns, que Dieu nous écarte du ravin Hé, infection pulmonaire, j'embrasse ma mère sur la main Célébrons notre fête nationale, dramatique est mon latin, 'zin4</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Guadalajara</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>T'es, t'es, t'es qui toi ? Me touche pas T'es bizarre, j'te kiffe pas M'oblige pas, non me chauffe pas Ne bouge pas, sinon Clic, paw La racaille, le détail, la flicaille c'est la vida Mon bébé veut du cash, la mama, ouais, veut sa villa Malheur Malheur, tu me veux l'malheur Tu me veux l'malheur Alors qu'tu m'as souri t'à l'heure Tu m'as souri t'à l'heure J'te donne même pas l'heure J'te donne même pas l'heure Allez nique ta mère Allez nique ta mère Un regard d'travers, tout est mort, on devient sévère On devient sévère RS7, on part en travers, piste les dettes, c'est les quartiers nord Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta Et ressers moi du pastis, j'fais l'hala comme le R6 J'fais l'hala comme le R9, khamsa, j'finis pas aux assises Tu trembles sur la gâchette, eh, c'est la co'-co' qui t'assiste Bébé, balance-moi la gâchette, ce soir j'crois qu'j'vais te donner un fils T'es à plat, tu n'as pas de plata, pas d'flow, t'as une dégaine éclatée Tu as un président, c'est le khapta, égérie de Puma mais je mets du Dolce On n'a aucun rapport, on n'a pas l'même accélérateur Si tu gagnes c'est larbitre qu'a tort, tacle dans la gorge au dernier quart d'heure Malheur Malheur, tu me veux l'malheur Tu me veux l'malheur Alors qu'tu m'as souri t'à l'heure Tu m'as souri t'à l'heure J'te donne même pas l'heure J'te donne même pas l'heure Allez nique ta mère Allez nique ta mère Un regard d'travers, tout est mort, on devient sévère On devient sévère RS7, on part en travers, piste les dettes, c'est les quartiers nord Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta Guadalajara, tu vas crier Arah Crier Arah Carlos Santana, ça fait ra-ta-ta-ta Ra-ta-ta-ta</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Guardia Civil</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Vas-y, vas-y, vas-y, vas-y, compte, compte, compte, compte Vite vite sors la machine, sors la machine Arah, arah ! Viens on se cavale, c'est chaud A-tcha-tcha-tcha-tcha-tcha-tcha, y'a un barrage à l'entrée Préviens les charbonneurs, ça soulève au taquet, on est cramés Marseille x16 A-tcha-tcha-tcha-tcha-tcha-tcha, y'a un barrage à l'entrée Préviens les charbonneurs, ça soulève au taquet, on est cramés Du bleu, du bleu, on voit du bleu depuis qu'on est tout petit À savoir si c'est nos amis ou nos ennemis à jamais J'suis innocent, j'me fais contrôler toute la journée Comme si j'avais braqué l'écureuil, ils me tripotent comme des pédés Ils sont pas tous pourris, mais comment les reconnaître J'ai le contrôle technique, me sors pas ton 9 millimètre J'viens des quartiers Nord, ok, c'est cramé Monsieur l'agent, j'suis fair-play, j'ai rien sur moi ou presque T'as qu'à-qu'à prendre ma caisse, parle pas de politesse Je lapprends à mes gosses, donc occupe-toi de tes fesses Monsieur le C.R.S. j'ai une éducation De la communication, y'a pas de complication Qui oppresse, qui provoque la jeunesse Après avoir ingurgité trois verres d'alcool Reculez, ne faites pas de faux gestes, les putes de Budapest Que vous chargez vous font perdre le contrôle A-tcha-tcha-tcha-tcha-tcha-tcha, y'a un barrage à l'entrée Préviens les charbonneurs, ça soulève au taquet, on est cramés Marseille x16</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Harry Potter</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Y'a que des Kenzo hein Que ça Fendite, hein Oh Ten Shin Han, t'as un il sur le front, gamberge M'en donné Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour Que ds Harry Potter, que du shour Ce qui frait ton bonheur c'est qu'je coule Tu craches sur ma cover, tya les boules Je mets du vocoder, bat les couilles Bismillah j'vais manger, tant j'm'étouffe C'est Dieu qui m'a donné, pourquoi tu souffles ? A un moment donné ferme ta bouche Tu vas pas me jouer la sainte nitouche Espace que Karaba, j'suis a Marbella en Dolce, Gabanna J'me promène avec une Jessica Alba Tu dis pas mashAllah, moi je vais dire khamsa Ton il est puissant, tu guètes mes story Un jour à Dubaï, un jour en Asie Mieux vaut pas qu'un jour je sorte la Ferrari Tu pèteras ton écran comme Mohamed Henni Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour WAllah je casse tout c't'année La concu' on va devoir s'castannier Tu portes l'il on te casse ta mère Ils nous supporte pas ils ont cas s'tailler Tya beau faire le costaud ouais, en Valhalla tu vas festoyer Cherche moi comme Cousteau, ouais Je suis de l'eau douce dans une mer salée Tu veux m'ensorceler, j'fais que rigoler Tya pas de dents, dents, dents T'es dans mes abonnées, tya pas d'photo d'profil Tya changé ton nom, nom, nom Je m'enchaine un pastaga Je fume de la beuh comme un rasta, ouais Et sur ma Rolex t'es en retard comme mon ex J'te dirai non, non, non Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour Que des Harry Potter que du shour Que du shour Que du shour Hahaha</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>HASTA LA VISTA</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>La zone, serrage, les mômes sortent l'outillage J'marrone, qu'est-ce que je fous là ? J'klaxonne dans les embouteillages Qu'on s'taille je n'sais où Autre part, vers le Pérou Au point mort dans la Clio Qu'importe la météo, faut qu'je plane J'aime être stone comme le monde Le calme apaise mes peines Et je tourne, je gamberge quand j'la vois, j suis perdu Elle danse sur l son des guitares Y a des balles qui pleuvent, rentre vite, on s'voit t'à l'heure La daronne pleure tous les jours même quand ça va bien chez moi Et si on part ailleurs, c'est pour fuir la galère Les ennuis, les faux amis, j'ai grandi, c'est plus pour moi Ça rêve d'être footballeur pour faire rentrer la kichta Pour la kichta, ça fait ratatata Ça rêvait d'être rappeur même ceux qui dealaient en bas C'est trop bizarre donc hasta la vista Et c'est toujours pareil La police tourne autour, la routine nous met K.O Et de jour en jour, on a du mal avec l'insomnie Les traces du passé sont encore là Faut qu'on s'vide la tête, qu'on kiffe la vie, conduire comme dans un rallye Elle aime trop quand ça va vit, ça fait flotter sa tunique Short Vibrequin, des Sebago, pas d'alcool, une menthe à l'eau Pas question d'finir solo aspiré par le ghetto Y a des balles qui pleuvent, rentre vite, on s'voit t'à l'heure La daronne pleure tous les jours même quand ça va bien chez moi Et si on part ailleurs, c'est pour fuir la galère Les ennuis, les faux amis, j'ai grandi, c'est plus pour moi Ça rêve d'être footballeur pour faire rentrer la kichta Pour la kichta, ça fait ratatata Ça rêvait d'être rappeur même ceux qui dealaient en bas C'est trop bizarre donc hasta la vista Y a des balles qui pleuvent, rentre vite, on s'voit t'à l'heure La daronne pleure tous les jours même quand ça va bien chez moi Et si on part ailleurs, c'est pour fuir la galère Les ennuis, les faux amis, j'ai grandi, c'est plus pour moi Ça rêve d'être footballeur pour faire rentrer la kichta Pour la kichta, ça fait ratatata Ça rêvait d'être rappeur même ceux qui dealaient en bas C'est trop bizarre donc hasta la vista</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>HÉRITIERS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Arty Noxious Famille nombreuse dans un T5, j'suis l'septième enfant de maman Passionné d'football et d'musique, jusqu'ici rien détonnant Toutes les journées s'ressemblent, on connaît toutes les ruelles du secteur Mais très vite, j'ai compris que traîner sans but mène à la mort Mort Et j'avais un groupe de rap mais j'pense qu'à voler chez Lacoste 'coste J'étais pas prêt pour ça, j'me rends compte que j'l'ai mise en cloque Cloque Javais que seize ans, j'faisais l'grand mais je n'étais qu'un gosse Nan, nan, nan J'pouvais lui dire Adios, responsabilités j'endosse Cest mes grands frères qui m'rappellaient à l'ordre, pas la police Police Mais j'en faisais qu'à ma tête, j'étais nia Ah Naissance, quartier, musique, vie à haut risque Oh Dans la Clio 2, j'enchaîne joint de beldia Ah-hi-ya, hi-ya, dev'nu père avant lheure Ma force était ma peur J'ai assumé mes choix, hi-ya, hi-ya Y a qu'les miens dans mon cur J'ai appris d'mes erreurs J'me suis perdu des fois, hi-ya, hi-ya Hier encore, j'étais léwé, j'attendais rien du jour d'après J'me disais Demain, on verra Et j'ai dû rentrer dans la danse, me retrousser les manches Éviter l'AK qui fait Brah J'ai enchaîné les soucis chaque année, j'ai la tête cassée par la verte Les potos s'font incarcérer, le regard vide, j'suis en train de d'serrer J'ai fait mon choix, j'reviendrais pas, j'ai toujours dit qu'j'ferais pas comme papa Mais tout est écrit, faut bien le croire, les deux sont ensemble, on sépare pas Shoo Je regrette pas avant, j'me suis remarié Marié, j'fais encore des enfants avec ma destinée Shoo Et je veux qu'ils s'entendent, cest tous mes héritiers Han-han Je vis pas pour les gens mais pour mes vérités Cest mes grandes surs qui m'rappellent à l'ordre, pas la police Police Mais j'en fais qu'à ma tête, j'étais nia Ah Naissance, quartier, musique, vie à haut risque Oh Dans la Clio 2, j'enchaîne joint de beldia Ah-hi-ya, hi-ya, dev'nu père avant lheure Ma force était ma peur J'ai assumé mes choix, hi-ya, hi-ya Y a qu'les miens dans mon cur J'ai appris d'mes erreurs J'me suis perdu des fois, hi-ya, hi-ya Hier encore, j'étais léwé, j'attendais rien du jour d'après J'me disais Demain, on verra Et j'ai dû rentrer dans la danse, me retrousser les manches Éviter l'AK qui fait Brah</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Il le fallait</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Je t'ai quitté il le fallait, oh oh oh RDC Je t'ai quitté il le fallait Ma vie un long fleuve où je fais ricocher mes erreurs Caillot de sang ricoche dans le cerveau c'est la tumeur Je ne marche pas sur la Lune mais sur iTunes et Deezer Reconnu mais pas pour les mêmes raisons que Bieber Quand Daniel a connu Jack, au Tennessee Je rentrais le soir avec le plein dans la vessie Regard vide j'affrontais les rides de la Mama L'ange de gauche me disait no stress, no drama J'ai quitté les bars, j'ai quitté les bagarres Et j'ai fui la BAC et j'ai fui le mitard J'ai quitté les murs j'ai quitté la drogue dure Et j'ai fui la cure et j'ai fui la rupture Tellement blessé tellement oppressé, j'me vois condamné J'en oublie de rire, j'en oublie de vivre, tellement j'suis pressé J'ai grandi au milieu de Ramada, Derka, Sandra, Georges Josepha, rim-Ka, j'te jure qu'ça forge Je t'ai quitté il le fallait, oh oh oh Tu m'as blessé mais pas tué, oh oh oh Il fallait que j'avance, vance, vance, vance, vance, vance, vance Il fallait que j'avance, vance, vance, vance, vance, vance, vance Tout le monde en perd tout le monde en gagne, j'me stabilise Mon petit garçon a les yeux en flammes, je le mobilise Et j'ai fait mon nid dans le ghetto drame, je le réalise Et j'ai su à temps faire ma valise, me poser au calme Je connais les armes et j'ai mon âme, à purifier J.E.S.U.S crucifié C'est pas Adam qu'a croqué dans la pomme du Macintosh C'est pas mes frères qu'ont survécu à la Kalashnikov Donc j'ai quitté les hagar, j'ai quitté les traîtres Et j'ai fui les histoires et j'ai fui les dettes J'ai quitté les mythos, j'ai quitté les jaloux Et j'ai fui des potos et j'ai fui des zins-cou On mélange le cul on mélange l'amour, on mélange l'amitié Je veux pas tout perdre et j'ai des perles, que je voudrais cacher J'ai grandi au milieu d'Ibrahima, Fana, Zohra, Claude Mustapha, Emma, je n'ai pas d'cordes Je t'ai quitté il le fallait, oh oh oh Tu m'as blessé mais pas tué, oh oh oh Il fallait que j'avance, vance, vance, vance, vance, vance, vance Il fallait que j'avance, vance, vance, vance, vance, vance, vance Je t'ai quitté il le fallait, oh oh oh Tu m'as blessé mais pas tué, oh oh oh Il fallait que j'avance, vance, vance, vance, vance, vance, vance Il fallait que j'avance, vance, vance, vance, vance, vance, vance3</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Ils le savent</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le Ils le savent, savent Qu'ils passent aux aveux, ces caves Parfois, je tourne, je tourne, je tourne, je tourne J'suis brave et j'en bave Toute l'année, ça gratte Et ça s'balance à gauche, à droite Et rien qu'ça blablate Moi, j'en ai rien à battre Encore un classique qui nique des mères, attends toi à tout, c't'année, j'fais carnage Vroom, vroom, vroom, pousse-toi j'accélère, j'vais faire trembler le Prado Carénage Ça gratte, ça gratte, comme d'hab', ça braque, ça braque CZ sur le T-Max, T-Max, poursuite avec la BAC, la BAC Arrêtez d'me prendre pour c'que j'ne suis pas, t'as voulu m'faire la course mais frérot, tu suis pas Embrouille, on fuit pas, entre potos, on s'nique pas A.L.O.N, JuL, on arrive, méfie toi Ils le savent, savent Qu'ils passent aux aveux, ces caves Parfois, je tourne, je tourne, je tourne, je tourne J'suis brave et j'en bave Toute l'année, ça gratte Et ça s'balance à gauche, à droite Et rien qu'ça blablate Moi, j'en ai rien à battre Toute l'année, ça gratte Toute l'année, ça gratte Et ça s'balance à gauche, à droite À gauche, à droite Et rien qu'ça blablate Et rien qu'ça blablate Moi, j'en ai rien à battre Pousse-toi d'là, on va t'faire mal, on danse sur les pin-pon, c'est infernal Tu me fais le gros, tu n'as même pas trente balles et tu parles trop quand t'es au tribunal Tu t'sens mal, tu t'sens mal, depuis que tu fais plus un, tu n'as plus d'amis Ta gadji t'a fait couler mais qu'est-c'qui t'as pris ? J'sais pas c'que tya, fais ta vie Que des traîtres, qu'ils aillent s'faire mettre J'accélère en CBR, en SLR, si tu nous vois tout niquer, dis-toi que c'est l'heure J'fais pas d'manières, je suis khapta Ils le savent, savent Qu'ils passent aux aveux, ces caves Parfois, je tourne, je tourne, je tourne, je tourne J'suis brave et j'en bave Toute l'année, ça gratte Et ça s'balance à gauche, à droite Et rien qu'ça blablate Moi, j'en ai rien à battre Toute l'année, ça gratte Toute l'année, ça gratte Et ça sbalance à gauche, à droite À gauche, à droite Et rien qu'ça blablate Rien qu'ça blablate Moi, j'en ai rien à battre On s'dit qu'on s'aime pas mais on s'attache, on garde les Prada, on s'en fout d'être à la page Charbon, cambus, braquages, ma génération veut du cash C'est l'son d'la gratte les cous', me serre pas la main si tu te grattes les couilles S'ils touchent la famille traque les tous et si tu les croises, écrase les tous Tu te caches mais on sait tout, pour rentrer chez toi, tu fais des grands détours Niquez vos daronnes, vous me rendez fou, si vous êtes chauds, on se donne rendez-vous Ils le savent, savent Qu'ils passent aux aveux, ces caves Parfois je tourne, je tourne, je tourne, je tourne J'suis brave et j'en bave Toute l'année, ça gratte Et ça s'balance à gauche, à droite Et rien qu'ça blablate Moi, j'en ai rien à battre Ils le savent, ils le savent Toute lannée, ça gratte Ils le savent, ils le savent Ça s'balance à gauche, à droite Ils le savent, ils le savent Et rien qu'ça blablate Ils le savent, ils le savent Moi, j'en ai rien à battre Toute l'année, ça gratte, à gauche, à droite Rien qu'ça blablate Ils le savent, ils le savent Ils le savent, ils le savent Ils le savent, ils le savent Ils le savent, ils le savent Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le Lo, lo, lo, le, le, le</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Ivar</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Oh, le code Wi-Fi A.L.O.N.Z.O 2050 quattro 13.0.15, M.A.R.S, mamé Yeah Même pas essoufflé, plus de vingt balais Que j'nique le game, que j'nique tes morts, wAllah j'ai tout fait J'connais le croupier, tu vas te coucher On va lui mettre au fond d'la gorge, elle va s'étouffer Oh merde, ils ont osé douter, goûtez, c'est juste le goûter J'suis trop déter' pour le cathéter, j't'envoie mon couplet Coupé est le Merco pulsé, ta défaite sr'a cuisante Sur la tête de mes jantes, tu vas prêter allégeance Nico, augmente les fréquences, j'vais tout faire fuiter Allez, viens feater, tu fais l'gros, tu vas finir vidé Buté, j'rappe que la cité, toujours accusé J'lâche pas l'affaire tant que mes frères sont pas acquittés Pas de chance, pas de chance, pas de chance non La puissance, la puissance, la puissance ouais Délinquance, délinquance, délinquance rreh Pénitence, pénitence, pénitence ah Pas de chance, pas de chance, pas de chance non La puissance, la puissance, la puissance ouais Délinquance, délinquance, délinquance rreh Pénitence, pénitence, pénitence ah Sur le terrain c'est chaud, y a pas la VAR y a pas la VAR En guerre depuis le berceau comme Ivar comme Ivar Sur le terrain c'est chaud, y a pas la VAR y a pas la VAR En guerre depuis le berceau comme Ivar La mâchoire d'un bully, c'est des p'tits, j'les regarde sur Gulli, hein Génération Gullit, j'timinik quand j'parle en swahili Cross en I comme à Philly, viril sans haltérophilie J'suis nourri au pili-pili, le milli', il m'en faut mbili Warzone, le 1.3 c'est Call Of, y a les bougs qui me parlent en wolof Pour la zone c'est one love, pour tchi bâtard que tu garoves La Scuderia comme Schumacher, j'suis à l'heure comme la Richard M À cinquante-cinq en marche arrière, ta grand-mère connaît ma carrière Pas de chance, pas de chance, pas de chance non La puissance, la puissance, la puissance ouais Délinquance, délinquance, délinquance rreh Pénitence, pénitence, pénitence ah Pas de chance, pas de chance, pas de chance non La puissance, la puissance, la puissance ouais Délinquance, délinquance, délinquance rreh Pénitence, pénitence, pénitence ah Sur le terrain c'est chaud, y a pas la VAR y a pas la VAR En guerre depuis le berceau comme Ivar comme Ivar Sur le terrain c'est chaud, y a pas la VAR y a pas la VAR En guerre depuis le berceau comme Ivar let's go Vet du ikke hvem eg er ? Du kan ikke drepe meg Vet du ikke hvem eg er ? Eg er Ivar The Boneless Eg er Ivar The Boneless, du kan ikke drepe meg Ah, ah</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>J’AI GRANDI</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>HuFel on the beat Hey, c'est Fayv, enfoiré Hey, hey, hey Hey, han Han-han-han Han-han-han, hey Hey, au début, j'étais méfiant, on a su gérer la pression J'ai tout cacher sous ma paire de ice pour pas montrer ma peine et mes déceptions J'dois aller faire un tour au bled pour me protéger, tu sais, y a trop de moula, moula qui arrive En parlant de bled, maman, y a mon frère là-bas, j'ai trop d'bouches à nourrir On a eu très tôt des responsabilités, comme un cavaliero, j'ai grandi J'ai des principes t des valeurs, même si tu m'vois fair le con, je sais qui est qui On a rôdé la noche, mama prie pour nous tous les soirs, ouais T'en fais pas, j'ai fait ce qu'il fallait, j'me réveille sous le ciel étoilé J'suis sur la côte, casque intégral, y a les suricates On s'rejoint dans la nuit On s'rejoint dans la nuit J'suis sur la côte, casque intégral, y a les suricates On s'rejoint dans la nuit Hey, hey Et j'ai grandi, tu sais, j'connais bien la rue J'te dis pas tout, je fais le tri Tu sais, m'tromper, ça m'arrive Et j'ai grandi, tu sais, j'connais bien la rue J'te dis pas tout, je fais le tri J'suis pas conscient d'c'qui m'arrive On s'aime et on s'abîme, j'reviens de loin, j'ai pas mi-dor On s'aime, on s'fait la guerre On s'aime et on s'abîme, l'enfer sur moi Près de toi, je me sens vivre Je n'veux pas prendre mon temps sans prendre des montants D'la rue, nous sommes des poètes, on sera jamais reconnu comme des Yves Montand J'ai dû quitter la maison pour aller chercher l'paradis aux quatre coins de l'univers J'ai tourné en rond, j'ai cherché, j'ai cherché alors qu'il était sous le pied de ma mère Des billets marrons, Bugatti Chiron, baraque de baron, deux-trois étalons En rigolant, je lâche le volant, les cheveux au vent, elle m'aime tendrement Mais j'ai trop d'haine dans l'corps, l'esclavage a duré quatre cent ans On veut tout maintenant, on arrivera plus à faire semblant Faire semblant J'suis sur tes côtes, ppe-fra d'timal, j'tire la médicale On s'rejoint dans la nuit On s'rejoint dans la nuit J'suis sur tes côtes, ppe-fra d'timal, j'tire la médicale On s'rejoint dans la nuit Hey, hey Et j'ai grandi, tu sais, j'connais bien la rue J'te dis pas tout, je fais le tri Tu sais, m'tromper, ça m'arrive Et j'ai grandi, tu sais, j'connais bien la rue J'te dis pas tout, je fais le tri J'suis pas conscient d'c'qui m'arrive On s'aime et on s'abîme, j'reviens de loin, j'ai pas mi-dor On s'aime, on s'fait la guerre On s'aime et on s'abîme, l'enfer sur moi Près de toi, je me sens vivre L'enfer près de moi L'enfer près de moi Près de moi, j'me sens vivre Près de moi, j'me sens vivre L'enfer près de moi L'enfer près de moi Vivre Oh-oh Près de toi, près de toi J'me sens vivre Vivre</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jalousie</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Si mes habits sont chers, c'est un choix de vie Rien qu'tu parles de nous, c'est la jalousie Reste dans ta galère, laisse-moi finir mon teh T'facon j'suis millionnaire, j'm'en fous d'ton avis Fond rap, ça dort a-p Wesh le S, ça dort a-p J'fais la fête, ça se chauffe J'compte la 'cette, que tu me schnoufe Rien à foutre, j'ai du shit Dans la back, dans la ville Dès qu'je tire, sur la frappe J'fais du sale J'suis légende comme CR7 Un PGP, un iPhone 7 Ils s'demandent qui j'suis en fait Ils s'prennent les coups qui mènent en quête ? ?, ils le savent Quand j'arrive, qui c'est là bête ? Dans la foule, même ta mère saute Pire que ça, même tes morts sautent, même tes morts sautent On te l'a dit, tu portes lil comme F.E.N.D.I Tu es détesté comme un indic' Wallah Adhim pas d'comédie Elle veut me dire combien elle chausse A part la ken j'vois pas grand chose J'suis au studio, je plie la prod' A qui la faute ? J'suis à la mode x2 Si mes habits sont chers, c'est un choix de vie Rien qu'tu parles de nous, c'est la jalousie Reste dans ta galère, laisse-moi finir mon teh T'facon j'suis millionnaire, j'm'en fous d'ton avis J'suis légende comme Lennon J'ai les jantes en carbone J'ai les sapes, ouais j'ai les sacs J'veux la Bugatti Chiron La coupe à Maldini On dit qu'j'ai des Madjinis J'ouvre les stades, ouais quartier nord Mieux Zidane que Platini Get-up, get-up, get-up Stand-up, stand-up, for your ride 1 kils, 2 kils, 3 kils de beuh J'tape dans la White 63 S, je monte très vite La pente du Plan d'Aou Les CRS, controle bouillant Ils m'reconaissent Ouais, c'était comment le 'sin ? Comment le 'sin ? On fait comment le 'sin ? On tient les commandes le 'sin J'ai dit c'est les Comores le 'sin, comment le 'sin ? On fait comment le 'sin ? On tient les commandes le 'sin Si mes habits sont chers, c'est un choix de vie Rien qu'tu parles de nous, c'est la jalousie Reste dans ta galère, laisse-moi finir mon teh T'facon j'suis millionnaire, j'm'en fous d'ton avis Ouais, Alonzo gros1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>J’avais besoin d’un père (Bonus Track)</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Oh papa Oh papa, que serait ma vida si t'étais avec mama ? Avec mama De toi, j'm'en rappelle à peine Oh papa Oh papa, t'étais pas là et pourtant j'en n'ai pas souffert Dans le noir Dans le noir, j'ai appris à y voir clair Plus tard, j'ai réalisé que j'avais besoin d'autorité Qu'il manquait un homme à la maison pour les leçons, punitions, un modèle à copier Dur de pas s'faire inciter-er, mauvais chemin, on a du emprunter Plus de risque, plus de vice, trop d'injustice, on part pas à égalité Et j'avais besoin d'un père, j'avais besoin d'un père Mais j'en savais R, j'te jure, j'en savais R Pourquoi je ressens un manque de quelqu'un que j'connais pas ? C'est p't-être les liens du sang ? Mais ça, on l'saura pas J'avais besoin d'un bonhomme pour enfin devenir un bonhomme Pas penser à avoir un Magnum J'aurais voulu qu'on joue au ballon comme certains potos le f'saient Tout ça, c'est loin, attiré par l'sheitan, le malin Né sans père, finit sur le terrain mais c'est pas d'ta faute Plus tard, j'ai réalisé que j'avais besoin d'autorité Qu'il manquait un homme à la maison pour les leçons, punitions, un modèle à copier Dur de pas s'faire inciter-er, mauvais chemin, on a du emprunter Plus de risque, plus de vice, trop d'injustice, on part pas à égalité Et j'avais besoin d'un père, j'avais besoin d'un père Mais j'en savais R, j'te jure, j'en savais R Pourquoi je ressens un manque de quelqu'un que j'connais pas ? C'est p't-être les liens du sang ? Mais ça, on l'saura pas Et j'avais besoin d'un père, j'avais besoin d'un père Mais j'en savais R, j'te jure, j'en savais R Pourquoi je ressens un manque de quelqu'un que j'connais pas ? C'est p't-être les liens du sang ? Mais ça, on l'saura pas Et j'avais besoin d'un père Mais j'en savais R Pourquoi je ressens un manque ? C'est p't-être les liens du sang ? Mais ça, on l'saura pas</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>J’écris</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>J'écris ma vie mon ami, mes angoisses, mes cauchemars que j'fais dans la nuit Ma famille, ma patrie savent que j'suis un homme Jemporterai rien dans ma tombe même pas une pièce, un atome En bombe j'te crache mon album-bum-bum Parfois j'me saoule et j'écris, j'ai besoin de me faire entendre Quand ça monte, j'ai plus de père, je fuck le monde j'me relève quand j'tombe J'appréhende le jour où mourra la daronne Oh no, j'en tremble, je crains le pire J'écris mes remords, à trop chercher l'or, j'me fais des ennemis J'ai mal à la vie, j'me soigne au te-shi J'écris ma phobie de finir dans un coffre brûlé à vif À Marseille, papé c'est chaud no, no, no, no Souvent les jaloux se font des tas de films Y'a trop de poussettes, de donneurs, de go de balances cousine oh oui Parfois j'écris ce qui s'passera en avance Demande pas comment c'est fou je sais no, no Pour un rien tu sautes, regard de travers, tu sautes Touche au bénéfice, tu sautes, tu veux être son amant, tu sautes Sors un 9 milli', tu sautes, à 6 heure du mat', tu sautes Même si t'as des gosses, tu sautes, t'as beau faire la prière, tu sautes Oh lalalalalalala Lalalalalalalala Lalalalalalalala Lalalalalalalala Oh j'regarde l'heure sur ma montre AP J'commence à vieillir, j'deviens agressif donc j'm'éloigne des coups de fusil J'suis comorien j'suis pas né dans le Mississipi Marseille c'est nous Kestia? J'écris trop profond, jvais mnoyer dans lson Tonton j'fais le con, demain j'suis là ou peut être en prison J'écris ma crainte oui de perdre mon contrôle Face au mec de ma fille, je l'écrase wallah j'mens pas Raisonne-moi, j'me questionne vas-y, dis si j'déconne mentalité de la zone Je me livre trop, est-ce ma faute ? Oh no, ça tu vas le dire à d'autres Je suis marié à ces bâtiments de force sans dot Sans baveux les vrais au comico perdre la mémoire Là j'écris j'suis seul j'redoute les jnouns viennent me voir Quand j'vois la terre mère se déchirer à la CAN dans le racisme Pourtant arabes, noirs, unis, c'est ce que je vis depuis petit J'comprends pas on vient d'en bas, P.L.A.N.D.A.O.U Y'a des blancs, des jaunes, des braves et des crapules On croit en dieu et non pas à votre big-bang Inch'Allah qu'on finisse pas dans un sale état c'est le drame17</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Je suis le quartier</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>I do it for the hood, I do it for the streets I do it for the hood, I do it for the streets Je suis le quartier, j'rappe la proximité Je suis le quartier, je suis le quartier Je suis le quartier, j'rappe la proximité Je suis le quartier, à qui j'dois l'prouver ? Dans mes chansons, j'préfère mettre en valeur ceux qu'on oublie Au lieu d'souligner les grandes lignes que les médias écrivent Je suis le quartier Je suis ma propre vérité, 26 ans de coins populaires J'ai pas demandé d'naître, j'vous confie mes pensées, j'sais plus où les mettre J'ai le trac mec l'époque est dead, on fait les sacs ou on milite ? C'est des questions que tu dois connaître Je suis le petit qu'a vu ses rêves crever à la guerre L'ennui est mon pire ennemi, il m'fout toujours dans des sales affaires Je suis le cas social scolarisé pour faire plaisir à maman Pas trop méchant, pas trop grand, j'aime trop le ballon Je suis le futur de la France, la classe moyenne compressée Je suis le pire et le meilleur naturellement oppressé Je suis le temps qui passe et le vent du passé Je suis le block, je suis l'époque, je suis le block, je suis l'époque Je suis le quartier, j'rappe la proximité Je suis le quartier, je suis le quartier Je suis le quartier, j'rappe la proximité Je suis le quartier, à qui j'dois l'prouver ? Entre le sort, la mort, et l'économie La réussite, les homicides, et l'hémoglobine On est la trace du temps, on s'aime et on s'auto-détruit Les deux mains vers le ciel, que le quartier soit bénit Je suis le voisin d'un tas de communauté, le neveu ou l'oncle La tasse de café, la boîte d'Efferalgan, les nerfs qui montent La calvitie à la vingtaine, le partage La larme qui coule, l'engin à deux roues, les sous, le copinage Je suis le dos cassé au chantier, j'fais pas c'que j'veux mais bon Ça me permet de consommer, d'exister Je suis le taxiphone, la nouvelle du bled, le paquetage La queue d'la poste à Saint-Louis, la CAF et le pointage Je suis le BAC et le BAFA alors qu'mes frères font carnage Je suis le couple divorcé après quatorze ans de mariage Je suis le temps qui passe et le vent du passé Je suis le block, je suis l'époque, je suis le block, je suis l'époque Je suis le quartier, j'rappe la proximité Je suis le quartier, je suis le quartier Je suis le quartier, j'rappe la proximité Je suis le quartier, à qui j'dois l'prouver ? Je suis l'footballeur le mieux payé au monde Mon accent s'invite à table quand le roi d'Espagne commente mon jeu de jambe Je suis ceux qu'ont la foi, ceux qui l'ont moins Mon R.M.I., j'le joue sur le cheval 15, accoudé au comptoir Moi je suis le gérant d'un réseau, j'vends Alzheimer sous cellophane J'mets ma famille en danger, j'ai mal mais j'ai la dalle Je suis le soldat français envoyé en Côte d'Ivoire Je suis le regard de mon fils qui vient me voir au parloir Je suis le sourire du marchand avec les dents éclatées Je suis la joie du bon vivant, je suis le bus blindé Je suis le temps qui passe et le vent du passé Je suis le block, je suis l'époque, je suis le block, je suis l'époque Je suis le quartier, j'rappe la proximité Je suis le quartier, je suis le quartier Je suis le quartier, j'rappe la proximité Je suis le quartier, à qui j'dois l'prouver ? Entre le sort, la mort, et l'économie La réussite, les homicides, et l'hémoglobine On est la trace du temps, on s'aime et on s'auto-détruit Les deux mains vers le ciel, que le quartier soit bénit Entre le sort, la mort, et l'économie La réussite, les homicides, et l'hémoglobine On est la trace du temps, on s'aime et on s'auto-détruit Les deux mains vers le ciel, que le quartier soit bénit Dans mes chansons, j'préfère mettre en valeur ceux qu'on oublie Au lieu d'souligner les grandes lignes que les médias écrivent Je suis le quartier I do it for the hood, I do it for the streets I do it for the hood, I do it for the streets I do it for the hood, I do it for the streets I do it for the hood-for the hood-for the hood1</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Je tourne</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Oh là là, Shaz Et je tourne Et je tourne, tourne, tourne autour du globe Mais j'reviens dans le bloc, mais j'reviens dans le bloc Et j'en ai vu partir à tour, à tour, à tour de rôle J'regrette la bonne époque, j'regrette la bonne époque Les souvenirs, les photos, l'alim', ouais, c'est tout ce qu'il nous reste C'est tout ce qu'il nous reste, c'est tout ce qu'il nous reste Et on tourne, tourn, tourne, tourne, tourne autour du glob On revient dans le bloc, on revient dans le bloc Lunettes Cartier, poto, moi j'ai tout vu venir La résine, les petits gantés dans la voiture Ça reste au tieks, ça court plus derrière le bus Ça gère le hazi sur place, maman pleure, ça nous rend matures On rend les coups C'est soit ça soit on devient fous Y a que sous vodka-Red' qu'on oublie tout Tous dans la merde, on va mieux quand on fait des sous Les allers-retours en 'son, si t'es recherché, tu pars au bled Les civils qui font leurs rondes même quand y a R, ils gâchent la fête La voisine du deux veut bouger mais partout j'crois qu'c'est la même J'ai pas fait le tour du monde mais je sais très bien qui nous aime Et je tourne, tourne, tourne autour du globe Mais j'reviens dans le bloc, mais j'reviens dans le bloc Et j'en ai vu partir à tour, à tour, à tour de rôle J'regrette la bonne époque, j'regrette la bonne époque Les souvenirs, les photos, l'alim', ouais, c'est tout ce qu'il nous reste C'est tout ce qu'il nous reste, c'est tout ce qu'il nous reste Et on tourne, tourne, tourne, tourne, tourne autour du globe On revient dans le bloc, on revient dans le bloc Eh, voir un autre paysage, mettre un arrêt sur image S'arracher même sans bagages, l'ennemi est chargé Mais on a peur du décollage, on connaît qu'un seul entourage La rue et ses lois trop sauvages, ça pue le danger Le quartier, c'est le repaire et on gamberge La vue sur la mer, la fumée vers l'ciel Calés dans le Golf 7R, c'est la vie qu'on mène Pour qu'ça parte en guerre, il suffit d'une étincelle Le foot, la musique ont sauvé tarpin de gens de la hess J'te jure frérot Il manque trop de potos sur la photo d'classe J'ai beau mettre Versace ou Hermès, je reste le même Comorien Et je tourne Et je tourne, tourne, tourne autour du globe Mais j'reviens dans le bloc, mais j'reviens dans le bloc Et j'en ai vu partir à tour, à tour, à tour de rôle J'regrette la bonne époque, j'regrette la bonne époque Les souvenirs, les photos, l'alim', ouais, c'est tout ce qu'il nous reste C'est tout ce qu'il nous reste, c'est tout ce qu'il nous reste Et on tourne, tourne, tourne, tourne, tourne autour du globe On revient dans le bloc, on revient dans le bloc</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>J’fais avec</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Ma mère me prend la tête, jcrois quelle ne me comprend pas Jpense que cest normal, tant pis jfais avec Les politiques parlent de nous mais ils nous connaissent pas Ptêtre que cest normal, tant pis jfais avec Tant pis jfais avec, tant pis jfais avec x3 Et si tes pas daccord, tant pis fais avec Les potos veulent souvent sortir, moi jdois travailler Ma copine veut que jlécoute, jsuis même pas réveillé Les condés marrêtent, jai rien fait Mon fils veut des câlins alors que jsuis en tournée Ma prof voulait de bonnes notes, rapper sur de belles notes Mon cousin du bled rêve de France, il croit que jai un yacht Le quartier veut sévader mais les portes sont fermées Ya cette villa à la Ciotat, jdois vendre plus de CDs Cest vrai ! Ah, cest comme ça, la vie est ainsi faite Ah, jcomprends pas, cest dans ma tête Ah, mais pourquoi ? Je vie avec Ah, laissez-moi Jvoulais partir tous les étés, je nai eu que du bitume Tu veux que jte rende service, mais lOM a pris un but Sarkozy a dit Kärcher, jpense pas être une pourriture Tu dis qutu roules en Hummer, jtai croisé à larrêt dbus On veut tous être millionnaires, on sréveille tous à 15 heures Les jeunes envoient des S.O.S., ils reçoivent que des bras dhonneur Mais tant pis on fait avec, jai des idées plein la tête Vaut mieux pas que tu marrêtes, fais un vu ou fais avec Ah, cest comme ça, faut qutu lacceptes Ah, jcomprends pas, nan, tprends pas la tête Ah, mais pourquoi ? On vie avec Ah, laissez-moi x2 Toujours la même scène, quand jsuis au téléphone Elle veut qujlui dise Je taime, mais jsuis avec mes potes Les tweets, les commentaires, ça la rend folle Elle me dit Cest qui elle ?, elle veut connaître mes codes x21</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>J’kiffe ma life</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Y'a rien a faire jai pas sommeil alors je zone la night Dis ce que tu veux je men bats les reins moi je kiffe ma life Tu as les nerfs je te calcule pas pourquoi tu te rends malade Dis ce que tu veux je men bats les reins moi je kiffe ma life Jkiffe ma life, jai quelques problèmes, mais je kiffe ma life Le plein et je décolle, jsuis daron et je suis encore dans la déconne Tu as la boco, moonwalk à la Michael Je fais la course avec Lewis Hamilton Même de nos pires malheurs on en rigole Allez vient on se dit tout quon en rigole On sort, on va se finir au jaune, ça peut se finir au geôle Jinvestis dans le pétrole, pactole, grosse folle, jai mal Je me sens bien, je zone, je menvole Y'a rien a faire jai pas sommeil alors je zone la night Dis ce que tu veux je men bats les reins moi je kiffe ma life Tu as les nerfs je te calcule pas pourquoi tu te rends malade Dis ce que tu veux je men bats les reins moi je kiffe ma life Avec le temps on prend de la bouteille Avec de largent on prend des bouteilles Quand je me parfume je mets du oud Tous ça pour rien, je reste dans le hood Calé dans le Sud Je pique une tête puis je vais au studio Il y a des chica dans la Abarth Tu la veux mais tas pas dappart Ça parle de tout, ça parle de rien Ça te fait du mal, ça me fait du bien On rêve de sous, rêve de millions On fête ça sous Dom Pérignon Nous rend pas fou, tes qui toi Viens boire un coup assied toi Jsuis léwé depuis en fait Et oui je fais la fête en fait Y'a rien a faire jai pas sommeil alors je zone la night Dis ce que tu veux je men bats les reins moi je kiffe ma life Tu as les nerfs je te calcule pas pourquoi tu te rends malade Dis ce que tu veux je men bats les reins moi je kiffe ma life Yeah On dort pas on se balade On croise des petits bénés La favela cest dur mais jusquici tout va bene Et allez vient on sarrache le quartier on le connaît Laisse-nous loin des problèmes on sait ou ça peut nous mener On dort pas on se balade On croise des petits bénés La favela cest dur mais jusquici tout va bene Et allez vient on sarrache le quartier on le connaît Laisse-nous loin des problèmes on sait ou ça peut nous mener Y'a rien a faire jai pas sommeil alors je zone la night Dis ce que tu veux je men bats les reins moi je kiffe ma life Tu as les nerfs je te calcule pas pourquoi tu te rends malade Dis ce que tu veux je men bats les reins moi je kiffe ma life</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Jupiter</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Salut amis Terriens Je vous parle depuis Jupiter Jupiter est une planète géante Il sagit de la plus grosse planète du système solaire Plus volumineuse et massive que toutes les autres planètes réunies LOL MDR LOL MDR XPTDR Ratatata dans les chicos des bolosses Je bricole pas mais jai pas mal de matos Si tu survis jtécrase avec mon gamos La guerre peut coûter cher, la prière cest gratos Samboussas, goula goulas dans le salon Fais fumer ça voura voura sur le pilon Ça fait rentrer plein de litrons, jai le filon Le bras long, les dents longues, sur Terre nous allons Découpe le savon, que je serve le charbon Dans le sac le canon, jsuis un mauvais garçon Le bout en python, la tête dans le guidon Jachète plus Louis Vuitton, je mhabille sur Pluton Le rap jvais le tuer, faudra menfermer Si tu veux quil renaisse bah faudra macquitter Tu me vois sur réseaux sociaux, tu crois que jsuis ton pote Je broie du noir comme Kunta Kinté Je suis affûté, nique les députés Jpréfère écouter mes aînés réputés On est dans le bar à parler de rrain-te De quinté, tu as misé sur lcheval amputé Légendaire comme Zinédine, le coach à Ramos Paranoïaque même quand je mange mon tacos Jrentre dans ton quartier comme les civs au manos Me fais pas la bise, je côtoie pas les balances Tu sais que la pitié ne fait pas manger Sinon lAfrique souffrirait dobésité Jai fait le tour du monde, où est lhumanité ? Liberté, égalité, nah cest tout pété Balade en quad dans les rues de Mexico Une chica me dis vamos Alonzito Jlui réponds que jsuis pas là pour la coco Couleur pépito, poto c'était l'intro Eh, tu me cherches jsuis à Saint Antoine Eh, si tu me cherches jsuis à Saint Antoine Eh, tu me cherches jsuis à Saint Antoine Eh, pourquoi tu me cherches ? Ratatata dans les chicos des bolosses Je bricole pas mais jai pas mal de matos Si tu survis jtécrase avec mon gamos La guerre peut coûter cher, la prière cest gratos Samboussas, goula goulas dans le salon Fais fumer ça voura voura sur le pilon Ça fait rentrer plein de litrons jai le filon Le bras long, les dents longues, sur Terre nous allons LOL MDR LOL MDR XPTDR3</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>K-2000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Alonz', Alonz', c'est Alonz' Direct, j'cabre droit Gros cube, j'kiffe grave Shit, coke, flics, shtar SPIP, proc', deal, braque Vite chauffe, la scène saute, saute J'kicke sale J'roule, vroum vroum vroum Pirate, khabat Grosse chaine, couilles en or Ennemi, tous tes morts Chef d'équipe, poches pleines Victime, quelle époque Frappe, frappe, frappe, j'tire Oh, j'vise pas les côtes Fais le zgeg, j'fais les loves Où j'habite, c'est Bagdad Tu me parles doucement, je te parle doucement Tu veux prendre mon business, j'vais te prendre ton business Tu veux insulter les mères, ouais, on va insulter les mères On a commis le pire pour pouvoir s'en tirer Tirer, tirer, tirer, tirer, tirer, tirer, tirer, vaillants Tirer, tirer, tirer, tirer, tirer, tirer, tirer, tirer vaillants Direct, j'cabre droit Gros cube, j'kiffe grave Brune, blonde, fraiche, bombe Hnine, gym', hein, squats RS3, SPIP Night, fight à la zbat Viens, viens, viens Viens, viens, viens Auto, gros tu vas fuir sous crack Caractère, nique ta mère Va t'falloir l'accord parental Plus de 20 ans qu'ils sont là Miskine, ils sont toujours pas rentables Tous à Luynes, 3ami PGP ça reste en contact Y'a des perm', des mois fermes Où j'habite, c'est Bagdad Tu me parles doucement, je te parle doucement Tu veux prendre mon business, j'vais te prendre ton business Tu veux insulter les mères, ouais, on va insulter les mères On a commis le pire pour pouvoir s'en tirer Tirer, tirer, tirer, tirer, tirer, tirer, tirer, vaillants Tirer, tirer, tirer, tirer, tirer, tirer, tirer, tirer vaillants Tu me parles doucement, je te parle doucement Tu veux prendre mon business, j'vais te prendre ton business Tu veux insulter les mères, ouais, on va insulter les mères On a commis le pire pour pouvoir s'en tirer Tirer, tirer, tirer, tirer, tirer, tirer, tirer, vaillants Tirer, tirer, tirer, tirer, tirer, tirer, tirer, tirer vaillants Tu m'parles de quoi ? J'm'en fous d'ta vie Tu es dans ma zone là, tu as pas d'amis Fais pas le zindre, tout l'monde s'en fiche J'suis pas un âne, je t'ai vu v'nir Où sont les hommes ? Où sont les hommes ? Où sont les hommes ? Où sont les hommes ? Sur la daronne, Sur la daronne Que j'vais rev'nir, Que j'vais rev'nir Que des manières, ils font les fiers Et quand j'arrive, ça m'appelle frère Tirer, tirer, tirer, tirer, tirer, tirer, tirer, tirer vaillants Tirer, tirer, tirer, tirer, tirer, tirer, tirer, tirer vaillants</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Kurt Cobain</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>J'arrive L.I.L., j'baise le game J'traverse les époques, j'suis un alien, Kurt Cobain J'suis le quartier en plein MMA Khey, sans gêne, viens pas nous faire tes prises de MMA Là, non, bang bang, dix ans ferme, ça ressort, toujours la main ferme sur le pistolet Le cur déchiré, y'a que mama pour nous le rafistoler Y'a les tours, y'a le four, de nos vies qu'est-ce que tu connais ? Y'a le shour, y'a le ftour, j'ai enterré tous mes billets On est dans la zone, l'ami On s'retrouve à la ligne Kho, défauche moi une slim Que je fume, tout c'qui m'chagrine Le jaune dans les veines en jaune L'hiver il gèle le jeune, veut le GLE On est ce genre de gens qui ont la haine en eux Si j'fume, c'est qu'j'n'arrive pas à dormir Mais j'n'oublie pas que le bon Dieu voit tout C'qu'il faut retenir, et bien c'est qu'pour s'en sortir Il faut compter qu'sur ses couilles et ses atouts J'suis avec mes frérots On kiffe, on tise, j'empile les mégots Ta team n'existe pas J'suis avec mes frérots On kiffe, on tise, j'empile les mégots Attends c'était la dèche, la dèche, la dèche On m'disait d'garder la pêche, la pêche, la pêche Explosee sans vendre la mèche, la mèche, la mèche Tu m'as fait deux trois actions, me3lich, me3lich Maintenant, tu lèches, tu sais où j'crèches Dis pas qu'tu m'cherches, j'ai pas le temps J'ai fait cinq moina, des millions, des millions d'gadjis Mais je n'ai confiance qu'à ma mwanamshe On a tous des sales ganaches, on fait que s'allumer Le soleil nous assomme et le soir on devient mal lunés Je n'ai rien d'une star, je veux juste ma part Souris au radar, j'aurais mis plein phares J'aime les sous, ai-je tort ? Donc de Dieu ai-je peur ? Devant moi c'est un porc, où est l'inspecteur ? Si j'fume, c'est qu'j'n'arrive pas à dormir Mais j'n'oublie pas que le bon Dieu voit tout C'qu'il faut retenir, et bien c'est qu'pour s'en sortir Il faut compter qu'sur ses couilles et ses atouts J'suis avec mes frérots On kiffe, on tise, j'empile les mégots Ta team n'existe pas J'suis avec mes frérots On kiffe, on tise, j'empile les mégots Ta team n'existe pas Mais j'n'oublie pas que le bon Dieu voit tout Il faut compter qu'sur ses couilles et ses atouts</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Là-Bas</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>x2 Oh oh oh oh oh ! Oh oh oh oh oh ! Yeah, jai besoin de partir, besoin de faire le vide Quitter le béton à la recherche despace libre Perdre lhabitude de ces routes embouteillées Laisse-moi menvoler avant mes premières rides Peut-être que là-bas lespoir pousse encore Car ici on ne fait que sapitoyer sur son sort Papa vaut de lor, mama tu vaux le triple Ne me retiens pas, tes mes yeux, tes mon guide Jai le cur lourd, ici jai fait le tour On me dit qulà-bas la misère promène en short court Ici les hommes se prennent pour des divinités Là-bas jai comme une impression quon peut cohabiter Quoi quon en dise, ya trop de vices Ici le système nous transforme en chiffres Surement que là-bas je mautoriserai à rêver Parait-il que les cigales chantent du Bob Marley, mamé... Oh oh oh oh oh ! Oh oh oh oh oh ! Besoin de changer dair pour être vivant Oh oh oh oh oh ! Oh oh oh oh oh ! Là-bas peut-être que lair est différent Ici cest dead, là-bas peut-être Là-bas je marcherais pieds nus, on mjugera pour ce que je suis, tu sais Là-bas cest Desert Land Debout au lever du soleil pour ne pas vivre à moitié ça vie, tu sais Si je pars, jamais jrentre Ici le ciel est gris, les couples ne tiennent pas Ici les main-courantes défilent au commissariat Là-bas cest loin, on mdit quand on te donne on nattend rien Ici on partage plus que nos joints, ici cest stone hein Ici la boite aux lettres te rend dépressive Jai entendu dire que là-bas lair est pur, lesprit est positif Laisse-moi partir que je kiffe, là-bas de lautre côté dla rive, où le respect existe encore Là-bas où on saime, à la vie, à la mort Là-bas où la foi fait quon soit tous en accord, ouais Jirai là où le vent memporte, loin de là ! Oh oh oh oh oh ! Oh oh oh oh oh ! Besoin de changer dair pour être vivant Oh oh oh oh oh ! Oh oh oh oh oh ! Là-bas peut-être que lair est différent Ici cest dead, là-bas peut-être Yeah, yeah Mais là-bas cest peut-être loin Et je ne sais pas si jaurais la force Ici je mennuie, Saïd je mennuie On ma dit Qui ne tente rien na rien Yeah, yeah, yeah Donc je me relève et je cours vers ma destinée Yeah, dis-leur ! Oh oh oh oh oh ! Oh oh oh oh oh ! Besoin de changer dair pour être vivant Oh oh oh oh oh ! Oh oh oh oh oh ! Là-bas peut-être que lair est différent Ici cest dead, là-bas peut-être</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>La belle vie</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>RS4, pas de plaque Ma gadji c'est une Bagdad Kalash sous le clic-clac... J'ai bu 4 packs La belle vie le 'zin La belle vie le 'zin La belle vie le 'zin On a bu 12 packs Roue avant sur le nez Cagoule noire sur le nez M'zigaland, tu connais Janjawid soudanais Et on s'en bat les couilles, on va à Maranello Le 'zin se marie, cheval cabré sur le capot On a les pneus neufs, on bombarde jusqu'à La Courneuve À 200 on sourit au flash, le permis vient des Comores Comme d'hab, j'm'en tape Bangué, meufs tankés, voilà comme d'hab On achète pas les 'zins avec dessous de table On encule pas les 'zins, recule ou on se tape La BAC vend du shit, les frères ouvrent des chichas Avec le bénef du shit, cherchent à devenir official P'tit bismillah pour mon fish, pour mon chiffre Je n'ai pas de compte en Suisse, tout est dans le mtsango de la Mama RS4, pas de plaque Ma gadji c'est une Bagdad Kalash sous le clic-clac... J'ai bu 4 packs La belle vie le 'zin La belle vie le 'zin La belle vie le 'zin On a bu 12 packs C'est la hass, je paga en espèce, rail de cess, here we go, bastos dans la fartas Dans la bouche, un chouch, sur la tête un chèche, A.L.O.N.Z, j'ai de la reprise comme un Countash Khabat, 2Pac, Malaga-Marseille go fast Tu paies pas... shottas, tu dis que c'est ta halal mais c'est une chaudasse C'est le choix de vie le 'zin... Un choix de vie le 'zin... Un choix de vie le 'zin... Un choix de vie le 'zin... Je me lève à 15 heures de l'aprèm, soirée passée crème sous Dom Pé' Encore ballonné, j'affronte les problèmes mains gantées J'fais que slalomer, j'baroude en Pack M j'suis chargé Pas l'temps de somnoler, sa mère la BLM wah RS4, pas de plaque Ma gadji c'est une Bagdad Kalash sous le clic-clac... J'ai bu 4 packs La belle vie le 'zin La belle vie le 'zin La belle vie le 'zin On a bu 12 packs Bats les pattes, j'ai le gilet pare-balles dans le bloc Au goulot Poliakov, ça bibi non-stop Coupe-gorge, Quartier Nord, la poule aux ufs d'or chie des lingots Chouf Anigo, tilte le bingo, hasta luego dans les Vosges Barbac, casque SHARK, polo Paul and Shark 'teille de Jack, soirée manjaque avec Yves et Jacques Polo black, jean black, Tod's black, chrome black Roof black, moto black, all black, tout est black RS4, pas de plaque Ma gadji c'est une Bagdad Kalash sous le clic-clac... Sers-moi du bissap La belle vie le 'zin La belle vie le 'zin La belle vie le 'zin On a bu 12 packs29</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>La C’té</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Wesh NJ Yeah, olah Ouoh, yeah, eh eh, yeah Numéro dix, capitaine numéro dix, capitaine Numéro dix, capitaine numéro dix, capitaine J'suis passé du Bois d'Argent au Gris Montaigne ouoh J'quitte pas mon bâtiment pour l'Avenue Montaigne J'quitte pas mon bâtiment pour l'Avenue Montaigne, on vend des dix balles, on sert comme Nadal Quatre et demi, debout sur le Pradel, l'engin fait dix balles, donc j'prends la cavale Déter' comme le fils de Sarah Connor, planter sur la lune, le drapeau des Comores J'ai mis mauvais mélange dans la Vittel, un joint du Népal mais je sens que dalle On a la qualité en quantité, arrêtez tout ça, c'est compliqué La mala, la moula, les m'bila, la boca, les boulards, la gow, là, c'est compliqué Kichta dans la sacoche Louis Vui' Louis Vi', fais un demi, on est suivis suivis La cagoule et neuf milli', ça bibi, sous du Chili, habibi, c'est la cité On arrive, on fait peur aux autres, on arrive, on fait peur aux autres J'vais t'avoir sans payer ta dot, tes manières, va les faire à d'autres Qu'est-ce qui t'faut ? On gère le hazi sur la côte Coup d'bigo, six du mat', ça tape à la porte Mucho dinero, mucho dinero La cité, waye, waye, waye La frappe d'Agüero, la frappe d'Agüero La cité, waye, waye, waye Le rêve est africain, on a percé, ça fait longtemps La c'té, waye, waye, waye J'arrive à balle, ouais, c'est la c'té, mes bangers font que t'engaciter Cheveux longs, crépus comme Offset, donne-moi RDV qu'on crève l'abcès Te pardonner, j'ai trop d'rancur, j'sais qu'tu recommenceras encore Cinquante-quatre sons dans le bunker, j'mange tout l'monde, mâchoire d'alligator Au bâtiment, des arrivants, fais ton temps, serre les dents En bas du bâtiment, ça vend légalement, salement, ça vend des calmants Ils veulent voir ma chute et ouais, c'est que des putes Je maintiens ma réput', je baisse pas mon fut' Y a que des délinquants, y a que des trafiquants dans mes rassemblements, ouais, c'est la c'té On arrive, on fait peur aux autres, on arrive, on fait peur aux autres J'vais t'avoir sans payer ta dot, tes manières, va les faire à d'autres Qu'est-ce qui t'faut ? On gère le hazi sur la côte Coup d'bigo, six du mat', ça tape à la porte Mucho dinero, mucho dinero La cité, waye, waye, waye La frappe d'Agüero, la frappe d'Agüero La cité, waye, waye, waye Le rêve est africain, on a percé, ça fait longtemps La c'té, waye, waye, waye On arrive, on fait peur aux autres, on arrive, on fait peur aux autres J'vais t'avoir sans payer ta dot, tes manières, va les faire à d'autres Qu'est-ce qui t'faut ? On gère le hazi sur la côte Coup d'bigo, six du mat', ça tape à la porte Mucho dinero, mucho dinero La cité, waye, waye, waye La frappe d'Agüero, la frappe d'Agüero La cité, waye, waye, waye Le rêve est africain, on a percé, ça fait longtemps La c'té, waye, waye, waye</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>La danse des guirris</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Costard, clope au bec, full au flop, tous à terre On me nomme Young Black, cash, star, populaire Et tu connais la gimmick, et nous on danse le guirri Cool, avoue qu'on l'mérite, on fait cadeau la gimmick Gangsta, et puis merde, faut les lovés, faut les faire Trop de swag, on débarque, lourd, quoi, c'est l'hiver Et tu connais la gimmick, et nous on danse le guirri Ah ! J'mérite un Grammy, original comme Weezy Aquaplanning, oh yes ! Lunettes Emmanuelle Khanh dans l'parking Retourne pas ta veste, même si t'es avec Kelly Tes amis vont te laisser en warnings Souris-moi j'flashe, j'vais t'aveugler Pourtant je sors pas d'un building Sur l'iPhone 4 t'as le logo des Psy 4 Je suis souvent rabat, j'compte mes sous sans machine Espèce de petit imbécile, c'est le game Paraît qu'tu rappes, mais excuse-moi What-what-what's your name? Je connais que Tyga, gars, ahahaha J'vous rafale de la boca, ah rah-ta-ta-ta Dis-leur ! Costard, clope au bec, full au flop, tous à terre On me nomme Young Black, cash, star, populaire Et tu connais la gimmick, et nous on danse le guirri Cool, avoue qu'on l'mérite, on fait cadeau la gimmick Gangsta, et puis merde, faut les lovés, faut les faire Trop de swag, on débarque, lourd, quoi, c'est l'hiver Et tu connais la gimmick, et nous on danse le guirri Ah ! J'mérite un Grammy, original comme Weezy Hôpitaux, guerre, gang, politique Kate et William's font rêver le Monde On veut plus que des jantes On va leur prendre plus que c'qui nous revient avant de s'rendre J'suis au développé-couché à la pesée J'ai le poids du quartier, je ne sais que chanter Je suis aimé, je suis touché, c'est chacun son vice Et moi j'risque de me faire buter par un fanatique Blah ! J'suis une machine dans le game John Lennon a ressuscité, criez tous Amen Je connais que Tyga, gars, ahahaha J'vous rafale de la boca, ah rah-ta-ta-ta Dis-leur ! Costard, clope au bec, full au flop, tous à terre On me nomme Young Black, cash, star, populaire Et tu connais la gimmick, et nous on danse le guirri Cool, avoue qu'on l'mérite, on fait cadeau la gimmick Gangsta, et puis merde, faut les lovés, faut les faire Trop de swag, on débarque, lourd, quoi, c'est l'hiver Et tu connais la gimmick, et nous on danse le guirri Ah ! J'mérite un Grammy, original comme Weezy Original comme Daddy, original comme Jay-Z Comme Abidal j'suis guéri, dans mes amygdales j'ai des fusils Bats les couilles de Katy Perry, chez nous on danse le guirri J'te jure sur mon fils Kili', j'ai pas vu venir les civils Trop, clope au bec, full au flop, sers un verre On me nomme Young Black, cash, star, partenaire Les cross ont les roues en l'air, Marseille c'est devenu Palerme Quartiers chauds, quartiers fiers, personne veut manger des pierres Ici c'est le bled, famille nombreuse, y'a que ton frère pour sauver ta peine Toi tu veux faire hagar, ah, ahahahah J'te rafale de la boca, ah rah-ta-ta-ta Dis-leur ! Costard, clope au bec, full au flop, tous à terre On me nomme Young Black, cash, star, populaire Et tu connais la gimmick, et nous on danse le guirri Cool, avoue qu'on l'mérite, on fait cadeau la gimmick Gangsta, et puis merde, faut les lovés, faut les faire Trop de swag, on débarque, lourd, quoi, c'est l'hiver Et tu connais la gimmick, et nous on danse le guirri Ah ! J'mérite un Grammy, original comme Weezy</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>LA GRANDE FÊTE</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>HuFel on the beat S-S-Skillano got the vibe, bitch Un choix de vie c'est c'qui nous lie Le centre-ville, les quartiers Sud Les quartiers Nord, ça c'est la vraie zone Ça c'est la maison, ouais, c'est ma ville On a la classe, tu l'vois pas, tu bigles, aucune marque apparente, c'est l'vrai jeu Ressers un verre que j'me vide, on s'nique la tête, insha'Allah qu'on vit vieux J'ai mis les Medusa à Biggie, ta gadji me piste comme un vigil 'teille d'vodka, Cîroc fraise de GG, j'envoie des passes de funk à la Gigi Wesh mon pote, on s'en tape Ouais, constate Ouais, j'suis dans l'quartier Beuh dans l'bac, ça détaille Ouais, la critical Breh, c'est bestial Ouh On arrive en 4-4-2 Ouais, le visio nous demande pas d'QR Code sur l'bigo J'vais leur faire des showcases en visio, récupère le bénéf' en crypto' Breh, breh Khapta, j'me fais câliner, des p'tits suçons d'qualité J'me rappelle de la hess, sous vo'-vo', Cristalline Ouais Khapta, j'me fais câliner, ai-je besoin d'sortir calibré ? Non J'me rappelle Oui de la hess Oui, posé devant l'alim' Oui, oui, oui Tellement en fumette, je vois que sa silhouette Ouais Ce soir, j'suis à l'Ouest, je suis à Bebel Oued J'démarre la Tesla sur du Alabina Vroum-vroum Sain, j'aime trop sa peau mate Quoi ?, foncée comme Vaiana Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Prends ma main, non, reste pas seule, ils ont du produit plein le nez Mehlich, t'as perdu ton sac, tout s'rachète, tu vas michtonner 3.5.7 3.5.7, minuit cinquante-sept Minuit cinquante-sept Je vends la A7 Je vends la A7, c'est pas la jetset C'est pas la jetset Que des moscovites Eh, chacal noir, que des gros gadgets Que des gros gadgets C'est l'époque COVID Ouais, masque noir, vas-y, cache ta tête Yeah Ça s'arrête pas d'mitonner Dis-leur quand l'condé nous questionna Dis-leur J'arrête pas de guidonner Quoi ?, j'vois plus l'heure sur la Daytona Quoi ? Ça porte l'il, je vais cartonner, hess, hess, j'suis en Christian D J'ai plein d'espèce jaune et violet, tu veux me tester, j'vais rigoler Khapta, j'me fais câliner, des p'tits suçons d'qualité Ouais J'me rappelle de la hess, sous vo'-vo', Cristalline Khapta, j'me fais câliner, ai-je besoin d'sortir calibré ? Non J'me rappelle Oui de la hess Oui, posé devant l'alim' Oui, oui, oui Tellement en fumette, je vois que sa silhouette Ouais Ce soir, j'suis à l'Ouest, je suis à Bebel Oued J'démarre la Tesla sur du Alabina Vroum-vroum Sain, j'aime trop sa peau mate Quoi ?, foncée comme Vaiana Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Rah, rah Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Rah, rah Prends ma main, non, reste pas seule, ils ont du produit plein le nez Oui Mehlich, t'as perdu ton sac, tout s'rachète, tu vas michtonner Tellement en fumette, je vois que sa silhouette Ce soir, j'suis à l'Ouest, je suis à Bebel Oued J'démarre la Tesla sur du Alabina Sain, j'aime trop sa peau mate, foncée comme Vaiana Mamé Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Si t'entends deux-trois rafales, c'est qu'c'est l'heure de s'faire cavaler Prends ma main, non, reste pas seule</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>La guerre</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>30 millions dennemis, je men plains pas 30 millions dillets-bi, je refuse pas Attention je décolle, lamour cest la vie Vivent les Kennedy et lécole Tu mpousses à la faute, jvais faire une dinguerie Insulte la daronne, touche à la famille On fait la guerre, on fait la guerre, on fait la guerre On fait la guerre, on fait la guerre, on fait la guerre One, two, trois rafales, et un billet pour le bled WAllah, wAllah ils nous craignent, fidèle est la clientèle On mécoute aux DOM-TOM, jbrille, jsuis au Sofitel Accroche-toi au Teum-Teum, jgrille les feux sur Marseille Mon pote jsuis âgé, jvais pas membrouiller Jentends que tu cognes, jvais te kalasher Crois-moi, jte monte en lair, tu vas rien faire La tête dmon père, jprends dix ans ferme Tu mpousses à la faute, jvais t'faire une dinguerie Insulte la daronne, touche à la famille On fait la guerre, on fait la guerre, on fait la guerre On fait la guerre, on fait la guerre, on fait la guerre One, two, trois rafales, et un billet pour le bled WAllah, wAllah ils nous craignent, fidèle est la clientèle Parcque on fait la guerre, on fait la guerre, on fait la guerre On fait la guerre, on fait la guerre, on fait la guerre Frère jai pas fumé de canna, juste siroté une piña colada Tu fais le gros, tu fais le gros, la Kala va tfaire danser la lambada Jtai vu dans lclub avec pas un dinero, tes sur la défensive comme un libéro Fais pas le chaud, fais pas le chaud, plus tard mes fils te tueront comme Pequeño Jreçois mes chèques dla SACEM dans le bando, Maman me dit sors jamais sans faire le woudhou La famille attend mes disques de roro, sache que le sang deviendra jamais de l'eau Jte monte en lair, tu vas rien faire La tête dmon père, jprends dix ans ferme Tu mpousses à la faute, jvais t'faire une dinguerie Insulte la daronne, touche à la famille On fait la guerre, on fait la guerre, on fait la guerre On fait la guerre, on fait la guerre, on fait la guerre One, two, trois rafales, et un billet pour le bled WAllah, wAllah ils nous craignent, fidèle est la clientèle Parcque on fait la guerre, on fait la guerre, on fait la guerre On fait la guerre, on fait la guerre, on fait la guerre Comment distinguer le faux du vrai ? Je doute de toi comme ton Versace Pourtant on dit lil ne trompe jamais, mais tu me parles avec tes Oakley Comment tas reçu mon morceau Finis-les, même ta coco nous a validés Mais comment vas-tu rivaliser ? Casse-toi dlà jte fais des trous Casse-toi dlà jte fais des trous Jte fais des trous Casse-toi dlà jte fais des trous</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>La paix n’a pas de prix</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Nazo senga yo, yo, oh oh ah, Nzambé hi Je suis fatigué La paix n'a pas de prix et pourtant jattends la note Je veux être libre avec ou sans les menottes Au fond j'emmerde le monde seulement j'fais d'l'argent propre J'vais te chanter la vie même avec des fausses notes J'suis devenu père, peut-être avant l'heure Aujourd'hui je me paye des Rolex car le temps c'est de l'or Et les gens disent Kassim il a changé Ouais j'ai rangé toute cette fierté qui alourdissait mon cur La paix n'a pas de prix pourtant j'ai de quoi l'acheter J'ai envie de me cacher, plus jamais me lever fâché Ici ça va vite comme Ayrton Senna, assassinat, quinquennat, sistannat, on connais le cénar', c'est le capo Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne son prix je vais lui acheter Avant na kufa, Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne un prix je vais lui racheter Si je fais la mala c'est que je n'ai pas l'esprit tranquille Si j'répond pas c'est que c'est le diable au bout du fil Faut faire des choix comme vouloir rester seul face à Freezer Ou se lever à quatre heures du mat' pour le seigneur, mec Quand ça allait mal pour m'en remettre J'étais sur le corner avec un pétard de six mètres Rêveur, j'avais rien à perdre donc pourquoi avoir peur J'ai grandi sans père j'veux pas commettre l'adultère Selon mes actions, selon ma raison Soit elle me quitte soit je quitte la maison J'ai décidé de construire qu'elle que soit la saison La paix n'a pas de prix, j'suis près pour Armageddon Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne son prix je vais lui acheter Avant na kufa, Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne un prix je vais lui racheter Ça en devient maladif, j'transmets des émotions Ils pensent me connaître depuis que je vends des chansons Y a que Dieu qui lis dans les cur, tu sais ma passion Je la vis depuis petit, man ça tue mon bon fond On a perdu des amis, douleurs profondes Parfois j'me demande pourquoi j'continus dans l'son 2054 fois j'ai fait le tour d'la question Et j'me remets à écrire man sur mes visions Alonz' Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne son prix je vais lui acheter Avant na kufa, Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne un prix je vais lui racheter Non, non, non, non, je suis fatigué d'être au combat Na lembi kobimissa makila No, no, no ouh, no, je suis fatigué d'être au combat Na lembi kobimissa makila Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne son prix je vais lui acheter Avant na kufa, Nzambé limbissa nga Na lembi kobimissa makila J'suis en guerre depuis beaucoup trop d'années Que la paix me donne un prix je vais lui racheter Oh Oh Ah1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>La Seleçao</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Ok Ah, ouh Volume 3, Capo Dei Capi J'suis en fumette dans la location, là j'accélère, elle a des sensations J'fais des délits, la beuh dans l'caleçon, et j'fais l'signe JuL en célébration Ne te mêle pas de nos conversations, au quartier, ça tombe pour association Pour braquer la SNEP, faire des rotations, y a pas qu'chez les schmitts, qu'y a des convocations Un peu d'vodka aux fruits de la passion, à deux doigts de faire sauter la caution Tout l'monde qui est hess quand j'suis à la station, y a mon disque d'or à l'alimentation okey Oh, j'entends les pim-pom, pim-pom, pim-pom Descente, ça prend des 20 ans, 20 ans, 20 ans Pour rien, ça sort le pe-pom, pe-pom, pe-pom Oh, j'vais lui mettre un plan, elle a des implants ok C'est la Seleção C'est la Seleção C'est la Seleção Tu reviens comme si de rien n'était mais où t'étais ? Mais où t'étais ? Et dire qu'avant d'percer, j'ai pensé à tout laisser à tout laisser Je traînais, la mama, pour moi, elle s'inquiétait elle s'inquiétait Maintenant, j'fais d'la 'sique, j'fais danser les chicas tout l'été tout l'été Je suis pas un héro, j'peux pas tout remettre à zéro ouais Déjà khapta avant l'apéro, avec les sanchos, les frérots ok Moi, j'ai des trucs à faire, ça m'emboucane à boire des verres ouh À l'ancienne, y avait R, gros, j'faisais mes p'tites affaires ah, ah, ah Oh, j'entends les pim-pom, pim-pom, pim-pom ok Descente, ça prend des 20 ans, 20 ans, 20 ans gamberge Pour rien, ça sort le pe-pom, pe-pom, pe-pom Oh, j'vais lui mettre un plan, elle a des implants C'est la Seleção C'est la Seleção C'est la Seleção On est à trois, c'est la Seleção et de toute façon, ils le savent On a fait la fus', on leur met des KO, obrigado, lá j'vous dis ciao On est à trois, là c'est mythique, on fait pas attention à tes p'tits piques Tu peux nous rah, rah, comme un p'tit pit, mais on te calcule pas, on est en gigitte Que elle fait la folle, elle m'fait la nia, allez, va danser le mia Elle a bien changé Cendrillon, elle est sous pétard, sangria ok Oh, j'entends les pim-pom, pim-pom, pim-pom ok Descente, ça prend des 20 ans, 20 ans, 20 ans Pour rien, ça sort le pe-pom, pe-pom, pe-pom Oh, j'vais lui mettre un plan, elle a des implants ok J'ai bu de la vodka, j'ai planté la loc' Pétard à la boca, parle à mon avocat J'ai bu de la vodka, j'ai planté la loc' Pétard à la boca, parle à mon avocat1</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>La vaillance</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Zavo Envoie la pelota que je fasse quelque jongles, mamé Depuis le temps que je communique Seul Dieu l'unique pourra me faire taire Je suis au rap ce que Ribéry est à Munich Tu me sous-estimes frère, tu temenik Pour les amnésiques je suis votre père C'est ewew Nouveau bolide je met du pétrole Je revient de Colombie, la caméra de Macari je l'ai bourré de coke 13015, je suis en Capo, en Pablo Mêle toi de ton cul même si je mythonne Nique sa mère les débris de vitres T'es nouveau dans le game vient voir je te débryde vite Mon pot c'est un akra Mon entrée c'est les accras Mes sapes c'est du lycra Tu me paga je le mérite Je colle plus de massa, ma femme n'aime pas ça J'ai la classe à Sosa tout comme Maness Soso Un carré d'as je ramasse le pot, un petit boussa T'as une dent qui pousse mal, t'es tombé sur plus costaud J'démarre le rap français au kick sans startère Demande à Kofs on va leur exploser le sphincter Comprends-tu l'argo ? J'pousse le ragout sans mettre la cagoule Bouge ton boule, un OVNI comme Jul Marseille la Nasa, la fusée, l'amnesia Notorious est mort mais on a Graya J'ai laissé pousser les cheveux comme Gilson le Caps Chaud comme en Jamaique les pochons bleus ça vient de Naps HLM en bord de mer mais on achète du YSL Ferme-la je suis en train d'écouter du YL Dans mes clips je suis toujours niquel Qui peut le nier ça ? Je suis un Comorien 2.0 comme Guirri Mafia Foumbouni mon clan, Souley pousse le son Si t'as des clé USB fais tourner aux arrivants De Luynes aux prisons de Nîmes Numbers pour le centre-ville J'ai beau aimé les strass je reste un fan de Mesrines Phénomène est le Ghetto Il habite à la Castellane le vrai Dadinho On roule avec des caisses du pays à SCH J'attends rien de personnes je tri car un jour où l'autre tous le monde s'arrachent Fais ton visa au consulat, c'est Hardcore Kalif ment pas Thabiti la khaw ou la rhawla On trahit pas La Coza sinon tu clams Ce soir le ciel est bleu marine comme le quartier de Elams Nous on aime trop nos mères, ne crache pas dans le riz, ni le couscous Tu zones dans la French Riviera, fais ton temps-plein comme Hooss WAllah chaque année c'est mon année On va se marrer sur le Jarret, sa écoute papé j'ai représenté Je viens des cités d'or comme S.Téban On a connu Bob Agne mamé La Psy4 De la Rime est là Ce groupe, ai-je besoin de l'présenter ? Pour toutes les régions, les tieksons Paix à toutes les communautés A.L.O.N.Z.O, Marseille4</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>La vengeance aux 2 visages II</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mama Mama Mama Hey, mama Désolé mama mais jai dû le tuer à la sortie dlautoroute Au volant de son destin il sest mis à prier, en espérant que dieu lécoute Il ma supplié, mais je lai fumé, désormais chacun sa route Il ma supplié, mais je les fumé, mama mets le dans la soute Tout lmonde en parle mais il tire en lair Combien ont les couilles en titane pour tenir le fer Je viens denlever une vie humaine Des ra-ta-ta-ta-tah dans labdomen Mama je ne tremble même pas Jfinirai surement dans le même cas Cocaïné dans le corps, chargé BRAAAA Jai le son qui raisonne Ici mama les mentalités sont dans un cul de sac Pour les règlements de compte on fait pas appel à la bac Cest le ghetto Cest le ghetto Les infos diffusent les fusillades et les grosses descentes dans les quartiers chauds On vit tous pareil depuis petits entassés dans des H.L.M Ya des écoliers, les gens droits et le business en interne Les sirènes, le système, la, la classe moyenne Largent ramène les problèmes, laisse, laisse Jtermine mama, les jeunes daujourdhui plus les mêmes que dans ton temps Les sentiments, le comportement sont plus les mêmes, cest réel Jvais finir au trou, dix ans dans la bouche Mama tas bien fait ton rôle de mère mais dehors cest la guerre ne me demande pas pourquoi ! Tu sais quy'a qule corps quon enterre Mon âme a été prise par dieu mise sous scellé Deux ans qutes enfermée, ta cellule jai hanté Mon visage sur les murs en poster Entre pote, moi pilote, toi co-pilote Jme souviens encore de la Hollande et les Coffee Shops Dans la merde, dans les moments djoie, tétais mon associé, rien à perdre Pourquoi tas fait ça, jcomprends pas, explique moi? Vous allez me rejoindre vous verrez Fils de pute jsuis dans la vallée de la mort, tes quun enculé, brûlez Toi et tous les mecs qui sont sur ce coup monté Jvais te hanter, te hanter langoisse va te démonter, entier Tous les jours qui viennent, toutes les semaines Chaque année ta peine, jvais la pourrir promis tauras dla compagnie Elle tappelait mon fils, ma mama, te tourne pas, regarde moi Jsuis pas le diable, hier jétais un homme ! Hier jétais un homme ! Mama Mama Mama Mama Deux amis, deux frères Tragique histoire liée par un pacte Est-ce une fiction ou une réalité ? Ces dernières années, beaucoup de jeunes nous ont quittés Emportés par les balles de Kalash Laissant derrière eux Le cur meurtri de familles inconsolables Et les pleurs de cette mère que rien ne pourra soulager Baissez les armes, cessez le feu Enormément de morts souillent les trottoirs de nos villes Une histoire banale pour les uns Une solution pour les autres Et un scoop qui salit les foyers coupables de la dérive de leurs enfants Baissez les armes, cessez le feu Enormément de morts souillent les trottoirs de nos villes2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>La ville</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mamé, eh Yeah Feuille blanche et j'me lance, j'parle de rue et j'ai le cur qui flanche Le Diable occupe toute la piste de danse, envoie la coca' dans la douce France Je rentre en zonz, j'ai tout à perdre ou p't-être que j'rattraperai mes prières Je vends aux enchères mes soucis d'hier, j'attends le pardon pour de jours meilleurs On vit l'Omerta, tous se taisent, pourtant, tout se sait, hélas, tout se tasse J'ai trouvé de l'or dans la merde et les Quartiers Nords en bord de mer Je sais pas quand on va tomber, je pense qu'à élever ma relève J'vais pas m'cacher derrière ma fierté, j'ai peur qu'un jour, elle me quitte comme never, never Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, ouais, c'est nous Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, c'est chez nous Yeah, cousine, appelle les renforts, les Huns veulent la Terre toute entière Y a du shour au fond d'la cafetière, la rue a racketté les rappeurs Eux et nous, aucun rapport, on est des hommes, touche la matière Fais d'argile, solides comme le fer, j'roule trop vite quand j'suis dans le fer quand j'suis dans le fer 6-6-6.3 aux portes de l'enfer, mieux vaut vite tomber les rapports, mieux vaut profiter des rappels On s'en sortira du hella-la-la, zone te reconnaîtra, on s'en sortira du hella-la-la, zone te reconnaîtra, Capo Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, ouais, c'est nous Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, c'est chez nous On entend des bruits qui courent mais ça n'ira pas bien loin, eh, eh, eh, eh, eh On est nombreux mais qui pourra nous barrer le chemin ? Eh, ah, ah On entend des bruits qui courent mais ça n'ira pas bien loin, eh, eh, eh, eh, eh Déterminer à rester le Capo sur le terrain, eh, ah, ah Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, ouais, c'est nous Un six coups, des gros sous, des illes-cou, sans gadoue Un six coups, des gros sous, des illes-cou, sans gadoue On pille la ville entière, ouais, c'est nous, ouais, c'est nous On pille la ville entière, ouais, c'est nous, c'est chez nous</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>La vraie vie</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Moi, quand je serai grand, j'aurai une belle voiture Avec une belle femme et plein d'enfants Lève-toi, lève-toi Tout petit on ne pensais pas au biz' On parlait de foot de voiture sans la tise Air max à l'Aïd Entrainés ensemble on descendait en ville à dix Rire, mourir On a vu le meilleur comme le pire Aujourd'hui, on est des hommes dieu merci Faut rendre fière mère lui ramener ta promise Frère je crois qu'il faut passer le next level Laisse tomber les tchoins tu sais ce qu'elles valent Je fais pas l'ancien j'ai le même âge que toi Faut provoquer son destin ta chance la laisse pas Au fond on attend tous son âme sur la fille bien Grandis parmi les durs l'amour nous fait du suspense Sois responsable, une vie stable t'en es capable Fais pas genre, tu l'aimes pas Épouse-la, épouse-la Épouse-la, épouse-la Faut te marier, faire des héritiers À ton âge tu n'as plus le temps pour faire joujou Aime-la Je l'ai vue respectueuse envers tes proches Elle sen moque de ce que tu as dans les poches Elle veut s'enfuir avec son homme Construire sa vie loin des hypocrites Oh mon ami prends-la dans tes bras Écoute-moi T'es son homme Personne te fera tomber de ton trône Si tu veux des enfants elle mettra au monde Ho mon ami j'suis content pour toi Tu vas lui mettre la bague au doigt Na na na na Épouse-la, épouse-la Épouse-la, épouse-la Faut te marier, faire des héritiers À ton âge tu n'as plus le temps pour faire joujou Aime-la Loue la belle caisse, loue la belle caisse Loue la belle caisse poto, loue la belle caisse Costume trois pièce, costume trois pièces Costume trois pièces vas-y prends ta princesse Loue la belle caisse, loue la belle caisse Loue la belle caisse poto, loue la belle caisse Aime-la Épouse-la, épouse-la Épouse-la, épouse-la Faut te marier, faire des héritiers À ton âge tu n'as plus le temps pour faire joujou Aime-la Oh, oh oh oh Oh, oh oh oh Oh oh oh, oh oh oh oh oh1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Le couz</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Eh yo, yo A.L.O.N.Z.O Laisse-moi le temps d'faire la bise à mes potos Blanc, noir, arabe ou gitano C'est les couz même dans le blues ou le K.O Wesh où sont les fraîches ? À Marrakech, à Dakar ou à Dache, wesh wesh Du cash, des polos Guess, peau de pêche Pourtant ça branche comme des apaches Qui sont les best ? Qui sort à blêche ? Chez nous on a pas besoin d'une lambo Countash Arrache son tissage, elle a les cheveux rêches C'est pas moi qui parle, c'est les couz qu'allument la mèche Wesh, wesh yo, on danse même dans les chiottes Y a L'Algérino, max à la quinte flush Hoche la tête pour rester Que du Jack sans Coca lemon C'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon Yo celle-là c'est pour les couz, c'est pour les cousins, c'est pour les couz, santé à tous Haut les mains c'est bow-wow-wow-yippie-yo-yippie-yay Sya Styles, monte le son j'ai les tympans abîmés Depuis 9.5 je rappe comme un chien sans entretien, j'mériterais un beau jubilé y a plus de lait, j'fume que du hasch Je joue mon Cote et Match, ça paye en espèces Celle-là c'est pour les couz, on est sans stress, boude Tu veux du hardcore ? Regarde ce qu'il y a dans nos gourdes fraiches C'est maintenant, c'est maintenant, c'est maintenant, levez-vous tous Profite qu'on soit tous ensembles et j'porte un toast pour tous les couz Content, de vous avoir rencontré, que Dieu préserve nos santés Qu'on dévalise les comptes de la Sacem avant nos 30 ans J'oublierai pas la base que nos genoux s'plissent Y a que ça qui nous donne de l'adhérence quand on glisse La famille y a que ça d'vrai donc gâchons pas tout Persévérons et tous les couz chanteront partout C'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon Yo celle-là c'est pour les couz, c'est pour les cousins, c'est pour les couz, santé à tous Ne m'pissez pas dessus en m'faisant croire qu'il pleut J'ai passé l'âge d'courir après l'bus moi Pass' passement de jambes à la Bakar, on s'arrache à la craque Ce soir on sort que si y a la fraîche Ruinart ou une demoiselle là, on est bien, on prend la quinte La plus grosse devant ton écran de cinéma C'est pour les anciens, des Sebago aux Prada Des seringues vides aux réseaux les plus pourragas Le ciel est gris, les nuages nempêcheront pas le soleil de briller Même par temps de pluie, la foie comme parapluie, la chance sous nos souliers On n'sait combien de temps on va tenir Mais on avance sans se retourner et sans oublier le passé C'est ce qui a fait ce qu'on est devenu aujourd'hui Des mecs en or envers les proches et la famille, on part en couilles, faut qu'on prie Fais des cauchemars est-ce un signe ou la guigne ? Satan nous fait des prix, les péchés sont gratuits C'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon, c'est Alon Yo celle-là c'est pour les couz, c'est pour les cousins, c'est pour les couz, santé à tous Putain mother fuck, ah ah ah ah Bande d'enfoirés, qu'est-ce que vous faites là ? Je vois que tout le monde a été invité ce soir AH non, A.L.O.N espèce d'enfoiré Tu as oublié qu'j'étais un couz enfoiré ? On est là, hein ? Alors là y a un petit barbecue à la maison en famille, hein ? Alors l'équipe, quoi de neuf ? Oh oui, oh oh oh putain j'vois qu'y a, ouh, de la fraîche Ce soir j'crois qu'ça va partir en couilles Les couz</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LE DOUBLÉ</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Nicolas Nicolas, Nicolas Plus rien n'm'étonne en vingt-deux, matrixé depuis l'landau Mieux vaut pas tirer l'rideau, Sheitan n'a plus besoin d'main d'uvre Leurs vies s'résument aux kilos écoulés et ça, en moins d'deux Autour des feux, capuché, en hiver, en bas de chez eux Va pas leur faire la morale, ils t'insulteront en chorale Fleury, trop de pierres tombales, pour ça qu'ça met des pare-balles Lété, ça vend des flocons, ls clients planent comme ds faucons Et ça caillasse la banal', ça fini au tribunal La gamberge dans le pilon, à la recherche d'un filon Et quand ça rappe, c'est violent, sur piano ou sur un violon Les yeux d'maman sont mouillés, son compte en banque est à sec Ça tient l'calibre, mains humides, d'vant les filles, on est timide J'traverse QN sur l'A7, je charbonne pour mon assiette S'il faut, j'prendrais les miettes pour composer ma recette J'ai rendu noir mes poumons, ils ont rendu noir ma vision J'débarque en France comme Rollo, tu m'aimes pas, faut pas m'follow Parait qu'j'ai une sale image, bats la race, je sais pour qui j'm'bats J'mérite un sale hommage, bats la race, le jour où je m'barre Le cerveau en cinquante-quatre, qu'un seul groupe, c'est les Psy4 J'ai navigué sur l'frégate, c'est froid comme à Kattegat Comme à Kattegat Depuis l'temps que j'suis d'dans, un géant, un titan Le ciseau avant la mi-temps, débutant, ouais, fous l'camp J'ai l'boucan, c'est choquant, ça d'vient inquiétant Évitons les dictons, les messes basses, c'est dégoûtant Y a que du piston, des fistons, résistant depuis l'temps, j'suis content Dans la Bugatti, Ducati, en Gucci, j'ai fait d'mon rêve mon métier Dedans, ça cantine, les tantines, ça tartine, ça vend de l'herbe la noche Dégainer la moto Akrapo', pour l'Yoto, c'est ghetto Mon ami, j'ai dégainé les shoes en croco' Ces michtos, pas d'pipo, pas d'putos sur la photo Puta Tu sais, mamé Le contraire de la pauvreté n'est pas la richesse, eh-eh Le contraire de la pauvreté, c'est la justice, gamberge Reh Les schmitts éclairent à la McLight Poh, quinze piges que j'ai pas vu de fight Poh 6.6.6, frère, faudrait qu'on taille, la concu', de-spee, j'bois à la paille Reh J'ai vu ces fils de s'la raconter Reh pendant qu'j'étais focus à recompter Poh En finale, bésif, j'prends le trophée Poh, vaginal, la go, j'l'ai essoufflé Reh J'suis en Ligue 1, tu es en CFA Reh, tu es une arna' comme franc CFA Poh, poh, poh Faut de suite appeler le CSA, j'm'arrache en 45 CLA Reh J'ai touché 2K sur Unibet Brr, j'ai pas encaissé, oh que j'suis bête Brr Je pense qu'à rapper, couper des têtes, à faire des culs secs dans le Q7 Poh À faire des culs secs dans le Q7 Poh, poh, j'ai sorti l'bolide sans garantie Brr C'est que du matériel pour les pucelles, détaille, elle s'tire sur le XXL Danse la samba face au AK K, Comorien nouveau, nous on rate pas Pas T'envoies des piques, nous on cala pas Pas, chasse à l'homme partout, bra-bra-brah Eh-eh-eh Vous êtes pas contents ? Doublé Me parlez pas d'âge, wAllah Breh1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Le fruit de l’époque</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>-Mon frère, tu vas dire quoi aux nôtres ? -Eh on est le fruit d'cette époque, rien d'spec' Pour les nègres des blocs, on est les fruits d'l'époque -Tu le sais -Le clan des nôtres, FF, Psykatra -N'est qu'le fruit d'l'époque -S.A.T, Alonzo -Ouais c'est c'la mec, ouais c'est c'la même -Dis leur, crache tout C'est pour les frangins, frangines et autres fruits d'l'époque On n'est qu'le fruit d'ces murs en ruines, d'ces rues, d'ces blocs Sache qu'on hausse le ton pour ces quartiers sonorisés qui n'entendent rien d'lextérieur donc pour lÉtat c'est la risée C'est pour les frangins, frangines et autres fruits d'l'époque On n'est qu'le fruit d'ces murs en ruines, d'ces rues, d'ces blocs Sache qu'on quittera tous un jour c'monde avec nos seuls vécus comme bagage Mort sans laisser de trace comme un tueur à gage On va tous finir par te dire comment on finira, enflure Nous sommes de ceux qui finiront sur l'arbre où tombent les fruits trop murs J'en sais trop pour mon âge, faut qu'j'braille avant qu'm'étouffe la vérité J'en sais trop pour qu'la rage ne soit l'odeur d'mes rêves prémédités Appelle le comité, Sat pour les langues qui se déchirent A force que ça reste dans la gorge, j'ai l'cancer qui me sniffe Les putes d'antécédents, c'est en ce moment qu'on perd ses dents On danse avec la chance, le C4 couche là sur le divan Eh les gouvernants, on en veut plus de votre os Surtout quand vos poulets viendront prendre leurs biens avec une main sur une crosse La vie un long cross, on court le diable et l'ange pour une grosse Marche sur un gosse croyant qu'les cains-ri back on les froisse On était tout seul considéré comme une génération perdue C'que beaucoup aimerait voir au fond ou abattus Tu vois l'genre d'individus, de drôles de personnage qu'ils admirent Partis de rien sur l'pied de guerre et tous dressés face à l'avenir Merde, on est qu'le fruit d'notre époque et d'ces sales coins laissés à l'abandon Où près d'un jeune sur deux redoute d'avoir à finir en taule Les premiers fruits murs tombés d'l'arbre Où même les derniers animaux qu'Noé aurait admis sur son arche Mec, je demande plus d'où provient notre rage On a la haine dans les gênes Ces besoins d'boire, d'baiser même fumer du bon hasch, man Au fond, on prétendait tous avoir mal malgré notre âge Aujourd'hui enfoiré on se sent prêts pour le jour J, l'heure H C'est pour les frangins, frangines et autres fruits d'l'époque On n'est qu'le fruit d'ces murs en ruines, d'ces rues, d'ces blocs Sache qu'on quittera tous un jour c'monde avec nos seuls vécus comme bagage Mort sans laisser de trace comme un tueur à gage C'est pour les frangins, frangines et autres fruits d'l'époque On n'est qu'le fruit d'ces murs en ruines, d'ces rues, d'ces blocs Sache qu'on hausse le ton pour ces quartiers sonorisés qui n'entendent rien d'lextérieur donc pour lÉtat c'est la risée Tout devient flou autour, j'vois plus rien à travers la fumée d'mon pet' Hormis qu'on rame dans la même galère, qu'on brave les mêmes tempêtes Prêts à tout pour fuir l'orage ou l'averse Tous prêts à tout presque pour prendre le large loin des temps d'crise qu'on traverse La vie est dure, nous aussi un peu comme ces trucs qu'on écrit Le monde dans lequel on évolue est tout c'qu'on décrit N.I.K on r'présente le monde d'en bas Celui où ça en chie au point que tout le monde vous en parle Jadis on m'a dit p'tit dort pas j'ai l'doigt sur tout c'qui paye On a dû t'dire aussi t'endors pas, l'sommeil coute un il Et cette coutume c'est la joie comme dans un cimetière un jour de deuil Une fois en bas personne t'enverra d'corde ou d'treuil On m'dit qu'la vie c'est un savoir haut comme la Savoie Que les aveugles ratent où savoir comment la merde mange tout sur sa voie Tout comme l'oiseau je veux voler donc j'ai une rouge gorge Car je braille donc cette ville m'donne pas le sein d'son soutien-gorge Nous sommes comme ces fruits mûrs sur un arbre d'une villa Où à chaque petit creux c'est pour jeune cueillir un frère une vie là Mais merde est-ce qu'on vit vraiment car j'ai l'impression qu'la con d'Chirac nous ramassera pour nous ranger dans sa boîte Playmobil Des jeunes habiles sont promis puis mariés à l'espoir mais mineurs Comment s'fait-il qu'il neige dans mon cur et que j'ai que le rap comme skieur On veut du liquide et qui paye, pas du sang et des pleurs Faut qu'ma sueur éteigne cette flamme qui nous sépare du bonheur J'crois qu'on a assez bu pour en parler mec T'y as entendu ? T'y as entendu ? On a assez vécu mec C'est pour nos gens On r'présente pour les nôtres C'est pour nos gens FF, Psykatra, S.A.D, Alonzo, S.A.T, c'est pour mes enfoirés On est le fruit d'l'époque mais tu le sais ce putain d'fruit d'cet arbre On est ce fruit d'l'époque on s'enracine On est ce fruit d'l'époque on te calcine On est ce fruit d'l'époque c'est pour nos gars en bas des blocs On est ce fruit d'l'époque c'est pour nos gars les nôtres</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Les hommes se font belles</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Hey Spike Miller pour One Beat Deadline C'est Alonzo de la Psy4 papé Yeah, yeah, oké Enfant du bloc respire l'époque Les hommes se font belles dans les chiottes Ils roulent en Benz' et prennent d'la drogue Sales époque Ma mère me dit toujours T'es rien sans la santé , elle doit s'douter que j'dois la doser La pute de Marie-Jeanne veux m'tuer Elle a jurée fidélité à Iblis, que la jeunesse glisse Garde tes forces, si ça frappe en soirée comment on fait ? On boit la Poliakov, comment on fait ? La merde on va pas la chercher, elle vient nous trouver Tractions, dips, alter, l'été arrive Les enfants de la Terre-mère sont au développé-couché Tu soulèves combien papé ? J'vois qu'tu as pris mais faits pas la sexy avec les cochons de la nuit Ta famille elle est à plat-ventre J'veux pas acheter ton Audi même si tu changes la calandre, Yomi dans l'Queens Elle rêve de château à Fomboni-city, dans la blouse piece Alors je retrousse mes manches pour et mange tout dans ma discipline Les magazines ou l'usine ? Et alors ? Tant que y a de la viande dans ma cuisine J'sors plus bling-bling, j'sais que dans l'quartier c'est la merde Et quand y a moyen de montrer, on fait pas les choses à moitié La richesse c'est le coeur, le courage c'est les couilles On envoie pas ses parents à la Mecque avec les sous du T.H.C Enfant du bloc respire l'époque Les hommes se font belles dans les chiottes Ils roulent en Benz' et prennent d'la drogue Effet miroir, effet miroir, effet miroir, effet miroir Dans cette sale époque Pendant qu'les locataires veulent être propriétaire Ceux qui roulent en Roadster veulent voler en Hélicoptère La démesure tue l'esprit, même la façon d'être La façon de paraître aux yeux du monde, la façon de naître La façon de poser son regard sur une femme La façon de se connaître avec son frère quand y a les flammes L'apparence c'est trop traître, trop bref Marseille pleure ses morts et prie pour ses frères qui attendent une greffe Tu es trop voyant tu nuis, tu es trop absent on t'oublie Voyou rime pas avec Vaillant Je n'sais que faire parler mes 23 ans, j'ai l'haleine d'résine, le respect des grands Depuis la bouteille de consigne moi je meurt tout l'temps Quand j'pense à mon père j'ai la gamberge âgée Quand t'es naufragé personne nage Quitte à laisser la Rolex et la Virex pour être plus léger La vie c'est l'chantier, j'rap le mortier pour le béton armé Trop d'choses à changer dans mon comportement Ecrire me permet de suspendre mes mille et une erreurs dans l'temps Tu entends ? A.L.O.N. papé tu entends ?! Enfant du bloc respire l'époque Les hommes se font belles dans les chiottes Ils roulent en Benz' et prennent d'la drogue Effet miroir, effet miroir, effet miroir, effet miroir Dans cette sale époque Enfant du bloc respire l'époque Les hommes se font belles dans les chiottes Ils roulent en Benz' et prennent d'la drogue Effet miroir, effet miroir, effet miroir, effet miroir Dans cette sale époque Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LES PIEDS SUR TERRE</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>- Tata ! Attends, attends... j't'aide. - Oh, Kassim... Ça fait longtemps que j'te vois plus. Comme tu as grandi ! - Eh, ouais... Et toi, ça va ? - Ça va, ça va... Avec la grâce de Dieu, j'y arrive. Doucement, doucement. Doucement, doucement, on y arrive. - C'est bien, c'est bien... Viens, viens, j't'aide à porter les courses. - Ah, merci mon fils parce que c'est lourd là. - Ça a bien changé ici. C'est vrai qu'je monte rarement, je travaille beaucoup. - Ah, on te voit plus, ah, toi. Ça fait longtemps qu'on te voit plus, hein. - J'travaille beaucoup, pareil, moi aussi, les enfants... - Vous êtes partis, vous grandissez, vous allez... Vous êtes une heureuse famille, hein. Yeah J'ai ramé, j'ai ramé, j'suis tombé, j'ai zoné, tu connais la calle, les mauvais, les tes-traî Les regrets, la madre, les pleurs et les soucis, les réconciliations gérées au fusil Les footeux qui deviennent dealers, on a connu le parlu, le palu, le bled, les disparus Recherché, si ça te retrouve, ça t'allume, je salue les frères, dans la prière, j'suis ému Y a le PMU, les courses, les chevaux, les surs qui attendent leurs maris, s'arrachent les cheveux Encore un soir où la muerte fait son boulot, où Zemmour va parler sans savoir, ce fils de On est antisystème en étant dans l'système, j'écoute Tiken Jah Fa' dans le BM pack M J'ai peur de moi-même, gamberge de baisé, j'vais pas reculer, d'mande à Odari Mohamed La jeunesse est malade, époque d'Marie Curie, d'la régalade J'me souviens d'mes amis, des égalades, si j'avais pas les Psy, j'en serais pas là Et nos daronnes méritent tellement d'amour, on a le cur et l'âme plein de balafres Faut qu'on s'taille, ma chérie, qu'on reste pas là, j'vois tout en noir et blanc comme Dybala Oh J'regarde le ciel, les pieds sur Terre, j'ai dû le faire à cur ouvert Donné ma vie pour ma famille, dans les ennuis, dans les soucis Quand j'suis sur scène, j'oublie ma peine, je fais d'l'oseille, j'ai des problèmes Merci la vie, j'pense aux amis qui sont partis, qu'on oublie J'regarde le ciel, les pieds sur Terre, j'ai dû le faire à cur ouvert Donné ma vie pour ma famille, dans les ennuis, dans les soucis Quand j'suis sur scène, j'oublie ma peine, je fais d'l'oseille, j'ai des problèmes Merci la vie, j'pense aux amis qui sont partis, qu'on oublie On s'habituera jamais alors faut sourire, mon cur Maman passait le balais, nous on zonait en scooter Rien à foutre d'être en TT, j'prends le large comme un skippeur J'viens des quartiers des boutés, le concierge, c'est le guetteur Pas pour les minots, pas pour les minots, pas pour les minots, mamé</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Les temps modernes</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Jsuis un homme, je suis porteur de péchés Je respecte pas le corps que le Seigneur ma donné Je fume, je bois, jaime largent, jai pas prié Jsuis trop de ce monde, faut venir me sauver Jtire la chasse dix fois alors que leau potable manque en Afrique Je suis un être humain vivant dans la brique Faut venir me sauver, jme créé des besoins Jai même parfois jeté le pain, des gamins fabriquent mes paires de Requins Jmen bats les couilles, moi, dla pollution, dla couche dozone Alors que je dis aimer mon prochain, jcrois qu'j'mythonne Je donne de la valeur à des choses inutiles Faut venir me sauver, jai la foi fragile Je lai vu fouiller les poubelles, ça mempêchera pas de dormir nan Faut qu'jrentre chez moi, ya le tirage de lEuro Millions Depuis que je suis né, jai les yeux dans mon écran Les reportages sur la misère, cest juste un passe-temps Cest juste une discussion que jachèverai demain À la pause-café, tu crois quoi ? Je suis européen J'ai des priorités, faut changer la garde-robe Tuez lanimal, jveux un nouveau cuir, jaime trop la mode Jai tendance à juger mon autre à son physique Connaitre le cur, cest prendre le temps et le temps cest un tas de fric Cest un tas darbres abattus, cest du bois, de loxygène, cest chimique Ikea a mis la forêt dAmazonie en boutique Faut venir me sauver, jai les pneus lisses Mais ils font quoi au Liberia ? Jveux mes Firestone pour bouger en Suisse Écoutez-moi je suis la 5eme puissance mondiale Je veux sauver le monde alors que mes actes le plonge dans le chaos1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Lettre à Khalissi</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Ma fille, si tu lis cette lettre c'est que ton chère papa sest envolé dans le ciel Ma fille, si tu comprends ces mots c'est que t'as du grandir, jimagine tu dois être tellement belle Rejoins moi dans tes rêves, jusqu'à que ce que le jour se lève Mon amour est éternel Donne moi ta p'tite main, montre moi tous tes jouets Oui je suis ton ange gardien, je suis riche car ton sourire c'est de l'or Donc souris-moi encore, j'le regarde même quand tu dors Ma fille, accepte ton autre sort Je me souviens de ce jour où j'ai trouvé ton beau prénom De la joie qui m'habitait quand tes venue dans ce monde Je tai couvert de bisous, t'es à moi Tes ma vie, t'es mon bijou C'est ma fille, mon Dieu donne lui la force Si la vie est dure, faite qu'elle sen sorte Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Je t'aime ma fille Ma fille, si tu ne portes plus mon nom, c'est que enfin ma princesse s'est mariée Ma fille, je te souhaite de tout cur de connaître l'amour que porte un parent a pour ses p'tits bébés Être grand-père, j'aurai adoré Ces moments qu'on aurait partagés Serai-je encore entrain de rapper ? non Je vois t'es premiers pas, je t'entends m'appeler papa Bien sûr, tu t'en rappelles pas Mais t'es mon sang donc je vis en toi Je me souviens de ce jour où j'ai trouvé ton beau prénom De la joie qui m'habitais quand t'es venue dans ce monde, je t'ai couvert de bisous T'es a moi, t'es ma vie, t'es mon bijoux C'est ma fille, mon Dieu donne lui la force Si la vie est dure, faite qu'elle s'en sorte Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Je t'aime ma fille Regarde-toi dans le miroir, tu verras mon reflet Garde moi dans ta mémoire, tu sauras qui tu es Non, n'sois pas triste, le temps laisse des cicatrices Si je pouvais, tes fardeaux, je les porterai sur mon dos C'est ma fille, mon Dieu donne lui la force Si la vie est dure, faite qu'elle s'en sorte Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Ma Khalissi Je t'aime ma fille Ma Khalissi Ma Khalissi Je t'aime ma fille</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>LVDC</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>C'est pas pour les minots, wAllah Spike Miller, a real dream La vie de Capo Quattro, mamé, yeah Pas besoin de violer, séquestrer, j'suis pas R. Kelly, j'ai toutes les gadjis, pas d'comédie Breh Tu connais l'ancien, le Capo, j'arrive en showcase, faites péter la boisson de P. Diddy Breh On régale, on régale, on a trop souffert, pour la daronne, on va remplir deux-trois caddies Ouais En bécane sur Cannes, on va casser des boutiques, on va boire deux-trois cafés chz Fendi Bye-bye-by-bye On est trop maudit Ouais, on aime trop Audi Ouais, on va finir la vida sur pilotis Ouais Reste sur l'côté, c'est moi qui va piloter Breh, le banc, tu vas le chauffer, j'ai Pelotta Chauffer, j'ai Pelotta, breh La putain de tes morts, tu sais quand ça commence, ça n'en finit plus J'pouvais pas supporter d'voir mon fils au parloir, pourtant, il sait très bien que j'l'aime plus que tout Ils croient qu'on s'invente des vies, j'récite pas la rue comme certains, je la vie, j'ai eu du cul La prison, je la dévie depuis mes douze ans vu que je rappais, oh, gros trou du cul Ils croient qu'on s'invente des vies, j'récite pas la rue comme certains, je la vie, j'ai eu du cul La prison, je la dévie depuis mes douze ans vu que je rappais, oh, gros trou du cul On va faire un tour On va faire un tour dans le Porsche Cayou Dans le Porsche Cayou On dit que les sous On dit que les sous aident à tout résoudre Aident à tout résoudre Si demain, j'arrête tout Si demain, j'arrête tout, ça sera par amour Ça sera par amour Bébé, si demain, j'arrête tout Si j'arrête tout, ça sera par amour Breh, breh, breh Et ça marche par intérêt, c'est vrai, j'le vois tous les jours Ouais, j'le vois tous les jours Quand je pense à mes intérêts, c'est vrai, des fois, j'fais le sourd Ouais, des fois, j'fais le sourd J'pense à mes intérêts À mes intérêts Ah-ah-ah, ah-ah-ah-ah, ah-ah-ah Rah, rah, rah, rah Ici, tout l'monde me connaît, pas besoin d's'affoler, en Kalenji, je traîne dans mon secteur La noche tout en Gaultier, la dolce vita, c'est pas Marseille, politique cherche électeurs Le volant Alcantara dans le Porsche Carrera, j'ai mis casque Araï, j'me fais des frayeurs Ne fais pas l'Che Guevara, attention, la Kala' va parler, va causer sans traducteurs Rah, rah, rah, rah Guadalajara ou bien, Tijuana ? Ouais J'préfère manger mafé, lion d'la Terraga J'prends l'élastique d'la kichta, je lui attache les ch'veux mais bien sûr qu'j'lui demande de garder son tanga Je peux pas tout leur dire en interview, les numéros d'écrous, les appels sur Signal J'suis rentré dans le game sans péter le verrou, je viens du plan d'Aou, je mérite au final Et le terrain tourne Et le terrain tourne mais le terrain est glissant Ouais, ouais, ouais, le terrain est glissant Et la banal' tourne Et la banal' tourne, ouais, ouais, ça sent la descente Ça sent la descente Parait qu'j'ai des jnouns, paraît que je peux mourir de la chtoun Mourir de la chtoun Je sors du saloon, ils me regardent tous, leurs rétine est puissante Rah, rah, rah On va faire un tour On va faire un tour dans le Porsche Cayou Dans le Porsche Cayou On dit que les sous On dit que les sous aident à tout résoudre Aident à tout résoudre Si demain, j'arrête tout Si demain, j'arrête tout, ça sera par amour Ça sera par amour Bébé, si demain, j'arrête tout Si j'arrête tout, ça sera par amour Et ça marche par intérêt, c'est vrai, j'le vois tous les jours Ouais, j'le vois tous les jours Quand je pense à mes intérêts, c'est vrai, des fois, j'fais le sourd Ouais, des fois, j'fais le sourd J'pense mes intérêts À mes intérêts Ah-ah-ah Ouais, ah-ah-ah-ah Ouais, ah-ah-ah Rah, rah, rah, rah C'est pas pour les minots, wAllah - Yo Souli, bien ou quoi ? - Ça va, Kassim, tranquille ? - On est là - Fais attention à toi, mon pote. Au quartier, c'est chaud bouillant, c'est plein de condés - Arrête... - Ouais, c'est miné à block2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Madame Alonzo</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Jai rencard avec lennemi Jai rencard avec lennemi Armée, elle couvre mes arrières Cest pour ça quje lappelle ma vie Chaque jour jai peur de la perdre Chaque jour jai peur de la perdre Pourtant jarrive pas à lui dire je taime Jarrive pas à lui dire je taime Faisons-leur la guerre mon amour Faisons-leur la guerre mon amour Aucune autre que toi ne saura être un jour Madame Alonzo Jdis pas quje suis lhomme parfait, en vrai, tu le sais Jdis pas quje suis lhomme parfait, en vrai, tu le sais Si la balle part je la prendrai, en vrai, tu le sais Si la balle part je la prendrai Aucune autre Oh, ce monde est déterminé Ce monde est déterminé Il aime m'appeler ma vie Et moi je l'appelle mon king Chaque jour jai peur de le perdre Chaque jour jai peur de le perdre Aujourdhui je vais lui dire je taime Aujourdhui jvais lui dire quje laime Faisons-leur la guerre mon amour Faisons-leur la guerre mon amour Aucune autre que toi ne saura être un jour Madame Alonzo Jdis pas quje suis lhomme parfait, en vrai, tu le sais Jdis pas quje suis lhomme parfait, en vrai, tu le sais Si la balle part je la prendrai, en vrai, tu le sais Si la balle part je la prendrai Aucune autre Ma bella, bella, bella, ma bella, bella, bella Ma bella, bella, bella, ma bella, bella, bella Aucune autre Ma bella, bella, bella, ma bella, bella, bella Ma bella, bella, bella, ma bella, bella, bella Ma bella, bella, bella, ma bella, bella, bella Ma bella, bella, bella, ma bella, bella, bella Aucune autre que toi ne saura être un jour Madame Alonzo Jdis pas quje suis lhomme parfait, en vrai, tu le sais Jdis pas quje suis lhomme parfait, en vrai, tu le sais Si la balle part je la prendrai, en vrai, tu le sais Si la balle part je la prendrai Aucune autre Bella, bella, bella Bella, bella, bella1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ma famille</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Faut que je te parle bro' On se connait ça fait tant d'années On se voit rarement Travailler c'est bien ouais Mais un jour on va tous partir Comment vont tes enfants ? Je les ai même pas vu grandir Regarde ce qu'on a construit Nos parents sont fiers de nous mon frère Je te parle j'ai la gorge nouée Tu sais pourquoi je regarde vers le haut J'ai fumé, j'ai fumé poto A en devenir parano Notre ego, notre ego poto A failli gâcher notre amour Quoiqu'on fasse, nos destins sont liés Peu importe, tout le mal qu'on a pu se faire Tu es de ma famille ouhouhouhouhou Ni le temps ni la distance devrait te faire douter Quoiqu'il arrive tu es de ma famille Non ni la rancur ni la fierté ne pourra le changer La la la, la la la famille Les années passent On se perd de vue Le temps perdu n'existera plus Ma mère demande de tes nouvelles Comment va la tienne? J'connais très peu ta belle Et nos enfants se connaissent à peine C'est vrai qu'on a bossé Comme des fêlés Qu'on a gagné monnaie et respect Mais l'essentiel on a loupé L'amour qu'on a pour nos rêves nous a bouffé Quoiqu'on fasse, nos destins sont liés Peu importe, tout le mal qu'on a pu se faire Tu es de ma famille ouhouhouhouhou Ni le temps ni la distance devrait te faire douter Quoiqu'il arrive tu es de ma famille ouhouhouhouhouhou Non ni la rancur ni la fierté ne pourra le changer La la la, la la la famille Tu t'souviens à l'époque Regarde nous aujourd'hui Nous les enfants des blocks Dansons à nos victoires Mêmes dansons à nos blessures Dansons à la santé des nôtres Ensemble écrivons le futur Ohh la famille, la famille, la famille Tout l'or du monde n'a pas sombré La famille, la famille, la famille Oui tout l'or du monde n'a pas sombré Tu es de ma famille ouhouhouhouhou Ni le temps ni la distance devrait te faire douter Quoiqu'il arrive tu es de ma famille ouhouhouhouhouhou Non ni la rancur ni la fierté ne pourra le changer La la la, la la la famille1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Malade</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Dans l'bendo On sfait l'amour, la guerre on n'sait plus Ma tête est malade À cause de tout ça jparle seul dans mon lit Les gens parlent que dans l'dos Mais laisse les jacter Je dois faire ma moula Ma tête est malade Je n'ai plus le temps L'arbitre siffle la mi-temps Je rétrograde dans les temps Et j'ai changé comme les gens Je monte dans le bends La famille est dans le banks Quand j'vais revenir dans le tieks J'aurais tout Pour l'instant jcours sans arrêt Ya qu'le charbon dans ma tête Et je nte parle pas de C Ni de teuteu en plaquette J'ai eu toutes sortes de problèmes Et j'trouve qu'cette vie là a du goût Quand jai mal ça t'rends malade Peut être qu'au fond j'suis pas si différent des autres J'avoue qu'j'ai du mal à couper mes réseaux T'essaies d'm'avoir, j'suis injoignable pour le moment J'ai pas d'amis, j'ai que des frères, j'ai plus confiances Parce que Dans l'bendo On s'fait l'amour, la guerre on n'sait plus Ma tête est malade À cause de tout ça j'parle seul dans mon lit Les gens parlent que dans l'dos Mais laisse les jactés Je dois faire ma moula Ma tête est malade Ne m'attendez pas Peut être qu'je rentre pas Pourtant j'fais rien d'mal Mais le mal n'épargne pas Je suis déterminé Envie d'les terminés Puis j'déposerai les armes J'vous rejoindrez car vous êtes tout c'que j'ai Ici bas tout se paye Oui vous êtes tout c'que j'ai Ici bas tout se paye Peut être qu'au fond j'suis pas si différent des autres J'avoue qu'j'ai du mal à couper mes réseaux T'essai d'm'avoir, j'suis injoignable pour le moment J'ai pas d'amis, j'ai que des frères, j'ai plus confiances Parce que Dans l'bendo On s'fait l'amour, la guerre on n'sait plus Ma tête est malade À cause de tout ça j'parle seul dans mon lit Les gens parlent que dans l'dos Mais laisse les jactés Je dois faire ma moula Ma tête est malade La guerre, on n'sait plus Malade, j'parle seul dans mon lit</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Malaga</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Il a d'la moula dans sa veste qui vient du Canada Il dit Éteins tes phares, gare-toi vers là-là-là Il veut monter en grade et même sur ta nana La gari vient d'Allemagne, les kilos d'Malaga Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga Yeah, la gari vient tout droit de Stuttgart ouais Yeah, garde ton mauvais il de Poudlard, wesh, yeah Tout se vend, tout s'achète, même ta nana Tu connais personne, arrête ton tralala, wesh, yeah Je m'en bats les couilles, bye bye ouais Tu crains pas les coups, die die ouais On est sur écoute, coupable ouais Ça bibi, bibi, bibi comme d'hab' ouais On passe la douane incognito, au cellophane ouais On a des fers, on a des frères de tout-par ouais Tout est noir, 2 Chainz, Tupac ouais Quartier taudis, à qui tu nous compares ? Yeah Il a d'la moula dans sa veste qui vient du Canada Canada Il dit Éteins tes phares, gare-toi vers là-là-là là-là-là Il veut monter en grade et même sur ta nana ta nana La gari vient d'Allemagne, les kilos d'Malaga yeah Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga yeah Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga Yeah, tu veux faire la paix, j'refuse pas, mais j'ai pas le temps yeah La clientèle me donne du haz' ces derniers temps ouh, ouh, ouh J'oublie de sortir ma gadji de temps en temps ouh, ouh, ouh Pour sa Piwi, mon fils me demande de l'huile 2 temps J'suis dans le shit yeah, yeah, j'suis dans les hits yeah J'suis dans les chiffres yeah, yeah, j'te sors ma bite ohoh Appelle-moi le A yeah, le Capo c'est moi yeah, yeah Ça fait des TP yeah, ça fait le arah ouais RDC, sur RDC, ça vend la CC Ouais, RS6, sous Hennessy, j'me taille d'ici J'ai investi, p'tit imbécile, tu vas danser J'parle pas musique, c'est Foumbouni Ouais, ouais, ouais, ouais Il a d'la moula dans sa veste qui vient du Canada Canada Il dit Éteins tes phares, gare-toi vers là-là-là là-là-là Il veut monter en grade et même sur ta nana ta nana La gari vient d'Allemagne, les kilos d'Malaga yeah Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga yeah Malaga, Malaga La gari vient d'Allemagne, les kilos d'Malaga</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Marié à la street</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Capo Ola, ola, ola, ola 2050 quattro, mamé Sheboni, Sheboni, gang Miller J'bouge pas cet été, j'suis dans le binks j'suis dans le binks J'mets des gants pour la propreté et pour le sale, pas d'empreinte ouh Avant la notoriété, moi, j'étais à-l sur le rrain-te J'prenais des tales dans l'illégal ôla Gros détaille Sheboni, gros, on détaille la dalle Justifiera tous les moyens tous les moyens Les idées sont noirs quand tu manques de moyen J'ai essayé d'faire bien mais elle m'trouvait moyen Et les idées sont sombres quand tu manques de moyen ôla, ôla, ôla, ôla Faire du biff sans intermittence, tout pour l'bénéf' sinon ça sert à rien Tape d'un coup, j'm'en sors, treillis kaki kaki J'avais déjà compris compris, c'était chaud c'était chaud Suffit qu'le tireur baisse la vitre rrah, c'est le ghetto Maman m'a dit Fais l'pain sans parler J'ai trop d'ennemis, on s'tire en balle ou on tire dans l'tas J'le redis sans arrêt Le monde est malhonnête, j'ai du sang sur les mains Pour du sale, qui est partant ? Depuis longtemps près du bain J'me revois dans des bains d'sang, des questions et des armes J'suis marié à la street toute l'année Séparés par le bifton, tu connais, c'est le game C'est la tess, tess, tess, tess, avant 2000, c'était la dèche Ça parlait pas de Marrakech, l'été, ça revendait la neige À cinq dans la Clio 2, ça fumait des joints de CO2 Les jaloux, frère, je les baise, ouais, personne m'a sorti de feu La Kala' te fait danser la batchata, même pas une équipe qui est incassable Je sauve mon fils, je meurs comme Mufasa J'regarde le danger, yeux dans les yeux, en c'moment, ça fait rentrer la fraîche 26, on touche quand on l'a à 35, trafiquant, ça vient du bâtiment, ça vient des quartiers Nord, ouais, c'est la tess Je me cale à l'Estaque mais je pense à l'Espagne, on va pas bouger c't'année on va pas bouger c't'année J'ai ma paire de Prada, akha y a la koda, mon zinzin, faut détaler Maman m'a dit Fais l'pain sans parler J'ai trop d'ennemis, on s'tire en balle ou on tire dans l'tas J'le redis sans arrêt Le monde est malhonnête, j'ai du sang sur les mains Pour du sale, qui est partant ? Depuis longtemps près du bain J'me revois dans des bains d'sang, des questions et des armes J'suis marié à la street toute l'année Séparés par le bifton, tu connais, c'est le game La mort vient dans un Clio ou bien stone aux clients Mon courage, c'est mon seul bouclier quand c'est la merde Les murs ont des oreilles, mets des haut-parleurs Les oreilles ont des bouches, j'me confie, tu m'dégoûtes, moi, j'voulais juste plus de sous J'ai donné mon p'tit cur à tous, ils l'ont laissé aux fraises J'ai porté mes illes-cou, demande à Souri, on sera légendaires Les conséquences, la faucheuse passe tout près J'veux tout, j'suis pas là, pas trop d'ami et pour le Capo dei Capi, j'fais sentir Maman m'a dit Fais l'pain sans parler J'ai trop d'ennemis, on s'tire en balle ou on tire dans l'tas J'le redis sans arrêt Le monde est malhonnête, j'ai du sang sur les mains Pour du sale, qui est partant ? Depuis longtemps près du bain J'me revois dans des bains d'sang, des questions et des armes J'suis marié à la street toute l'année Séparés par le bifton, tu connais, c'est le game c'est le game Je me cale à l'Estaque mais je pense à l'Espagne, on va pas bouger c't'année on va pas bouger c't'année J'ai ma paire de Prada, akha y a la koda, mon zinzin, faut détaler</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Marras</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wow, Nuki Beats Ah-ah-ah Ah-ah-ah Ah-ah Ah-ah-ah Ah-ah-ah Tu sais, la rue m'a dit Un petit, ça grandit W'Allah y a pas d'magie, j'ai tout fait à la zbat J'veux pas sortir la guitare, j'préfère la tournée d'guitare J'veux pas finir au mitard ou bien ganga ma batte J'me suis mis des gens à dos, la vie fait pas d'cadeau J'passe des heures au studio, j'suis plus trop dans la zone Elle coûte trop cher cette vida donc j'côtoie plus les bizarres J'te fais appels de phares, mets-toi à droite comme Bouna Sarr Ça fait longtemps que papa n'est plus là Je fais un gros collage, j'arrêt de gamberger Ça fait longtmps que papa n'est plus là Je fais un gros collage, j'arrête de gamberger J'cours derrière les violets comme la Mara Blue sont les gyrophares quand y a barrage Flou j'vois quand j'mets la verte dans le collage Tout devient noir quand on est entre sauvages Rrain-té, rrain-té, compter, compter Monter, monter, tomber, tomber Rrain-té, rrain-té, compter, compter Monter, monter, tomber, tomber On veut le paradis, on n'ira pas en 4MATIC On va t'mettre un penalty, tu vas demander la VAR HLM 13 Habitat, aquarium dans l'habitacle Yeux rouges, j'mets mes Dita, on n'est pas trop bavard J'vous souhaite le bien à tous, on n'envie rien aux autres On jalouse la vie d'personne, personne nous impressionne La mélodie est locale, j'suis authentique comme Rocca J'nique tout depuis La Cosca, demande à Akhenaton Ça fait longtemps que papa n'est plus là Je fais un gros collage, j'arrête de gamberger Ça fait longtemps que papa n'est plus là Je fais un gros collage, j'arrête de gamberger Ah-ah-ah Ah-ah-ah Ah-ah Ah-ah-ah Ah-ah-ah J'cours derrière les violets comme la Mara Blue sont les gyrophares quand y a barrage Flou j'vois quand j'mets la verte dans le collage Tout devient noir quand on est entre sauvages Rrain-té, rrain-té, compter, compter Monter, monter, tomber, tomber Rrain-té, rrain-té, compter, compter Monter, monter, tomber, tomber</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Bienvenue au 1.3.0.1.5, Quartiers Nord zinc Lieu peu fréquentable pour les fans de reportage jcrois Criminel à lâge de Titeuf Future mère à lâge de Dora, et déjà ça provoque les keufs Tu vois, rien de cinématographique Beaucoup croient au Saint Coran, malgré lambiance électrique Clic clic, cest le chant du coq marseillais Levés au casse bélier, ça sent la mort, ça sent la veillée Dehors on trafique cquon a dans les mains Plasmas tombés du camion, GSXR 1000, Armani, Vilbrequin Nique sa mère Charlemagne, guetteur à temps plein Qui distribue les khalis à part le gérant du terrain ? Tous capuchés, tous calibrés, tous recherchés, dans la malle Ya de quoi rembourser la dette de lAfrique en lamelles La plage adoucit pas ceux qui nagent dans la merde, elle les endurcit Les femmes de voyous te diront quici nos vies c'est... Nos vies c'est halla, halla Halla, halla Ici c'est tension, rançon, stupéfiants dans l'caleçon Corruption, GTA dernière saison Nos vies cest halla, halla Halla, halla Quartiers populaires, chambres mortuaires, Marseille cest la guerre Cest le halla, c'est le halla, sa mère Et même sa grand-mère, bavures policières Au pays du fromage, dans l'rap on fait notre trou gruyère Pas pour la petite Fiat 500, couleur purple, 500 Tout s'achète sauf le gros cul de la douanière Arrangement à l'amiable quand le système frappe par derrière, où t'as vu ça ? Même en raison à quoi bon faire valoir nos droits ? Les grosses têtes respectent que les grosses têtes La coke parle et blah, mitraillette Le zin', S3 noir, vitres fumées La bonne époque est loin, qui sommes-nous ? Billaye j'en sais rien Crapules à l'affiche, à Porto ou à la Juve Soit tes pris entre ou soit tu les troues ces putains dfilets Viens faire un tour par où l'Diable s'comporte comme les hommes Vodka-Red posé sur le bingo, la serveuse est blonde Le soleil se lève pas à la même heure pour tout l'monde Ya le côté carte postale et le côté tiers-monde, nos vies c'est... Nos vies c'est halla, halla Halla, halla Ici c'est tension, rançon, stupéfiants dans l'caleçon Corruption, GTA dernière saison Nos vies cest halla, halla Halla, halla Quartiers populaires, chambres mortuaires, Marseille cest la guerre Cest le halla, c'est le halla, sa mère Petits c'était les sacs de billes, aujourd'hui les sacs de billets On mange avec nos gros yeux thug life On meurt jeune Tous les soirs je demande 60 lendemains au Bon Dieu real life Seul mon passé m'appartient, je ressuscite chaque matin Quartier dangereux bad life Cartilage endommagé, carénage endommagé La foi c'est précieux fast life Nos vies c'est halla, halla Halla, halla Ici c'est tension, rançon, stupéfiants dans l'caleçon Corruption, GTA dernière saison Nos vies cest halla, halla Halla, halla Quartiers populaires, chambres mortuaires, Marseille cest la guerre Cest le halla, c'est le halla, sa mère Nos vies c'est halla, halla Halla, halla... Nos vies c'est halla, halla Halla, halla...1</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Mauvais</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais 'Bats les couilles, 'bats les couilles, 'bats les couilles On vient tous de la rue, on connait tous les embrouilles Tu fais du MMA, ouais, j'ai mon revolver Tu jactes sur mon dos, tu m'arrives pas aux lombaires 'Bats les 'bats les couilles, 'bats les couilles, toi tu parles, moi j'fais des sous Prends tes 12 euros, une chicha et joue au loup On a pas égorgé les moutons ensemble, m'appelle pas La famille Tu n'aimes pas ma musique mais ta femme chante La belle vie La belle vie, la belle vie, la belle vie, la belle vie Jalousie, hypocrisie, tu m'envies, c'est la vie Quand t'as vu ma Royal Oak, t'as voulu m'couper le bras Quand tu m'souhaites du mal, tu finis par inchAllah Qui fait des loves dans le peura ? Avec tes potes tu débats Tu me regardes de haut en bas, tu ne veux pas dire machAllah Tu fais semblant de m'aimer, je fais semblant de te croire Fais-moi ton faux sourire, c'est marrant tellement chou Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais 'Bats les couilles, 'bats les couilles, 'bats les couilles Si je fais le milli', est-ce que tu m'feras du shour ? Si tu me pousses à bout, j'mets ta tête sous mon pare-boue J'suis à Rio, tu fais des selfies dans Le Lavandou Je me tape des barres, tu te tapes des lignes La tienne a un sac Guess, la mienne, un sac Céline Si on t'écoute, j'ai niqué toutes les gadjis de Marseille J'sais pas qui tu es, tu dis à tes copines que tu es ma halal Mon verre est marron, c'est d'la pomme ou du Jack Ton regard en dit long, tu dis qu'j'ai fait le pacte Tu es mauvais jusqu'à l'os, tu me juges sans me connaître Comorien Nouveau, j'suis validé par mes ancêtres J'ai la palette, rien que tu guettes, j'suis dans ta tête comme tes dettes Je fais la fête sur la Croisette, jamais je m'arrête, j'suis j'suis pompette Tu fais semblant de m'aimer, je fais semblant de te croire Fais-moi ton faux sourire, c'est marrant tellement chou Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais Tu es mauvais, tu es mauvais Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tous les jours tu m'fais la bise Tu es mauvais, tu es mauvais Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos Tous les jours tu m'fais la bise, tu casses du sucre sur mon dos, oh Tu es mauvais4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Mayday</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Yeah Mamacita, je te vois, t'es la seule ce soir Quand tu danses, rohlala, c'est noir Reste là, près de moi, j'vais t'garder, oh Mayday, mayday, mayday mayday Mayday, mayday, mayday oui Mon cur, elle a touché coulé Mayday, mayday, mayday Yeah, tu fais des manières, on te sort du V.I.P sort du V.I.P Tu montres ton boule, je baisse pas la vitre pas la vitre Tellement énorme est la kichta, bientôt elle aura la taille de mon fils de mon fils C'est du roro' sur mes lunettes Cartier Cartier Combien d'euros ? On fait le four d'ton quartier J'm'en bas les couilles, je monte sur la table et la plus fraiche sera dans ma cité Mamacita baby, je te vois, t'es la seule ce soir oh my god Quand tu danses, rohlala, c'est noir c'est noir Reste là, près de moi, j'vais t'garder let's get it Mayday, mayday, mayday mayday Mayday, mayday, mayday oui Mon cur, elle a touché coulé Mayday, mayday, mayday Yeah, yeah Marseille, Lutèce Lutèce Ça bouge pas ça bouge pas, on encaisse on encaisse J'ai mis le mzinga dans son Hermès Y a peu d'équipe en face, c'est normal Trop d'teilles, trop d'faillot, trop d'folles, trop d'jaloux L'oseille et la malla Ma bella, on va où ? Conduis, j'suis léwé La caution va sauter, où on va ? Je sais pas Y a que West qui connais Mamacita mamé, je te vois, t'es la seule ce soir Yasmine Quand tu danses, rohlala, c'est noir oh oh Reste là, près de moi, j'vais t'garder let's get it Mayday, mayday, mayday mayday Mayday, mayday, mayday ouais Mon cur, elle a touché coulé Mayday, mayday, mayday shit Bébé tu me connais c'est moi C'est Christian ou c'est L.V bling, bling Pour toi, j'ai dépensé bébé Les prix, j'ai pas regardé no, no Mayday, mayday, mayday mayday Mayday, mayday, mayday oui Mon cur, elle a touché coulé Mayday, mayday, mayday C'est le Capo dei Capi, Capo, Capo Capo dei Capi, Capo, Capo C'est le Capo dei Capi, Capo, Capo Capo dei Capi, Capo, Capo</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Mchenzi</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>The Danger The Danger A-L-O-N-Z-O, 2050-quattro, mamé On arrive comme les Russes en 4x4, papé Okay Roh, roh, roh Vingt ans qu'j'encule le game, w'Allah j'lâche pas j'lâche pas Mes plus gros tubes, je les ai faits khapta khapta Je mets du madaba dans mes pastas pastas J'digère avec un pét' comme un rasta Tout est illégal Tout doux me dit mi corazón Les couleurs autour de toi, c'est d'la décoration On roule à deux dans le 4MATIC Et on s'enjaille sur des sons qui sont même pas sortis Ouais-yeah-yeah Qui s'en mêle, qui s'en mêle, qui veut jouer les bandits ? Qui s'en mêle, qui s'en mêle, qui veut jouer les bandits ? Ils peuvent rien faire, ils peuvent rien faire, c'est nous les plus mchenzi Ils peuvent rien faire, ils peuvent rien faire, c'est nous les plus mchenzi Tu veux nous la mettre, tu crois qu'on est bêtes ? Tu veux nous la mettre, tu crois qu'on est bêtes ? T'es dégun dans ta tess, t'es dégun pour ton ex T'es dégun dans ta tess toi, t'es dégun pour ton ex J'veux tout ça avant de caner, le salaire à Sadio Mané Ze Pe', Béné, Tony, Manny, en harmonie dans mon smoking Armani Le secteur est rempli de Como' en vourrance, ça vourra Mykonos La Patek a besoin d'un chrono, le hazi a besoin d'un gérant parano La paix est partie avec Gandhi, c'est fini, c'est fini d'être gentil Ces traîtres, je les avais sentis, il vont finir sans un centime Wallah, quitte à rester solo, Capo, je sais qui me follow Logo rital sur le polo, ra-ta-ta-ta, c'est le papé Qui s'en mêle, qui s'en mêle, qui veut jouer les bandits ? Qui s'en mêle, qui s'en mêle, qui veut jouer les bandits ? Ils peuvent rien faire, ils peuvent rien faire, c'est nous les plus mchenzi Ils peuvent rien faire, ils peuvent rien faire, c'est nous les plus mchenzi Tu veux nous la mettre, tu crois qu'on est bêtes ? Tu veux nous la mettre, tu crois qu'on est bêtes ? T'es dégun dans ta tess, t'es dégun pour ton ex T'es dégun dans ta tess toi, t'es dégun pour ton ex</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>M.D.V</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Ta meuf s'est retrouvée dans le carré par accident On règle plus les problèmes en s'expliquant AMG GT, vitres teintées, c'est intriguant Elle veut un train de vie excitant Elle aime la mala des voyous, des voyous La mala des voyous, des voyous Dix K dans la boîte à gants Tu t'demandes si j'suis dans la vente Brehh, qui contrôle la zone ? J'vide mes 'teilles et je repars en crawl Tard on a fermé le four T'entends qu'on est chaud, mais tu fais le sourd Un regard, je lui fais l'amour Un regard, je lui fais l'amour Tiens ta gadji, on va t'la perquise La mala des crapules, dis-nous merci J'brûle un billet violet pour l'honneur M'enterrez pas avec si je meurs Ta meuf s'est retrouvée dans le carré par accident On règle plus les problèmes en s'expliquant AMG GT, vitres teintées, c'est intriguant Elle veut un train de vie excitant Elle aime la mala des voyous, des voyous La mala des voyous, des voyous Ta meuf s'est retrouvée dans le carré par accident On règle plus les problèmes en s'expliquant AMG GT, vitres teintées, c'est intriguant Elle veut un train de vie excitant Elle aime la mala des voyous, des voyous La mala des voyous, des voyous Dadju, au volant, guette que l'il il nous jette Putain, il veut un tête, j'sors la mitraillette Putain, il fait la fête mais il a des dettes Putain, j'me prends la tête mais, t'es qui, en fait ? Qu'est-ce t'as ? Tu m'vois picoler, tu veux m'raisonner ? Fleury, Baumettes, La Santé, les frères isolés Viens m'voir rue Saint-Honoré, Gabbana Dolce Bah oui, tu sais pas t'saper, on va te coacher Tiens ta gadji, on va t'la perquise La mala des crapules, dis-nous merci J'brûle un billet violet pour l'honneur M'enterrez pas avec si je meurs Ta meuf s'est retrouvée dans le carré par accident On règle plus les problèmes en s'expliquant AMG GT, vitres teintées, c'est intriguant Elle veut un train de vie excitant Elle aime la mala des voyous, des voyous La mala des voyous, des voyous Ta meuf s'est retrouvée dans le carré par accident On règle plus les problèmes en s'expliquant AMG GT, vitres teintées, c'est intriguant Elle veut un train de vie excitant Elle aime la mala des voyous, des voyous La mala des voyous, des voyous</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Même tarif</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Un deux, un deux, un deux, un deux, nerveux Un deux, test Mets pas la doudoune, mets le gilet pare-balles Bienvenue à Marseille te dit ton GPS Si tu fais la balance, rafale Tu payes pas, tu dépenses, rafale Machine à sous, délinquant sous écrou Tu mérites yekh tfou si tu nous regardes mal Cocaïne dans le naso MickJagger Trop de haschich dans les réseaux, guetteur Téléphone Bic, tu m'appelles d'un fixe Tu vas cramer la salope qui théberge en deux heures Parle moi en como, y'a les pin-pon Vaffanculo ! Y'a les pin-pon Sacoche Vuitton, bifton, chichons, canons Kodo, y'a les pin-pon Muslim donc je peux graille casher J'prends tout euros, dollars, sheikel 15 ans de rap sans baisser le Diesel A 15 ans, j'savais que j'allais tout baiser Elles aiment la couleur de ma quenelle Christian Dior ou Chanel J'suis tellement quartier qu'la marque sponsorise toutes mes femelles Cartel, Marlo fait feat avec Barksdale J'brille, plus qu'le grand échafaudage que vous appelez la Tour Eiffel Voiture volée en Italie, Fiorano plus de Pirelli Et avant d'te fusiller laisse-moi finir mes fusilli Rackets, braquages, vols, prison khey, c'est le même tarif Comores, Marseille, Paname, Sénégal c'est le même tarif Bruyant, grossiste, balance, nourrice ouais, c'est le même tarif Rappeur, rappeuse, tu parles, tu clashes C'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même tarif, c'est le même tarif C'est le même tarif, c'est le même, c'est le même, c'est le même, c'est Sombre nouvelle, M.A.R.S Bientôt mes sacs poubelles seront des Hermès T'as pas d'oseille ? L'air de t'faire ièch' J'ai l'arme chimique avec la cervelle d'un CRS J'suis dans un douze étoiles à Marrakech J'suis cargo chinois, t'es canne à pêche J'suis dans les hautes herbes des hautes sphères Rendez-vous dans quelques mansions 20 ou 30 caisses Ils veulent mon trône, rien n'm'en empêche Sa mère être une icône, paie-moi en espèces Ils veulent mon trône, rien n'm'en empêche Leur faire un cul en hexagone, Sénégal, côte ouest Ta meuf est d'occasion tu l'as prise sur eBay Je m'en fous de vendre, le but c'est de tous les enterrer Tu fais le beau, ta go c'est une atrocité Tu fais le beau, ta go c'est une calamité Ne commence pas une guerre si t'es pas sûr de la gagner Comme tout hegoune c'est une kahba qui te fera tomber Pour t'oublier, attends je passe un coup de fil L'attachement c'est pour les fragiles 16</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Merci</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Chez nous les guirris laissent les cheveux longs comme en Série A On s'en bat les couilles on fait des sous augmente la TVA Tu t'approches du trou, je me rapproche de la Bugatti T'as la corde au cou pendant que je fornique toute la nuit J'ai du rap, j'ai d'la drogue, je sais plus quoi dealer Je n'attendrai pas que la nuit tombe pour venir t'allumer Un million d'euros, valent un million d'ennemis Va demander à Maître Gims si il dort bien la nuit Ennemis Je les aime trop mes ennemis Magnifiques sont mes ennemis Je remercie mes ennemis Ennemis Ennemis Ennemis Je remercie mes ennemis Si t'as peur des michtos c'est que tu n'as pas assez de biff Je ne compte pas quand il s'agit des potos c'est la mif Tu me portes l'il, pendant que je porte du Givenchy Mets-toi la corde au cou si tu peux pas supporter ma vie Un coup tu twerkes, un coup tu pries, tu sais plus quoi tweeter Dites à la concurrence que ce matin je me suis mal réveillé Deux millions de disques, valent deux millions d'ennemis voire plus Va demander à Stromae si il dort bien la nuit Ennemis Je les aime trop mes ennemis Magnifiques sont mes ennemis Je remercie mes ennemis Ennemis Ennemis Ennemis Je remercie mes ennemis Ennemis, ennemis, ennemis Celui-là faut le faire Kalash, pas peur de l'enfer Plaqué treize, paquet d'presse Vivre ici un paquet d'stress Marcher tranquille ouais ça n'existe plus Ton meilleur ami n'était qu'un fils de pute Demande à Malou, Comores et Calo Ta meuf donne le go t'es sur un pédalo Même un mécano peut finir endetté Quatre piges en hiver et tu sors en été T'as bien mangé, tu sors che-pê Petit frère peut te faire en GP T'as des armes on a les mêmes en mieux Tu fais des sous mais tu fais plein d'envieux On aime le soleil on ne craint pas la pluie Dis-leur bien Kassim on ne dort pas la nuit Ennemis Je les aime trop mes ennemis Magnifiques sont mes ennemis Je remercie mes ennemis Ennemis ennemis, ennemis, ennemis Ennemis ennemis, ennemis, ennemis Ennemis ennemis, ennemis, ennemis Je remercie mes ennemis Ennemis, ennemis, ennemis7</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Midnight Express</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mamé, écoute Cest le son des grossistes, en piste, 1-2 Jarrache le sol en gros V6, un joint dbeuh Poussez-vous du milieu, A.L.O.N. en pleins feux On éblouit les ptites balances et les hommes en bleu Ra-ta-ta-tah ! Midnight Express dans la caisse On a quitté la tèce, on a la pêche La sape à litalienne, jai la batterie pleine, BBM-moi ! Trop speed, les filles splaignent, bébé aime-moi ! Jai de ladrénaline qui coule dans lsang On roule, on rode, on est déter' à 2000 Comme ça tu trouves que jai un ptit accent Je viens du Sud et cest comment depuis tout ctemps ? Mais cest quoi ces jaloux qui parlent dans lvent Nous on avance au galop comme un cheval pur-sang Ouais mais cest comment depuis tout ctemps ? On roule, on rode et notre musique traverse le temps Faut quça brille On se remaquille, grosse berlines sur le parking Ce soir tes sur la liste, ya pas dgalère Faut qutu m'suives, même si ça va trop vite On sévade avant que le jour se lève Pull up ! Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes Ça va poser de grosses sommes, posez-vous des questions Est-ce quil lest bourada ou est-ce quil nous mythonne ? Jai la couleur DOM-TOM, cest du rom-pom-pom-pom Jsuis la bande originale de ma ville, quelle emoción Ya le poto Karim au phone Il me dit quil ya des folles, comment garder son contrôle ? WAllah, Midnight Express cest lhalla DJ E-Rise, Kenza Farah, on scroit à Kingston ! Jai de ladrénaline qui coule dans lsang On roule, on rode, on est déter' à 2000 Comme ça tu trouves que jai un ptit accent Je viens du Sud et cest comment depuis tout ctemps ? Mais cest quoi ces jaloux qui parlent dans lvent Nous on avance au galop comme un cheval pur-sang Ouais mais cest comment depuis tout ctemps ? On roule, on rode et notre musique traverse le temps Faut quça brille On se remaquille, grosse berlines sur le parking Ce soir tes sur la liste, ya pas dgalère Faut qutu m'suives, même si ça va trop vite On sévade avant que le jour se lève Pull up ! Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes x2 Pourquoi tu veux quon stape ? Cest pas lthème ici On a mis la belle sape, on va bien stenir Fait passer les culs-de-jatte à la heneni Je te fais un flashback, à la Warren G Faut quça brille On se remaquille, grosse berlines sur le parking Ce soir tes sur la liste, ya pas dgalère Faut qutu m'suives, même si ça va trop vite On sévade avant que le jour se lève Pull up ! Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes Tas lhabitude de te faire remballer Papé fait pas la queue, le videur va linstaller On a déserté la zone, jsuis avec les potos ça va poser de grosses sommes</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Délicat, j'dois sortir Monica Triple N Beats, tu le sais maintenant C'est délicat, j'dois sortir Monica Dans une caisse à 200k, ouais ouais ouais, ouais, ouais Une belle chica, elle aime les grosses kichtas Les séjours au Sri Lanka, ouais ouais ouais, ouais, ouais Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone Encor une autre kichta encor une autre Avant Stromae, c'était déjà formidable ouais ouais C'est des déguns, ces grosses khordas c'est des déguns, ces grosses khordas Demande à la décapotable Les jaloux sont toujours là, ouais ouais Ça bi-bi la pure, la bonita la coca, la coca, la coca Et cette putain d'vida, ouais, ouais Pourquoi je l'encaisse mieux sous Ruinart ? dios mío Ouais, ouais, ouais Les crachats, les mégots sur l'sol, y a toujours la queue devant l'hall Devant l'hall, ouais Les CRS, la BAC nord, on s'en bat les couilles, ça charbonne Ça charbonne, ouais, ouais, ouais C'est délicat, j'dois sortir Monica Dans une caisse à 200k, ouais ouais ouais, ouais, ouais Une belle chica, elle aime les grosses kichtas Les séjours au Sri Lanka, ouais ouais ouais, ouais, ouais Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone Location sans permis, on se croit tout permis C'est la vraie zone, mon ami, on ne va pas rentrer cette nuit J'ai croisé ma prof, elle m'a gratté une tof J'étais dans l'bolide pété à la Poliakov Ketama, j'fume la frappe de Ketama Les balance vont fouma, ces temps-ci 'sin, ça va mal Élastiques, kichtas, couleur verte pistache Que ça tourne au chtar, j'mets le plein, j'me barre, ouais Les crachats, les mégots sur l'sol, y a toujours la queue devant l'hall Devant l'hall, ouais Les CRS, la BAC nord, on s'en bat les couilles, ça charbonne Ça charbonne, ouais, ouais, ouais C'est délicat, j'dois sortir Monica Dans une caisse à 200k, ouais ouais ouais, ouais, ouais Une belle chica, elle aime les grosses kichtas Les séjours au Sri Lanka, ouais ouais ouais, ouais, ouais Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone Mais moi j'dois faire du bif, j'peux pas déserter la zone J'peux pas déserter la zone j'peux pas déserter la zone</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mon père c’est ma mère</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>On dit qu'on nenvoie pas les femmes à la guerre Dis-moi de quelle guerre tu parles, chaque jour est une lutte pour nos mères Femmes soldats, elles portent le poids du monde dans le cur sur Terre Chaque jour est une peur de la perdre À ses yeux, son fils n'est jamais le coupable Elle se met en première ligne quand il se fait envahir par le Diable L'oxygène c'est la madre yeah mes trois enfants aimez votre madre Eh yo les mots me manquent, un truc monte l'émotion est grande 9 mois dans son ventre jamais je ne pourrais lui rendre Comment te dire c'est mon histoire, c'est ma grande légende Mon commencement, mon sang ma confidente Je suis un bout delle c'est mon repère le plus évident Le phare le plus brillant quand j'ai des idées noires en Occident Ya que dans ses yeux que je suis resté enfant Elle me comprenait avant même mes première dents Debout au lever du soleil elle s'endort en vieillissant Pas l'habitude de lui dire je t'aime jsais pas peut-être je lui montre autrement Elle a eu le rôle des deux parents J'en veux pas au daron mais jreconnais qu'elle est vaillante On était juste économiquement, pourtant je manquais pas de grand-chose Je suis son septième accouchement Sous son autorité ses valeurs, sa foi en son Créateur, sa force, son cur Jdis que mon père c'est ma mère On dit qu'on nenvoie pas les femmes à la guerre Dis-moi de quelle guerre tu parles, chaque jour est une lutte pour nos mères Femmes soldats, elles portent le poids du monde dans le cur sur Terre Chaque jour est une peur de la perdre À ses yeux, son fils n'est jamais le coupable Elle se met en première ligne quand il se fait envahir par le Diable L'oxygène c'est la madre yeah mes trois enfants aimez votre madre Aucune matière que l'homme a valorisé n'est plus chère que toi mama Je t'élève au rang de soldat Car de ton vivant tu n'auras perdu aucun combat mama, je te dis mashAllah Je remercie le bon Dieu que tu n'aies pas eu besoin de faire le trottoir pour me nourrir Et même si ça avait été le cas j'aurais fait semblant de sourire Pour te cacher ma peine mama, parait-il qu'on s'adapte aux choses qui ne changent pas Ta vie n'est pas la mienne et ma vie c'est pas la même Je men rends compte à chaque fois que je vois Kenza qui sera bientôt collégienne Avoir une fille mama c'est trembler de peur Qu'un jour elle se maquille mama pour un gros menteur Je suis comme ça car je connais les hommes Ils pensent mal alors je te parle avant que l'un de nous deux s'en aille Sur ton autorité et tes valeurs, ta foi en ton Créateur, ta force, ton cur Tu es mon père et ma mère On dit qu'on nenvoie pas les femmes à la guerre Dis-moi de quelle guerre tu parles, chaque jour est une lutte pour nos mères Femmes soldats, elles portent le poids du monde dans le cur sur Terre Chaque jour est une peur de la perdre À ses yeux, son fils n'est jamais le coupable Elle se met en première ligne quand il se fait envahir par le Diable L'oxygène c'est la madre yeah mes trois enfants aimez votre madre Aux mères de familles nombreuses et de familles malheureuses Veuves ou divorcées, secrètement amoureuses À celles qui prennent des cachets en fin de mois quand tombe la douloureuse Esclaves de Cofidis pour des meubles À toutes celles qui se privent pour faire briller leurs gosses À toutes celles qui ont des rides, qui tiennent encore leur poste Aux jeunes mamans qui éduquent la prochaine génération À toutes celles qui ont vu mourir leur petit nourrisson Aux mères de mes amis qui me voient comme leur fils À tous leurs sacrifices, à toutes leurs blanches nuits Sous votre autorité et vos valeurs, votre foi en votre Créateur Votre force, votre cur vous êtes nos pères et nos mères On dit qu'on nenvoie pas les femmes à la guerre Dis-moi de quelle guerre tu parles, chaque jour est une lutte pour nos mères Femmes soldats, elles portent le poids du monde dans le cur sur Terre Chaque jour est une peur de la perdre À ses yeux, son fils n'est jamais le coupable Elle se met en première ligne quand il se fait envahir par le Diable L'oxygène c'est la madre yeah mes trois enfants aimez votre madre Maman, Maman Pardonne-moi, pardonne-moi pour tout le mal que je t'ai fait Et les enfants, respectez nos mères, respectez nos mères parce que tous les jours elles se battent Elles se battent pour nous Moi mon paradis c'est ma mère, mon argent c'est ma mère Toutes les souffrances que j'endure c'est pour ma mère Nos pères ils partent on vous pardonne mais nos mères on ne vous oubliera jamais Parce que le paradis se trouve sous les pieds de nos mères Mon père c'est ma mère, mon père c'est ma mère Maman, pardonne-moi, maman, pardonne-moi On dit qu'on nenvoie pas les femmes à la guerre Dis-moi de quelle guerre tu parles, chaque jour est une lutte pour nos mères Femmes soldats, elles portent le poids du monde dans le cur sur Terre Chaque jour est une peur de la perdre À ses yeux, son fils n'est jamais le coupable Elle se met en première ligne quand il se fait envahir par le Diable L'oxygène c'est la madre yeah mes trois enfants aimez votre madre1</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nineta</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>J'ai ramené d'la frappe, à 24 le litre, c'est du jaune Qu'on jacte de la BAC, que ils frappent les clins, tous ces morts Bientôt, j'mets un yacht à mon nom, amarré sur l'Vieux-Port Et quand j'sais plus quoi faire, j'finis au cabaret Comme tout l'monde mets le prix, j'ai la dope, j'ai le plan J'ai la gov', trafiquant, sur la côte, sur signal pour gérer le bloc Ils sont rentrés chez ma mère sans faire toc, toc, toc Et j'ai entendu crier C'est la police Maintenant, le 17 me demande des tos-ph', tos-ph', tos-ph' Alors que dans la voitur, j'ai un colis M'appelle pas fratello, j'vaux dux lourds dans l'cello' À l'affût, j'vois les gyrophares dans la zone M'appelle pas fratello, cinq étoiles le tel-hô J'rentre bourré, j'mets les plein phares Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone La coupe à Gustavo, chemise tout en soie, j'donne le go Armé comme un Yougo', tu bégayes comme un zouave, ouais, puto Le guetteur n'a plus d'voix, on a perdu 10K, quel malheur J'suis dans le RS3, des millions, il m'en reste trois et nique ta sur Mykonos, Saragosse, j'mets les voiles sans dire adios Une folle, deux shorts, un peu d'shit, j'vois la vie en rose Tu as la boco, ça sent trop les assisses, là t'es boco, tu me fais le grossiste À Mexico, t'y es que sur Netflix que sur Netflix M'appelle pas fratello, j'vaux deux lourds dans l'cello' À l'affût, j'vois les gyrophares dans la zone M'appelle pas fratello, cinq étoiles le tel-hô J'rentre bourré, j'mets les plein phares Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone Y a mon nom sur la liste mais j'suis pas sur la piste J'fais la bise à mes clins, ils m'demandent pourquoi j'suis triste Y a mon nom sur la liste mais j'suis pas sur la piste J'fais la bise à mes clins, ils m'demandent pourquoi j'suis triste Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone Nineta, nineta, nineta, nineta, nineta, nineta, nineta dans la zone</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Oui j'ai traîné, j'ai zoné, le bon Dieu m'a guidé L'équipe, désolé, c'est devenu sans pitié Un peu de Jack Miel pour m'exciter Roue arrière y'a pas d'freins, j'frappe dans la cité Ça vend du shit en lamelle, et l'amné' C'est toi qui fais l'mac au final tu veux ramener Mes potes m'ont dit Tu as embrouille, j'y vais Au pire j'mets un masque sous le casque AGV C'est Jul-A.L.O.N en direct d'la Puenta C'est pour les frangins qui mettent en i l'engin Normal, pour les anciens Pour ceux en chien qui rôdent avec le machin Que ça parle en traître, y'a des mecs comme ça Que des des délits d'fuite c'est le béton ça Que ça veut s'montrer, y'a des mecs comme ça Que d'la haine et du vice c'est le béton ça Ça s'engraine, ça gratte toute la nuit Les sheitans de l'ennui Ça fait des grosses peines des Baumettes à Luynes Et jgamberge, plus j'fume, plus j'oublie Survêt' en boîte, normal Ça cambute, ça vole, normal Ça s'ballade chargé, normal J'fume ma drogue, normal En cas d'poursuite, normal J'cache la plaque, normal Paire de Oakley, normal Ça braque sans cagoule, normal Raptor, hardcore, ai-je tort ? Tes morts La nuit plein de thos-my, ça parle et rien qu'ça dort Déter', sur mon père, on tempère ou on t'enterre Bédo, perso, moto, hasta luego Civils, patrouilles, Arah, la dépouille Au parloir, au comptoir, en cagoule, en embrouille À Nanterre, au Pontet et en affaires, tu vas payer 1-3, la plaque frère, sur Pépé, y'a d'quoi faire Ça s'engraine, ça gratte toute la nuit Les sheitans de l'ennui Ça fait des grosses peines des Baumettes à Luynes Et jgamberge, plus j'fume, plus j'oublie Survêt' en boîte, normal Ça cambute, ça vole, normal Ça s'ballade chargé, normal J'fume ma drogue, normal En cas d'poursuite, normal J'cache la plaque, normal Paire de Oakley, normal Ça braque sans cagoule, normal Frère t'es trop bizarre, j'bouge à Ibiza Passe-moi une Rizla, elle est bonne, brise-la J'vois qu'tu dévisages, fais péter le péage C'est Jul-Alonzo dans le virage Frère t'es trop bizarre, j'bouge à Ibiza Passe-moi une Rizla, elle est bonne, brise-la J'vois qu'tu dévisages, fais péter le péage C'est Jul-Alonzo dans le virage Y'a ceux qui braquent, braquent, braquent, y'a ceux qui volent, volent, volent Ça sort la pince, pince, pince, ça nique l'anti-vol, vol, vol J'représente la misère, sère, sère en ZX 10R, 10R, 10R Trop d'potos bizarres, zarres, zarres ou c'est moi qui serre, serre, serre Ça s'engraine, ça gratte toute la nuit Les sheitans de l'ennui Ça fait des grosses peines des Baumettes à Luynes Et jgamberge, plus j'fume, plus j'oublie Ça s'engraine, ça gratte toute la nuit Les sheitans de l'ennui Ça fait des grosses peines des Baumettes à Luynes Et jgamberge, plus j'fume, plus j'oublie Survêt' en boîte, normal Ça cambute, ça vole, normal Ça s'ballade chargé, normal J'fume ma drogue, normal En cas d'poursuite, normal J'cache la plaque, normal Paire de Oakley, normal Ça braque sans cagoule, normal Normal, normal Normal, normal Normal, normal Normal, normal26</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Olala</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Ouh-oh-oh Elle ne le sait pas Ouh-oh-oh-oh Ouh-oh-oh-oh Elle ne le sait pas Combien j't'ai fait d'appels de phare ? À l'époque ou je trainais en bas Les grands dansaient encore le mia Mia, j'comprenais pas les femmes Beautiful comme Angelina Comme Georgina ou comme Rihanna J'avais pas encore fait l'million Mignon, mais tu n'me voyais pas Après minuit, j'tourne au quartier, j'ai pas sommeil Personne m'a fait gamberger comme elle J'me dis qu'y aura pas plus fidèl que mon oseille Yah, yeah, yeah, ouais J'me dis qu'en vrai un mec comme moi c'est pas pour elle C'est un missile, elle voudra dégainer dans l'jet Ah bah ouais, ah bah ouais, ah bah ouais Ah bah ouais Et j'me dis Olala, olala J'la veux, elle ne le sait même pas Elle ne le sait pas J'l'ai jugé, sans la connaître J'l'ai oubliée avec une autre Elle ne le sait pas Et j'me dis Olala, olala J'la veux, elle ne le sait même pas Elle ne le sait pas J'l'ai jugé, sans la connaître J'l'ai oubliée avec une autre Elle ne le sait pas Apparemment l'amour c'est rien C'est rien Le C.A d'un joueur de Serie A Reviens vite avant qu'mon cur s'en aille S'en aille Ou tu finiras solo Tu finiras solo N'écoute pas ce qu'on raconte sur moi Sur moi C'est toi que je recherche dans le binks Dans le binks Ne me force pas à faire une descente Refroidi comme mois de décembre Refroidi comme mois de décembre T'es la plus belle recette, t'es pas trop refaite, tu s'ras ma moitié, yah Pas trop sentimental, faut pas faire d'enquête, c'est moi qui t'manquait, yoh J'suis parti sans te dire au revoir Un peu triste, l'air de rien j'ai dis Yo-yo-yo-yo J'suis parti sans te dire au revoir Un peu triste, l'air de rien j'ai dis Yo-yo-yo-yo Et j'me dis Olala, olala J'la veux, elle ne le sait même pas Elle ne le sait pas J'l'ai jugé, sans la connaître J'l'ai oubliée avec une autre Elle ne le sait pas Et j'me dis Olala, olala J'la veux, elle ne le sait même pas Elle ne le sait pas J'l'ai jugé, sans la connaître J'l'ai oubliée avec une autre Elle ne le sait pas J'suis parti sans te dire au revoir Un peu triste, l'air de rien j'ai dis Yo-yo-yo-yo</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>On craint dégun</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>C'est un rap bio, mamé C'est un rap naturel, enfoiré Ecoute ça Je rappe depuis Jupiter, N.A.S.A, j'suis en orbite Calma, j'suis que de passage, pourquoi tu cogites ? 'Bats les bats les couilles, j'suis votre père, bande de comiques Hew hew, c'est Guinomo, j'ai la classe à Tony Défouraille le game au tracteur, encore j'suis niaks Va te faire violer par un pasteur a'oudoubillah Mes vatos locos me disent Finis-les, qu'on s'casse à Cuba J'ai le Cohiba dans la boca, hijo de puta Je m'ennuie, où sont tes rappeurs ? J'suis en folie Carré, croix, c'est du Boateng face à Messi Les fils de pute diront que c'est du piston, qu'j'ai d'la pussy Tu ramènes ta fraise, j't'écrase, tu finis en smoothie Le langage du Uzi, j'baise avec un fusil J'vous écoute, rien n'est aussi chaud que mon jacuzzi Surtout, salis pas mon Balmain, j'ai RDV D'la GAV aux boutiques LV à vitesse grand V On like les photos de ta meuf, on craint dégun Le commissaire m'interroge, j'connais dégun Il pose quelques bouteilles mais c'est un dégun Tu dis que tu n'es pas seul mais j'vois dégun On craint dégun, on craint dégun Les muscles n'arrêtent pas les balles, on craint dégun On craint dégun, on craint dégun La boxe n'arrête pas les balles, on craint dégun Espèce de karbouna, essuie ta hanouna Ici c'est Marseille, les gangs n'ont pas de bandana J'suis dans les airs, jamais à terre, ciseau au Maracanã A Vasco de Gama, à Copa Cabana Qui veut chupa chupa ? J'suis tout nu en Balenciaga J'réhausse le prix du taga et le prix d'la hagra Ils sont tous ttus-ba comme la terre de Roland-rros-Ga Tu fais pas la révolution avec un pull Che Guevara Mon fils, à 6 ans, conduit un Stunt normal Pendant que je bois mon Capri-Sun, normal En deux-trois temps j'encule la concu' d'vant celui qu'j'ai conçu Il m'appelle plus Papa mais Papé, normal On contrôle iTunes avec ou sans autotune On va reprendre l'OM, on va faire sauter Labrune Ta go a 10 000 followers, j'crois qu'bientôt elle te quitte Elle connait mon équipe On like les photos de ta meuf, on craint dégun Le commissaire m'interroge, j'connais dégun Il pose quelques bouteilles mais c'est un dégun Tu dis que tu n'es pas seul mais j'vois dégun On craint dégun, on craint dégun Les muscles n'arrêtent pas les balles, on craint dégun On craint dégun, on craint dégun La boxe n'arrête pas les balles, on craint dégun J'en ai étonné, j'en ai détourné J'en ai retourné, j'en ai fait tourner J'le fais à la moi, j'le fais à la chien 1-3 jusqu'à la moelle, j'le fais à la mien, à la bien Plus l'âge, plus le temps, plus rien à péter Encore plus pété, pourtant, plus rien à fêter Non, pas mauvais type, juste en mauvais trip Couché tard, levé tôt, faire que pour money triple Mieux un ennemi qu'un ami jaloux Mieux crever debout que vivre à genoux On craint dégun, roule avec les nôtres Tu seras avec nous si tes larmes coulent avec les nôtres En temps et en lieu on s'est fait sans eux On prend tout en le', pas d'fumée sans feu Gosses de la côte sud, au nombre de jours, d'peines Bosse de longues nuits pour que le jour paye On like les photos de ta meuf, on craint dégun Le commissaire m'interroge, j'connais dégun Il pose quelques bouteilles mais c'est un dégun Tu dis que tu n'es pas seul mais j'vois dégun On craint dégun, on craint dégun Les muscles n'arrêtent pas les balles, on craint dégun On craint dégun, on craint dégun La boxe n'arrête pas les balles, on craint dégun3</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>On marquera l’histoire</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Tant d'années Hun, yeah Cuatro mamé, yeah On a le regard noir comme Zé Pequ', on met des lunettes, c'est pas pour faire les stars Tya beau siffler, jamais on s'arrête, on laisse pas une miette, faut que tu respectes ça Il nous reste des valeurs sinon, on aurait tous serré Heureusement qu'il nous reste des valeurs sinon, on aurait tous serré Ça recommence, fais-moi tirr une barre, j'évacue l stress, j'évacue le sale J'ai du mal à mener ma propre guerre, tu me parles de l'autre, tire-toi une balle J'ai rôdé dehors jusqu'à l'aube, j'ai pas trouvé réconfort sous sa robe Les mains dans la merde, elles sont faites pour l'or Si on joue, c'est pour exploser le score, oui, mi amor On s'est toujours senti mal aimé, qui sait, on peut se faire allumer Au feu rouge de la calle, à vouloir trop mailler, on tombera sur le mauvais allié On s'est toujours senti mal aimé, qui sait, on peut se faire allumer Au feu rouge de la calle, à vouloir trop mailler, on tombera sur le mauvais allié Ici, y a rien de neuf, j'suis en KB9, on marquera l'histoire Tu parles trop comme une meuf, on te sort le .9 pour abréger l'histoire Nous, on connaît la hess, on l'a tutoyée depuis tant d'années Je te jure le S, on connaît la hess, on l'a tutoyée depuis tant d'années Ici, y a rien de neuf, j'suis en KB9, on marquera l'histoire Tu parles trop comme une meuf, on te sort le .9 pour abréger l'histoire Nous, on connaît la hess, on l'a tutoyée depuis tant d'années Je te jure le S, on connaît la hess, on l'a tutoyée depuis tant d'années Ah, yah, yah, yah Les montres de nos vies sont à la bourre, on traîne vers le four, Sheitan nous fait la cour Ouais On a pour symbole nos grandes tours, wAllah, rien à foutre si vous faites les sourds Rien à foutre J'arrive pas à faire le bourge, je roule même si j'ai tordu la fourche Même après K.O, jamais je me couche, je repense à nos défunts sous la douche, khey, ça me touche J'me suis mis à l'écart, je vais plus au bar sinon, je me bats Je rêve de finir aux Bahamas, j'suis pas née en bas mais à Beauregard Faut rester loyal, rester véritable, la fils de puterie n'est pas guérissable La fils de puterie n'est pas guérissable, y a que mes bulletins scolaires qui étaient lamentables On peut bouger très loin du tieks mais le tier-quar sera toujours en nous Mais le placard sera toujours en nous mais les cauchemars seront toujours en nous J'te jure qu'on peut bouger très loin du tieks mais le tier-quar sera toujours à nous Mais le placard sera toujours à nous mais les cauchemars seront toujours en nous Capo Ici, y a rien de neuf, j'suis en KB9, on marquera l'histoire Tu parles trop comme une meuf, on te sort le .9 pour abréger l'histoire Nous, on connaît la hess, on l'a tutoyée depuis tant d'années Je te jure le S, on connaît la hess, on l'a tutoyée depuis tant d'années Ici, y a rien de neuf, j'suis en KB9, on marquera l'histoire Tu parles trop comme une meuf, on te sort le .9 pour abréger l'histoire Nous, on connaît la hess, on l'a tutoyée depuis tant d'années Je te jure le S, on connaît la hess, on l'a tutoyée depuis tant d'années Ah, yah, yah Ah, yah, yah Ah, yah, yah Ah, yah, yah Ah, yah, yah Ici, y a rien de neuf, j'suis en KB9, on marquera l'histoire Tu parles trop comme une meuf, on te sort le .9 pour abréger l'histoire Nous, on connaît la hess, on l'a tutoyée depuis tant d'années Je te jure le S, on connaît la hess, on l'a tutoyée depuis tant d'années</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>On met les voiles</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Kore, Alonz', yeah Mamé Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Pattaya on arrive, t'es pas prêt, tu connais pas l'délire À la cité tout part à la dérive, tu ressens la sère-mi sur la tête à Karim Changement de décor, on se casse à l'aéroport Vas-y prends seulement ton passeport, on va fuck, on va fuck, on va fuck À peine arrivé je veux plus rentrer à la maison J'parle français, anglais ou thaïlandais c'est avec l'accent Tout est contrefaçon, on s'en bat les couilles 'toutes façons Loin de tous mes ennemis, tu peux pas comprendre car tu connais pas nos vies Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Ouais ouais ouais on connaît, t'as ken un ladyboy on t'a cramé Le dancefloor est rempli de Belvés, si t'es jaloux c'est peut-être que tu me remets Bébé j'suis le meilleur, tu trouveras pas mieux ailleurs Si tu me mets de mauvais humeur, je te plaque, je te plaque, je te plaque C'est le paradis des cailles-ra, 12 heures d'avion Rien à foutre j'ai les poches pleines de bahts, je dépense, j'suis le patron On se donne en spectacle, T-Max noir mâte, pas d'plaque On s'défoule au centre de tirs, tu peux pas comprendre car tu connais pas nos vies Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Pattaya, ouais ouais Pattaya, Pattaya Pattaya, ouais ouais Pattaya, Pattaya Pattaya, ouais ouais Pattaya, Pattaya Pattaya, ouais ouais Pattaya, Pattaya Au quartier c'est la merde, oui viens on s'fait la malle Au calme en bord de mer, qu'on kiffe la life Ici tu connais, y'a rien à faire, prépare tes affaires on met les voiles Besoin de faire la fête à Pattaya Pattaya !2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>OOP</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Vous pouvez entrer pouvez entrer Ah ah, ah ah, ah ah, ah ah Fais pas la star, les étoiles brillent que la nuit Milieu instable, que des faux amis Ils croient qu'ils sont forts, ils ont percé que leurs gadjis toi, tu m'excuses J'ai les Matini depuis l'époque Platini tcha-tcha-tcha J'ai fait le buzz, j'ai pas changé non, non La vie d'ma mère, ils veulent tous manger tous, tous, tous , la zone c'est danger danger, danger, danger Que des tes-traî c'est pas des hommes On sait bien qui sera là pour toi Ils font les vaillants quand y a embrouille, ils mettent les voiles On est dans le hall, on vend la moula On a l'monopôle, où sont mes braves ? C'est Alonzo On sait bien qui sera là pour toi Ils font les vaillants quand y a embrouille, ils mettent les voiles On est dans le hall, on vend la moula On a l'monopôle, où sont mes braves ? C'est Alonzo J'ai la patate, j'vais tout niquer cette année Fais ton pactage, 'sha'Allah tu sors cette année 'sha'Allah Mama dans le cur, mon paradis est sous ses pieds Elle a jamais voulu marcher en Giuseppe en Giusejuse Tu veux me faire, le fer est chargé drah, ra-ta-ta J'suis plein de vices, ils vont me venger drah, drah, crck , la zone c'est danger Que des tes-traî c'est pas des hommes ouais On sait bien qui sera là pour toi Qui ? Qui ? Ils font les vaillants quand y a embrouille, ils mettent les voiles On est dans le hall, on vend la moula On a l'monopôle, où sont mes braves ? C'est Alonzo On sait bien qui sera là pour toi Ils font les vaillants quand y a embrouille, ils mettent les voiles On est dans le hall, on vend la moula On a l'monopôle, où sont mes braves ? C'est Alonzo Oh, c'est Alonz' c'est l'Alonz' C'est Alonz' c'est l'Alonz' C'est Alonz' c'est l'Alonz' C'est Alonz' c'est l'Alonz' C'est Alonz' wAllah que c'est l'Alonz' Capo dei Capi, cõno Capo dei Capi, cõno Capo dei Capi, cõno C'est Capo dei Capi, cõno Capo dei Capi, cõno Capo dei Capi, cõno Capo dei Capi, cõno Capo dei Capi, cõno</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Oublie mon nom</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mes gens le savent, c'est plus qu'une chanson Je masque ma rage, malgré les tensions Plongé dans le noir, j'ai toute ma vision Oublie mon nom, comme dans la légion Comme dans la légion, oublie mon nom Mon pote, mon pote Mon pote hey, oublie mon nom Mon pote, mon pote Mon pote ouais, oublie mon nom Je te reconnais plus, je vois que tu t'emportes Avec qui tu traînes je crois que tu pers le nord Tu sais qui j'suis, moi j'sais plus qui t'es T'as vu ma mère, hier à la cité J'te dois pas de sous, j'me cache pas Je trace ma route, j'te souhaite même pas le mal Mais quand j'y pense, comment on a pu en arriver là pour ça Mon pote, mon pote Mon pote hey, oublie mon nom Mon pote, mon pote J'aimerais pouvoir te pardonner Mais je peux pas je peux pas Mon pote, mon pote Comme dans la légion Oublie mon nom Ouais ouais ouais ouais ouais ouais</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PADDOCK</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mamé Après la violence viendra les pleurs, bisous à mes prédécesseurs La chance bloquée dans l'ascenseur, j'suis monté à pied, noyé dans ma sueur Connu comme les Beatles, connu comme Dalida, on s'enlèvera jamais la vida Veulent savoir combien j'pose vu que j'ai l'buzz, j'te l'redis, j'suis dans la corrida Grandi dans le vice comme tu as pas idée, ça prend le p'tit déj' à l'heure du dîner On va pas débattre chez Morandini, de comment ça s'fait qu'on s'est mis à dealer Reh, reh, reh, reh Personne qui nous parle mal, ça c'est fini, vainqueur comme Nadal en Australie Sur la nationale, j'fais du rallye, on est au khedma pour les khaliss J'vois qu'une seule issue la porte j'vais la casser Des proches m'ont déçu, ils font partie d'mon passé Mamé J'finirai pas ma vie dans la zone Faut des sommes Breh, faut des sommes Breh Faut des sommes Breh, faut des sommes Pah, pah, pah Le bruit de la gari, je me crois sur le paddock Vroum, vroum, vroum, vroum, vroum Le réseau débite comme sur Amazon De midi à minuit, c'est maudit, maudit Ça pousse sur le sol pour garder la forme Dans la coche, y a la mzinga Pour la madone Dans la coche, y a la mzinga Y a que des hommes Le bruit de la gari, je me crois sur le paddock Vroum, vroum, vroum, vroum, vroum Le réseau débite comme sur Amazon De midi à minuit, c'est maudit, maudit Ça pousse sur le sol pour garder la forme Dans la coche, y a la mzinga Pour la madone Dans la coche, y a la mzinga Y a que des hommes Breh Ils nous ont forcé à penser comme ça, après ils s'étonnent de nous voir dans l'sale Billets bleus comme le maillot de Drogba, la cité va se saper chez Versace Les soirées sont longues, le pilon est long, j'suis pété, j'suis en pleine hallucination J'écris des chansons, là, je n'ai rien à fêter La fin de l'histoire sera triomphale que si je pose mon front sur l'sol J'suis en boîte auto, impossible que j'cale, en 911, impossible que tu m'colles J'suis avec des vrais cous', j'ai laissé les traîtres se manger entre eux Entre eux Je dors pas, j'connais les enjeux Enjeux, je n'avais pas un pour faire deux Faire mieux, faire mieux J'vois qu'une seule issue la porte j'vais la casser Des proches m'ont déçu, ils font partie d'mon passé Mamé J'finirai pas ma vie dans la zone Faut des sommes Breh, faut des sommes Breh Faut des sommes Breh, faut des sommes Pah, pah, pah Le bruit de la gari, je me crois sur le paddock Vroum, vroum, vroum, vroum, vroum Le réseau débite comme sur Amazon De midi à minuit, c'est maudit, maudit Ça pousse sur le sol pour garder la forme Dans la coche, y a la mzinga Pour la madone Dans la coche, y a la mzinga Y a que des hommes Le bruit de la gari, je me crois sur le paddock Vroum, vroum, vroum, vroum, vroum Le réseau débite comme sur Amazon De midi à minuit, c'est maudit, maudit Ça pousse sur le sol pour garder la forme Dans la coche, y a la mzinga Pour la madone Dans la coche, y a la mzinga Y a que des hommes Breh Mamé</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Papa Allo</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Wesh, papa, allô ? Tu réponds pas tu saoules, t'es où ? Allô ? J'ai besoin de sous, d'habits... allô ? Lécole ça me rend fou, j'm'ennuie... allô ? Allô ? Et wesh t'es jamais là... allô ? Ils disent tous que je suis riche car j'suis ton fils, c'est chaud Ils técoutent tous ici, c'est trop Rien à foûtre qu'tu sois une star J'veux mon père moi... allô ? Allô ? Fils, j'suis en voyage pour le taff, je marrête pas Clip, concert, studio, j'finis tard, ne m'en veux pas Fils faut des lovés, bientôt j'vais tout stopper 20 ans que j'suis dans le game, tu grandis, je ne vois pas Qu'est-ce qu'il t'manque ? T'as la Play, Asics, Piwi, Philipp Plein Tout ce que tu veux, j'te le paye Mais sache qu'on a rien sans rien Tiens-toi bien la vie c'est pas un film, c'est pas Gomorra Attends j'dois raccrocher, là je monte sur scène, rappelle-moi ! Wesh, papa, allô ? Tu réponds pas tu saoules, t'es où ? Allô ? J'ai besoin de sous, d'habits... allô ? Lécole ça me rend fou, j'm'ennuie... allô ? Allô ? Et wesh t'es jamais là... allô ? Ils disent tous que je suis riche car j'suis ton fils, c'est chaud Ils técoutent tous ici, c'est trop Rien à foûtre qu'tu sois une star J'veux mon père moi... allô ? Allô ? Fils so comman parle-moi de l'école, c'est quoi c't'histoire ? J'ai pas de diplômes, j'rendais inquiète ma mère, seule Fais pas comme moi, j'te laisserai jamais rapper J'te laisserai jamais tenfumer, jamais boire J'te laisserai jamais être moi, ouais, j't'aime trop pour ça J'sais qu'on rattrape pas le temps, j'ai raté de bons moments Quand je suis là j'en fais trop, j'essaye de combler le manque Dis à tes potes que l'album arrive, qu'ils s'inquiètent pas J'suis le papa qu'a le plus de style, avoue qu'je mens pas ! Wesh, papa, allô ? Tu réponds pas tu saoules, t'es où ? Allô ? J'ai besoin de sous, d'habits... allô ? Lécole ça me rend fou, j'm'ennuie... allô ? Allô ? Et wesh t'es jamais là... allô ? Ils disent tous que je suis riche car j'suis ton fils, c'est chaud Ils técoutent tous ici, c'est trop Rien à foûtre qu'tu sois une star J'veux mon père moi... allô ? Allô ? La la la la la la, la la la la la la Wesh, papa, allô ? Rien à foûtre qu'tu sois une star J'veux mon père moi... allô ? Allô ? La la la la la la, la la la la la la Dis à tes potes que j'suis riche du cur, je m'la pète pas Laisse-leur Alonzo, toi viens embrasser ton papa !5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Papier</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Semaine en charbon, Semaine en charbon Devant les daronne, Devant les daronne Et il y a les pe-pom, Et il y a les pe-pom Et ça fait pas ding dong, Et ça fait pas ding dong Ma putain de vie dartiste dartiste met des mots dans la Cabeza Cabeza, mapessas de la SACEM mapessas, un frère dans le trafic trafic, à 16 ans une vie dadulte dadulte autour que des fils de pute de pute, tous ces jaloux qui te piste te piste, tous ces couplet dans mes feat Mais Alonzo, et si y a bagarre on saute, et si y a bagarre on saute mama, à tout fait pour quon sen sorte, à tout fait pour quon sen sorte wallah, ty étais où toute ces années ces années, tes grand mais pas née pas née, je sais qui et qui désormais, passe moi le Ruinart Tu votes penalty, le quartier cest baltique, cest la vie, mariage, Ferrari, ça rentre cri arra, fuck lautrice elle veut prendre mon cur mais je suis à lacteur, je suis servi, il me faut 2 secta ouais dans les hauteurs de ma ville Semaine en charbon, Semaine en charbon cest la loi Devant les daronne, Devant les daronne ça ravitaille Et il y a les pe-pom, Et il y a les pe-pom Sinaloa Et ça fait pas ding dong, Et ça fait pas ding dong à 6h du mat Le papier tombe pas du ciel, oui ma belle tes attiré par les gérants, le profite des étincelles, tu tournes la tête sur ma mère ça devient gênant Tête cramé on est toujours fortif fortif, jaime quand elle porte pas de soutif soutif, absent en classe même sans notif notif, on aurait voulu finir sportif sportif, contente de biff on escalade escalade, la noche Marseille on se balade balade,un frère est mort vers les escalate escalate, on oubliera pas même sous salade salade On perdera pas la tête, menotté de la Squadra ouais, je baisse le regard je suis lewé, ma mère naurais pas de date, nourrice te-te kilos nourrice te-te kilos, galactique comme vigo, on a pas la boco au bigo Le papier tombe pas du ciel, oui ma belle tes attiré par les gérants, le profite des étincelles, tu tournes la tête sur ma mère ça devient gênant Semaine en charbon, Semaine en charbon cest la loi Devant les daronne, Devant les daronne ça ravitaille Et il y a les pe-pom, Et il y a les pe-pom Sinaloa Et ça fait pas ding dong, Et ça fait pas ding dong à 6h du mat Le papier tombe pas du ciel, oui ma belle tes attiré par les gérants, le profite des étincelles, tu tournes la tête sur ma mère ça devient gênant</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Parcours</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Alonz' Yeah Ete, comme hiver En auto, en moto J'vois des frères partir trop tôt On dit Allah y Rarahmo C'est Dieu qui prend, Dieu qui donne On est rien dans c'monde On fais des choix qu'on regrette On s'en mort les doigts devant tout l'monde On grandit, en té-ci Les darons sont partis On protège la madré La CAF paye pas les Dolce Donc délinquance, turbulence, guettage, dès l'enfance Braquage à l'adolescence et on gamberge dans tous les sens Incertains, l'avenir, jt'en parle, j'transpire On me chuchote des horreurs que je préfère ne pas te dire Le nerf de la guerre, c'est les lovés Dans la zone, toute l'année Représailles, toute l'année Faut assumer, toute l'année Oh, et je m'endors, sans rêver, sans rêver, j'te promet Oh, une nuit encore, sans jamais oublier Ete, hiver, amigo, frérot, sangtcho On pense à toi, tu nous manques Au plus bas, on remonte la pente T'es dans nos mémoires, de te voir, faut y croire, c'est l'histoire Lumière, poussière, transfert vers la terre-mère C'est les souvenirs, qui rappellent, qui nous sommes quand on s'perd Quand les nerfs remontent à la tête Prier aide à s'en remettre Je suis papa, quatre fois, wallah, Kenza, mon aînée soit forte Montre l'exemple aux trois autres Drogué par la monnaie Je pense monnaie Je vis monnaie Je dors monnaie Trop absenté pour vous élever, faut m'excuser, j'veux qu'vous manquiez de rien dans ce monde Tout ce temps que je gache, à fumer, à me saouler, chercher l'inspi pour mes CDs Ete, hiver, mes potos, dans le bendo, meurt tôt, hello, c'est chaud, c'est trop, je n'ai plus les mots C'est Alonzo, à deux millimètres de la réalité, dans l'nord, dans l'sud, ils le savent que je suis le quartier Oh, et je m'endors, sans rêver, sans rêver, j'te promet Oh, une nuit encore, sans jamais oublier Oh, et je m'endors, sans rêver, sans rêver, j'te promet Oh, une nuit encore, sans jamais oublier3</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Physio</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>J'ai pas le BAC ni le BAFA J'met des Bragard, je viens d'en bas Je vois Tonino qu'arrive en classe A, il me dit qué pasa ? J'lui dis on sort, ça se passe là ! Ils font hagra, les videurs les veulent pas ! Pourtant ils sont accompagnés, biens sapés ils vont pas rentrer Ils sont cramés à l'année, même si les brassards tournent très tard On est fêtards fait un pétard je chante dehors c'est pas grave Oooh Physio ! Tu veux un coup d'pompe ? Tu m'laisses devant la porte ! Oooh Physio ! Tu veux un coup d'pompe ? Hoho hohoo OK, toi t'y es coquine, je suis marié je te l'affirme Y'aura pas de raggamuffin, je rappe pour les refoulés les mecs au parking À croire que tous les samedis tu passes un casting ! La boite s'est vidée de rosé sur les békés, dur d'éviter la cave pétée Je vois des Beyoncé en talons doufi serrés, les micros ont la dalle mamé Ils ont pas de compressor, de Christian Dior, tous en mode Usain Bolt Ça va vite ça rode, jusqu'à l'aube, tous en mode c'est les quartiers nord ! Dans la mêlée, oh papé, ne viens pas pour te vider, t'inquiète j'assure le show La vodka et l'ananas, c'est notre soirée, comment tu t'amuses pas ? Eh fais halla ! Si la belle étoile mi hermana ... je suis malade je suis malade.. Oooh Physio ! Tu veux un coup d'pompe ? Tu m'laisses devant la porte ! Oooh Physio ! Tu veux un coup d'pompe ? Hoho hohoo On attend plus on est deter' roue arrière, doigt en l'air Prends l'euro, coupe à l'eau si le taux de problèmes t'empègue ! On attend plus on est deter' roue arrière, doigt en l'air Prends l'euro, coupe à l'eau si le taux de problèmes t'empègue ! Oooh Physio ! Tu veux un coup d'pompe ? Tu m'laisses devant la porte ! Oooh Physio ! Tu veux un coup d'pompe ? Hoho hohoo On fait TB sur le parking, on s'en bat les couilles de ta boîte ! On fait TB sur le parking, on s'en bat les couilles de ta boîte ! C'est, c'est, c'est pour la crapulerie qui boit de la Heineken I'm crazy, A.L.O.N des blocks1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PLAQUÉ 13</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Block Noxious Arty Spiker Miller J'vais commencer par Nique ta sur, j'fais des masterclass, j'mérite ballon d'or 'lon d'or J'articule comme des coups d'taser, tu tiens plus en place, j'suis au bar, on baisse les stores Les stores Les drapeaux ont souvent un croissant d'lune, vit en meute comme loup, on jette l'arme du crime L'arme du crime Tu es pas des nôtres, tu donnes pas d'news, en plus tu parles trop, avale ta carte SIM Ta carte SIM Le T-Max démarre d'la L2, ta femme donne le go après s'être fait ken S'être fait ken Ils sont rares les humains réglos, bientôt, j'bouge sur Mars, biz avec aliens Aliens Organisé comme BMF Oh-oh, coupe whisky avec Schweppes agrume Oh-oh Chaise pliante en bas d'la tour F, j'écoute F.F, j'suis zehef, j'ploum-ploum-ploum On commence par quel fils de pute qui a prédit ma chute ? J'suis en pleine montée, ouais Oh-oh Le Jack honey commence à m'faire d'l'effet, aéroport d'Bodrome, j'arrête pas d'bipper, ouais Oh-oh Sur le terrain, y a pas d'arbitre, après chaque génération, on r'met la balle au centre Rappeurs et dealers, le point commun, c'est les gros titres Quand les bleus quadrillent le secteur, ouais, les guetteurs chantent Akha Akha, j'arrive en 6.3 Trois, plaqué 1.3 Trois, j'peux pas changer nos vies J'peux pas changer nos vies Les hommes ne pardonnent pas Pas, j'fais les cent pas Pas et crois pas que j'oublie Crois pas que j'oublie Pourquoi j'ai tant d'ennemis ? Et les jours de pluie, tu peux pas voir mes larmes Tu peux pas voir mes larmes Qu'importe le prix, je mets la kichta, j'achète ton calme J'ai plus de permis, je roule en 50 En 50, j'ai plus trop d'amis, j'fais gaffe qui je fréquente Qui je fréquente Et ça rend service de manière hésitante, pour prendre ton hazi, ils presseront la détente Presseront la détente On sait qui est qui, rien n'sert d'communiquer, ouais Ouais, marche avec harkis, tu te feras niquer, ouais Ouais C'est pas de l'inspi', c'est la réalité, tout peut m'arriver, brr-brr c'est la sonorité Ça piste fort, hendek les stories, j'suis dans l'Sud, les rumeurs vont trop vite Jusqu'au Nord, ouais, ils connaissent nos vies, prison, tess, j'me répète, j'ai tout dit On est dans l'mal On est dans l'mal, ça s'froid à coup d'Kalash', aller-retour Dallas, c'est vrai qu'on est dans l'mal On est dans l'mal Les guetteurs donnent le signal Akha Akha Akha, j'arrive en 6.3 Trois, plaqué 1.3 Trois, j'peux pas changer nos vies J'peux pas changer nos vies Les hommes ne pardonnent pas Pas, j'fais les cent pas Pas et crois pas que j'oublie Crois pas que j'oublie Pourquoi j'ai tant d'ennemis ? Et les jours de pluie, tu peux pas voir mes larmes Tu peux pas voir mes larmes Qu'importe le prix, je mets la kichta, j'achète ton calme Akha Akha, j'arrive en 6.3 Trois, plaqué 1.3 Trois, j'peux pas changer nos vies J'peux pas changer nos vies Les hommes ne pardonnent pas Pas, j'fais les cent pas Pas et crois pas que j'oublie Crois pas que j'oublie Pourquoi j'ai tant d'ennemis ? Et les jours de pluie, tu peux pas voir mes larmes Tu peux pas voir mes larmes Qu'importe le prix, je mets la kichta, j'achète ton calme1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PROBLÈMES</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Yeah Bij Moteur débridé, léwé, j'ai les yeux bridés, j'oublie ma célébrité Laisse-les se déguiser, ils aiment se faire aguicher, on préfère rester au QG J'passe au QN, j'passe au troisième étage, j'passe le salam à mes gars Ça m'prend en photo, ils arrêtent pas de me suivre, ils savent très bien qui je suis Le gérant, la tête, on s'connaît depuis le bac À sable, aucun de nous a le bac' Moi, j'fais dans le top Albums, certains ont choisi la coke, mehlich ça reste mes potes Tu les récites, nous on a écrit les lois, aucune balance dans nos rangs Et le temps passe vite, parfois, j'aimerais qu'il s'arrête, j'ai oublié d'appeler maman mais Je plane, et je plane, et je plane J'pense à ceux qui m'ont trahi Je plane, et je plane, et je plane On connaît les hauts, les bas et les promesses, -esses Les bas et les promesses Le produit est bon, y a du monde à la tess Le produit est bon, y a du monde à la tess On est déter', on n'a pas la tête à la fête, -ête On est déter', on n'a pas la tête à la fête On réfléchira une fois qu'on sera dans la merde On réfléchira une fois qu'on sera dans la merde La madame, j'sais qu'est-ce qu'elle est fraîche, elle me court après mais je reste discret Mais je reste discret La madame, j'sais qu'est-ce qu'elle est fraîche, elle me court après mais je reste discret Mais je reste discret Depuis la tétine, c'est la même routine, les terrains d'foot, le terrains d'beuh Depuis la cantine, les grands-frères cantinent, chez nous peu d'comptines, que des coups d'feu Vo'-vo' de Poutine, feu dans la cabine, si je veux, demain, j'sors un disque Tant m'assassine, goût de la voisine, la rue, la musique se mélangent trop J'arrive en Fe'-Fe', repars en teum-teum sous le Araï Ils vont regretter quand on va s'croiser à Saint-Antoine Millions d'problèmes dans la tête, j'rentre chez Fendi, j'prends deux pièces On verra après, ça m'demande des prêts, j'les connais à peine, yeah Je plane, et je plane, et je plane J'pense à ceux qui m'ont trahi Je plane, et je plane, et je plane On connaît les hauts, les bas et les promesses, -esses Les bas et les promesses Le produit est bon, y a du monde à la tess Le produit est bon, y a du monde à la tess On est déter', on n'a pas la tête à la fête, -ête On est déter', on n'a pas la tête à la fête On réfléchira une fois qu'on sera dans la merde On réfléchira une fois qu'on sera dans la merde La madame, j'sais qu'est-ce qu'elle est fraîche, elle me court après mais je reste discret Mais je reste discret La madame, j'sais qu'est-ce qu'elle est fraîche, elle me court après mais je reste discret Mais je reste discret On connaît les hauts, les bas et les promesses, -esses Le produit est bon, y a du monde à la tess On est déter', on n'a pas la tête à la fête, -ête On réfléchira une fois qu'on sera dans la merde C'est pas pour les minots, wAllah</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>QUARTIERS NORD</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Han Han Noxious Yeah, han Quattro, yeah Arty On n'avait pas un pour faire deux, on a charbonné pour sortir des cités d'or Il va t'en falloir pour faire mieux, je reste Kassim des quartiers Nord On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisie Comportement agressif, on reste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisi Comportement agressif, on rste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais Triste de l'intérieur comme le RER, boss, on le devient, on a des nine Nine Étoilés comme RR Royce, que des bandits, Marseille by night Cramés sous la capuche, on casse la puce, on est restés focus via la CR Ouais Tu connais le tertus, les rumeurs fusent, trop de faux-culs, ils ont fait R La gari veut du co'-co' Co'-co', la gadji veut du co'-co' Co'-co' Billets jaunes couleur Pulco Pulco, dans la calle, que des locos Locos Aller-retour en même pas vingt piges, que ça monte, que ça monte, ça n'a pas le vertige Ma prison c'est la 'son, ma prison c'est le refuge, on doit changer mais ça refuse C'est vrai qu'on vient de loin, ouais, c'qu'on a vécu, c'est fort J'suis pas seul si j'm'en sors, tu veux ma place, c'est mort C'est vrai qu'on vient de loin, ouais, dehors comme au Mont d'Or Je reste Kassim des quartiers Nord Breh On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisie Comportement agressif, on reste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisie Comportement agressif, on reste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais Des papel comme Helsinki, en bre-som, Nikki, tu nous parles, t'es qui ? C'est un lion sur la tête de Rafiki, toi, t'es qu'une pookie, j'm'arrache comme Floki C'est l'ghetto, c'est ma bite, c'est mon couteau, ça prend des photos avec des narcos C'est l'ghetto, c'est ma bite, c'est mon couteau, ça prend des photos avec des narcos Breh, breh, breh On n'attend plus rien de la justice, on la fait soi-même, clair et net Et on va s'en remettre Ouais, on vit pas sur le net Ouais On sait comment leur mettre Ouais, on sait comment renaître mais où elles sont les lunettes ? Je ne vais pas t'apprendre grand chose, j'ai gardé la doudoune, j'ai caché mon bon cur Série noire, on ne voit pas la vie en rose, on entend les boum, boum, boum, il est six heures C'est vrai qu'on vient de loin, ouais, c'qu'on a vécu, c'est fort J'suis pas seul si j'm'en sors, tu veux ma place, c'est mort C'est vrai qu'on vient de loin, ouais, dehors comme au Mont d'Or Je reste Kassim des quartiers Nord Breh On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisie Comportement agressif, on reste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais On peut sortir du Bentley, on sent pas la bourgeoisie 'geoisie Comportement agressif, on reste des chiens sans collier Collier J'aime la zone à la folie, ouais, ouais, comme Diego à Napoli, ouais, ouais Mamé C'était fou de voir les gens qui te regardent et qui te disent Putain mais fier de vous, c'est un truc de fou ce que vous avez réussi. Oh, j'suis parti en Bretagne, voir de la famille, on m'parle de vous, j'suis parti en Belgique, on m'parle de vous. On m'était beaucoup notre quartier en avant. Plan d'Aou... Plan d'Aou... On a fait des clips là-bas. Dans nos chansons, Paix à la Haine, y avait des gens, ils venaient visiter le quartier parce qu'on y habitait. Je vais te donner une anecdote Kendji, quand il était tout petit, euh... Il prend un scooter, il monte au Plan d'Aou pour voir Alonzo et Soprano et Vince'. Et quand il m'raconte ça, c'est Kendji. Il m'dit Y a un mec, il me dit Y a Alonzo dans la voiture et moi, j'étais fou. J'ai dit Mais elle était comment ? C'était une Clio jaune, j'ai dit Eh ouais, c'était lui.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>RDC</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Allah y rahmo Marseille Jai soufflé mes trente bougies, jai perdu au moins trente frères Jentends chanter le Uzi, les paroles, je les connais par cur Même quand on fait rien, on meurt pour rien, un petit peut te hagar Grandes familles grandes histoires, plus de coups dpompes que dcoups dmain WAllah on est lâches, ya que quand on pleure quon se cache On frime même quand on est recherchés, ya-t-il encore quelquun de censé ? Fuck l'euro ! Tout ça nous empêche d'faire l'odo Marseille cest une grande chasse à l'homme, yeah Allah y rahmo, Allah y rahmo Au feu rouge, un coup dfeu résonne, jpense à la daronne Au comptoir ya Lucifer, un ancien boit sa bière Et ya les mecs des alentours qui cherchent ton frère La drogue a fait connaître le quartier, les petites surs sont excitées Le mot respect est mort à la guerre, ils prétendent ne pas craindre lEnfer Alors... Alors ? Combien on en a vu qui serrent ? Qui parlent seuls assis par terre Jai mis au monde des enfants dans une ville endiablée Japerçois mes cheveux blancs, jespère mourir avant ldernier Quel frère passera pas lhiver ? Pour un regard tu peux y rester À qui je dois de largent ? Cest quand quon se met à prier ? Jte jure quon se gâche, jsais même plus si cest du rap que jte crache Nos pères vieillissent donc hospitalisés, on a du mal à se maîtriser Jperds mes mots, on est rien sur Terre, fais pas le gros Comporte-toi comme un homme 'Nous reste pas beaucoup dtemps mamé On est que de passage Elle a fait des sacrifices, il a fini aux Baumettes La prison ça rend pas service, il ressort, il met son survêt Son mari va la quitter pour cette pute de serveuse On vit dans une ville hantée où les apparences sont trompeuses WAllah que cest hard, déménage prends ta famille bombarde Les muslims font des rappels pour nous calmer, les CRS sont à lentrée Khey cest chaud, à dire quau bled ils donneraient leur peau Pour venir à Baltimore, eh Cest le zoo, cest le zoo Ya des rugissements qui résonnent, jcrois qucest la daronne Paix à nos daronnes, elles souffrent nos daronnes Mamé13</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Regarde moi</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Kore Oh oh oh oh oh Oh oh oh oh Souvent je me regarde, j'me dis Comment j'ai fait ? Sapé pour dix milles balles, frérot c'est pour de vrai C'qu'ils essayent de faire, j'essaie de l'oublier Et là j'me sens voler J'joue pas l'Loto Moinama oh Non, j'crois en mes khos J'vous aime trop Là j'suis là-haut Tout là-haut oh J'crois qu'en mes khos oh J'suis dans mon film Tout va bien, j'm'en bats les reins Tout va bien Cousin t'étais où quand moi j'étais en chien ? Tu t'souviens ? J'ai fait le vide Bah ouais, maintenant j'fais l'plein C'est l'destin Et si c'était à refaire j'ne changerais rien J'me sens bien Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Ma famille, mes amis, ma putain d'vie, mes ennemis Mes tourments, merci ma go, elle m'donne tant, j'suis love d'elle Mes défaites, mes victoires, je me relève, sers-leur à boire Y'a qu'dans tes rêves que tu m'baiseras, j'ai des vrais frères, j'ai des vrais gars J'ai un dressing, c'est une usine, oui, j'suis rancunier et j'aime trop la sape Là j'suis sur scène, là j'suis sur Mars, j'suis overbooké depuis des années Faudrait plus qu'un son, faudrait plus qu'une vie pour t'expliquer par où on est passés Hamdu' on est là, avec tous mes zins, arrêter de jeter l'il tu vas t'aveugler J'suis dans mon film Tout va bien, j'm'en bats les reins Tout va bien Cousin t'étais où quand moi j'étais en chien ? Tu t'souviens ? J'ai fait le vide Bah ouais, maintenant j'fais l'plein C'est l'destin Et si c'était à refaire j'ne changerais rien My nigga, my nigga, my nigga Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi À part c'qu'il y a dans mon compte, j'ai pas vraiment changé Quelques zéros en plus Charbonner, charbonner, charbonner, charbonner, j'ai toujours charbonné Dubaï, Miami elle choisit, faut qu'j'me repose, mon fils grandit J'suis dans mon film, dans mon film, sur une île, j'suis dans mon film Regarde-moi, mes cicatrices me rendent charmant J'oublie rien, j'vous remercie, public, ça fait longtemps Appelle-moi Alonzo Button, j'rajeunis à chaque album J'suis dans mon film Tout va bien, j'm'en bats les reins Tout va bien Cousin t'étais où quand moi j'étais en chien ? Tu t'souviens ? J'ai fait le vide Bah ouais, maintenant j'fais l'plein C'est l'destin Et si c'était à refaire j'ne changerais rien My nigga, my nigga, my nigga Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi Regarde-moi, regarde-moi, regarde moi Regarde-moi3</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Reste tranquille</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>'Zin, zin, zin Pourquoi il fait lgros ? Il est cocu Après deux verres de champagne, je te reconnais plus Ta musique nest plus à la mode Ta musique nest plus à la mode À trente ans tas pas la gova Tu tétonnes quelle choisit ton pote RS4 pas dplaque, le flow est resté intact Largent sale est dans le bando Le propre dans ma Black Card Jte vois petit comme Matthieu Valbuena Jte vois petit comme Matthieu Valbuena La nuit je trouve pas le sommeil Je vais compter des gros culs sur Insta Tu fais la Kardashian, tu tes prise pour qui ? Tu changes dorigine quand tu te maquilles Ce soir cest la guerre, jai mon treillis kaki Tu roules du cul comme je roule mon joint dpaki Fais ta folle, là tu pigeonnes qui ? Tu es tellement bonne, pour toi tout est gratuit Tu taffoles, reste tranquille, reste tranquille Sur la piste, miss, twerke salement Jai le vice, fils, jperds rarement Le bizz, le risque, à faire illégalement Ya le Fisc qui piste, qui hass mon compte en banque Ya le 6.6.6 qui tattire diaboliquement Les khalis glissent sous les tables politiquement Des Stan Smith, Smith Wesson un règlement On sabrite vite, vite, ils sont casqués intégralement Selon cque tu consommes dans le VIP on va tinstaller Jarrive en Aston, voiturier faut pas mla rayer Selon cque tu consommes dans le VIP on va tinstaller Jarrive en Aston, voiturier faut pas mla rayer Spike Miller, cest mon DJ Spike Miller, cest mon DJ Jfais la mala, tous les jours cest mon birthday Si tes pas là tu ne vas pas nous manquer Papé Tu fais la Kardashian, tu tes prise pour qui ? Tu changes dorigine quand tu te maquilles Ce soir cest la guerre, jai mon treillis kaki Tu roules du cul comme je roule mon joint dpaki Fais ta folle, là tu pigeonnes qui ? Tu es tellement bonne, pour toi tout est gratuit Tu taffoles, reste tranquille, reste tranquille Tu vas vite te calmer Reste tranquille, tu vas vite te calmer Reste tranquille, tu vas vite te calmer Reste tranquille, tu vas vite te calmer Reste tranquille, tu vas vite te calmer Jsuis pas là pour faire du social, bats les couilles Ma tête ne te revient pas, bats les couilles Jclaque mes lovés dans la vodka, jpars en couille Jrentre chez moi à moitié rapta, jhabite où ? Jsuis pas là pour faire du social, bats les couilles Ma tête ne te revient pas, bats les couilles Jclaque mes lovés dans la vodka, jpars en couille Jrentre chez moi à moitié rapta, jhabite où ?4</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Santana</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>J'suis à Maranello, j'choisis ma Ferrari J'reçois un message de Kore, j'dois poser pour Taxi J'suis en bombe, j'suis en, j'suis en bombe Fais-toi bonne, fais-toi, fais-toi bonne J'suis en Stone, j'suis en, j'suis en Stone On est stone, on est, on est stone J'prends l'volant, le volant quand j'suis léwé J'veux qu'tu danses, que tu danses quand j'suis léwé Santana, Santana, Santana, Santana Bébé veut sortir, mais y'a match à la télé Demain, j'achète sac Fendi pour me faire pardonner Bébé, ne poste pas cette photo sur Insta ça clash de fou Fouille le jean avant de faire une machine, blanchit pas mes sous J'suis le roi de ma ville, les condés s'agenouillent De ma ville à ta ville, j'prends l'taxi alléluia J'vais acheter un navire, grâce à streaming et à Zumba Tu me portes la guigne, ma Mama m'a portée pendant 9 mois Dans l'rap, j'ai trop d'enfants J'les donne aux marcheurs blancs Et sort le blanc de blanc, rah, rah On n'a pas le temps J'suis en bombe, j'suis en, j'suis en bombe Fais-toi bonne, fais-toi, fais-toi bonne J'suis en Stone, j'suis en, j'suis en Stone On est stone, on est, on est stone J'prends l'volant, le volant quand j'suis léwé J'veux qu'tu danses, que tu danses quand j'suis léwé Santana, Santana, Santana, Santana J'ai Balenciaga, j'ai renversé du cke-Ja Je la remets pas, et toi je n'te remets pas Léwé dans la boite, tu veux un feat je te vois vnir Même quand c'est Shabat, mon baveux répond aux coups d'fil Ma rolex est en or rose, j'ai plus l'âge de distribuer des doses Néglige le gamos, à ras du sol je me tape des bosses Veni Vidi Gucci, j'ai tout acheté sur la tête de mes gosses Tu colles la petite, mytho tu dis que t'as un réseau de shit Dans l'rap, j'ai trop d'enfants J'les donne aux marcheurs blancs Et sort le blanc de blanc, rah, rah On n'a pas le temps J'suis en bombe, j'suis en, j'suis en bombe Fais-toi bonne, fais-toi, fais-toi bonne J'suis en Stone, j'suis en, j'suis en Stone On est stone, on est, on est stone J'prends l'volant, le volant quand j'suis léwé J'veux qu'tu danses, que tu danses quand j'suis léwé Santana, Santana, Santana, Santana Oh ohhhh ohhhhh Il veut me faire dans le club Ses morts sont dans le club Givenchy à 6000, j'le mets qu'une fois Gros pétard de weed, on s'voit au parloir M'attends pas dans la suite, ce soir j'vais les boire</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Secteur</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Abys One Depuis p'tit, on a grand cur, on se fond dans le décor On aime pas les menteurs, on cherche qu'à péter le score On devient des vendeurs, course-poursuite avec les porcs Maman veut pas d'fleurs, elle veut juste que je m'en sorte Elle veut que je m'en sorte quand je franchis la porte Elle fait la femme forte, elle craint qu'on me jette l'il Que j'tombe sur une escorte, qu'elle me fasse changer d'bord Ou bien qu'on m'enferme, à jamais, qu'on m'enferme J'ai été disque d'or, ça fait tant d'années, tant d'années, tant d'années, à l'âge de Koba LaD J'ai baraudé, j'ai perdu, je m'suis relevé, j'suis mal luné, le joint d'la veille, j'l'ai rallumé Des toxicos en manque, j'ai vu des tueurs en planque, des quartiers en guerre, à l'âge de dix ans Je vais partir du secteur Depuis p'tit, on a grand cur, on se fond dans le décor On aime pas les menteurs, on cherche qu'à péter le score On devient des vendeurs, course-poursuite avec les porcs Maman veut pas d'fleurs, elle veut juste que je m'en sorte Eh eh, eh eh, eh, eh eh, eh eh, eh, eh eh, eh eh, eh Maman veut pas d'fleurs, elle veut juste que je m'en sorte J'ai pêché le jeudi, j'ai prié le vendredi, je paie sans voir le prix, mon papa Dieu me l'a pris Un BigMac au McDo', j'me réveille pour faire l'odo, ça parle dans mon dos, je m'évade dans mon auto' Dieu pardonne, je suis die, die, die, je suis die, die, die J'me noie dans mon travail, 'vail, 'vail, 'vail, 'vail, 'vail Du cristal dans un verre en cristal, lewé, j't'encule à coup d'crosse, le coffre rempli d'matos, la rue, j'la rappe en freestyle po-po-po C'est quartier Nord, là, c'est réel, wAllah les drive-by, le shit, la coke, les grosses doses, les cartouches à la Raz, bye breh, breh On parle de quoi là ? Une musique de démunis, très loin des États-Unis, j'suis pas hype, j'passe sur Konbini La Terre, elle est grande, ma patience encore plus, on va se prendre trois Urus, on va t'niquer à la ruse, ouais Depuis p'tit, on a grand cur, on se fond dans le décor On aime pas les menteurs, on cherche qu'à péter le score On devient des vendeurs, course-poursuite avec les porcs Maman veut pas d'fleurs, elle veut juste que je m'en sorte Eh eh, eh eh, eh, eh eh, eh eh, eh, eh eh, eh eh, eh Maman veut pas d'fleurs, elle veut juste que je m'en sorte Depuis p'tit, on a grand cur, on se fond dans le décor On aime pas les menteurs, on cherche qu'à péter le score On devient des vendeurs, course-poursuite avec les porcs Maman veut pas d'fleurs, elle veut juste que je m'en sorte Eh eh, eh eh, eh, eh eh, eh eh, eh, eh eh, eh eh, eh Maman veut pas d'fleurs, elle veut juste que je m'en sorte</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Sexe, drogue &amp; rap’n’roll</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? Où il est ? Le passé Où il est ? Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? À jamais, le passé Où il est ? Jai souvent lécriture fiévreuse le thermomètre à 39,5 Mon cerveau cest les reins dun manuvre Rho prend moi le pouls si tes de garde ce soir Jai le blues sur ma nièce Ne mécoute pas si tes une rêveuse Jmarche à lambition Lespoir jvais pas te dire que y en a pas Mais je peux pas tfaire croire quon peut toucher le ciel avec ses doigts Restons raisonnable il nous reste pas grand-chose dans les ranchs Certains soirs les quartiers nord distribuent les balles dans les hanches Collègue, le peu damour faut le voler Prend la cavale comme Caballera dehors ça promet Ça blague pas Déter pour un regard mal posé Ramasse ton cur il va se faire piétiner Sexe, drogue et monnaie La vingtaine, lage délicat, la coke, les ecsta' Trop dans lexcès jusqu'au jour où la raison fait un coma Lartificiel a pris ldessus non Ferme pas les yeux tu risquerais de voir des démons envoie l'son Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? Où il est ? Le passé Où il est ? Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? À jamais, le passé Où il est ? Désormais les filles tenvoient aux Baumettes pour une rougeur sur la pommette Réalité à 2 millimètres sur le net cest lanarchie dans chaque fenêtre Facebook la lunette que Satan a choisi pour y voir net La ça cherche des sous Y'a la Guardia Civil en Subaru Les villages descendent sur Marseille prendre leur bout Blahf mouk si tes contrôlé Pire tu peux geôler Le pire cest quon est tous franc-maçonnés jusqu'au bout Dans la boue, dans les prunelles Les secrets les plus cruels Se cachent, parlons nous avant quon se plante à lOpinel Sexe, drogue oh ! Rapnroll parfois on y croit parfois on y croit plus cest réel Bordel psychologique Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? Où il est ? Le passé Où il est ? Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? À jamais, le passé Où il est ? Où il est ? On le cherche on veut s'réfugier Dans les bras de linnocence bercé par Bob Marley I love you, mes chers amis Les souvenirs dautrefois font ma musique aujourd'hui Dieu merci on a grandi Marié ou handicapé on est en vie Y'a des maladies sexuellement transmissibles Tapprendras que largent cest le paraître Lamour faut le connaître Dalida la cherché jusqu'à disparaître Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? Où il est ? Le passé Où il est ? Sexe, drogue et rapnroll cest la jeunesse foutue On court tous après notre passé Où il est ? À jamais, le passé Où il est ? Le décor nique sa mère Cest lenfer on nous contrôle trop Le décor nique sa mère Cest lenfer on nous contrôle trop Le décor nique sa mère Cest lenfer on nous contrôle trop Le décor nique sa mère Cest lenfer on nous contrôle trop</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Squat</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Un dernier coup dil dans le rétro' Je vois la concurrence dans une Saxo J'vais les fumer comme un perso J'suis dans le club et dans le ter-ter Tu m'écoutes quand tu soulèves tes haltères Guinomo, numéro uno J'suis sur Jupiter, khey, aller-retour, Marseille Là où ça prend des peines à 2 chiffres pour des histoires de bédo Mes potes ont les mains sales, je fais du rap sale Les bourgeois deviennent pâles Râle, puto J'ai commandé une paire, puis cinq paires Puis sept paires de Yves Saint-Lau'-Lau' J'ai demandé un verre, puis douze verres Puis quinze verres de Limoncello Je m'en bats les couilles, j'suis avec Sid Mogo, Spike et Zaka Mauvais mélange, surveillez-moi, wAllah ça sent le blackout Je m'en bats les couilles, j'suis avec Sid Mogo, Spike et Zaka Mauvais mélange, surveillez-moi, j'crois qu'elle a mis un tanga Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Allez, fais du squat, squat, squat, squat, squat, squat, squat Allez, fais du squat, squat, squat, squat, squat, squat, squat Oui oui, fais du squat, squat, squat, squat, squat, squat, squat Bébé, fais du squat, squat, squat, squat, squat, squat, squat Tu changes de visage quand j'suis dans les parages Vocal est le braquage, ils font que du jactage Je suis avec mon équipe en backstage, y'a du Jack Honey On prend pas la neige, non, passe-moi une massa J'vois que tes fesses clapent, tu twerkes, j'mets des claques Le 'zin fait un Snap, les pas bonnes méritent même pas un snack Me fais pas de manières, de ton cul j'suis actionnaire Sur le 1000 RR, khler, puto Dans le bario à la radio Les rappeurs descendent comme Mayweather VS Pacquiao Sur ma chaise, calé, comme un gérant gavé Je vois les civils rentrer et sa rambiyo On s'en bat les couilles, on bouge à Maranello, mi hermana Comorien Nouveau dans les affaires, c'est du mkarara On s'en bat les couilles, on bouge à Maranello, mi hermana Comorien Nouveau dans les affaires, je suis malade, polygame comme Papa Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Je sais qu't'es une bosseuse Je sais qu't'es une boxeuse T'as pas de gros seins, déstresse J'aime les beaux pieds et les grosses fesses Allez, fais du squat, squat, squat, squat, squat, squat, squat Allez, fais du squat, squat, squat, squat, squat, squat, squat Oui oui, fais du squat, squat, squat, squat, squat, squat, squat Bébé, fais du squat, squat, squat, squat, squat, squat, squat Elle a jobé, elle a des crampes On l'a zieutée, elle est contente Dans le carré on est cinquante Tu sens mauvais, non j'suis méchant Elle a jobé, elle a des crampes On l'a zieutée, elle est contente Dans le carré on est cinquante Tu sens mauvais, non j'suis méchant Non j'suis méchant, j'suis mauvais Non, vous êtes mauvaises vous aussi WAllah vous êtes très mauvaises Ah mais c'est vrai qu'ça sent Aaaah je sais pas c'est qui mais... Squat, Squat2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Stone I</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>J'ai fais le choix d'faire du rap Écrire la vida des nôtres J'ai fait le choix d'être connu Donc on me juge devant les autres J'ai fait le choix d'être moi Et ça ne plait pas à tout l'monde J'ai fait le choix de fonder ma famille J'veux pas finir seul, plein de billets sur mon lit J'ai fait le choix de me prosterner Car j'suis pas là par hasard Ici je fais le choix d'avancer C'est pour rien d'regretter plus tard J'ai fait le choix de partir Loin de ceux qui me diront Kassim t'es partant y'a un gros coup à faire J'ai préféré préserver le cur de ma mère A Marseille c'est le Far West Parfois, je me mets stone Parfois, j'avoue j'suis à l'ouest Est ce que c'est pour oublier combien de temps il m'reste ? J'ai fait le choix d'être Alonzo J'assumerai tout, j'suis Quartiers Nord Préviens le reste</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Stone II</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Encore plus loin que 2053, mamé Ecoute l'élocution Ils aimaient Alonzo, pas un euros Seulement avec un succès d'estime entrain de chanter ses malheurs sur un piano Je m'suis refait vapiano, vapiano J'ai la tête en 2054 le corps dans un viano Pas étranges que les gens changent mais j'ai changé aussi La famille s'est agrandit, tu sais c'est quoi tenir le manche Ses responsabilités faut les prendre Les terrains faut les prendre, les âmes qui nous habitent faudra les rendre Et j'cris pas victoire trop tôt, j'ai du chemin à faire Jeune éternel insatisfait, j'doute pas de moi mais j'peux mieux faire J'ai peur que ma mère meurt mais pourquoi j'néglige les visites J'cogite à m'rapprocher d'la parole de l'invisible, je m'corrige J't'avoue qu'ça m'empêche pas de penser au chiron D'appeler un pote s'mettre chiffon Et d'parler d'ce foutu bon vieux temps Passer du coq à l'âne ne fait pas d'moi un bipolaire D'un mec qui m'comprends pas t'en a tout l'air Tellement fier que tu sentiras pas ma douleur Je n'sais que faire des balances qui porte ma couleur T'es venus, t'as vu, t'es repartis en courant Je porte pas plainte contre la vie, je n'pose pas d'mains courantes Non c'est pas moi ça, j'suis un lutteur comme Khabib Cinq fois papa, marhaba J'ai les poumons noirs, j'ai des visions noires Qui rendent mon cur noir, j'm'assagis quand j'suis dans les bras de Samantha Obligé d'boire un verre Et trinquons à c'que la vie nous a offert On a mis du temps, on a mis du temps, on a mis du temps à l'faire Et j'en ai lu des comms, j'en ai lu des comms, j'en ai lu des comms de merde La favela ne m'oublie pas, quand je la laisse elle le vit mal Si je pars j'l'aisserais un vide énorme ouais Qu'est-ce qui va rester au final ? Rien On a mis du temps, on a mis du temps, on a mis du temps à l'faire Et j'en ai lu des comms, j'en ai lu des comms, j'en ai lu des comms de merde</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Stone III</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>C'est le commencement de la fin, papé Ferme ta gueule, on a des purple On est sur Google, on est sur Apple Jbaise le son, bouge comme un mongol Viens me hagar ouais qu'on en rigole Eux trois quart c'est que des bandeurs À la one again on relève les compteurs Combien tu fais ? Combien tu vends ? Pour qui tu te prends espèce de menteur ? Ça parle de moi, ouais je dérange Pourtant jai donné d'la force, ouais c'est étrange De les enterrer vivant, ouais ça m'démange Mais je reste zen comme un bon dimanche yeah J'sais qu't'as le seum, j'suis dans le pub Je vends ma pub, lalbum ya des tubes 500 chevaux contrôlé par les Stups Tu m'cherches jsuis posé dans le grand Sud Sac Lancel, on se met en selle sur le GS, jamais en hess Chaîne en or, bague en or, dans la mierda Profite, bientôt j'parle plus aux médias Un mois d'gamberge, un verre de rouge Un peu de verte, nique le rap game J'devrais tous aller les voir mais jai la flemme Dans les yeux ils le savent que j'ai la flamme Tu connais la zone On est dans l'coup ma sur, si tu niques tout ma sur Pontet, Luynes, Fleury, Nanterre, mon frère On les enterre mon frère T'es qui ? On n'a jamais vu ta tête On te voit pas dans nos fêtes, tu vas pas m'la faire On n'a jamais vu ta schneck, tu ne pourras pas nous plaire Tu connais la zone On est dans l'coup ma sur, si tu niques tout ma sur Pontet, Luynes, Fleury, Nanterre, mon frère On les enterre mon frère T'es qui ? On n'a jamais vu ta tête On te voit pas dans nos fêtes, tu vas pas m'la faire On n'a jamais vu ta schneck, tu ne pourras pas nous plaire</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Suis-moi</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>De partout c'est elle que je vois Même dans la foule elle se démarque Elle sait qu'elle fait mal Elle trouve ça normal T'as mis ton salaire sur la table Elle s'en fout elle te recale Elle t'as rendu malade Moi je l'aurais, j'suis prêt Car j'en ai connu des milliards Mais celle-là, elle brille même dans le noir Celle-là, elle a ce qu'elles veulent toutes avoir Viens dans mes bras tu verras ce que les autres n'ont pas Viens danse avec moi, ce que t'as jamais eu tu l'auras avec moi Dans le futur suis-moi A la fin du film c'est toi et moi Oui dans le futur suis-moi A la fin du film c'est toi et moi Oui suis-moi, oui suis-moi Oui suis-moi, oui suis-moi Pour l'oublier je n'ai pas de remède Je l'ai vue hier j'l'ai encore dans ma tête Ses copines c'est vrai qu'elles sont fraîches Mais je ne veux qu'elle dans la Merco-Benz J'en viens à jalouser son ombre Comment peut-elle repartir sans moi ? J'lui ai même pas demandé son nom Je me le serais tatoué cent fois Car j'en ai connu des milliards Mais celle-là, elle brille même dans le noir Celle-là, elle a ce qu'elles veulent toutes avoir Viens dans mes bras tu verras ce que les autres n'ont pas Viens danse avec moi, ce que t'as jamais eu tu l'auras avec moi Dans le futur suis-moi A la fin du film c'est toi et moi Oui dans le futur suis-moi A la fin du film c'est toi et moi Oui suis-moi, oui suis-moi Oui suis-moi, oui suis-moi Dans le futur suis-moi A la fin du film c'est toi et moi Oui dans le futur suis-moi A la fin du film c'est toi et moi Oui suis-moi, oui suis-moi Oui suis-moi, oui suis-moi1</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Sur la moto</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah Là, c'est la zone, on est stone T-Max, j'mets la gomme, c'est Dieu qui donne On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah Ça parle de moi, même pas j'm'agite J'calcule pas, même pas j'cogite J'déguste la vie, ouais, j'profite J'fume mes pétous jusqu'au filtre On regarde pas dans le rétro Même si y a les pimpons On aime le bruit du bep-bep La cala du pe-pom Traficanté, on danse comme des brigantés Fais gaffe qui tu fréquentes Et avec qui tu vas te ganter Traficanté, on danse comme des brigantés Fais gaffe qui tu fréquentes Et avec qui tu vas te ganter On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah Soleil, bavette, la prison, Baumettes Au quartier en fumette Donc ferme-la, commère Tu sors le Mégane RS Tu veux la p'tite qui te caresse PGP dans la cellule Alonzo, JuL, le son des crapules, ouais Ça sent la street, à deux sur la moto, ouais Ça sent les schmitts, à trois dans le Mondeo, ouais Ça sent la street, à deux sur la moto, ouais Ça sent la SPIP, bracelet sous l'survêt Croco On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah On plane, ouais, on plane On a planté le S-Line, c'est normal Fais tourner pour qu'on plane Ouais, on plane On a planté le S-Line, c'est normal On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah On est ghetto, ah ah ah, sur la moto, ah ah ah À deux casqués, ah ah ah, Asalto, ah ah ah</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Terrain</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Imbécile, j'envoie des missiles, je rate jamais mes cibles Rien est impossible, je reviens de loin j'ai le banger facile Tu veux m'atteindre c'est mission suicide demande à mon pote Sid Même quand je dors je cogite à la prochaine rafale sur le beat J'arrive je suis Omar cours vite ou bien ramène ton équipe J'suis Hnin faut pas que t'en profite, zebi j'ai mes jnouns qui s'agitent Je soigne le mal par la mala, j'impose au game un faux rythme Comme ça m'excite quand il pense que je suis dead ils veulent leur mettre la trique Hypocrite, on sera jamais quitte je vous attends en feat Je m'appelle pas Kassim si vous repartez pas chez vous en slip J'ai pas toujours eu ce que je mérite mehlish tant que tu cliques Que tu ressens la pression, salope tu sais plus où t'habites C'est le Capo Ils veulent à tout prix récupérer mon terrain On s'en bats les couilles on bouge pas cet été Si tu veux la guerre j'espère que t'as des lovés Nous on fait pas dans le cinéma Ils veulent à tout prix récupérer mon terrain On s'en bats les couilles on bouge pas cette été Si tu veux la guerre j'espère que t'as des lovés Nous on fait pas dans le cinéma J'entends ton cur qui fait boum boum, ça me fait danser c'est magique Que ça me critique mais en soum-soum ils veulent faire parti de ma clique Je recherche l'anonymat depuis que je sais c'est quoi d'être riche J'ai galéré mais ils s'en battent les couilles ils voient que les chiffres Je décharge ma rage s'en pit', j'rappe comme un petit de 17 ans dans la street La sacoche plein de shit qu'attend de faire son hit Je chasse mon naturel il revient en T-Max Akrapovi Car dans ma ville ya les armes de Slobodan Miloevi RS6, R6, Ascics les assises Le biz, les balances qui viennent normal te faire la bise Lève toi de la route j'en ai plus rien à foutre, laisse parler la foudre Dehors ça vend la poudre, j'ai rien avoir je sais ce que ça coûte C'est le capo Ils veulent à tout prix récupérer mon terrain On s'en bats les couilles on bouge pas cet été Si tu veux la guerre j'espère que t'as des lovés Nous on fait pas dans le cinéma Ils veulent à tout prix récupérer mon terrain On s'en bats les couilles on bouge pas cet été Si tu veux la guerre j'espère que t'as des lovés Nous on fait pas dans le cinéma1</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Territoire</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Yeah Capo Dei Capi Volume trois Assoiffés d'pouvoir Les frères tombent car les balles n'arrêtent pas d'pleuvoir Guerres de territoire dans le 6-9, 1-3 C'est la zone, 'sin, ouais c'est malsain Yeah À la TV pour des délits, des grosses histoires, tu peux nous voir Et le terrain tourne à toute patate Sinaloa, ouais c'est terrible, c'est la ppe-fra que l'on fournit C'est certifié jusqu'au placard Solitaire sauf quand y a pépin, y a toute ma meute qui débarqu Et c'est ton équipe qui crie au scours Chez nous, tout pour le four, TP chaque jour Pas d'sentiments, pas d'amour Bye bye, noir casque Arai Ça prend deux rails, ça finit l'travail Ça va brûler ton corps dans un coffre vers Le Rove Ça fait pleurer la mère de l'autre juste pour des loves Pour des billets mauves et ça t'nique tes morts devant le mirador Y a cinq cents chevaux sous l'capot, Málaga-Quartiers nord 27 c'est du bon, détaille sur l'terrain, gros doigt aux pin-pon Je finis mon joint, j'm'évade sur Pluton, j'ai la fusée Tout comme le président, j'contrôle le territoire J'suis là pour faire du gent-ar Et j'peux pas être hésitant, les faits divers sont là J'suis là pour faire du gent-ar Tous les soirs, j'recompte la recette Ce mois-ci, j'vais sortir la bête Et tous les soirs, j'recompte la recette Ce mois-ci, j'vais sortir la bête Bloqué Mais je vais franchir toutes leurs barrières J'vais tout leur prendre, les laisser arrière Ma baby mama dort sur ses deux oreilles J'ai les armes adaptées à toute situation Personne ne va bouger pour toi, aucune action Y a la vie et la mort, as-tu vu les ratios ? Plus confiance en l'avenir, foutue génération Yeah, yeah J'suis la rue avec ou sans vocodeur, j'prie car c'est bientôt qu'on meurt J'jette un coup d'il sur l'Audemars, l'autre sur la Submariner Tu m'as vu poser dix bouteilles, c'est p't-être pour soulager mon cur Que des poussettes pour nada, veulent te faire sur des rumeurs On s'est préparés, c'est pas une guerre de carré On s'est préparés, c'est pas une guerre de carré La sacoche, le rouleau, au quartier y a du boulot Ce mois-ci, j'vais sortir la bête Tout comme le président, j'contrôle le territoire J'suis là pour faire du gent-ar Et j'peux pas être hésitant, les faits divers sont là J'suis là pour faire du gent-ar Tous les soirs, j'recompte la recette Ce mois-ci, j'vais sortir la bête Et tous les soirs, j'recompte la recette Ce mois-ci, j'vais sortir la bête 1-3, 6-9, Alonzo, SAF et Biggie Ben On veut du bif, ça fait des guerres de territoire 1-3, 6-9, Alonzo, SAF et Biggie Ben On veut du bif, ça fait des guerres de territoire Ah-ah-ah Ah Ah</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>The World Needs You</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Peut importe ta corpulence, ton BEP ou ton maître d'audience Le diesel ou le litre d'essence Peut importe le quartier, le bar, le foyer d'enfants Ton retard ou bien ton avance Peut importe, le monde a besoin de toi Ceux qui disent le contraire sont très loin d'toi Le Père Noël saoulé au coca a séquestré Saint Nicolas Pour t'vendre du rêve jusqu'à 6 ans au plus tard Peut importe la lourdeur de tes secrets Le très haut sait bien ce qu'on peut porter Peut importe, le monde a besoin de toi, t'es dans le mécanisme Même avec un trou dans l'organisme Même en guerre les victimes sont utiles C'est comme ça que les tyrans s'estiment Le monde a besoin de toi, énorme besoin d'croire Qu'le monde a besoin de moi, a besoin de noirs, de blancs, voilà Oh Jai la rime à lenvers quand je vois mes confrères Qui basculent du paradis jusquen enfer Le monde a besoin de toi Le monde a besoin de moi Fait leur croire que ta vaillance na plus dfrein, que même les morts ont faim Que même affaibli tu marches avec les mains Tes mômes ont besoin d'toi, au moins la santé La daronne a besoin dcroire quelle a pas échoué A léducation mon cousin, les euros sous le coussin Parfois mal, parfois bien, cest la loi du divin On est la comment, on vit la, y'a plus de hechma Prend et sauve toi, on a besoin de toi Ton contraire a besoin d'toi, ton adversaire à besoin d'toi Sans peuple il ny a pas droi Même si la déception est douloureuse Que tu cherches encore à comprendre, les raison qui font que ta vie se creuse Tombe pas dans le trou, il fait noir et cest plein dboue Tu deviens respectable quau royaume des fous Ecoute une femme a besoin d'foi, un homme a besoin d'foi Tous deux ont besoin de croire que tourne la roue Un jour ou lautre, peu importe ton prénom, ton âge, ton bâtiment d'prison Ou la marque de ton canon Peu importe ton héritage, un grand terrain Ou bien les factures du daron mort dans le chagrin Peu importe la ville ou lpatelin, la largeur du vagin Lalcool monte, tes gosses dorment, taimes te prendre des engins Mais le monde à besoin d'toi, énorme besoin d'croire Qu'le monde a besoin de noirs, de blancs, voilà Oh Jai la rime à lenvers quand je vois mes confrères Qui basculent du paradis jusquen enfer Le monde a besoin de toi Le monde a besoin de moi Oh Jai la rime à lenvers quand je vois mes confrères Qui basculent du paradis jusquen enfer Le monde a besoin de toi Le monde a besoin de moi De toi jai besoin, de moi tas besoin Que ce soit toi ou moi, le monde nous appartient De elle t'as besoin, de lui t'as besoin Donne-moi un peu de nous car le monde en a besoin De toi jai besoin, de moi tas besoin Que ce soit toi ou moi, le monde nous appartient De elle t'as besoin, de lui t'as besoin Donne-moi un peu de nous car le monde en a besoin Et ce depuis toujours, quand il court toi tu tombes Elle rit quand je succombe mais bon le monde est fait ainsi Si les mômes nont pas de modèle quils vont suivre Tas raté ton début, crois en ta suite Car cest ça depuis toujours, quand il court toi tu tombes Elle rit quand je succombe mais bon le monde est fait ainsi Si les mômes nont pas de modèle quils vont suivre Tas raté ton début, crois en ta suite Oh Jai la rime à lenvers quand je vois mes confrères Qui basculent du paradis jusquen enfer Le monde a besoin de toi Le monde a besoin de moi Oh Jai la rime à lenvers quand je vois mes confrères Qui basculent du paradis jusquen enfer Le monde a besoin de toi Le monde a besoin de moi Yeah, yeah, yeah Le monde a besoin de tous les enfants du block, pape Le monde a besoin de Africa Le monde a besoin de TSE Music, dis leur Alonzo, Soprano, S.Teban Le monde a besoin d'toi Et lhomme a besoin de croire Que le monde a besoin de moi, dis leur Yeah, yeah, yeah, yeah Segnor Alonzo de la Psychiatra de la Rimia, pape Yeah, le monde a besoin d'toi Le monde a besoin de moi</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Top Gun</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>We are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious Nous sommes des mortels, on nous remplacera tôt ou tard Fais les choses vite si la chance t'as donné rencard Fais les choses speed, arraches ta propre victoire Ne remets pas à demain ce que tu peux faire ce soir, papé Dieu nous aime, on est conçus pour encaisser On est des vaillants, on est jeunes, on veut la santé On s'retourne plus, on vit assez sur le passé Les déceptions, les défauts, les débiles font pas avancer À croire qu'nos souffrances, on aime les comparer Le Très Haut ne te donne pas ce que tu peux pas porter Alors relève-toi encore, crois au sort Y'a ton potentiel qui dort au chevet de ta mala suerte We are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious Nous sommes des millions, dans l'monde des milliards Y'a autant de pognon que de bancs de clochards C'est la loi du pouvoir, du dollar, de l'or noir Au comptoir, blanc ou noir, au Ricard en disent long Avec zéro grammes cinq de réalité dans l'sang Certains ne conduisent même plus de rêves, ils avancent en marchant Pourquoi jeter l'éponge ? Y'a d'l'espoir à essorer Les ongles, les doigts, les mains, on s'les ronge jusqu'à plus rien attraper Car faut apprendre à résister, contrôler ses nerfs Tu veux haja, faut insister, mais bordel de merde Des dents longues, on a, dans l'béton, on a L'ambition, on a, la raison, on a We are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious Faut résister, insister puisque Nous sommes que de passage dans c'monde, prenons les risques C'est triste, j'assiste au siècle où on nous surnomme les assistés Assumer ce statut social serait-ce trahir la fierté Le bonheur, c'est de l'utopie Ce qui compte c'est le chemin que tu fais pour le conquérir Comment fuir ? On a des gens en charge Des mères, des familles, des frères en cage À notre âge, la volonté ne doit plus être en rodage On est pas prioritaire, mais tant pis on s'engage Tout est écrit sans qu'on puisse lire les pages donc nage car Faut apprendre à accepter qu'on a tous des problèmes Mais à différents degrés, c'est chacun sa peine Des dents longues, on a, dans l'béton, on a L'ambition, on a, la raison, on a We are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious So far from the notorious And now we're feeling glorious To finally be sittin' on top of the world Yeah we are victorious Des dents longues, on a, dans l'béton, on a L'ambition, on a, la raison, on a We are victorious</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>TOUT VA BIEN</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Eh Alonz' SHK SHK Naps Mamé, eh-eh N.I Mamé, eh Eh J'suis sur My Eyes Only dans son bigo Bébé va rentrer tard, j'la charge en moto, en casque Momo, mamé Eh Elle a froid, j'lui passe la veste à trois points d'chez Moschino Omri, tu n'le sais pas mais je te voulais depuis minot, mamé Plus l'âge de se bagarrer, on va seulement se garer J'te joue pas d'violon Non, tu sais qu'j'suis violent Eh Le biff, tout ça, c'est carré, ton avenir, j'peux assumer J'te joue pas d'violon Non, j'te joue pas d'violon, eh-eh Eh C'est trop compliqué, j'arrête bientôt Le cur est black, tout comme Viano Oui J'lève mon flash à ta santé mais c'est chaud, eh-eh Ma chérie veut Yves Saint Lau'-Lau' J'te donne mon cur, fais pas bobo Oui Même tarpin zehef, j'fais la photo Tout va bien, eh-eh Eh-eh Pilotis, cocktail, co'-co' Co'-co' J'écoute Omah Lay, elle chante Lo Lo Oui J'suis certifié, j'peux pas t'follow Follow Tout va bien, eh-eh Madame veut connaître mon budget pour la vie Mais ça charbonne encore, donc c'est varié Varié À la fin du bal, on recomptera les amis Versace sur ma go, j'l'emmène danser Mmh Il paraît qu'les Seychelles, c'est cher Eh Dis-moi l'prix, j'te dis si c'est dans mes cordes Fais pas la vicelarde, j'suis pas né hier Tu fais la meuf qui boude dans le Fe'-Fe' Eh C'est trop compliqué, j'arrête bientôt Le cur est black, tout comme Viano Oui J'lève mon flash à ta santé mais c'est chaud, eh-eh Ma chérie veut Yves Saint Lau'-Lau' J'te donne mon cur, fais pas bobo Oui Même tarpin zehef, j'fais la photo Tout va bien, eh-eh Eh-eh Pilotis, cocktail, co'-co' Co'-co' J'écoute Omah Lay, elle chante Lo Lo Oui J'suis certifié, j'peux pas t'follow Follow Tout va bien, eh-eh À cette heure-ci, j'dois être à Miami Ils ont scellé la sape et la Rollie Un peu romantique, un peu gang au lit, j'suis un peu Manny, j'suis un peu Tony À cette heure-ci, j'dois être à Miami, ils ont scellé la sape et la Rollie Un peu romantique, un peu gang au lit J'suis un peu Manny, j'suis un peu Tony J'suis dans l'restau', festin, on le fait à l'instinct Dix millions et j'laisse tomber Dix millions et j'laisse tomber Ils font la crypto', cristaux, on a prit le cuisto J'préfère les plats d'la madre Eh-eh, eh-eh, eh-eh, eh-eh, tout va bien Eh-eh, eh-eh, eh-eh, eh-eh, tout va bien, eh Ma chérie veut Yves Saint Lau'-Lau' J'te donne mon cur, fais pas bobo Oui Même tarpin zehef, j'fais la photo Tout va bien, eh-eh Eh-eh Pilotis, cocktail, co'-co' Co'-co' J'écoute Omah Lay, elle chante Lo Lo Oui J'suis certifié, j'peux pas t'follow Follow Tout va bien, eh-eh Mamé A.L.O.N.Z.O, N.A.P.S N.I, vrrah Eh-eh2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>TRAFICANTE</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>HuFel on the beat J'ai envie d'rouler jusqu'à Napoli Non, me compare pas à ces comiques J'ai charbonné jusqu'à l'insomnie J'suis une rockstar comme David Bowie Dans la bouche un cohiba, piña colada, la rue, c'est la corrida, la rue, c'est la corrida Un joint du Népal et j'plane dans les bras de Maria, dans les bras de Maria, mamé Lunettes Cartier dans la Golf, je n'joue pas au golf Sur le passage piéton, j'ai vu ses yeux dans mes yeux J'l'ai croisé à la Rose, je lui ai offert une rose Je lui tends la main, j'la fais rentrer dans le jeu J'suis love de elle mais elle se marie pas avec les traficantes Traficantes J'suis love de elle mais elle se marie pas avec les traficantes Traficantes Le soleil frappe, j'suis en terrasse, ça sort les T-Max Wesh alors ma race, j'ai la tête dans la paperasse Elle veut vivre à Monte-Carlo, elle veut des sacs à carreaux Que j'me tienne à carreau mais je change pas, j'arrive pas Dans la bouche un cohiba, piña colada, la rue, c'est la corrida, la rue, c'est la corrida Un joint du Népal et j'plane dans les bras de Maria, dans les bras de Maria, mamé Lunettes Cartier dans la Golf, je n'joue pas au golf Sur le passage piéton, j'ai vu ses yeux dans mes yeux J'l'ai croisé à la Rose, je lui ai offert une rose Je lui tends la main, j'la fais rentrer dans le jeu J'suis love de elle mais elle se marie pas avec les traficantes Traficantes J'suis love de elle mais elle se marie pas avec les traficantes Traficantes J'suis dans mon dél' Sourire aux lèvres J'suis dans mon dél' Je coupe mon tél' Lunettes Cartier dans la Golf, je n'joue pas au golf Sur le passage piéton, j'ai vu ses yeux dans mes yeux J'l'ai croisé à la Rose, je lui ai offert une rose Je lui tends la main, j'la fais rentrer dans le jeu J'suis love de elle mais elle se marie pas avec les traficantes Traficantes J'suis love de elle mais elle se marie pas avec les traficantes Traficantes</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Traîner dehors</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Et nous on a grandi sans gêne On shabitue à toutes nos peines Et combien dentre vous nous comprennent On a tous traîné dehors, traîné dehors, traîné dehors On a tous vu cet homme aller taffer à laube Il fait pas laumône pour nourrir ses mômes À chacun son destin, à chacun son rôle Tous ces chefs de famille portent sur leurs épaules On a vu cette femme, SDF égarée Son chariot est rempli de souvenirs du passé Elle traverse les saisons, traverse les années Le visage plein de sillons, la vie laura marquée cher On vit ensemble cette époque On est en sang quand on perd lun de nos proches Cest ce monde, cest le nôtre Qui na pas vu la drogue venir nous ravager Qui na pas vu sa chance un jour lui échapper Il voit pas la nuit, il voit pas son fils Il voit pas quon est unis, jten prie mon ami Essaie de rester réglo, on est ensemble On ne senterre pas tout seul Réglo, on est ensemble On ne meurt pas tout seul Essaie de rester réglo, on est ensemble Tu ne vis pas tout seul Réglo, essaie de rester réglo Et nous on a grandi sans gêne On shabitue à toutes nos peines Et combien dentre vous nous comprennent On a tous traîné dehors, traîné dehors, traîné dehors Et nous on a grandi sans gêne On shabitue à toutes nos peines On a tous traîné dehors, traîné dehors, traîné dehors On a traîné dehors comme le facteur On a tous remercié le docteur Qui na jamais regretté? On est tous vrais, on est tous menteurs On est ensemble quoi quil arrive On veut le bien pour nos ptites surs Qui na pas voulu être footballeur? On a tous vu la daronne en pleurs Mais bon toutes nos idées doivent pas nous diviser Quelles que soient tes origines Paix à ces orphelins, qui nont pas de repères Estime-toi heureux, car certains vivent lenfer Qui nvoit pas la Lune, qui nvoit pas sa fille Qui nvoit pas quon est unis, jten prie mon ami On a tous traîné dehors, la richesse est dans nos différences papé Faut donner pour recevoir, faut recevoir pour donner, tu lsais Reste réglo, yeah, reste réglo...</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Training Day</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Tu veux me clash, c'est une sale idée J'vais t'sortir la guitare de Johnny Hallyday Gros bâtard t'es un lâche, pourquoi j't'ai validé? J't'oublie quand j'fais du cash ou quand j'claque pour m'habiller Christian Dior, LV ou Prada Branche moi le micro wallah que je tue la prod Tu crois que je dors, j'suis avec ta madame Le quartier est mort car les tipeu n'ont pas d'âme Gros c'est l'destin Bang bang il en reste un Bébé fais moi festin Que j'me remette en question T'as une fiche de recherche ? Personne te recherche Pas un dans les poches Oh que ta vie est moche Je fais du training everyday Pour le mériter Le produit est d'qualité Servi en petite quantité Zone de précarité Beurre de karité Ils sont en crise d'identité Laisse les tous nous imiter Every-everyday Oh, every-everyday Oh, every-everyday Je fais du training everyday Tu t'prends pour Otide J'vise la carotide 36 ans j'suis rookie Après moi y'aura qui? Qui va s'repoudrer le piff Wallah ils sarrêtent pas On va t'hagar pour le kiff On a de bons avocats Yeah cramé dans le secteur J'ai pas choisi cette guerre J'ai pas voulu son cur J'ai pas connu mon père Trop de vulgarité Défie les autorités A croire qu'on est habité Nah Sheitan j'ai des tas d'idées Mais c'est l'destin Bang bang il en reste un Bébé fais moi festin Que j'me remette en question T'as une fiche de recherche ? Personne te recherche Pas un dans les poches Oh que ta vie est moche Je fais du training everyday Pour le mériter Le produit est d'qualité Servi en petite quantité Zone de précarité Beurre de karité Ils sont en crise d'identité Laisse les tous nous imiter Every-everyday Oh, every-everyday Oh, every-everyday Je fais du training everyday</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Tu es dans Pain (Remix)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Alonzo, papé KI2F Kiff No Beat La Cote d'Ivoire, on vous reçoit 5 sur 5 Comorien nouveau Ivoirien nouveau Africain nouveau Dis-leur Quartier Nord de Marseille Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu rappes fort fort, tu n'as rien Pas de cachet, tu es dans pain Tu es dans pain, tu es dans... woof Tu es dans skurt skurt skurt Tu es dans skurt skurt skurt Dans le coin V.I.P on vous monte en l'air, mettez vous tous à la queuleuleu On vient de la Terre Mère on va te niquer ton père tu peux appeler ton baveu Tu parles comme une meuf, quand t'as vu les keufs t'es vite passé aux aveux salope 2 minutes dans le club, je soulève ta reus et je repars en tête à queue Dom Périgon, ne fais pas le mignon Car elle peut vite finir dans ta face Et ne me parle pas de religion Alors qu'autour de toi y'a que des 'tasses Tu chauffes vite on nique la fête Mauvaise équipe, balle dans la tête Ici XXX, les XXX s'allument Audoubillah, c'est pas Phuket Dans le coin de ma rue, les botanistes XXX surveillés par les Bleus Dans le coin de ma rue, si y'a pas de client ça devient très vite ennuyeux Si tu gigotes, on te ligote Et ta grand-mère on la nique à deux 2 minutes dans le bar, 10000 eu sur la table je fais patiner mes pneus Tu es dans pain, tu payes en chèque Baisse les yeux quand tu rentres au tièks C'est la gue-guerre pour des kopecks J'ai la calèche XXX sur le gros pec GSXR, intégral casque Pute derrière, intégral casque Cul légendaire, gros comme la Terre Y'a de quoi faire, c'est moi qui la casse Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu es dans pain, tu es dans pain Tu rappes fort fort, tu n'as rien Pas de cachet, tu es dans pain Tu es dans pain, tu es dans... woof Tu es dans skurt skurt skurt Tu es dans skurt skurt skurt Cote d'Ivoire Comores On mange les alocos dans la même assiette papé En France les MCs rappent fort fort mais ils ont pas de quoi s'acheter une baguette T'es dans pain Foumbouni, Foukouni, La poste L'Entreprise Villageoise Woh, ze-trei1</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Tueur à gages</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Foumbouni Yeahoh Ok J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe J'fais des hits dansants, t'as cru que j'étais mort, tu me connais dans l'son, j'peux te niquer tes morts Frère, on est pas ensemble, j'suis un gameur, j'ai une vue d'ensemble, je sème la terreur J'suis en concert ou bien sur le ter-ter, dans le cul de ta mère, je fais l'hélicoptère J'écoute tes titres, j'me nourri de rancur, encore une zumba, je fais danser ta sur Black Panther, black planteur, opinel, Opinel dans la promenade C'est les quartiers Nord, ça dégoupille les grenades, j'passe pas la ligne, Jack au miel et limonade La zone dit fais-le, wallah, dis-moi, c'est qui eux ? Ils parlent, c'est des peureux, rafale dans les délais Je rappe comme un dimanche à la cité, j'suis un Raptor, fais du bruit à pas d'heure, basta, fais mieux J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe À bon entendeur, j'vous kil même sur du tango, esclave donc j'ai le ginga Bouge ta caisse, t'as calé sur la route du succès, moi, j'ai pas l'temps, j'veux la victoire Tu m'refais, je passe à autre chose, j'ai des milliers de flows, khey, je suis refais Arme à feu, quartier dangereux, demande à ton pote de finir le couplet Je suis le véritable, je vais aller mollo-mollo, ils sont inimitables parce que c'est des gigolos Ne viens pas à ma table, j'invite que des gros lolos, c'est nous la rue, on est jamais en mode économe Ils vont en parler encore, encore, dis-moi où est ton mentor, mentor J'ai même pas levé le manteau, manteau que je vous ai mis tous d'accord, hardcore, t'es mort J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé J'suis un tueur à gages né Tu vas te prendre la rafale, je rappe en ruskov, papé Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe Mes Como', on est dans l'sas La brr-brr, tout est dans l'sac Élégant même quand on chasse On a mis les gants, on est sous frappe1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Tu vas parler</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ils sont pleins de nanani, nanana... Wallah Il a ci, il a ça, c'est vrai ? Non Dis Wallah ? Non Est-ce qu'il a des sous ? Combien il a dans son compte ? Est-ce qu'il rappe encore, dis-moi, depuis qu'il a fait un flop ? C'est un chaud pour de vrai, chez qui il est signé ? Est-ce qu'il est respecté ? Est-ce qu'il a déjà tiré ? Tu vas parler, tu vas parler, on entend qu'il prend la coke Qu'il s'est taillé au Maroc, qu'il a balancé son pote Qu'en prison il fait la pute, que sa cité l'a banni Tu dis la vérité, est-c'qu'il a déjà braqué ? Tu vas parler, tu vas parler, à la mosquée le vendredi À la Jonquera le samedi, que c'est un Illuminati Qu'il a trafiqué ses vues, que son ex l'a ruinée Qu'il prend tout à crédit, que sa Rolex n'est pas vraie, tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi C'est que du cinéma Kassim a fait ci, Kassim a fait ça C'est le haramiste de la Psykatra J'ai invité Booba, je sais qu'tu vas parler Dans mon album y'a pas Sopra, tu vas encore plus parler Tu vas parler, tu vas parler, dix ans qu'il passe à la radio Je l'ai vu rouler en Clio, tatoué, ce n'est pas un como' Sa place elle est prise par Jul, je l'ai vu au bar, il coule Il parle que du quartier, il s'est jamais fait embarquer Tu vas parler, tu vas parler son groupe c'est du commercial Ca rappe plus c'est de la chorale, ça marche plus, il ne sont plus al' C'est peut être de la faute à Alonzo, il fait que s'empéguer Il a trop changé, depuis qu'il a divorcé, tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi, ils me connaissent pas, c'est que des mythomanes Quoique je fasse, je sais qu'tu vas parler Starfallah, ils parlent tous de moi C'est que du cinéma Il t'a dit qu'il m'a dit qu'on parlait de moi Elle t'a dit qu'elle m'a dit qu'on parlait de toi Je dirais Dieu pour tous et chacun pour soi Téléphone arabe, débranchez moi Je sais pas pour combien de temps je suis là Tout ce que je sais c'est que tu nous atteins pas On mettra le feu à ta grosse langue de bois 25 juillet je suis un lion, je n'aboie pas 25 juillet je suis un lion, je n'aboie pas Je n'aboie pas8</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Urgence</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Bienvenue dans la misère de l'époque Trop loin de la Mecque, trop près des blocks Le dans la tête, les chevilles dans la merde On négocie pas avec le diable quand on souffre grave Papy les vrais le savent sa vie comme un live d'hardrock ou pas d'symphonie À force de goûter la , tu frises la folie Rien n'est aboli, on subit lembolie sentimentale Dans le scandale, braque l'harmonie Armes à feu, larmes aux yeux aux cieux ont retournera tous car on appartient tous à Dieu man Yeah, rien à foutre d'être J'rappe pour cette putain d'jungle Et c'est les lions qui m'acclament C'est le peuple qui réclame Les hauts placés c'est des malhonnêtes Des incapables à la même table, tous des marionnettes Et dans l'fond, y'a combien de rêveurs qui l'savent ? Combien ont écrit leurs vies sur l'sable ? J'suis né à la même année qu'la sortie d'Thriller Un an après la mort de Marley À l'époque dans les blocks c'était Mick Jagger Blacks, blancs, beurs mineurs Confrontés aux seringues, à la taule et à la sur qui pleure Y'a urgence depuis miss Depuis la bouteille de consigne C'est les mêmes raisons qui font qu'le sang pisse Malgré tout ça on regrette le temps Où avec peu on faisait beaucoup sans artifice Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse Sache que toutes tes erreurs du passé te suivront à jamais Jardin d'Eden ou cramé, quel est l'humain à blamer ? Celui qui marche droit ou ? S'mettre plein ou s'pommer ? Quel est le but ? S'mettre bien ou s'plumer ? Car pour un rien tu peux t'faire allumer Marche ou crève, mentalité du bled On excuse plus on tue Et c'est ton avocat qui plaide Malgré la vertus, l'amertume rend la vie laide On s'endurcit au beau milieu des dilèmes Dans nos lifes pas d'raccourcis, juste faire face aux problèmes Bon Dieu l'homme est si faible Tous à l'écorce avant de voir la sève Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse ... ... Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse Quoiqu'il arrive, on reste liés à la rue Lis dans nos yeux, tu pourra y voir de la tristesse Y'a personne encore qui nous a convaincu d'quitter l'rap Où d'partir d'où l'on vient en vitesse Prison, mort, trop d'péripéties Du sud au nord, trop d'péripéties Quoiqu'il arrive Prison, mort, trop d'péripéties, tout s'précipite Du sud au nord, trop d'péripéties Ghost Dog, Sale Équipe, Alonzo Tu rigoles ou quoi ? Les temps modernes c'est universel misery papé Fallait pas inventer le rap Ghost, Sale Équipe, allons-y</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Vaillant</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>J'retourne ma veste que quand y'a la shmitture Tu fais la princesse, mais tu sens la friture Tu veux mon adresse, 13.0.15 bitume Fais pas de grand geste, on le porte à la ceinture Frère combien tu chausses ? T'as pas l'air d'une grosse pointure L'hiver j'suis en short, comme Pogba j'fais une teinture Ta montre elle est fausse, elle donne pas l'heure du tur-fu J'te jure sur les gosses, on va t'mener la vie dure, c'est sûr On sait bien qui sont les ingrats On sait tous qui sont les lances-ba Qui te relève quand t'es au plus bas ? Être un vaillant ça s'invente pas J'rappe pour de vrai où sont mes négros ? Dans la rue on sait qui fait l'boulot Y'a réseaux sociaux et réseaux d'bédo Même dans le noir on fait briller l'espèce Appel de phares elle veut m'allumer Qui t'a validé? J'vais t'annuler Viens pas nager où tu n'as pas pieds Vingt bouteilles, on va noyer le carré Tout le monde est contre nous On s'en bat les couilles on a des sous Le couz' tu dis à ta folle Te quiero À qui tu crois la faire à l'envers ? Chaque fois qu'tu m'dois des sous t'es plus là Chaque fois qu'il y a embrouille t'es plus là J'ai besoin de toi, tu décroches pas Si j'rentre en prison tu seras plus là On sait bien qui sont les ingrats On sait tous qui sont les lances-ba Qui te relève quand t'es au plus bas ? Être un vaillant ça s'invente pas J'rappe pour de vrai où sont mes négros ? Dans la rue on sait qui fait l'boulot Y'a réseaux sociaux et réseaux d'bédo Même dans le noir on fait briller l'espèce Y'en a Des sous y'en a Y'en a Même dans le noir on fait briller l'espèce J'gagne trente fois le salaire à ton père Et tu m'insultes dans les commentaires Au quartier tu marches le cul par terre À qui tu crois la faire à l'envers ? Chaque fois qu'tu m'dois des sous t'es plus là Chaque fois qu'il y a embrouille t'es plus là J'ai besoin de toi, tu décroches pas Si j'rentre en prison tu seras plus là On sait bien qui sont les ingrats On sait tous qui sont les lances-ba Qui te relève quand t'es au plus bas ? Être un vaillant ça s'invente pas J'rappe pour de vrai où sont mes négros ? Dans la rue on sait qui fait l'boulot Y'a réseaux sociaux et réseaux d'bédo Même dans le noir on fait briller donc Tisez, tisez Tisez, tisez Tisez, tisez Ce soir c'est pour el Capo donc Tisez, tisez Tisez, tisez Tisez, tisez Ce soir c'est pour el Capo négros Tisez, tisez Vaillant Vaillant Voyou5</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>VALLON DES AUFFES</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>HuFel on the beats Papé Miller J'vais tout niquer, fais pas l'étonné, il me faut les détonner, oh Mamé Ici, personne te connaît, oh Rah, arrêtez de mitonner, baba Et tu peux venir tout vitonner Pah, ici personne te connaît, oh Pah, pah Tu peux pas nous détourner, oh Breh, breh, arrêtez de mitonner, baba Un sac Un, deux sacs Deux, plein d'mape' Ouais Transac' Breh, par back Breh, on va te tarter Pah, pah Ça descend en été vers Marseille, même sous braclet Faut récupérer la cuite d'la ville, on s'voit vers les quartiers Nord Non, non, non, j'vais pas avaler ça Ouais, j'vais pas perdre la tête, j'vais pas parler seul Ouais, ouais J'ai des démons comme tout le monde, me met pas le seum Nah Organisé comme le treize, on avance pas seul Yeah Y a plus de tête à tête Ouais, ouais, on est partout comme la Passat Ouais Ici, y a tout pour faire ta fête Ouais, on va pas s'battre avec tout ça, non, non Jme pose en bas d'chez moi, j'vis la nuit, fuis le jour Pah, pah Ah ouais, ah ouais, ah ouais Pah, pah Pendant que le temps passe Breh, breh Jvoulais faire comme les grands prendre la vie sans amour Ouais Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais Dans le binks, on danse, on danse Pah, pah Dans le binks, on danse, on danse Pah, pah Ah ouais, ah ouais, ah ouais Rah Ah ouais, ah ouais, ah ouais Ouais Dans la caisse, chacun sa place Pah, pah On s'déplace, on paye en cash Pah, pah Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais Jconnais déjà la misère, j'déserte la zone en hiver Tu m'vois pas sous la visière, j'suis d'jà très loin dans les airs Oh Je déjeune au Vallon des Auffes, je m'en fous de lavis des autres, frère En deux-trois mouvements, je m'isole, j'ai deux-trois piste en Isère Oh Je suis dans l'auto, poto, sous Gelato Sous Gelato J'vais soulever la coupe comme le Sénégal Sénégal Si ils t'lâche samedi, c'est que t'as eu la boco La boco Un traître en moins, en vrai, ça f'ra pas de mal De mal Jme pose en bas d'chez moi, j'vis la nuit, fuis le jour Pah, pah Ah ouais, ah ouais, ah ouais Pah, pah Pendant que le temps passe Breh, breh Jvoulais faire comme les grands prendre la vie sans amour Ouais Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais Dans le binks, on danse, on danse Pah, pah Dans le binks, on danse, on danse Pah, pah Ah ouais, ah ouais, ah ouais Rah Ah ouais, ah ouais, ah ouais Ouais Dans la caisse, chacun sa place Pah, pah On s'déplace, on paye en cash Pah, pah Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais Ah ouais, ah ouais, ah ouais</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>V.D.S V.D.V</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Quattro, marné Le Capo dei Capi, papé Yeah, yeah Vie de star ou vie de voyou Disque d'or ou vie de voyou Dis-moi mon sin-sin, ten es où ? Quattro, marné, yeah, je resserre les rangs, les dents, nique sa mère les gens ouais, ouais Billets verts dans la boîte à gants, la mano pleine de sang ouais, ouais C'est pire qu'un film dhorreur, mon secteur sur Deezer ouais, ouais On se drogue avec des fleurs, on mt tout dans l'grinder ouais, ouais Une cote sur Winamax max, Aral' sur l TMAX MAX J'ai touché la bavette, sur la N2 jusqu'à Aix aix Ligaments croisés, quel malheur, tu devais signer à l'Ajax Gros bolide, dans les bras d'une belle influenceuse 'ceuse Prête-moi du feu, jallume un teh, je vide ma tête, tu vides la teille J'ai pas sommeil, y a pas dsoleil, y a les bacqueux, on est dans l'jeu Pourtant on joue pas, on va t'casser les jambes J'suis léwé, jrime à jeun, des couplets d'plus dans la légende, rah Vie de star ou vie de voyou Disque d'or ou vie de voyou Dis-moi mon sin-sin, t'en es où ? Han-han, han-han Vie de star ou vie de voyou Disque d'or ou vie de voyou Dis-moi mon sin-sin, t'en es où ? Han-han, han-han Arrête de jacasser, la marche arrière est cassée Bats la race de ton casier ou que t'es fait tasé Cheveux longs ou crâne rasé, peu importe, on va t'baiser D'être un bon mec j'essaie, j'suis qu'un Comorien vexé La nouvelle géné' devient fou, enlève-moi vingt ans, j'nique tout On n'est plus en 2012, pas le temps de chahad, clic, boum Donne pas ton adresse, même pas à ta maîtresse Donne pas ton adresse, même pas à ta maîtresse ouais, ouais Y a le van, y a les fans, y a les femmes han-han-han La détaille, la guitare, le mitard han-han-han Fais ton choix, ouais Pablo n'a jamais chanté À la barre, faudra pas venir chanter han-han-han Vie de star ou vie de voyou Disque d'or ou vie de voyou Dis-moi mon sin-sin, t'en es où ? Han-han, han-han Vie de star ou vie de voyou Disque d'or ou vie de voyou Dis-moi mon sin-sin, t'en es où ? Han-han, han-han Menottes en or blanc, assis sur le banc Lunettes Cartier, le quartier dans le sang J'ai perdu mon temps à gagner d'l'intelligence On veut faire de l'argent et ça, depuis longtemps Menottes en or blanc, assis sur le banc Lunettes Cartier, le quartier dans le sang J'ai perdu mon temps à gagner d'l'intelligence On veut faire de l'argent et ça, depuis longtemps</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vérifie</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Que du sale ici, vérifie Tout peut arriver, on les terrifie C'est la vérité, vérifie Tout est mérité Trop hard direct, j'démarre tout pète Tier-quar, poussette, Arai, gâchette 4x4, compet, khabat, pompette Tchawa, claquette, Dubai, cachette Patate, Leveque, vodka, cul-sec Pétasse, Q7, Moza au Fouquet's Kala', zipette, lope-sa, sucette Mitard, branlette, hectare, j'achète Gova, doublette, go fast, A7 Air Max, Patek, Air Max, Patek Promenade, cutter, poucave, par terre Fouteur de merde, scooter de mer Plan d'Aou, Joliette, kichta, violette Y a quoi surette ? Jamais j'm'arrête Survet, boulette, recette, racket Je leur fais the guerre, même dans désert Histoire d'un frère contre un autre frère Histoire d'un fier contre un autre fier Que du sale ici, vérifie Tout peut arriver, on les terrifie C'est la vérité, vérifie Tout est mérité Plan d'Aou, la Castellane, la Savine, Consolat, la Bricarde Les Aygalades, la Granière, le Castelas, les Bourrely La Paternelle, le Parc Kalliste, la Gavotte, les Lauriers Les Cèdres, les Cyprès, les Oliviers, Val Plan, la Dégu', le Clos Les Iris, Petit Séminaire, Frais Vallon, Corot, Belle Vue Saint-Paul, les Mimosas, la Renaude, le Mail, les Flamants, la Soli Les Bleuets, la Maison Blanche, la Méditerranée, Saint-Gabriel Les Marronniers, Picon, la Visitation, Bassens, les Créneaux Les Tilleuls, le Vieux Moulin, Belle de mai, la Villette, Saint-Lazare L'Obélisque, la Soude, la Cravache, la Capelette, Benza La Mazenode, Bosquet, la Millière, la Rouguière, Valbarelle, Saint-Thys Barriol, la Cayolle, les Rosiers, les Lilas, l'Estaque, Font-Vert Felix Pyat, Saint-Jean de la Puenta, le Quart, Saint-Mauront La Sauvagère, la Marine Bleu, Air Bel, Busserine, la Viste Cours Julien, Campagne-Lévêque, la Maurelette, Balustres, les Tourterelles Le Panier, les Carmes, la Fac, Belsunce, la Plaine, Noailles, l'Opera Et tous ceux que j'ai pu oublier</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Véritable</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Spike Miller Je suis véritable Cest Alonzo, cest Alonzo Vis ma vie, je suis véritable Cest Alonzo, cest Alonzo Prends la fuite Le danger vient de droite, le danger vient de gauche Il vient même par les airs, écoute mon son de cloche Nouvel ordre mondial, 20 kilos de chnouf Dans des prothèses mammaires, à convertir en cash Jfume trop de teush, mais jai la mémoire fraiche Wesh, moi jrap pas à blech, pendant quon mange chouf Alonzo, Alonzo, mouille pas sur la mèche Ça va exploser, prends tes ptites surs et tes nièces Yes, no stress, si tes un chien lèche Moi jsuis un lion, jai pas dplace dans une niche Chiche on s'marie, chéri, Ich liebe dich Jdemande ta main par satellite sur ton Berry Torch Proche de ma mère, jlui reproche pas dmenvoyer Disque dor sur disque dor en plus jremplis mes cabas Marseille ! Ouais ouais ouais, ouais cest Baltimore, la kalash en fond sonore Ambiance satanique, ça promet, Seigneur Un environnement instable, une jeunesse incontrôlable Cest la vie Les MCs racontent beaucoup de choses dans leurs raps Mais comme dit mon pote Malo Cest des journalistes Je suis véritable Cest Alonzo Véritable Cest Alonzo Véritable Cest Alonzo Vis ma vie, je suis véritable Cest Alonzo Véritable Cest Alonzo Véritable Cest Alonzo Prends la fuite One-one-one-one-one, depuis lépoque de Ill, je ne suis plus padawan Rappeur pourquoi tu prêches ? La musique cest haram Autant quun marseillais qui supporte léquipe de Paname Mais bon ça reste du foot, wesh Ça ramène pas les couches, à mon fiston Milan Jlui donnerai mes organes, jsuis son crash-test Pour son confort, jirai en cabane, que mes couilles en témoignent Au nom de mon père, de mon fils et du saint Qur'n Quand le diable gagne Quand le diable gagne ! Il me sert la poigne, jprends lépargne de mon foyer Jle flambe pour me saouler Les ambulances venez, un jour faudra mréanimer Les derniers restront derniers, si jméloigne, je vais me noyer Yeah ! Trashhh comme Rutti, jreste au club comme Totti Tous les chemins mènent à Roma, jveux pas dlinceul Gucci Appelles-moi jeune père, jeune frère, jeune oncle Jeune, cherche la monnaie, jeune black, jeune Paul Shark ! Un environnement instable, une jeunesse incontrôlable Cest la vie Les MCs racontent beaucoup de choses dans leurs raps Mais comme dit mon pote Malo Cest des journalistes Je suis véritable Cest Alonzo Véritable Cest Alonzo Véritable Cest Alonzo Vis ma vie, je suis véritable Cest Alonzo Véritable Cest Alonzo Véritable Cest Alonzo Prends la fuite Véritable, véritable, véritable Je suis véritable, véritable, véritable Je suis véritable, véritable, véritable Véritable, véritable, véritable</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Y’a pas de thème</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>A.L.O.N.Z.O de la Psykatra de la Rimia papé ! Dis-leur... Enh Enh Enh, Enh Enh Enh, Enh Enh Enh Enh Enh Enh, Enh Enh Enh Hey c'est Guinomo ! Guinomo ! Hey c'est Guinomo ! Guinomo ! Hey c'est Guinomo ! Guinomo ! Hey c'est Guinomo ! Hey c'est... Applaudissez le jeune du XXIe siècle Élégant dans sa démarche, délinquant dans sa manière de voir le monde terrestre On t'mord le bras si tu donnes les restes Fais pas l'geste, on mange avec les yeux au pays des duchesses Il est venu le temps des casques intégral, mesdames L'argent a fait de nous des vaillants chevaliers du drame Embrasse le globe avec ton gloss, c'est le nouvel ordre Code-barre sous la nuque des hommes Fuck l'État, le système, je suis le gasoil du système J'confonds ma gauche et ma droite miss Le Pen Pour avoir les rênes c'est le gang bang, nique ta mère, cochonne J'suis violent gratuitement comme les programmes d'Endemol en plein aprèm' Les esclaves modernes achètent des Cayenne La BAC consomme plus de pollen que les étudiants en B.A.C N'essaie pas de mettre un thermomètre dans le cul du peuple Sa température va t'choquer, ok Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat La tête pleine, et ci et ça J'suis en train de serrer, l'anonymat Embrasse-moi j'étouffe baby, tu veux quoi? La France n'entend pas mes maydays, j'mets les voiles Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat Papé, non, y'a pas d'thème, c'est moi le thème Écoute le timbre, je déteste le futur gendre Gamberge à l'ancienne à l'heure où y'a des curs en vente À l'heure où ils songent à m'mettre ma CMU sous ma peau Ahah, dzz, un taser et un flashball C'est d'ça qu'elle a besoin Julie Lescaut Élevé au couscous et au riz, à quinze ans gros gabarit Pas besoin d'équations pour compter le pactole c'est la folie, faut l'vivre Souvent on triche, on fume, on s'enfuit un court moment Comme dit Ali La vie c'est une lutte, maman Certains l'enculent jusqu'à l'orgasme, c'est la fin des temps Attends qu'j'tombe les rapports qu'j'ralentisse avant d'finir marbré Qu'on retrouve ma conscience en pièces détachées La cervelle endommagée, j'ai trop pêché Tous les soirs j'meurs, le matin Dieu vient me ressusciter J'ai pas la paix intérieure, j'sais que chanter, ok Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat La tête pleine, et ci et ça J'suis en train de serrer, l'anonymat Embrasse-moi j'étouffe baby, tu veux quoi? La France n'entend pas mes maydays, j'mets les voiles Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat Tout le monde veut s'allumer, tout le monde veut se la mettre C'est la fin des haricots, y'a plus d'lovés J'reçois cinq sur cinq Aubervilliers, on va s'faire braquer par des chars Le gouvernement est agité, ils veulent qu'on marche au pas Qu'on s'tue entre nous comme Suge Knight et 2Pac Qu'on tourne en rond, près d'chez nous sans rien voir, lies stand Qu'ils aillent se faire foutre, qu'ils crèvent tous la bouche ouverte Moi pour l'instant j'attends le seum du passeur Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat La tête pleine, et ci et ça J'suis en train de serrer, l'anonymat Embrasse-moi j'étouffe baby, tu veux quoi? La France n'entend pas mes maydays, j'mets les voiles Y'a pas d'thème, pas d'cinéma J'suis dans la mêlée, délicat</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Y’a rien à faire</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Ton mec est taillé comme une armoire, on s'en bat les couilles On a l'habitude de déplacer des meubles avec les douilles La musique de Dark Vador, on a pris quarante Grey Goose Que des faibles parmi vous, la ce-for est avec nous Si t'es jaloux y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire Si tu fais zehma on te remplace La chehma on la consomme sur place Mon équipe t'a validé Y'a trop de négros tu t'es dit qu'est-ce qui s'passe ? Entre nous trop de rivalités Hashtag MashAllahLaSolidarité Tu rappes mal, en plus tu sais pas t'habiller Mon frère, mais regarde-toi dans une glace Tu rêves que ton mari soit comme ton daron Mais est-ce que tu sais cuisiner comme ta daronne ? Bois d'Argent Dior, ça attire les schnecks J'suis en boîte avec Ghilas et tous les Fennecs F.F., à l'ancienne J'suis dans le Sud, paraît qu'ça caille à Auxerre T'as effrité ton shit sur mon CD Tu te la pètes parce que.... Ton mec est taillé comme une armoire, on s'en bat les couilles On a l'habitude de déplacer des meubles avec les douilles La musique de Dark Vador, on a pris quarante Grey Goose Que des faibles parmi vous, la ce-for est avec nous Si t'es jaloux y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire Attrape le taureau par les cornes et la femme par les hanches Mon vin est vieilli, aussi bien que ma revanche On dit qu'avant je faisais du rap engagé Laisse-moi faire ma grasse mat', on est dimanche J'regarde plus mes comptes, je m'la raconte j'ai pas honte Ton mec, c'est un meuble on le monte, on le démonte Paraît qu't'es dans la boîte, on t'a pas vu T'es comme un lit sans oreiller si t'as pas d'cul J'les aime belle et rebelle Oh, un choix de vie le zin Les chanteuses de RB françaises sont toutes éclatées Sinon j'les baiserai toutes même si.... Ton mec est taillé comme une armoire, on s'en bat les couilles On a l'habitude de déplacer des meubles avec les douilles La musique de Dark Vador, on a pris quarante Grey Goose Que des faibles parmi vous, la ce-for est avec nous Si t'es jaloux y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire Je sors de Foot Locker 10 paires ! J'sais pas combien il m'reste de points sur mon mis-per sa mère ! Tant qu'le buzz monte, super ! Si t'as une tête de schmitt crois pas qu'on va te vi-ser Il deuh là-ui-c' Pourquoi j'lui ai passé mon 06 ? J'paye ma Mercedes en billet 10 T'es bonne que sur Insta', oh que c'est triste J'ai trop de libido, accroche-toi aux rideaux J'crache partout, j'refais la déco ValérieDamidot Y'a beaucoup plus de bouteilles dans mon seau que dans ton frigo C'est sûr la ce-for est avec nous.... Ton mec est taillé comme une armoire, on s'en bat les couilles On a l'habitude de déplacer des meubles avec les douilles La musique de Dark Vador, on a pris quarante Grey Goose Que des faibles parmi vous, la ce-for est avec nous Si t'es jaloux y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire ooh Y'a rien à faire11</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Y’en a assez</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Abys One Rraah, rraah, rraah Y en a assez, y en a assez, y en a assez, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Sur le terrain, gros engin, que des mecs pleins, y en a assez Soleil plein, les problèmes pleins, Philipp Plein, y en a assez J'ai de la frappe, j'ai de la sape, vide ton sac, moi, je m'en tape Tu veux m'abattre ? Google Maps, j'vois qu'tu m'attaque, j'garde mon nafs J'ai la mentale, pas de pare-balles, je débite sale, accord parental T'es pas content ? Bah, nique ta maman, j'ai pas ton temps, y a de l'argent manquant Fais pas le gérant, t'es un ji3en, t'es un client, crédit pour du pollen Tu sais pas rapper, ne me demande pas un feat, wAllah, je vais te traumatiser devant ta chienne J'suis au tier-quar, avec Iznar, y a les motards, ces gros bâtards Fume un pétard, j'fais de la barre, dans une heure, j'ai rencard avec un gros boulard J'rappe mieux qu'toi, toi, toi, toi, toi, toi, toi, toi, toi, tutti, quanti De A à Z, comme un YZ, le game, je le mets en i M.A.R.S.E.I.2.L.E, c'est le Capo Dei Capi Un, deux, trois, soleil, le premier qui bouge, son frère, on le décapite Tu fais bronzette, tah à la jet set, on te rackette, AK-47 On compte la recette sur la banquette, tu fais la fête alors que tu as des dettes Ta meuf, une épave, toi, tye un cave, tu es en garde-à-v', que tu poucaves On est en D-Squared, semelles red et on se taille au bled enterrer ton cadavre Y en a assez, y en a assez, y en a assez, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Sur le terrain, gros engin, que des mecs pleins, y en a assez Soleil plein, les problèmes pleins, Philipp Plein, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Sur le terrain, gros engin, que des mecs pleins, y en a assez Soleil plein, les problèmes pleins, Philipp Plein, y en a assez La semengo est dans le Kinder, le donneur d'go est dans le viseur Balle dans mon dos, ça arrive en fyseur, tous en kandou, peur que du Seigneur Anti-bandeur, anti-suceur, tu mens rien, qu'tu deuh, tu t'manques nique ta soeur Ambiance électrique, j'crois qu'on marche sur des tasers, si la vie s'rait un film, tu s'rais mort dans le teaser J'fais un selfie avec ta gadji, c'est mon hazi, j'suis dans la 'sique Depuis hehzline, j'mets des Asics, nous, on agit, toi, tu t'agites Aventador cherche toréador, quartiers Nord, fuck les miradors J'traîne mes Nike Air dans tous les ter-ter, j'ai l'âge à ton père, j'suis en cheval de fer Ils sont jaloux, ils parlent de nous, ils ont pas un pour faire deux Ils sont si doux, le cur tout mou, j'les brûle de-spee comme mille eu' J'suis à Salou en Porshe Cayou avec mon sin-cou Soulou J'ai des clous sur mes Loubou', j'les camoufle, bambou dans ma queue J'ai rappé au tieks, j'ai rappé au hebs, sors ton album, j'sors ma mixtape Je n'me suis pas vu briller, j'ai percé les yeux fermés On remet ça, on remet ça, le volume 2 j'en suis à la moitié J'refais le temps pour le quatrième album, libérez Souleymane, Salon, bâtiment B Y en a assez, y en a assez, y en a assez, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Sur le terrain, gros engin, que des mecs pleins, y en a assez Soleil plein, les problèmes pleins, Philipp Plein, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Y en a assez, y en a assez, y en a assez, y en a assez Sur le terrain, gros engin, que des mecs pleins, y en a assez Soleil plein, les problèmes pleins, Philipp Plein, y en a assez T'attacher à moi, une mauvaise idée, c'est la fin du mois, tu n'peux plus retirer Les rappeurs m'tiennent la mano, j'les fais traverser J'veux une fille de joie, ma femme a ses gles-rè Quinze ans sur le ter-ter, on est dur en affaire, je sais les satisfaire mais je sais pas aimer Quinze ans sur le ter-ter, on est dur en affaire, je sais les satisfaire mais je sais pas aimer9</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Zouker</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker Le mzinga tue, tue, tue, tue Le mzinga tue, tue, tue, tue Tue-le Tueur à gages bosse, j'suis là Je clashe sans stress, wallah La Kalach' de la tess c'est moi 'Bats les couilles que tu pèses, j't'abats L'ambulance est là Je rappe trop la violence Lève-toi de la chaise, hara Le rap jeu, je le baise AK 2015, bilan j'dresse J'ai mis toute la ville en hass Sont touchés à la cèss bâtard Zin, combien il en reste ? La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker Le mzinga tue, tue, tue, tue Le mzinga tue, tue, tue, tue Tue-le J'suis une lash-Ka' killa Ferme là, je gâche de la... Que tout le monde le sache cette fois Je n'joue pas à cache-cache, j'suis là Quand je tire, tout l'monde danse Et ça zouke dans tous les sens Alonzo feat Nicols c'est la... J'rappe mes condoléances, y'a quoi ? Je réside dans le 13 J'suis au Jack, t'es à la cess, hmmm hmmm Quartiers Nord c'est la base, mwana, hmmmm hmm hmmm Tu parles, on t'nique ta race La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker La Kala' va te faire zouker, zouker, zouker, zouker, zouker, zouker Le mzinga tue, tue, tue, tue Le mzinga tue, tue, tue, tue Tue-le En billets, en monnaie En CB, en chéquiers En paquet, en sachet Payé, papé J'vais t'faire zouker, zouker, zouker, zouker Zouker, zouker, zouke J'vais t'faire zouker, zouker, zouker, zouker Zouker, zouker, zouke En billets, en monnaie En CB, en chéquiers En paquet, en sachet Payé, papé J'vais t'faire zouker, zouker, zouker, zouker Zouker, zouker, zouke J'vais t'faire zouker, zouker, zouker, zouker Zouker, zouker, zouke, y-yeah</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Alonzo</t>
         </is>
       </c>
     </row>
